--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4301,7 +4301,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
+      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11314,13 +11314,13 @@
         <v>825</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="24" t="s">
         <v>826</v>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="893">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3666,18 +3666,6 @@
   </si>
   <si>
     <t>Act_034_LDFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福利（小游戏）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3912,7 +3900,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4013,9 +4001,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4295,13 +4280,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
+      <selection pane="bottomRight" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10151,7 +10136,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11398,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11658,94 +11643,97 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="31">
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="19">
         <v>289</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="C290" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="E290" s="33">
-        <v>0</v>
-      </c>
-      <c r="F290" s="33">
-        <v>0</v>
-      </c>
-      <c r="G290" s="33">
-        <v>0</v>
-      </c>
-      <c r="I290" s="34" t="s">
+      <c r="D290" s="23" t="s">
         <v>873</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="C291" s="18" t="s">
+      <c r="B291" t="s">
         <v>875</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="C291" t="s">
         <v>876</v>
       </c>
+      <c r="D291" t="s">
+        <v>877</v>
+      </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>877</v>
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="31">
+      <c r="A292" s="19">
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>879</v>
+      </c>
+      <c r="C292" t="s">
+        <v>880</v>
+      </c>
+      <c r="D292" t="s">
+        <v>881</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
-        <v>879</v>
-      </c>
-      <c r="D292" t="s">
-        <v>880</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>881</v>
-      </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="31">
+      <c r="A293" s="19">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>882</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B293" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="D293" t="s">
+      <c r="C293" s="18" t="s">
         <v>884</v>
       </c>
+      <c r="D293" s="25" t="s">
+        <v>885</v>
+      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11755,8 +11743,8 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" t="s">
-        <v>881</v>
+      <c r="I293" s="24" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11786,18 +11774,18 @@
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="31">
+      <c r="A295" s="19">
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
         <v>889</v>
       </c>
       <c r="C295" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="D295" s="25" t="s">
-        <v>891</v>
-      </c>
       <c r="E295">
         <v>1</v>
       </c>
@@ -11808,32 +11796,6 @@
         <v>1</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="31">
-        <v>295</v>
-      </c>
-      <c r="B296" s="25" t="s">
-        <v>892</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="24" t="s">
         <v>736</v>
       </c>
     </row>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="909">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3509,10 +3509,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_030_CWLBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3747,6 +3743,72 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3831,7 +3893,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3868,6 +3930,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3900,7 +3974,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4001,6 +4075,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4280,13 +4381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C286" sqref="C286"/>
+      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5954,7 +6055,7 @@
         <v>190</v>
       </c>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -10136,7 +10237,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11264,7 +11365,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>819</v>
@@ -11334,30 +11435,30 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="19">
+    <row r="278" spans="1:9" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="D278" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="E278" s="37">
+        <v>1</v>
+      </c>
+      <c r="F278" s="37">
+        <v>1</v>
+      </c>
+      <c r="G278" s="37">
+        <v>1</v>
+      </c>
+      <c r="I278" s="38" t="s">
         <v>832</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="24" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11365,13 +11466,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11383,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11391,22 +11492,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>836</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11414,13 +11515,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11432,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11440,13 +11541,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11458,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11466,25 +11567,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>846</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11492,25 +11593,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>850</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11518,13 +11619,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>861</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -11544,25 +11645,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>857</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11570,13 +11671,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>863</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>864</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11596,13 +11697,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>865</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>866</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -11622,13 +11723,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>868</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="32" t="s">
         <v>869</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>870</v>
       </c>
       <c r="E289" s="33">
         <v>0</v>
@@ -11648,25 +11749,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C290" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="D290" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="D290" s="23" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
         <v>873</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11674,25 +11775,25 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>874</v>
+      </c>
+      <c r="C291" t="s">
         <v>875</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>876</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
         <v>877</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11700,14 +11801,14 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>878</v>
+      </c>
+      <c r="C292" t="s">
         <v>879</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>880</v>
       </c>
-      <c r="D292" t="s">
-        <v>881</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -11718,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11726,13 +11827,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="C293" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="D293" s="25" t="s">
         <v>884</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>885</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11752,13 +11853,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>886</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="D294" s="25" t="s">
         <v>887</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>888</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11778,13 +11879,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>889</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>890</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11797,6 +11898,130 @@
       </c>
       <c r="I295" s="24" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="19">
+        <v>295</v>
+      </c>
+      <c r="B296" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="C296" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="E296" s="41">
+        <v>1</v>
+      </c>
+      <c r="F296" s="41">
+        <v>1</v>
+      </c>
+      <c r="G296" s="41">
+        <v>1</v>
+      </c>
+      <c r="I296" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
+        <v>296</v>
+      </c>
+      <c r="B297" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="C297" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="D297" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="E297" s="41">
+        <v>1</v>
+      </c>
+      <c r="F297" s="41">
+        <v>1</v>
+      </c>
+      <c r="G297" s="41">
+        <v>1</v>
+      </c>
+      <c r="I297" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="19">
+        <v>297</v>
+      </c>
+      <c r="B298" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="C298" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="E298" s="41">
+        <v>1</v>
+      </c>
+      <c r="F298" s="41">
+        <v>1</v>
+      </c>
+      <c r="G298" s="41">
+        <v>1</v>
+      </c>
+      <c r="I298" s="42" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="19">
+        <v>298</v>
+      </c>
+      <c r="B299" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="C299" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="D299" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="E299" s="41">
+        <v>1</v>
+      </c>
+      <c r="F299" s="41">
+        <v>1</v>
+      </c>
+      <c r="G299" s="41">
+        <v>1</v>
+      </c>
+      <c r="I299" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="19">
+        <v>299</v>
+      </c>
+      <c r="B300" s="39" t="s">
+        <v>906</v>
+      </c>
+      <c r="D300" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="E300" s="41">
+        <v>1</v>
+      </c>
+      <c r="F300" s="41">
+        <v>1</v>
+      </c>
+      <c r="G300" s="41">
+        <v>1</v>
+      </c>
+      <c r="I300" s="42" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="921">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3810,6 +3810,95 @@
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>饺子换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
   </si>
 </sst>
 </file>
@@ -3974,7 +4063,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4102,6 +4191,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4381,13 +4476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomRight" activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4400,6 +4495,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -11732,13 +11828,13 @@
         <v>869</v>
       </c>
       <c r="E289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" s="32" t="s">
         <v>736</v>
@@ -12008,6 +12104,9 @@
       <c r="B300" s="39" t="s">
         <v>906</v>
       </c>
+      <c r="C300" s="40" t="s">
+        <v>917</v>
+      </c>
       <c r="D300" s="39" t="s">
         <v>907</v>
       </c>
@@ -12022,6 +12121,87 @@
       </c>
       <c r="I300" s="42" t="s">
         <v>908</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="19">
+        <v>300</v>
+      </c>
+      <c r="B301" s="43" t="s">
+        <v>909</v>
+      </c>
+      <c r="C301" s="44" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="E301" s="2">
+        <v>1</v>
+      </c>
+      <c r="F301" s="2">
+        <v>1</v>
+      </c>
+      <c r="G301" s="2">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2"/>
+      <c r="I301" s="44" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="19">
+        <v>301</v>
+      </c>
+      <c r="B302" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="C302" s="44" t="s">
+        <v>914</v>
+      </c>
+      <c r="D302" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="E302" s="2">
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <v>1</v>
+      </c>
+      <c r="G302" s="2">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2"/>
+      <c r="I302" s="44" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="19">
+        <v>302</v>
+      </c>
+      <c r="B303" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="C303" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="D303" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <v>1</v>
+      </c>
+      <c r="G303" s="2">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="42" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="920">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3815,64 +3815,25 @@
     <t>act_039_jzhhl</t>
   </si>
   <si>
-    <t>饺子换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_JZHHLManager</t>
   </si>
   <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
+      <t>12月21</t>
     </r>
     <r>
       <rPr>
@@ -4063,7 +4024,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4166,6 +4127,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4197,6 +4161,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4479,10 +4446,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D276" sqref="D276"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11338,13 +11305,13 @@
         <v>807</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
@@ -11482,29 +11449,29 @@
         <v>822</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="19">
+    <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="31">
         <v>275</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="32" t="s">
         <v>824</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="I276" s="24" t="s">
+      <c r="E276" s="33">
+        <v>1</v>
+      </c>
+      <c r="F276" s="33">
+        <v>1</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="I276" s="34" t="s">
         <v>826</v>
       </c>
     </row>
@@ -11531,29 +11498,29 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="34">
+    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="35" t="s">
+      <c r="C278" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="D278" s="36" t="s">
+      <c r="D278" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="E278" s="37">
-        <v>1</v>
-      </c>
-      <c r="F278" s="37">
-        <v>1</v>
-      </c>
-      <c r="G278" s="37">
-        <v>1</v>
-      </c>
-      <c r="I278" s="38" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11828,13 +11795,13 @@
         <v>869</v>
       </c>
       <c r="E289" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" s="32" t="s">
         <v>736</v>
@@ -11893,7 +11860,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="19">
+      <c r="A292" s="31">
         <v>291</v>
       </c>
       <c r="B292" t="s">
@@ -11971,7 +11938,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="19">
+      <c r="A295" s="31">
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
@@ -11996,104 +11963,104 @@
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>295</v>
       </c>
-      <c r="B296" s="39" t="s">
+      <c r="B296" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="40" t="s">
+      <c r="C296" s="41" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="39" t="s">
+      <c r="D296" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="E296" s="41">
-        <v>1</v>
-      </c>
-      <c r="F296" s="41">
-        <v>1</v>
-      </c>
-      <c r="G296" s="41">
-        <v>1</v>
-      </c>
-      <c r="I296" s="42" t="s">
+      <c r="E296" s="42">
+        <v>1</v>
+      </c>
+      <c r="F296" s="42">
+        <v>1</v>
+      </c>
+      <c r="G296" s="42">
+        <v>1</v>
+      </c>
+      <c r="I296" s="43" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="297" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>296</v>
       </c>
-      <c r="B297" s="39" t="s">
+      <c r="B297" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="40" t="s">
+      <c r="C297" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="39" t="s">
+      <c r="D297" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="E297" s="41">
-        <v>1</v>
-      </c>
-      <c r="F297" s="41">
-        <v>1</v>
-      </c>
-      <c r="G297" s="41">
-        <v>1</v>
-      </c>
-      <c r="I297" s="42" t="s">
+      <c r="E297" s="42">
+        <v>1</v>
+      </c>
+      <c r="F297" s="42">
+        <v>1</v>
+      </c>
+      <c r="G297" s="42">
+        <v>1</v>
+      </c>
+      <c r="I297" s="43" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="298" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="19">
+    <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="31">
         <v>297</v>
       </c>
-      <c r="B298" s="39" t="s">
+      <c r="B298" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="C298" s="40" t="s">
+      <c r="C298" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="E298" s="41">
-        <v>1</v>
-      </c>
-      <c r="F298" s="41">
-        <v>1</v>
-      </c>
-      <c r="G298" s="41">
-        <v>1</v>
-      </c>
-      <c r="I298" s="42" t="s">
+      <c r="E298" s="42">
+        <v>1</v>
+      </c>
+      <c r="F298" s="42">
+        <v>1</v>
+      </c>
+      <c r="G298" s="42">
+        <v>1</v>
+      </c>
+      <c r="I298" s="43" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>298</v>
       </c>
-      <c r="B299" s="39" t="s">
+      <c r="B299" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="40" t="s">
+      <c r="C299" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="D299" s="39" t="s">
+      <c r="D299" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="E299" s="41">
-        <v>1</v>
-      </c>
-      <c r="F299" s="41">
-        <v>1</v>
-      </c>
-      <c r="G299" s="41">
-        <v>1</v>
-      </c>
-      <c r="I299" s="42" t="s">
+      <c r="E299" s="42">
+        <v>1</v>
+      </c>
+      <c r="F299" s="42">
+        <v>1</v>
+      </c>
+      <c r="G299" s="42">
+        <v>1</v>
+      </c>
+      <c r="I299" s="43" t="s">
         <v>895</v>
       </c>
     </row>
@@ -12101,68 +12068,67 @@
       <c r="A300" s="19">
         <v>299</v>
       </c>
-      <c r="B300" s="39" t="s">
+      <c r="B300" s="40" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="40" t="s">
-        <v>917</v>
-      </c>
-      <c r="D300" s="39" t="s">
+      <c r="C300" s="41" t="s">
+        <v>916</v>
+      </c>
+      <c r="D300" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="E300" s="41">
-        <v>1</v>
-      </c>
-      <c r="F300" s="41">
-        <v>1</v>
-      </c>
-      <c r="G300" s="41">
-        <v>1</v>
-      </c>
-      <c r="I300" s="42" t="s">
+      <c r="E300" s="42">
+        <v>1</v>
+      </c>
+      <c r="F300" s="42">
+        <v>1</v>
+      </c>
+      <c r="G300" s="42">
+        <v>1</v>
+      </c>
+      <c r="I300" s="43" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="19">
+    <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="31">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="C301" s="44" t="s">
+      <c r="C301" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="D301" s="43" t="s">
-        <v>911</v>
-      </c>
-      <c r="E301" s="2">
-        <v>1</v>
-      </c>
-      <c r="F301" s="2">
-        <v>1</v>
-      </c>
-      <c r="G301" s="2">
-        <v>1</v>
-      </c>
-      <c r="H301" s="2"/>
-      <c r="I301" s="44" t="s">
-        <v>912</v>
+      <c r="E301" s="33">
+        <v>1</v>
+      </c>
+      <c r="F301" s="33">
+        <v>1</v>
+      </c>
+      <c r="G301" s="33">
+        <v>1</v>
+      </c>
+      <c r="I301" s="45" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="43" t="s">
+      <c r="B302" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="C302" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="D302" s="44" t="s">
         <v>913</v>
       </c>
-      <c r="C302" s="44" t="s">
-        <v>914</v>
-      </c>
-      <c r="D302" s="43" t="s">
-        <v>915</v>
-      </c>
       <c r="E302" s="2">
         <v>1</v>
       </c>
@@ -12173,23 +12139,23 @@
         <v>1</v>
       </c>
       <c r="H302" s="2"/>
-      <c r="I302" s="44" t="s">
-        <v>916</v>
+      <c r="I302" s="43" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="19">
+      <c r="A303" s="31">
         <v>302</v>
       </c>
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="C303" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="C303" s="43" t="s">
+      <c r="D303" s="44" t="s">
         <v>919</v>
       </c>
-      <c r="D303" s="43" t="s">
-        <v>920</v>
-      </c>
       <c r="E303" s="2">
         <v>1</v>
       </c>
@@ -12200,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="H303" s="2"/>
-      <c r="I303" s="42" t="s">
+      <c r="I303" s="43" t="s">
         <v>644</v>
       </c>
     </row>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="928">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3222,43 +3222,246 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>龙虾兑换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_LXDHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_xlxphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_XLXPHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_czlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiftCZLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_fcm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防沉迷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSFCMManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_009_yk_gz</t>
+  </si>
+  <si>
+    <t>Act_009_YKGZManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动：贵族月卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_011_yueka_new</t>
+  </si>
+  <si>
+    <t>新月卡</t>
+  </si>
+  <si>
+    <t>Sys_011_YuekaManager</t>
+  </si>
+  <si>
+    <t>act_026_bblb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_BBLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙虾兑换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_LXDHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_lxdh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_xlxphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙虾排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_XLXPHBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_czlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GiftCZLBManager</t>
+    <t>act_026_xrcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_XRCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_ZABDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_LMLHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_sgxxlyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_SGXXLYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTGXTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_tgxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_mfflq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_MFFLQManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_JQSHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_mfhf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_MFHFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_xycd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_XYCDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_ljyjcfk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPL_LJYJCFKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任务系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTaskManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3266,54 +3469,268 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_fcm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防沉迷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSFCMManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_009_yk_gz</t>
-  </si>
-  <si>
-    <t>Act_009_YKGZManager</t>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_029_hlqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_hd_zjm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_cwlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_CWLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqflManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_WXHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_GQFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星掉落脚本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_hd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动：贵族月卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_011_yueka_new</t>
-  </si>
-  <si>
-    <t>新月卡</t>
-  </si>
-  <si>
-    <t>Sys_011_YuekaManager</t>
-  </si>
-  <si>
-    <t>act_026_bblb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表白礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_BBLBManager</t>
+    <t>act_031_gqkl_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_GQKLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jjsl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_xyxyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXyxydManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_ybwl</t>
+  </si>
+  <si>
+    <t>一本万利</t>
+  </si>
+  <si>
+    <t>Act_035_YBWLManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡掉落需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_GELBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3321,151 +3738,61 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_026_xrcdj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人抽大奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_XRCDJManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_zabd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_ZABDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_lmlh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_LMLHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫礼盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_sgxxlyd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_SGXXLYDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐引导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTGXTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_tgxt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_jqshl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_mfflq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费福利券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_027_MFFLQManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_027_JQSHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_028_mfhf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_028_MFHFManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_028_xycd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_028_XYCDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_ljyjcfk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPL_LJYJCFKManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金抽福卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任务系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYTaskManager</t>
+    <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3473,367 +3800,98 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_029_hlqjd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_029_HLQJDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_hd_zjm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_cwlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_CWLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqflManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqkl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_031_WXHHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_GQFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_wxhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星掉落脚本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_hd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DHDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqkl_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_031_GQKLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_jjsl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSJJSLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_xyxyd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额福利券（跳转小游戏入口）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYXyxydManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_vip1ztlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1直通礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_033_VIP1ZTLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_xrzxlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XRZXGiftManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_034_LDFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_shtx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DSHTXManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_035_ybwl</t>
-  </si>
-  <si>
-    <t>一本万利</t>
-  </si>
-  <si>
-    <t>Act_035_YBWLManager</t>
-  </si>
-  <si>
-    <t>永久</t>
-  </si>
-  <si>
-    <t>act_035_jhs</t>
-  </si>
-  <si>
-    <t>聚划算</t>
-  </si>
-  <si>
-    <t>Act_035_JHSManager</t>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl_drop_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡掉落需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLDROPManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_gelb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_GELBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12dhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二兑换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12DHHLManager</t>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lhsjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二礼盒收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12LHSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lh_drop_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双12礼盒掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12LHDROPManager</t>
-  </si>
-  <si>
-    <t>act_038_by_and_cjj_conduct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <t>饺子换好礼→圣诞福利</t>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜 → 金元宝榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>12月21</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -3844,22 +3902,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日23:59:59</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>cjj互导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
+    <t>双十二页签→元旦活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3943,7 +4002,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3992,6 +4051,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4024,7 +4089,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4160,10 +4225,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4443,13 +4517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5141,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10300,7 +10374,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10415,7 +10489,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10953,30 +11027,30 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="19">
+    <row r="257" spans="1:9" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="49">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
-        <v>757</v>
+      <c r="E257" s="48">
+        <v>1</v>
+      </c>
+      <c r="F257" s="48">
+        <v>1</v>
+      </c>
+      <c r="G257" s="48">
+        <v>1</v>
+      </c>
+      <c r="I257" s="47" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10984,14 +11058,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C258" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D258" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="D258" s="18" t="s">
-        <v>760</v>
-      </c>
       <c r="E258" s="20">
         <v>0</v>
       </c>
@@ -11002,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11010,14 +11084,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C259" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="D259" s="18" t="s">
-        <v>764</v>
-      </c>
       <c r="E259" s="20">
         <v>0</v>
       </c>
@@ -11028,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11036,25 +11110,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="20">
+        <v>1</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>1</v>
+      </c>
+      <c r="I260" s="18" t="s">
         <v>767</v>
-      </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11062,25 +11136,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="20">
+        <v>0</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>1</v>
+      </c>
+      <c r="I261" s="18" t="s">
         <v>771</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11088,25 +11162,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>772</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D262" t="s">
         <v>773</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>774</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11114,13 +11188,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="18" t="s">
         <v>778</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>779</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11140,25 +11214,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C264" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="20">
+        <v>0</v>
+      </c>
+      <c r="F264" s="20">
+        <v>0</v>
+      </c>
+      <c r="G264" s="20">
+        <v>0</v>
+      </c>
+      <c r="I264" s="18" t="s">
         <v>782</v>
-      </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11166,13 +11240,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="C265" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="18" t="s">
         <v>785</v>
-      </c>
-      <c r="D265" s="18" t="s">
-        <v>786</v>
       </c>
       <c r="E265" s="20">
         <v>0</v>
@@ -11192,25 +11266,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="D266" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="E266" s="20">
+        <v>0</v>
+      </c>
+      <c r="F266" s="20">
+        <v>0</v>
+      </c>
+      <c r="G266" s="20">
+        <v>0</v>
+      </c>
+      <c r="I266" s="20" t="s">
         <v>789</v>
-      </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11218,25 +11292,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="D267" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="E267" s="20">
+        <v>0</v>
+      </c>
+      <c r="F267" s="20">
+        <v>0</v>
+      </c>
+      <c r="G267" s="20">
+        <v>0</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>793</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11244,13 +11318,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="D268" s="23" t="s">
         <v>795</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>796</v>
       </c>
       <c r="E268" s="20">
         <v>0</v>
@@ -11270,13 +11344,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C269" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>799</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>800</v>
       </c>
       <c r="E269" s="20">
         <v>0</v>
@@ -11296,13 +11370,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="C270" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C270" s="16" t="s">
-        <v>803</v>
-      </c>
       <c r="D270" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11323,13 +11397,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C271" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="D271" s="22" t="s">
         <v>805</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>806</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11350,25 +11424,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C272" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D272" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="E272" s="20">
+        <v>1</v>
+      </c>
+      <c r="F272" s="20">
+        <v>1</v>
+      </c>
+      <c r="G272" s="20">
+        <v>1</v>
+      </c>
+      <c r="I272" s="24" t="s">
         <v>810</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11376,14 +11450,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="D273" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>814</v>
-      </c>
       <c r="E273" s="20">
         <v>1</v>
       </c>
@@ -11394,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11402,14 +11476,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C274" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="D274" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="C274" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>817</v>
-      </c>
       <c r="E274">
         <v>1</v>
       </c>
@@ -11420,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11428,14 +11502,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C275" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>820</v>
-      </c>
       <c r="E275">
         <v>0</v>
       </c>
@@ -11446,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11454,25 +11528,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C276" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="D276" s="45" t="s">
         <v>824</v>
       </c>
-      <c r="C276" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="D276" s="46" t="s">
+      <c r="E276" s="33">
+        <v>1</v>
+      </c>
+      <c r="F276" s="33">
+        <v>1</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="I276" s="34" t="s">
         <v>825</v>
-      </c>
-      <c r="E276" s="33">
-        <v>1</v>
-      </c>
-      <c r="F276" s="33">
-        <v>1</v>
-      </c>
-      <c r="G276" s="33">
-        <v>1</v>
-      </c>
-      <c r="I276" s="34" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11480,22 +11554,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C277" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="24" t="s">
         <v>828</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11503,25 +11577,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="36" t="s">
-        <v>899</v>
-      </c>
-      <c r="D278" s="37" t="s">
+      <c r="E278" s="38">
+        <v>0</v>
+      </c>
+      <c r="F278" s="38">
+        <v>0</v>
+      </c>
+      <c r="G278" s="38">
+        <v>0</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>831</v>
-      </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="39" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11529,13 +11603,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11547,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11555,22 +11629,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>835</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11578,13 +11652,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11596,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11604,13 +11678,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11622,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11630,25 +11704,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>845</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11656,25 +11730,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>849</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11682,13 +11756,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>859</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>860</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -11708,25 +11782,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>856</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11734,13 +11808,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>862</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>863</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11760,13 +11834,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>864</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>865</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -11786,13 +11860,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="32" t="s">
         <v>868</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>869</v>
       </c>
       <c r="E289" s="33">
         <v>0</v>
@@ -11812,25 +11886,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="C290" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="D290" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="D290" s="23" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11838,25 +11912,25 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" t="s">
         <v>874</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>875</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
         <v>876</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11864,14 +11938,14 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>877</v>
+      </c>
+      <c r="C292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>879</v>
       </c>
-      <c r="D292" t="s">
-        <v>880</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -11882,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11890,13 +11964,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="D293" s="25" t="s">
         <v>883</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>884</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11916,13 +11990,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="D294" s="25" t="s">
         <v>886</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>887</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11942,13 +12016,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>888</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11968,25 +12042,25 @@
         <v>295</v>
       </c>
       <c r="B296" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="41" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="41" t="s">
+      <c r="D296" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="40" t="s">
+      <c r="E296" s="42">
+        <v>0</v>
+      </c>
+      <c r="F296" s="42">
+        <v>0</v>
+      </c>
+      <c r="G296" s="42">
+        <v>0</v>
+      </c>
+      <c r="I296" s="43" t="s">
         <v>894</v>
-      </c>
-      <c r="E296" s="42">
-        <v>1</v>
-      </c>
-      <c r="F296" s="42">
-        <v>1</v>
-      </c>
-      <c r="G296" s="42">
-        <v>1</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11994,25 +12068,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="C297" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="41" t="s">
+      <c r="D297" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="40" t="s">
-        <v>898</v>
-      </c>
       <c r="E297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12020,10 +12094,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="40" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C298" s="41" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="E298" s="42">
         <v>1</v>
@@ -12034,8 +12108,8 @@
       <c r="G298" s="42">
         <v>1</v>
       </c>
-      <c r="I298" s="43" t="s">
-        <v>902</v>
+      <c r="I298" s="41" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12043,25 +12117,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="40" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C299" s="41" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D299" s="40" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12069,13 +12143,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="40" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C300" s="41" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D300" s="40" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E300" s="42">
         <v>1</v>
@@ -12087,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="43" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12095,52 +12169,53 @@
         <v>300</v>
       </c>
       <c r="B301" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="C301" s="32" t="s">
-        <v>914</v>
+        <v>906</v>
+      </c>
+      <c r="C301" s="47" t="s">
+        <v>921</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>910</v>
-      </c>
-      <c r="E301" s="33">
-        <v>1</v>
-      </c>
-      <c r="F301" s="33">
-        <v>1</v>
-      </c>
-      <c r="G301" s="33">
-        <v>1</v>
-      </c>
-      <c r="I301" s="45" t="s">
-        <v>915</v>
+        <v>907</v>
+      </c>
+      <c r="E301" s="48">
+        <v>1</v>
+      </c>
+      <c r="F301" s="48">
+        <v>1</v>
+      </c>
+      <c r="G301" s="48">
+        <v>1</v>
+      </c>
+      <c r="H301" s="48"/>
+      <c r="I301" s="47" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C302" s="45" t="s">
-        <v>912</v>
-      </c>
-      <c r="D302" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1</v>
-      </c>
-      <c r="F302" s="2">
-        <v>1</v>
-      </c>
-      <c r="G302" s="2">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2"/>
-      <c r="I302" s="43" t="s">
-        <v>644</v>
+      <c r="B302" s="46" t="s">
+        <v>908</v>
+      </c>
+      <c r="C302" s="47" t="s">
+        <v>923</v>
+      </c>
+      <c r="D302" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="E302" s="48">
+        <v>1</v>
+      </c>
+      <c r="F302" s="48">
+        <v>1</v>
+      </c>
+      <c r="G302" s="48">
+        <v>1</v>
+      </c>
+      <c r="H302" s="48"/>
+      <c r="I302" s="47" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12148,13 +12223,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="44" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C303" s="44" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D303" s="44" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -12168,6 +12243,59 @@
       <c r="H303" s="2"/>
       <c r="I303" s="43" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="19">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>914</v>
+      </c>
+      <c r="C304" t="s">
+        <v>915</v>
+      </c>
+      <c r="D304" t="s">
+        <v>916</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="43" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="19">
+        <v>304</v>
+      </c>
+      <c r="B305" s="46" t="s">
+        <v>925</v>
+      </c>
+      <c r="C305" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="D305" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="E305" s="48">
+        <v>1</v>
+      </c>
+      <c r="F305" s="48">
+        <v>1</v>
+      </c>
+      <c r="G305" s="48">
+        <v>1</v>
+      </c>
+      <c r="H305" s="48"/>
+      <c r="I305" s="47" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="936">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3210,10 +3210,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>节日特惠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_025_JRTHManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3800,12 +3796,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
     <t>act_039_jzsjb</t>
   </si>
   <si>
@@ -3852,72 +3842,75 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>饺子收集榜 → 金元宝榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签→元旦活动</t>
+    <t>双十二页签→元旦活动→欢乐庆典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二→庆典礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_013_ffyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅小游戏版块上浮弹幕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_013_FFYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（畅玩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_ZP1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4002,7 +3995,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4023,25 +4016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4089,7 +4064,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4135,15 +4110,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4151,12 +4117,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4168,13 +4128,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -4183,61 +4137,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4517,13 +4423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:AJ307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5215,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6478,13 +6384,13 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>647</v>
@@ -10374,7 +10280,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10489,7 +10395,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -11027,134 +10933,134 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="49">
+    <row r="257" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="47" t="s">
+      <c r="B257" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="47" t="s">
+      <c r="C257" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="D257" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="D257" s="47" t="s">
+      <c r="E257" s="26">
+        <v>1</v>
+      </c>
+      <c r="F257" s="26">
+        <v>1</v>
+      </c>
+      <c r="G257" s="26">
+        <v>1</v>
+      </c>
+      <c r="I257" s="25" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
+        <v>257</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="I258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="48">
-        <v>1</v>
-      </c>
-      <c r="F257" s="48">
-        <v>1</v>
-      </c>
-      <c r="G257" s="48">
-        <v>1</v>
-      </c>
-      <c r="I257" s="47" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="19">
-        <v>257</v>
-      </c>
-      <c r="B258" s="18" t="s">
+    </row>
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
+        <v>258</v>
+      </c>
+      <c r="B259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C258" s="18" t="s">
-        <v>758</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="E258" s="20">
-        <v>0</v>
-      </c>
-      <c r="F258" s="20">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>1</v>
-      </c>
-      <c r="I258" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="19">
-        <v>258</v>
-      </c>
-      <c r="B259" s="18" t="s">
+      <c r="C259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="E259" s="17">
+        <v>0</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
+        <v>259</v>
+      </c>
+      <c r="B260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="E259" s="20">
-        <v>0</v>
-      </c>
-      <c r="F259" s="20">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>1</v>
-      </c>
-      <c r="I259" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="19">
-        <v>259</v>
-      </c>
-      <c r="B260" s="18" t="s">
+      <c r="C260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
+    </row>
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
+        <v>260</v>
+      </c>
+      <c r="B261" s="15" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="19">
-        <v>260</v>
-      </c>
-      <c r="B261" s="18" t="s">
+      <c r="C261" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>770</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11162,39 +11068,39 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>771</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D262" t="s">
         <v>772</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>773</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>778</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11209,1093 +11115,1310 @@
         <v>644</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="19">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
+    </row>
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
+        <v>264</v>
+      </c>
+      <c r="B265" s="15" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="19">
-        <v>264</v>
-      </c>
-      <c r="B265" s="18" t="s">
+      <c r="C265" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
+      <c r="G265" s="17">
+        <v>1</v>
+      </c>
+      <c r="I265" s="15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
+        <v>265</v>
+      </c>
+      <c r="B266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="E265" s="20">
-        <v>0</v>
-      </c>
-      <c r="F265" s="20">
-        <v>1</v>
-      </c>
-      <c r="G265" s="20">
-        <v>1</v>
-      </c>
-      <c r="I265" s="18" t="s">
+      <c r="C266" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="16">
+        <v>266</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
+        <v>267</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>0</v>
+      </c>
+      <c r="G268" s="17">
+        <v>0</v>
+      </c>
+      <c r="I268" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
+        <v>268</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1</v>
+      </c>
+      <c r="I269" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="16">
+        <v>269</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D270" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E270" s="17">
+        <v>0</v>
+      </c>
+      <c r="F270" s="17">
+        <v>0</v>
+      </c>
+      <c r="G270" s="17">
+        <v>0</v>
+      </c>
+      <c r="I270" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="16">
+        <v>270</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="16">
+        <v>271</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="16">
+        <v>272</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="16">
+        <v>273</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E274" s="17">
+        <v>1</v>
+      </c>
+      <c r="F274" s="17">
+        <v>1</v>
+      </c>
+      <c r="G274" s="17">
+        <v>1</v>
+      </c>
+      <c r="I274" s="19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="16">
+        <v>274</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="19" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="16">
+        <v>275</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="E276" s="17">
+        <v>1</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="16">
+        <v>276</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="E277" s="17">
+        <v>1</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="16">
+        <v>277</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="16">
+        <v>278</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="16">
+        <v>279</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="16">
+        <v>280</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="16">
+        <v>281</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="16">
+        <v>282</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="16">
+        <v>284</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="E285" s="17">
+        <v>1</v>
+      </c>
+      <c r="F285" s="17">
+        <v>1</v>
+      </c>
+      <c r="G285" s="17">
+        <v>1</v>
+      </c>
+      <c r="I285" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="19">
-        <v>265</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="19">
-        <v>266</v>
-      </c>
-      <c r="B267" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="C267" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="19">
-        <v>267</v>
-      </c>
-      <c r="B268" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="E268" s="20">
-        <v>0</v>
-      </c>
-      <c r="F268" s="20">
-        <v>0</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="I268" s="24" t="s">
+    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="E286" s="17">
+        <v>1</v>
+      </c>
+      <c r="F286" s="17">
+        <v>1</v>
+      </c>
+      <c r="G286" s="17">
+        <v>1</v>
+      </c>
+      <c r="I286" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="16">
+        <v>286</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="E287" s="17">
+        <v>1</v>
+      </c>
+      <c r="F287" s="17">
+        <v>1</v>
+      </c>
+      <c r="G287" s="17">
+        <v>1</v>
+      </c>
+      <c r="I287" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E288" s="17">
+        <v>0</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="17">
+        <v>1</v>
+      </c>
+      <c r="I288" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="16">
+        <v>288</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D289" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="E289" s="17">
+        <v>0</v>
+      </c>
+      <c r="F289" s="17">
+        <v>0</v>
+      </c>
+      <c r="G289" s="17">
+        <v>0</v>
+      </c>
+      <c r="I289" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="19">
-        <v>268</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="C269" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="E269" s="20">
-        <v>0</v>
-      </c>
-      <c r="F269" s="20">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>1</v>
-      </c>
-      <c r="I269" s="24" t="s">
+    <row r="290" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="16">
+        <v>289</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="16">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" t="s">
+        <v>873</v>
+      </c>
+      <c r="D291" t="s">
+        <v>874</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="16">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>876</v>
+      </c>
+      <c r="C292" t="s">
+        <v>877</v>
+      </c>
+      <c r="D292" t="s">
+        <v>878</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="293" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
-        <v>269</v>
-      </c>
-      <c r="B270" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="D270" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="E270" s="17">
-        <v>0</v>
-      </c>
-      <c r="F270" s="17">
-        <v>0</v>
-      </c>
-      <c r="G270" s="17">
-        <v>0</v>
-      </c>
-      <c r="H270" s="17"/>
-      <c r="I270" s="21" t="s">
+    <row r="294" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
-        <v>270</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="C271" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="H271" s="17"/>
-      <c r="I271" s="21" t="s">
+    <row r="295" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="16">
+        <v>294</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="19">
-        <v>271</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>807</v>
-      </c>
-      <c r="C272" s="18" t="s">
-        <v>809</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>808</v>
-      </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="19">
-        <v>272</v>
-      </c>
-      <c r="B273" s="18" t="s">
-        <v>811</v>
-      </c>
-      <c r="C273" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="D273" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="E273" s="20">
-        <v>1</v>
-      </c>
-      <c r="F273" s="20">
-        <v>1</v>
-      </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="I273" s="24" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="19">
-        <v>273</v>
-      </c>
-      <c r="B274" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="I274" s="24" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="19">
-        <v>274</v>
-      </c>
-      <c r="B275" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="C275" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="24" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="31">
-        <v>275</v>
-      </c>
-      <c r="B276" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="C276" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="D276" s="45" t="s">
-        <v>824</v>
-      </c>
-      <c r="E276" s="33">
-        <v>1</v>
-      </c>
-      <c r="F276" s="33">
-        <v>1</v>
-      </c>
-      <c r="G276" s="33">
-        <v>1</v>
-      </c>
-      <c r="I276" s="34" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="19">
-        <v>276</v>
-      </c>
-      <c r="B277" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="35">
-        <v>277</v>
-      </c>
-      <c r="B278" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="C278" s="36" t="s">
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="16">
+        <v>295</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="E296" s="17">
+        <v>0</v>
+      </c>
+      <c r="F296" s="17">
+        <v>0</v>
+      </c>
+      <c r="G296" s="17">
+        <v>0</v>
+      </c>
+      <c r="H296" s="17"/>
+      <c r="I296" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="17"/>
+      <c r="N296" s="17"/>
+      <c r="O296" s="17"/>
+      <c r="P296" s="17"/>
+      <c r="Q296" s="17"/>
+      <c r="R296" s="17"/>
+      <c r="S296" s="17"/>
+      <c r="T296" s="17"/>
+      <c r="U296" s="17"/>
+      <c r="V296" s="17"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="17"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="17"/>
+      <c r="AA296" s="17"/>
+      <c r="AB296" s="17"/>
+      <c r="AC296" s="17"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="17"/>
+      <c r="AF296" s="17"/>
+      <c r="AG296" s="17"/>
+      <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
+      <c r="AJ296" s="17"/>
+    </row>
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="16">
+        <v>296</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="E297" s="17">
+        <v>0</v>
+      </c>
+      <c r="F297" s="17">
+        <v>0</v>
+      </c>
+      <c r="G297" s="17">
+        <v>0</v>
+      </c>
+      <c r="H297" s="17"/>
+      <c r="I297" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="17"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
+      <c r="V297" s="17"/>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+      <c r="AA297" s="17"/>
+      <c r="AB297" s="17"/>
+      <c r="AC297" s="17"/>
+      <c r="AD297" s="17"/>
+      <c r="AE297" s="17"/>
+      <c r="AF297" s="17"/>
+      <c r="AG297" s="17"/>
+      <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
+      <c r="AJ297" s="17"/>
+    </row>
+    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="16">
+        <v>297</v>
+      </c>
+      <c r="B298" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="D278" s="37" t="s">
-        <v>830</v>
-      </c>
-      <c r="E278" s="38">
-        <v>0</v>
-      </c>
-      <c r="F278" s="38">
-        <v>0</v>
-      </c>
-      <c r="G278" s="38">
-        <v>0</v>
-      </c>
-      <c r="I278" s="39" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="19">
-        <v>278</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="24" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
-        <v>279</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
-        <v>280</v>
-      </c>
-      <c r="B281" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
-        <v>281</v>
-      </c>
-      <c r="B282" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
-        <v>282</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="19">
-        <v>283</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26">
-        <v>284</v>
-      </c>
-      <c r="B285" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="C285" s="28" t="s">
-        <v>858</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="30" t="s">
+      <c r="C298" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="D298" s="26"/>
+      <c r="E298" s="26">
+        <v>1</v>
+      </c>
+      <c r="F298" s="26">
+        <v>1</v>
+      </c>
+      <c r="G298" s="26">
+        <v>1</v>
+      </c>
+      <c r="H298" s="26"/>
+      <c r="I298" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+      <c r="AA298" s="17"/>
+      <c r="AB298" s="17"/>
+      <c r="AC298" s="17"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="17"/>
+      <c r="AF298" s="17"/>
+      <c r="AG298" s="17"/>
+      <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
+      <c r="AJ298" s="17"/>
+    </row>
+    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="16">
+        <v>298</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E299" s="17">
+        <v>0</v>
+      </c>
+      <c r="F299" s="17">
+        <v>0</v>
+      </c>
+      <c r="G299" s="17">
+        <v>0</v>
+      </c>
+      <c r="H299" s="17"/>
+      <c r="I299" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="17"/>
+      <c r="Q299" s="17"/>
+      <c r="R299" s="17"/>
+      <c r="S299" s="17"/>
+      <c r="T299" s="17"/>
+      <c r="U299" s="17"/>
+      <c r="V299" s="17"/>
+      <c r="W299" s="17"/>
+      <c r="X299" s="17"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="17"/>
+      <c r="AA299" s="17"/>
+      <c r="AB299" s="17"/>
+      <c r="AC299" s="17"/>
+      <c r="AD299" s="17"/>
+      <c r="AE299" s="17"/>
+      <c r="AF299" s="17"/>
+      <c r="AG299" s="17"/>
+      <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
+      <c r="AJ299" s="17"/>
+    </row>
+    <row r="300" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="16">
+        <v>299</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E300" s="17">
+        <v>1</v>
+      </c>
+      <c r="F300" s="17">
+        <v>1</v>
+      </c>
+      <c r="G300" s="17">
+        <v>1</v>
+      </c>
+      <c r="H300" s="17"/>
+      <c r="I300" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="17"/>
+      <c r="N300" s="17"/>
+      <c r="O300" s="17"/>
+      <c r="P300" s="17"/>
+      <c r="Q300" s="17"/>
+      <c r="R300" s="17"/>
+      <c r="S300" s="17"/>
+      <c r="T300" s="17"/>
+      <c r="U300" s="17"/>
+      <c r="V300" s="17"/>
+      <c r="W300" s="17"/>
+      <c r="X300" s="17"/>
+      <c r="Y300" s="17"/>
+      <c r="Z300" s="17"/>
+      <c r="AA300" s="17"/>
+      <c r="AB300" s="17"/>
+      <c r="AC300" s="17"/>
+      <c r="AD300" s="17"/>
+      <c r="AE300" s="17"/>
+      <c r="AF300" s="17"/>
+      <c r="AG300" s="17"/>
+      <c r="AH300" s="17"/>
+      <c r="AI300" s="17"/>
+      <c r="AJ300" s="17"/>
+    </row>
+    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="16">
+        <v>300</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="C301" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="E301" s="26">
+        <v>1</v>
+      </c>
+      <c r="F301" s="26">
+        <v>1</v>
+      </c>
+      <c r="G301" s="26">
+        <v>1</v>
+      </c>
+      <c r="H301" s="26"/>
+      <c r="I301" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+      <c r="Q301" s="17"/>
+      <c r="R301" s="17"/>
+      <c r="S301" s="17"/>
+      <c r="T301" s="17"/>
+      <c r="U301" s="17"/>
+      <c r="V301" s="17"/>
+      <c r="W301" s="17"/>
+      <c r="X301" s="17"/>
+      <c r="Y301" s="17"/>
+      <c r="Z301" s="17"/>
+      <c r="AA301" s="17"/>
+      <c r="AB301" s="17"/>
+      <c r="AC301" s="17"/>
+      <c r="AD301" s="17"/>
+      <c r="AE301" s="17"/>
+      <c r="AF301" s="17"/>
+      <c r="AG301" s="17"/>
+      <c r="AH301" s="17"/>
+      <c r="AI301" s="17"/>
+      <c r="AJ301" s="17"/>
+    </row>
+    <row r="302" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="16">
+        <v>301</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="C302" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E302" s="26">
+        <v>1</v>
+      </c>
+      <c r="F302" s="26">
+        <v>1</v>
+      </c>
+      <c r="G302" s="26">
+        <v>1</v>
+      </c>
+      <c r="H302" s="26"/>
+      <c r="I302" s="25" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="16">
+        <v>302</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="19">
-        <v>285</v>
-      </c>
-      <c r="B286" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="19">
-        <v>286</v>
-      </c>
-      <c r="B287" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="19">
-        <v>287</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>864</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="31">
-        <v>288</v>
-      </c>
-      <c r="B289" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="C289" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="E289" s="33">
-        <v>0</v>
-      </c>
-      <c r="F289" s="33">
-        <v>0</v>
-      </c>
-      <c r="G289" s="33">
-        <v>0</v>
-      </c>
-      <c r="I289" s="32" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="19">
-        <v>289</v>
-      </c>
-      <c r="B290" s="18" t="s">
-        <v>869</v>
-      </c>
-      <c r="C290" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>871</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="19">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s">
-        <v>873</v>
-      </c>
-      <c r="C291" t="s">
-        <v>874</v>
-      </c>
-      <c r="D291" t="s">
-        <v>875</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="31">
-        <v>291</v>
-      </c>
-      <c r="B292" t="s">
-        <v>877</v>
-      </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-      <c r="D292" t="s">
-        <v>879</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="19">
-        <v>292</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="19">
-        <v>293</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="31">
-        <v>294</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="19">
-        <v>295</v>
-      </c>
-      <c r="B296" s="40" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" s="41" t="s">
-        <v>892</v>
-      </c>
-      <c r="D296" s="40" t="s">
-        <v>893</v>
-      </c>
-      <c r="E296" s="42">
-        <v>0</v>
-      </c>
-      <c r="F296" s="42">
-        <v>0</v>
-      </c>
-      <c r="G296" s="42">
-        <v>0</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
-        <v>296</v>
-      </c>
-      <c r="B297" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="C297" s="41" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="42">
-        <v>0</v>
-      </c>
-      <c r="F297" s="42">
-        <v>0</v>
-      </c>
-      <c r="G297" s="42">
-        <v>0</v>
-      </c>
-      <c r="I297" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="31">
-        <v>297</v>
-      </c>
-      <c r="B298" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="41" t="s">
+    <row r="304" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="16">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>911</v>
+      </c>
+      <c r="C304" t="s">
+        <v>912</v>
+      </c>
+      <c r="D304" t="s">
+        <v>913</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="16">
+        <v>304</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="C305" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="E305" s="26">
+        <v>1</v>
+      </c>
+      <c r="F305" s="26">
+        <v>1</v>
+      </c>
+      <c r="G305" s="26">
+        <v>1</v>
+      </c>
+      <c r="H305" s="26"/>
+      <c r="I305" s="25" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="16">
+        <v>305</v>
+      </c>
+      <c r="B306" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="E298" s="42">
-        <v>1</v>
-      </c>
-      <c r="F298" s="42">
-        <v>1</v>
-      </c>
-      <c r="G298" s="42">
-        <v>1</v>
-      </c>
-      <c r="I298" s="41" t="s">
+      <c r="C306" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="E306" s="26">
+        <v>1</v>
+      </c>
+      <c r="F306" s="26">
+        <v>1</v>
+      </c>
+      <c r="G306" s="26">
+        <v>1</v>
+      </c>
+      <c r="I306" s="25" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="16">
+        <v>306</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>931</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="E307" s="26">
+        <v>1</v>
+      </c>
+      <c r="F307" s="26">
+        <v>1</v>
+      </c>
+      <c r="G307" s="26">
+        <v>1</v>
+      </c>
+      <c r="I307" s="25" t="s">
         <v>926</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="19">
-        <v>298</v>
-      </c>
-      <c r="B299" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="C299" s="41" t="s">
-        <v>901</v>
-      </c>
-      <c r="D299" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="E299" s="42">
-        <v>0</v>
-      </c>
-      <c r="F299" s="42">
-        <v>0</v>
-      </c>
-      <c r="G299" s="42">
-        <v>0</v>
-      </c>
-      <c r="I299" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="19">
-        <v>299</v>
-      </c>
-      <c r="B300" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="E300" s="42">
-        <v>1</v>
-      </c>
-      <c r="F300" s="42">
-        <v>1</v>
-      </c>
-      <c r="G300" s="42">
-        <v>1</v>
-      </c>
-      <c r="I300" s="43" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="31">
-        <v>300</v>
-      </c>
-      <c r="B301" s="46" t="s">
-        <v>906</v>
-      </c>
-      <c r="C301" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="D301" s="46" t="s">
-        <v>907</v>
-      </c>
-      <c r="E301" s="48">
-        <v>1</v>
-      </c>
-      <c r="F301" s="48">
-        <v>1</v>
-      </c>
-      <c r="G301" s="48">
-        <v>1</v>
-      </c>
-      <c r="H301" s="48"/>
-      <c r="I301" s="47" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="19">
-        <v>301</v>
-      </c>
-      <c r="B302" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="C302" s="47" t="s">
-        <v>923</v>
-      </c>
-      <c r="D302" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="E302" s="48">
-        <v>1</v>
-      </c>
-      <c r="F302" s="48">
-        <v>1</v>
-      </c>
-      <c r="G302" s="48">
-        <v>1</v>
-      </c>
-      <c r="H302" s="48"/>
-      <c r="I302" s="47" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="31">
-        <v>302</v>
-      </c>
-      <c r="B303" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C303" s="44" t="s">
-        <v>912</v>
-      </c>
-      <c r="D303" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E303" s="2">
-        <v>1</v>
-      </c>
-      <c r="F303" s="2">
-        <v>1</v>
-      </c>
-      <c r="G303" s="2">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="43" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="19">
-        <v>303</v>
-      </c>
-      <c r="B304" t="s">
-        <v>914</v>
-      </c>
-      <c r="C304" t="s">
-        <v>915</v>
-      </c>
-      <c r="D304" t="s">
-        <v>916</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="43" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="19">
-        <v>304</v>
-      </c>
-      <c r="B305" s="46" t="s">
-        <v>925</v>
-      </c>
-      <c r="C305" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="D305" s="46" t="s">
-        <v>919</v>
-      </c>
-      <c r="E305" s="48">
-        <v>1</v>
-      </c>
-      <c r="F305" s="48">
-        <v>1</v>
-      </c>
-      <c r="G305" s="48">
-        <v>1</v>
-      </c>
-      <c r="H305" s="48"/>
-      <c r="I305" s="47" t="s">
-        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="943">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3842,10 +3842,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子收集榜 → 金元宝榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3910,7 +3906,39 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--礼包模板（感恩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_LB1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--排行榜模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--兑换模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4423,13 +4451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ307"/>
+  <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6384,13 +6412,13 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>647</v>
@@ -10941,7 +10969,7 @@
         <v>754</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D257" s="25" t="s">
         <v>755</v>
@@ -10956,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11929,13 +11957,13 @@
         <v>887</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" s="19" t="s">
         <v>736</v>
@@ -12057,7 +12085,7 @@
         <v>898</v>
       </c>
       <c r="C298" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="26">
@@ -12071,7 +12099,7 @@
       </c>
       <c r="H298" s="26"/>
       <c r="I298" s="25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12214,13 +12242,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E301" s="26">
         <v>1</v>
@@ -12233,7 +12261,7 @@
       </c>
       <c r="H301" s="26"/>
       <c r="I301" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12271,7 +12299,7 @@
         <v>905</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="D302" s="24" t="s">
         <v>906</v>
@@ -12287,7 +12315,7 @@
       </c>
       <c r="H302" s="26"/>
       <c r="I302" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12347,7 +12375,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C305" s="25" t="s">
         <v>915</v>
@@ -12374,14 +12402,14 @@
         <v>305</v>
       </c>
       <c r="B306" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="C306" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="C306" s="25" t="s">
+      <c r="D306" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="D306" s="24" t="s">
-        <v>929</v>
-      </c>
       <c r="E306" s="26">
         <v>1</v>
       </c>
@@ -12392,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12400,14 +12428,14 @@
         <v>306</v>
       </c>
       <c r="B307" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C307" s="25" t="s">
         <v>930</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="D307" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="D307" s="24" t="s">
-        <v>932</v>
-      </c>
       <c r="E307" s="26">
         <v>1</v>
       </c>
@@ -12418,7 +12446,56 @@
         <v>1</v>
       </c>
       <c r="I307" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="16">
+        <v>307</v>
+      </c>
+      <c r="B308" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="16">
+        <v>308</v>
+      </c>
+      <c r="B309" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3858,10 +3858,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3870,10 +3866,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_013_ffyd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3940,13 +3932,51 @@
   <si>
     <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_collect_words</t>
+  </si>
+  <si>
+    <t>通用活动--发财礼包模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_Collect_WordsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jbp</t>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4022,8 +4052,27 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4060,6 +4109,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4092,7 +4159,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4162,17 +4229,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4451,7 +4551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ309"/>
+  <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
@@ -4460,7 +4560,7 @@
       <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
@@ -4473,7 +4573,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4602,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4528,7 +4628,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4554,7 +4654,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4580,7 +4680,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4606,7 +4706,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4632,7 +4732,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4658,7 +4758,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4684,7 +4784,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4710,7 +4810,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4736,7 +4836,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4762,7 +4862,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4788,7 +4888,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4814,7 +4914,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4840,7 +4940,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4866,7 +4966,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4892,7 +4992,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4918,7 +5018,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4944,7 +5044,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4970,7 +5070,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4996,7 +5096,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5022,7 +5122,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5048,7 +5148,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5074,7 +5174,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5100,7 +5200,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5126,7 +5226,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5152,7 +5252,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5178,7 +5278,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5204,7 +5304,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5230,7 +5330,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5256,7 +5356,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5282,7 +5382,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5308,7 +5408,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5334,7 +5434,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5360,7 +5460,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5386,7 +5486,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5412,7 +5512,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5438,7 +5538,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5464,7 +5564,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5490,7 +5590,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5516,7 +5616,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -5542,7 +5642,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -5568,7 +5668,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -5594,7 +5694,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -5620,7 +5720,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -5646,7 +5746,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -5672,7 +5772,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -5698,7 +5798,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -5724,7 +5824,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -5750,7 +5850,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -5776,7 +5876,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -5802,7 +5902,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -5826,7 +5926,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -5852,7 +5952,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -5878,7 +5978,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -5904,7 +6004,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -5930,7 +6030,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -5956,7 +6056,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -5982,7 +6082,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -6008,7 +6108,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -6034,7 +6134,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -6060,7 +6160,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -6086,7 +6186,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -6112,7 +6212,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -6138,7 +6238,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -6164,7 +6264,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -6190,7 +6290,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -6216,7 +6316,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -6242,7 +6342,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -6268,7 +6368,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -6294,7 +6394,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -6320,7 +6420,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -6346,7 +6446,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -6372,7 +6472,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -6398,33 +6498,33 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+    <row r="75" spans="1:9" s="36" customFormat="1" ht="16.5">
+      <c r="A75" s="35">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="35">
+        <v>0</v>
+      </c>
+      <c r="F75" s="36">
+        <v>0</v>
+      </c>
+      <c r="G75" s="36">
+        <v>0</v>
+      </c>
+      <c r="I75" s="37" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -6450,7 +6550,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6476,7 +6576,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6502,7 +6602,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6528,7 +6628,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6554,7 +6654,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6580,7 +6680,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6606,7 +6706,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6632,7 +6732,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6658,7 +6758,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6684,7 +6784,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6710,7 +6810,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6736,7 +6836,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6762,7 +6862,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6788,7 +6888,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6814,7 +6914,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6840,7 +6940,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6866,7 +6966,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6892,7 +6992,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6918,7 +7018,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -6944,7 +7044,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -6970,7 +7070,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -6996,7 +7096,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -7022,7 +7122,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -7048,7 +7148,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -7074,7 +7174,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -7100,7 +7200,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -7126,7 +7226,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -7152,7 +7252,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -7178,7 +7278,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -7204,7 +7304,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -7230,7 +7330,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -7256,7 +7356,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -7282,7 +7382,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -7308,7 +7408,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -7334,7 +7434,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -7360,7 +7460,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -7386,7 +7486,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -7412,7 +7512,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -7438,7 +7538,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -7464,7 +7564,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -7490,7 +7590,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -7516,7 +7616,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -7542,7 +7642,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16.5">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -7568,7 +7668,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -7594,7 +7694,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -7620,7 +7720,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -7646,7 +7746,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -7672,7 +7772,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -7698,7 +7798,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -7724,7 +7824,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -7750,7 +7850,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -7776,7 +7876,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -7802,7 +7902,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -7828,7 +7928,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -7854,7 +7954,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -7880,7 +7980,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -7906,7 +8006,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -7932,7 +8032,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -7958,7 +8058,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -7984,7 +8084,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -8010,7 +8110,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -8036,7 +8136,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -8062,7 +8162,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -8088,7 +8188,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -8114,7 +8214,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -8140,7 +8240,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -8166,7 +8266,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -8192,7 +8292,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -8218,7 +8318,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -8244,7 +8344,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -8270,7 +8370,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -8296,7 +8396,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -8322,7 +8422,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -8348,7 +8448,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -8374,7 +8474,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -8400,7 +8500,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -8426,7 +8526,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -8452,7 +8552,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -8478,7 +8578,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -8504,7 +8604,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -8530,7 +8630,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -8556,7 +8656,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -8582,7 +8682,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -8608,7 +8708,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -8634,7 +8734,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -8660,7 +8760,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -8686,7 +8786,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -8712,7 +8812,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -8738,7 +8838,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -8764,7 +8864,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -8790,7 +8890,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -8816,7 +8916,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -8842,7 +8942,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -8868,7 +8968,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -8892,7 +8992,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -8916,7 +9016,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -8940,7 +9040,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -8964,7 +9064,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -8990,7 +9090,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -9014,7 +9114,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -9038,7 +9138,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -9062,7 +9162,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -9088,7 +9188,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -9114,7 +9214,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="16.5">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -9138,7 +9238,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -9162,7 +9262,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -9186,7 +9286,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -9210,7 +9310,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -9233,7 +9333,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -9256,7 +9356,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -9279,7 +9379,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -9302,7 +9402,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -9325,7 +9425,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -9348,7 +9448,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -9371,7 +9471,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -9394,7 +9494,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -9417,7 +9517,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -9440,7 +9540,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -9463,7 +9563,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -9486,7 +9586,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -9509,7 +9609,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -9532,7 +9632,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -9555,7 +9655,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -9578,7 +9678,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -9601,7 +9701,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -9624,7 +9724,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -9647,7 +9747,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -9670,7 +9770,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -9693,7 +9793,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -9719,7 +9819,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -9745,7 +9845,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -9771,7 +9871,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -9794,7 +9894,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -9817,7 +9917,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -9840,7 +9940,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -9863,7 +9963,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -9886,7 +9986,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -9909,7 +10009,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -9932,7 +10032,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -9955,7 +10055,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -9978,7 +10078,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -10001,7 +10101,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -10024,7 +10124,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -10047,7 +10147,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -10070,7 +10170,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -10093,7 +10193,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -10116,7 +10216,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -10139,7 +10239,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -10162,7 +10262,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -10185,7 +10285,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -10208,7 +10308,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -10231,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -10254,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -10277,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -10300,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -10323,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -10346,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -10369,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -10392,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -10415,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -10441,7 +10541,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -10467,7 +10567,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -10493,7 +10593,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -10519,7 +10619,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -10545,7 +10645,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -10571,7 +10671,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -10597,7 +10697,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -10623,7 +10723,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -10649,7 +10749,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -10675,7 +10775,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -10701,7 +10801,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -10727,7 +10827,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -10753,7 +10853,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -10779,7 +10879,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -10805,7 +10905,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -10831,7 +10931,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -10857,7 +10957,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -10883,33 +10983,34 @@
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
+      <c r="E254" s="27">
+        <v>1</v>
+      </c>
+      <c r="F254" s="27">
+        <v>1</v>
+      </c>
+      <c r="G254" s="27">
+        <v>1</v>
+      </c>
+      <c r="H254" s="27"/>
+      <c r="I254" s="25" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -10935,7 +11036,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="16.5">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -10961,33 +11062,34 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="25" t="s">
+      <c r="B257" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="25" t="s">
-        <v>923</v>
-      </c>
-      <c r="D257" s="25" t="s">
+      <c r="C257" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="E257" s="26">
-        <v>1</v>
-      </c>
-      <c r="F257" s="26">
-        <v>1</v>
-      </c>
-      <c r="G257" s="26">
-        <v>1</v>
-      </c>
-      <c r="I257" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E257" s="17">
+        <v>1</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17"/>
+      <c r="I257" s="15" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A258" s="16">
         <v>257</v>
       </c>
@@ -11013,7 +11115,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A259" s="16">
         <v>258</v>
       </c>
@@ -11039,7 +11141,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A260" s="16">
         <v>259</v>
       </c>
@@ -11065,7 +11167,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
@@ -11091,7 +11193,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -11117,7 +11219,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="16.5">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -11143,7 +11245,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A264" s="16">
         <v>263</v>
       </c>
@@ -11169,7 +11271,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A265" s="16">
         <v>264</v>
       </c>
@@ -11195,7 +11297,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A266" s="16">
         <v>265</v>
       </c>
@@ -11221,7 +11323,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A267" s="16">
         <v>266</v>
       </c>
@@ -11247,7 +11349,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A268" s="16">
         <v>267</v>
       </c>
@@ -11273,7 +11375,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
@@ -11299,7 +11401,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A270" s="16">
         <v>269</v>
       </c>
@@ -11325,7 +11427,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A271" s="16">
         <v>270</v>
       </c>
@@ -11351,7 +11453,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A272" s="16">
         <v>271</v>
       </c>
@@ -11377,7 +11479,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A273" s="16">
         <v>272</v>
       </c>
@@ -11403,7 +11505,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A274" s="16">
         <v>273</v>
       </c>
@@ -11429,7 +11531,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A275" s="16">
         <v>274</v>
       </c>
@@ -11455,7 +11557,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A276" s="16">
         <v>275</v>
       </c>
@@ -11469,7 +11571,7 @@
         <v>823</v>
       </c>
       <c r="E276" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="17">
         <v>1</v>
@@ -11481,7 +11583,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11492,7 +11594,7 @@
         <v>826</v>
       </c>
       <c r="E277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" s="17">
         <v>1</v>
@@ -11504,7 +11606,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
@@ -11530,7 +11632,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="16">
         <v>278</v>
       </c>
@@ -11556,7 +11658,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="16">
         <v>279</v>
       </c>
@@ -11579,7 +11681,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="16">
         <v>280</v>
       </c>
@@ -11605,7 +11707,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="16">
         <v>281</v>
       </c>
@@ -11631,7 +11733,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
@@ -11657,7 +11759,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="16.5">
       <c r="A284" s="16">
         <v>283</v>
       </c>
@@ -11683,111 +11785,111 @@
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="16">
+    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A285" s="31">
         <v>284</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="E285" s="17">
-        <v>1</v>
-      </c>
-      <c r="F285" s="17">
-        <v>1</v>
-      </c>
-      <c r="G285" s="17">
-        <v>1</v>
-      </c>
-      <c r="I285" s="19" t="s">
+      <c r="E285" s="32">
+        <v>1</v>
+      </c>
+      <c r="F285" s="32">
+        <v>1</v>
+      </c>
+      <c r="G285" s="32">
+        <v>1</v>
+      </c>
+      <c r="I285" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="16">
+    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A286" s="31">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="E286" s="17">
-        <v>1</v>
-      </c>
-      <c r="F286" s="17">
-        <v>1</v>
-      </c>
-      <c r="G286" s="17">
-        <v>1</v>
-      </c>
-      <c r="I286" s="19" t="s">
+      <c r="E286" s="32">
+        <v>1</v>
+      </c>
+      <c r="F286" s="32">
+        <v>1</v>
+      </c>
+      <c r="G286" s="32">
+        <v>1</v>
+      </c>
+      <c r="I286" s="32" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="16">
+    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A287" s="31">
         <v>286</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="32" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="E287" s="17">
-        <v>1</v>
-      </c>
-      <c r="F287" s="17">
-        <v>1</v>
-      </c>
-      <c r="G287" s="17">
-        <v>1</v>
-      </c>
-      <c r="I287" s="19" t="s">
+      <c r="E287" s="32">
+        <v>1</v>
+      </c>
+      <c r="F287" s="32">
+        <v>1</v>
+      </c>
+      <c r="G287" s="32">
+        <v>1</v>
+      </c>
+      <c r="I287" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A288" s="29">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="E288" s="17">
-        <v>0</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="I288" s="19" t="s">
+      <c r="E288" s="30">
+        <v>0</v>
+      </c>
+      <c r="F288" s="30">
+        <v>1</v>
+      </c>
+      <c r="G288" s="30">
+        <v>1</v>
+      </c>
+      <c r="I288" s="30" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -11813,7 +11915,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:36" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
@@ -11839,59 +11941,59 @@
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="16">
+    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
+      <c r="A291" s="33">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34">
+        <v>1</v>
+      </c>
+      <c r="G291" s="34">
+        <v>1</v>
+      </c>
+      <c r="I291" s="34" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="16">
+    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
+      <c r="A292" s="33">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
+      <c r="E292" s="34">
+        <v>1</v>
+      </c>
+      <c r="F292" s="34">
+        <v>1</v>
+      </c>
+      <c r="G292" s="34">
+        <v>1</v>
+      </c>
+      <c r="I292" s="34" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="16">
         <v>292</v>
       </c>
@@ -11905,7 +12007,7 @@
         <v>882</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -11917,7 +12019,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
@@ -11931,7 +12033,7 @@
         <v>885</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -11943,33 +12045,34 @@
         <v>736</v>
       </c>
     </row>
-    <row r="295" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:36" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="18" t="s">
         <v>886</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="D295" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
+      <c r="E295" s="17">
+        <v>0</v>
+      </c>
+      <c r="F295" s="17">
+        <v>0</v>
+      </c>
+      <c r="G295" s="17">
+        <v>0</v>
+      </c>
+      <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
@@ -12023,7 +12126,7 @@
       <c r="AI296" s="17"/>
       <c r="AJ296" s="17"/>
     </row>
-    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12077,28 +12180,28 @@
       <c r="AI297" s="17"/>
       <c r="AJ297" s="17"/>
     </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="24" t="s">
+      <c r="B298" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C298" s="25" t="s">
+      <c r="C298" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D298" s="26"/>
-      <c r="E298" s="26">
-        <v>1</v>
-      </c>
-      <c r="F298" s="26">
-        <v>1</v>
-      </c>
-      <c r="G298" s="26">
-        <v>1</v>
-      </c>
-      <c r="H298" s="26"/>
-      <c r="I298" s="25" t="s">
+      <c r="D298" s="17"/>
+      <c r="E298" s="17">
+        <v>1</v>
+      </c>
+      <c r="F298" s="17">
+        <v>1</v>
+      </c>
+      <c r="G298" s="17">
+        <v>1</v>
+      </c>
+      <c r="H298" s="17"/>
+      <c r="I298" s="15" t="s">
         <v>920</v>
       </c>
       <c r="J298" s="17"/>
@@ -12129,7 +12232,7 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
@@ -12183,7 +12286,7 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
@@ -12237,31 +12340,31 @@
       <c r="AI300" s="17"/>
       <c r="AJ300" s="17"/>
     </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="24" t="s">
-        <v>933</v>
+      <c r="B301" s="26" t="s">
+        <v>931</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="D301" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="E301" s="26">
-        <v>1</v>
-      </c>
-      <c r="F301" s="26">
-        <v>1</v>
-      </c>
-      <c r="G301" s="26">
-        <v>1</v>
-      </c>
-      <c r="H301" s="26"/>
+        <v>937</v>
+      </c>
+      <c r="D301" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="E301" s="27">
+        <v>1</v>
+      </c>
+      <c r="F301" s="27">
+        <v>1</v>
+      </c>
+      <c r="G301" s="27">
+        <v>1</v>
+      </c>
+      <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12291,211 +12394,270 @@
       <c r="AI301" s="17"/>
       <c r="AJ301" s="17"/>
     </row>
-    <row r="302" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="24" t="s">
+      <c r="B302" s="26" t="s">
         <v>905</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="D302" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="D302" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="E302" s="26">
-        <v>1</v>
-      </c>
-      <c r="F302" s="26">
-        <v>1</v>
-      </c>
-      <c r="G302" s="26">
-        <v>1</v>
-      </c>
-      <c r="H302" s="26"/>
+      <c r="E302" s="27">
+        <v>1</v>
+      </c>
+      <c r="F302" s="27">
+        <v>1</v>
+      </c>
+      <c r="G302" s="27">
+        <v>1</v>
+      </c>
+      <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="18" t="s">
+      <c r="B303" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="D303" s="18" t="s">
+      <c r="D303" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="E303" s="17">
-        <v>1</v>
-      </c>
-      <c r="F303" s="17">
-        <v>1</v>
-      </c>
-      <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="19" t="s">
+      <c r="E303" s="27">
+        <v>1</v>
+      </c>
+      <c r="F303" s="27">
+        <v>1</v>
+      </c>
+      <c r="G303" s="27">
+        <v>1</v>
+      </c>
+      <c r="H303" s="27"/>
+      <c r="I303" s="28" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="17" t="s">
         <v>912</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="23" t="s">
+      <c r="E304" s="17">
+        <v>1</v>
+      </c>
+      <c r="F304" s="17">
+        <v>1</v>
+      </c>
+      <c r="G304" s="17">
+        <v>1</v>
+      </c>
+      <c r="H304" s="17"/>
+      <c r="I304" s="19" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C305" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="24" t="s">
+      <c r="D305" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="E305" s="26">
-        <v>1</v>
-      </c>
-      <c r="F305" s="26">
-        <v>1</v>
-      </c>
-      <c r="G305" s="26">
-        <v>1</v>
-      </c>
-      <c r="H305" s="26"/>
-      <c r="I305" s="25" t="s">
+      <c r="E305" s="17">
+        <v>0</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="H305" s="17"/>
+      <c r="I305" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="C306" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="D306" s="24" t="s">
-        <v>928</v>
-      </c>
-      <c r="E306" s="26">
-        <v>1</v>
-      </c>
-      <c r="F306" s="26">
-        <v>1</v>
-      </c>
-      <c r="G306" s="26">
-        <v>1</v>
-      </c>
-      <c r="I306" s="25" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="H306" s="17"/>
+      <c r="I306" s="15" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="24" t="s">
+      <c r="B307" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="C307" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="D307" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="E307" s="26">
-        <v>1</v>
-      </c>
-      <c r="F307" s="26">
-        <v>1</v>
-      </c>
-      <c r="G307" s="26">
-        <v>1</v>
-      </c>
+      <c r="E307" s="27">
+        <v>1</v>
+      </c>
+      <c r="F307" s="27">
+        <v>1</v>
+      </c>
+      <c r="G307" s="27">
+        <v>1</v>
+      </c>
+      <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="E308" s="27">
+        <v>1</v>
+      </c>
+      <c r="F308" s="27">
+        <v>1</v>
+      </c>
+      <c r="G308" s="27">
+        <v>1</v>
+      </c>
+      <c r="H308" s="27"/>
+      <c r="I308" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="D308" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="17.25">
+      <c r="A310" s="16">
+        <v>309</v>
+      </c>
+      <c r="B310" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="C310" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
+      <c r="D310" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="E310" s="27">
+        <v>1</v>
+      </c>
+      <c r="F310" s="27">
+        <v>1</v>
+      </c>
+      <c r="G310" s="27">
+        <v>1</v>
+      </c>
+      <c r="H310" s="27"/>
+      <c r="I310" s="25" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="17.25">
+      <c r="A311" s="16">
+        <v>310</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="E311" s="27">
+        <v>1</v>
+      </c>
+      <c r="F311" s="27">
+        <v>1</v>
+      </c>
+      <c r="G311" s="27">
+        <v>1</v>
+      </c>
+      <c r="H311" s="27"/>
+      <c r="I311" s="28" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -12514,19 +12676,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="969">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -3154,14 +3145,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3769,10 +3752,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lh_drop_ani</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3796,25 +3775,13 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
     <t>捕鱼通用掉落活动</t>
   </si>
   <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
     <t>act_040_by_and_cjj_to_ddz_conduct</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3831,10 +3798,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_013_DLFLManager</t>
   </si>
   <si>
@@ -3846,18 +3809,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3887,14 +3842,6 @@
   </si>
   <si>
     <t>Act_Ty_ZP1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3970,6 +3917,185 @@
   </si>
   <si>
     <t>SYS_JBPManager</t>
+  </si>
+  <si>
+    <t>act_041_yybjsj</t>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_015_YYBJSJManager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_fkqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_QJD1Manager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4072,7 +4198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4123,7 +4249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4159,7 +4297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4208,9 +4346,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4232,19 +4367,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4259,10 +4385,19 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4273,6 +4408,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4551,13 +4722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ311"/>
+  <dimension ref="A1:AJ318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4587,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4599,7 +4770,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4625,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4651,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4677,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4703,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -4729,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -4755,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -4781,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -4807,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -4833,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -4859,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -4885,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -4911,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -4937,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -4963,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -4989,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5015,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5041,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5067,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5093,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5119,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5145,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5171,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5197,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5223,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5249,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5260,7 +5431,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5275,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5301,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5327,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5353,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5379,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5405,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5431,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5457,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5483,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5509,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5535,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5561,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5587,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5613,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5639,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5665,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5691,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5717,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -5743,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -5769,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -5795,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -5821,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -5832,7 +6003,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -5847,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -5873,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -5899,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -5923,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -5949,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -5957,7 +6128,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -5975,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -5983,7 +6154,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6001,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6027,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6053,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6079,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6105,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6131,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6157,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6183,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6209,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6235,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6261,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6287,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6304,16 +6475,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6339,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6356,16 +6527,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6391,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6417,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6443,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6469,59 +6640,59 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="34">
+        <v>0</v>
+      </c>
+      <c r="F74" s="35">
+        <v>0</v>
+      </c>
+      <c r="G74" s="35">
+        <v>0</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="36" customFormat="1" ht="16.5">
-      <c r="A75" s="35">
-        <v>74</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>659</v>
-      </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="35">
-        <v>0</v>
-      </c>
-      <c r="F75" s="36">
-        <v>0</v>
-      </c>
-      <c r="G75" s="36">
-        <v>0</v>
-      </c>
-      <c r="I75" s="37" t="s">
-        <v>647</v>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -6538,16 +6709,16 @@
         <v>225</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6572,8 +6743,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>651</v>
+      <c r="I77" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6590,16 +6761,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6616,15 +6787,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6651,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6677,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6703,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6729,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -6755,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -6772,16 +6943,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -6807,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -6833,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -6859,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -6876,16 +7047,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -6902,16 +7073,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -6928,16 +7099,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -6954,16 +7125,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -6980,16 +7151,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7014,8 +7185,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>645</v>
+      <c r="I94" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7041,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7067,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7093,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7119,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7145,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7162,16 +7333,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7188,16 +7359,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7222,8 +7393,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>681</v>
+      <c r="I102" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7240,16 +7411,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7266,15 +7437,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7300,8 +7471,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>648</v>
+      <c r="I105" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7326,8 +7497,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>645</v>
+      <c r="I106" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7353,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7405,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7431,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7457,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7483,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7509,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7535,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7561,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7613,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7639,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -7665,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7691,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7717,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -7743,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -7769,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -7795,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -7821,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -7841,13 +8012,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -7867,12 +8038,12 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7899,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -7925,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -7951,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -7977,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8003,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8055,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8081,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8107,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8133,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8159,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8185,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8211,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8237,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8254,16 +8425,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8274,22 +8445,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8297,25 +8468,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8323,25 +8494,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8349,10 +8520,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>652</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8367,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8392,8 +8563,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>695</v>
+      <c r="I147" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8419,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8445,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8471,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8497,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8523,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8549,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8575,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8601,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8611,12 +8782,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8627,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8635,14 +8806,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8652,8 +8823,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>648</v>
+      <c r="I157" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8661,10 +8832,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>653</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -8678,8 +8849,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>645</v>
+      <c r="I158" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8705,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8731,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -8757,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -8774,16 +8945,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -8800,16 +8971,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>696</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -8823,19 +8994,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -8843,25 +9014,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -8871,23 +9042,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -8895,25 +9066,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>639</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -8939,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -8952,9 +9123,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -8964,8 +9133,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>647</v>
+      <c r="I169" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -8973,23 +9142,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -8997,10 +9166,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9013,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9021,10 +9190,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>657</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>658</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9037,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9045,22 +9214,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9074,9 +9245,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9087,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9095,23 +9264,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9119,23 +9288,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>644</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9143,23 +9312,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9185,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9198,44 +9369,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9243,10 +9412,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9259,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9267,10 +9436,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9283,31 +9452,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9315,11 +9483,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9330,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9338,11 +9506,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9353,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9361,11 +9529,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9376,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9384,11 +9552,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9399,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9407,11 +9575,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9422,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9430,11 +9598,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9445,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9453,11 +9621,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9468,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9476,11 +9644,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9491,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9499,11 +9667,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9514,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9522,11 +9690,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9537,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9545,11 +9713,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9560,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9568,11 +9736,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9583,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9591,10 +9759,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9614,11 +9782,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9629,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9637,11 +9805,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9652,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9660,11 +9828,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9675,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9683,11 +9851,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9698,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9706,11 +9874,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -9721,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -9729,11 +9897,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -9744,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -9752,11 +9920,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -9767,30 +9935,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -9798,14 +9969,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -9816,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -9824,14 +9995,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -9842,32 +10013,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9876,11 +10044,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -9891,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -9899,11 +10067,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -9914,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -9922,11 +10090,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -9937,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -9945,22 +10113,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -9968,22 +10136,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -9991,11 +10159,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10006,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10014,11 +10182,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10029,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10037,11 +10205,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10052,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10060,11 +10228,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10075,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10083,10 +10251,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10106,11 +10274,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10121,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10129,11 +10297,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10144,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10152,11 +10320,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10167,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10175,11 +10343,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10190,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10198,11 +10366,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10213,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10221,11 +10389,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10236,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10244,11 +10412,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10259,18 +10427,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="5">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10290,22 +10458,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10313,13 +10481,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10341,7 +10509,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10382,16 +10550,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>884</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10405,16 +10573,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>889</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -10428,22 +10596,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10451,22 +10619,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10474,22 +10642,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10497,10 +10665,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>664</v>
+        <v>808</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>665</v>
@@ -10513,6 +10681,9 @@
       </c>
       <c r="G235">
         <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10520,10 +10691,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10537,8 +10708,8 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="I236" t="s">
-        <v>666</v>
+      <c r="I236" s="9" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10546,25 +10717,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>670</v>
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10572,16 +10743,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>675</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -10598,16 +10769,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>680</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -10616,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10624,13 +10795,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10641,8 +10812,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>685</v>
+      <c r="I240" s="9" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10650,13 +10821,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10668,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10676,13 +10847,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10694,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10702,13 +10873,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10720,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10728,13 +10899,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10746,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10754,13 +10925,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10772,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -10780,13 +10951,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10798,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -10806,13 +10977,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10824,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -10832,16 +11003,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -10850,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -10861,13 +11032,13 @@
         <v>723</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -10876,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -10884,14 +11055,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -10902,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -10913,10 +11084,10 @@
         <v>731</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10936,78 +11107,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C252" t="s">
+        <v>739</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C253" t="s">
-        <v>744</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>737</v>
+      <c r="B253" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>942</v>
+      </c>
+      <c r="E253" s="24">
+        <v>1</v>
+      </c>
+      <c r="F253" s="24">
+        <v>1</v>
+      </c>
+      <c r="G253" s="24">
+        <v>1</v>
+      </c>
+      <c r="H253" s="24"/>
+      <c r="I253" s="23" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="25" t="s">
+      <c r="B254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="27" t="s">
+      <c r="C254" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D254" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="D254" s="25" t="s">
-        <v>742</v>
-      </c>
-      <c r="E254" s="27">
-        <v>1</v>
-      </c>
-      <c r="F254" s="27">
-        <v>1</v>
-      </c>
-      <c r="G254" s="27">
-        <v>1</v>
-      </c>
-      <c r="H254" s="27"/>
-      <c r="I254" s="25" t="s">
-        <v>738</v>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11015,198 +11186,198 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+    </row>
+    <row r="256" spans="1:9" s="22" customFormat="1" ht="16.5">
       <c r="A256" s="5">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="C256" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
-      <c r="A257" s="16">
+      <c r="E256" s="16">
+        <v>1</v>
+      </c>
+      <c r="F256" s="16">
+        <v>1</v>
+      </c>
+      <c r="G256" s="16">
+        <v>1</v>
+      </c>
+      <c r="H256" s="16"/>
+      <c r="I256" s="15" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A257" s="5">
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>754</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>922</v>
+        <v>752</v>
       </c>
       <c r="D257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="E257" s="16">
+        <v>0</v>
+      </c>
+      <c r="F257" s="16">
+        <v>1</v>
+      </c>
+      <c r="G257" s="16">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="E257" s="17">
-        <v>1</v>
-      </c>
-      <c r="F257" s="17">
-        <v>1</v>
-      </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="H257" s="17"/>
-      <c r="I257" s="15" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A258" s="16">
-        <v>257</v>
-      </c>
-      <c r="B258" s="15" t="s">
+      <c r="C258" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="E258" s="16">
+        <v>0</v>
+      </c>
+      <c r="F258" s="16">
+        <v>1</v>
+      </c>
+      <c r="G258" s="16">
+        <v>1</v>
+      </c>
+      <c r="I258" s="15" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="E258" s="17">
-        <v>0</v>
-      </c>
-      <c r="F258" s="17">
-        <v>1</v>
-      </c>
-      <c r="G258" s="17">
-        <v>1</v>
-      </c>
-      <c r="I258" s="15" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A259" s="16">
-        <v>258</v>
-      </c>
-      <c r="B259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="E259" s="16">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16">
+        <v>1</v>
+      </c>
+      <c r="G259" s="16">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D259" s="15" t="s">
+    </row>
+    <row r="260" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="E259" s="17">
-        <v>0</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A260" s="16">
-        <v>259</v>
-      </c>
-      <c r="B260" s="15" t="s">
+      <c r="C260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="16">
+        <v>0</v>
+      </c>
+      <c r="F260" s="16">
+        <v>1</v>
+      </c>
+      <c r="G260" s="16">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A261" s="16">
-        <v>260</v>
-      </c>
-      <c r="B261" s="15" t="s">
+      <c r="C261" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D261" t="s">
         <v>767</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>768</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="5">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="D262" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11216,1452 +11387,1603 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="16" customFormat="1" ht="16.5">
       <c r="A263" s="5">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="E263" s="16">
+        <v>0</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="D263" s="15" t="s">
+    </row>
+    <row r="264" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A264" s="16">
-        <v>263</v>
-      </c>
-      <c r="B264" s="15" t="s">
+      <c r="C264" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="E264" s="16">
+        <v>0</v>
+      </c>
+      <c r="F264" s="16">
+        <v>1</v>
+      </c>
+      <c r="G264" s="16">
+        <v>1</v>
+      </c>
+      <c r="I264" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
+      <c r="C265" s="15" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A265" s="16">
-        <v>264</v>
-      </c>
-      <c r="B265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="E265" s="16">
+        <v>0</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0</v>
+      </c>
+      <c r="I265" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="D265" s="15" t="s">
+    </row>
+    <row r="266" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="15" t="s">
         <v>784</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>1</v>
-      </c>
-      <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="I265" s="15" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A266" s="16">
-        <v>265</v>
-      </c>
-      <c r="B266" s="15" t="s">
-        <v>785</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="D266" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
+    </row>
+    <row r="267" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="15" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A267" s="16">
-        <v>266</v>
-      </c>
-      <c r="B267" s="15" t="s">
+      <c r="C267" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D267" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
+      <c r="E267" s="16">
+        <v>0</v>
+      </c>
+      <c r="F267" s="16">
+        <v>0</v>
+      </c>
+      <c r="G267" s="16">
+        <v>0</v>
+      </c>
+      <c r="I267" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A268" s="5">
+        <v>267</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A268" s="16">
-        <v>267</v>
-      </c>
-      <c r="B268" s="15" t="s">
+      <c r="D268" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="E268" s="16">
+        <v>0</v>
+      </c>
+      <c r="F268" s="16">
+        <v>1</v>
+      </c>
+      <c r="G268" s="16">
+        <v>1</v>
+      </c>
+      <c r="I268" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="E268" s="17">
-        <v>0</v>
-      </c>
-      <c r="F268" s="17">
-        <v>0</v>
-      </c>
-      <c r="G268" s="17">
-        <v>0</v>
-      </c>
-      <c r="I268" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A269" s="16">
-        <v>268</v>
-      </c>
-      <c r="B269" s="15" t="s">
+      <c r="C269" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="E269" s="16">
+        <v>0</v>
+      </c>
+      <c r="F269" s="16">
+        <v>0</v>
+      </c>
+      <c r="G269" s="16">
+        <v>0</v>
+      </c>
+      <c r="I269" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="D270" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="D269" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="E269" s="17">
-        <v>0</v>
-      </c>
-      <c r="F269" s="17">
-        <v>1</v>
-      </c>
-      <c r="G269" s="17">
-        <v>1</v>
-      </c>
-      <c r="I269" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A270" s="16">
-        <v>269</v>
-      </c>
-      <c r="B270" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="C270" s="15" t="s">
+      <c r="E270" s="16">
+        <v>1</v>
+      </c>
+      <c r="F270" s="16">
+        <v>1</v>
+      </c>
+      <c r="G270" s="16">
+        <v>1</v>
+      </c>
+      <c r="I270" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="15" t="s">
         <v>801</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="E270" s="17">
-        <v>0</v>
-      </c>
-      <c r="F270" s="17">
-        <v>0</v>
-      </c>
-      <c r="G270" s="17">
-        <v>0</v>
-      </c>
-      <c r="I270" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A271" s="16">
-        <v>270</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>802</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="D271" s="18" t="s">
+      <c r="D271" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E271" s="16">
+        <v>1</v>
+      </c>
+      <c r="F271" s="16">
+        <v>1</v>
+      </c>
+      <c r="G271" s="16">
+        <v>1</v>
+      </c>
+      <c r="I271" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A272" s="16">
+    </row>
+    <row r="272" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A272" s="5">
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="D272" s="18" t="s">
+      <c r="D272" s="17" t="s">
         <v>807</v>
       </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
+      <c r="E272" s="16">
+        <v>1</v>
+      </c>
+      <c r="F272" s="16">
+        <v>1</v>
+      </c>
+      <c r="G272" s="16">
+        <v>1</v>
+      </c>
+      <c r="I272" s="18" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="15" t="s">
         <v>809</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A273" s="16">
-        <v>272</v>
-      </c>
-      <c r="B273" s="15" t="s">
-        <v>810</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="E273" s="16">
+        <v>1</v>
+      </c>
+      <c r="F273" s="16">
+        <v>1</v>
+      </c>
+      <c r="G273" s="16">
+        <v>1</v>
+      </c>
+      <c r="I273" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="E273" s="17">
-        <v>1</v>
-      </c>
-      <c r="F273" s="17">
-        <v>1</v>
-      </c>
-      <c r="G273" s="17">
-        <v>1</v>
-      </c>
-      <c r="I273" s="19" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A274" s="16">
-        <v>273</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="C274" s="15" t="s">
+      <c r="D274" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="E274" s="16">
+        <v>0</v>
+      </c>
+      <c r="F274" s="16">
+        <v>0</v>
+      </c>
+      <c r="G274" s="16">
+        <v>0</v>
+      </c>
+      <c r="I274" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C275" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="D274" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="E274" s="17">
-        <v>1</v>
-      </c>
-      <c r="F274" s="17">
-        <v>1</v>
-      </c>
-      <c r="G274" s="17">
-        <v>1</v>
-      </c>
-      <c r="I274" s="19" t="s">
+      <c r="D275" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="E275" s="16">
+        <v>0</v>
+      </c>
+      <c r="F275" s="16">
+        <v>1</v>
+      </c>
+      <c r="G275" s="16">
+        <v>1</v>
+      </c>
+      <c r="I275" s="18" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A275" s="16">
-        <v>274</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>851</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>817</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>0</v>
-      </c>
-      <c r="G275" s="17">
-        <v>0</v>
-      </c>
-      <c r="I275" s="19" t="s">
+    <row r="276" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="15" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A276" s="16">
-        <v>275</v>
-      </c>
-      <c r="B276" s="15" t="s">
-        <v>822</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="D276" s="18" t="s">
+      <c r="E276" s="16">
+        <v>0</v>
+      </c>
+      <c r="F276" s="16">
+        <v>1</v>
+      </c>
+      <c r="G276" s="16">
+        <v>1</v>
+      </c>
+      <c r="I276" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
+      <c r="C277" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="D277" s="17" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A277" s="16">
-        <v>276</v>
-      </c>
-      <c r="B277" s="15" t="s">
+      <c r="E277" s="16">
+        <v>0</v>
+      </c>
+      <c r="F277" s="16">
+        <v>0</v>
+      </c>
+      <c r="G277" s="16">
+        <v>0</v>
+      </c>
+      <c r="I277" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="C277" s="15" t="s">
+    </row>
+    <row r="278" spans="1:9" ht="16.5">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D278" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>1</v>
-      </c>
-      <c r="G277" s="17">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="I278" s="18" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A278" s="16">
-        <v>277</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>828</v>
-      </c>
-      <c r="C278" s="15" t="s">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="28" customFormat="1" ht="16.5">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+      <c r="B284" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="D284" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="E284" s="28">
+        <v>1</v>
+      </c>
+      <c r="F284" s="28">
+        <v>1</v>
+      </c>
+      <c r="G284" s="28">
+        <v>1</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+      <c r="B285" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="E285" s="28">
+        <v>1</v>
+      </c>
+      <c r="F285" s="28">
+        <v>1</v>
+      </c>
+      <c r="G285" s="28">
+        <v>1</v>
+      </c>
+      <c r="I285" s="28" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="28" customFormat="1" ht="16.5">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+      <c r="B286" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="D286" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="E286" s="28">
+        <v>1</v>
+      </c>
+      <c r="F286" s="28">
+        <v>1</v>
+      </c>
+      <c r="G286" s="28">
+        <v>1</v>
+      </c>
+      <c r="I286" s="28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="26" customFormat="1" ht="16.5">
+      <c r="A287" s="5">
+        <v>286</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="D287" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="E287" s="26">
+        <v>0</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="46" customFormat="1" ht="16.5">
+      <c r="A288" s="48">
+        <v>287</v>
+      </c>
+      <c r="B288" s="45" t="s">
+        <v>860</v>
+      </c>
+      <c r="C288" s="45" t="s">
+        <v>861</v>
+      </c>
+      <c r="D288" s="45" t="s">
+        <v>862</v>
+      </c>
+      <c r="E288" s="46">
+        <v>1</v>
+      </c>
+      <c r="F288" s="46">
+        <v>1</v>
+      </c>
+      <c r="G288" s="46">
+        <v>1</v>
+      </c>
+      <c r="I288" s="45" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" ht="16.5">
+      <c r="A289" s="5">
+        <v>288</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="18" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" s="29" customFormat="1" ht="16.5">
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
+      <c r="B290" s="29" t="s">
+        <v>867</v>
+      </c>
+      <c r="C290" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="D290" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="E290" s="29">
+        <v>1</v>
+      </c>
+      <c r="F290" s="29">
+        <v>1</v>
+      </c>
+      <c r="G290" s="29">
+        <v>1</v>
+      </c>
+      <c r="I290" s="29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" s="29" customFormat="1" ht="16.5">
+      <c r="A291" s="5">
+        <v>290</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" s="29" t="s">
+        <v>872</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="E291" s="29">
+        <v>1</v>
+      </c>
+      <c r="F291" s="29">
+        <v>1</v>
+      </c>
+      <c r="G291" s="29">
+        <v>1</v>
+      </c>
+      <c r="I291" s="29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="292" spans="1:36" ht="16.5">
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="D292" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="293" spans="1:36" ht="16.5">
+      <c r="A293" s="5">
+        <v>292</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D293" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="294" spans="1:36" ht="16.5">
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
+      <c r="B294" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E294" s="16">
+        <v>0</v>
+      </c>
+      <c r="F294" s="16">
+        <v>0</v>
+      </c>
+      <c r="G294" s="16">
+        <v>0</v>
+      </c>
+      <c r="H294" s="16"/>
+      <c r="I294" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="295" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A295" s="5">
+        <v>294</v>
+      </c>
+      <c r="B295" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="E295" s="16">
+        <v>0</v>
+      </c>
+      <c r="F295" s="16">
+        <v>0</v>
+      </c>
+      <c r="G295" s="16">
+        <v>0</v>
+      </c>
+      <c r="H295" s="16"/>
+      <c r="I295" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="J295" s="16"/>
+      <c r="K295" s="16"/>
+      <c r="L295" s="16"/>
+      <c r="M295" s="16"/>
+      <c r="N295" s="16"/>
+      <c r="O295" s="16"/>
+      <c r="P295" s="16"/>
+      <c r="Q295" s="16"/>
+      <c r="R295" s="16"/>
+      <c r="S295" s="16"/>
+      <c r="T295" s="16"/>
+      <c r="U295" s="16"/>
+      <c r="V295" s="16"/>
+      <c r="W295" s="16"/>
+      <c r="X295" s="16"/>
+      <c r="Y295" s="16"/>
+      <c r="Z295" s="16"/>
+      <c r="AA295" s="16"/>
+      <c r="AB295" s="16"/>
+      <c r="AC295" s="16"/>
+      <c r="AD295" s="16"/>
+      <c r="AE295" s="16"/>
+      <c r="AF295" s="16"/>
+      <c r="AG295" s="16"/>
+      <c r="AH295" s="16"/>
+      <c r="AI295" s="16"/>
+      <c r="AJ295" s="16"/>
+    </row>
+    <row r="296" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A296" s="5">
+        <v>295</v>
+      </c>
+      <c r="B296" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="E296" s="16">
+        <v>0</v>
+      </c>
+      <c r="F296" s="16">
+        <v>0</v>
+      </c>
+      <c r="G296" s="16">
+        <v>0</v>
+      </c>
+      <c r="H296" s="16"/>
+      <c r="I296" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="J296" s="16"/>
+      <c r="K296" s="16"/>
+      <c r="L296" s="16"/>
+      <c r="M296" s="16"/>
+      <c r="N296" s="16"/>
+      <c r="O296" s="16"/>
+      <c r="P296" s="16"/>
+      <c r="Q296" s="16"/>
+      <c r="R296" s="16"/>
+      <c r="S296" s="16"/>
+      <c r="T296" s="16"/>
+      <c r="U296" s="16"/>
+      <c r="V296" s="16"/>
+      <c r="W296" s="16"/>
+      <c r="X296" s="16"/>
+      <c r="Y296" s="16"/>
+      <c r="Z296" s="16"/>
+      <c r="AA296" s="16"/>
+      <c r="AB296" s="16"/>
+      <c r="AC296" s="16"/>
+      <c r="AD296" s="16"/>
+      <c r="AE296" s="16"/>
+      <c r="AF296" s="16"/>
+      <c r="AG296" s="16"/>
+      <c r="AH296" s="16"/>
+      <c r="AI296" s="16"/>
+      <c r="AJ296" s="16"/>
+    </row>
+    <row r="297" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A297" s="5">
+        <v>296</v>
+      </c>
+      <c r="B297" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="E297" s="16">
+        <v>0</v>
+      </c>
+      <c r="F297" s="16">
+        <v>0</v>
+      </c>
+      <c r="G297" s="16">
+        <v>0</v>
+      </c>
+      <c r="H297" s="16"/>
+      <c r="I297" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="J297" s="16"/>
+      <c r="K297" s="16"/>
+      <c r="L297" s="16"/>
+      <c r="M297" s="16"/>
+      <c r="N297" s="16"/>
+      <c r="O297" s="16"/>
+      <c r="P297" s="16"/>
+      <c r="Q297" s="16"/>
+      <c r="R297" s="16"/>
+      <c r="S297" s="16"/>
+      <c r="T297" s="16"/>
+      <c r="U297" s="16"/>
+      <c r="V297" s="16"/>
+      <c r="W297" s="16"/>
+      <c r="X297" s="16"/>
+      <c r="Y297" s="16"/>
+      <c r="Z297" s="16"/>
+      <c r="AA297" s="16"/>
+      <c r="AB297" s="16"/>
+      <c r="AC297" s="16"/>
+      <c r="AD297" s="16"/>
+      <c r="AE297" s="16"/>
+      <c r="AF297" s="16"/>
+      <c r="AG297" s="16"/>
+      <c r="AH297" s="16"/>
+      <c r="AI297" s="16"/>
+      <c r="AJ297" s="16"/>
+    </row>
+    <row r="298" spans="1:36" ht="16.5">
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D298" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="D278" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
-        <v>0</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5">
-      <c r="A279" s="16">
-        <v>278</v>
-      </c>
-      <c r="B279" s="15" t="s">
-        <v>838</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>831</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5">
-      <c r="A280" s="16">
-        <v>279</v>
-      </c>
-      <c r="B280" s="15" t="s">
-        <v>833</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5">
-      <c r="A281" s="16">
-        <v>280</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="D281" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5">
-      <c r="A282" s="16">
-        <v>281</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5">
-      <c r="A283" s="16">
-        <v>282</v>
-      </c>
-      <c r="B283" s="15" t="s">
-        <v>849</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5">
-      <c r="A284" s="16">
-        <v>283</v>
-      </c>
-      <c r="B284" s="20" t="s">
-        <v>845</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>846</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A285" s="31">
-        <v>284</v>
-      </c>
-      <c r="B285" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="C285" s="32" t="s">
-        <v>857</v>
-      </c>
-      <c r="D285" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="E285" s="32">
-        <v>1</v>
-      </c>
-      <c r="F285" s="32">
-        <v>1</v>
-      </c>
-      <c r="G285" s="32">
-        <v>1</v>
-      </c>
-      <c r="I285" s="32" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A286" s="31">
-        <v>285</v>
-      </c>
-      <c r="B286" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="C286" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="D286" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="E286" s="32">
-        <v>1</v>
-      </c>
-      <c r="F286" s="32">
-        <v>1</v>
-      </c>
-      <c r="G286" s="32">
-        <v>1</v>
-      </c>
-      <c r="I286" s="32" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A287" s="31">
-        <v>286</v>
-      </c>
-      <c r="B287" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="C287" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="D287" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="E287" s="32">
-        <v>1</v>
-      </c>
-      <c r="F287" s="32">
-        <v>1</v>
-      </c>
-      <c r="G287" s="32">
-        <v>1</v>
-      </c>
-      <c r="I287" s="32" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
-      <c r="A288" s="29">
-        <v>287</v>
-      </c>
-      <c r="B288" s="30" t="s">
-        <v>862</v>
-      </c>
-      <c r="C288" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="D288" s="29" t="s">
-        <v>863</v>
-      </c>
-      <c r="E288" s="30">
-        <v>0</v>
-      </c>
-      <c r="F288" s="30">
-        <v>1</v>
-      </c>
-      <c r="G288" s="30">
-        <v>1</v>
-      </c>
-      <c r="I288" s="30" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
-      <c r="A289" s="16">
-        <v>288</v>
-      </c>
-      <c r="B289" s="15" t="s">
-        <v>865</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="D289" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="E289" s="17">
-        <v>0</v>
-      </c>
-      <c r="F289" s="17">
-        <v>0</v>
-      </c>
-      <c r="G289" s="17">
-        <v>0</v>
-      </c>
-      <c r="I289" s="15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:36" ht="16.5">
-      <c r="A290" s="16">
-        <v>289</v>
-      </c>
-      <c r="B290" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A291" s="33">
-        <v>290</v>
-      </c>
-      <c r="B291" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="C291" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="D291" s="34" t="s">
-        <v>874</v>
-      </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="34">
-        <v>1</v>
-      </c>
-      <c r="G291" s="34">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A292" s="33">
-        <v>291</v>
-      </c>
-      <c r="B292" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="C292" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="D292" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="E292" s="34">
-        <v>1</v>
-      </c>
-      <c r="F292" s="34">
-        <v>1</v>
-      </c>
-      <c r="G292" s="34">
-        <v>1</v>
-      </c>
-      <c r="I292" s="34" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="293" spans="1:36" ht="16.5">
-      <c r="A293" s="16">
-        <v>292</v>
-      </c>
-      <c r="B293" s="20" t="s">
-        <v>880</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="294" spans="1:36" ht="16.5">
-      <c r="A294" s="16">
-        <v>293</v>
-      </c>
-      <c r="B294" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="295" spans="1:36" ht="16.5">
-      <c r="A295" s="16">
-        <v>294</v>
-      </c>
-      <c r="B295" s="18" t="s">
-        <v>886</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>879</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="E295" s="17">
-        <v>0</v>
-      </c>
-      <c r="F295" s="17">
-        <v>0</v>
-      </c>
-      <c r="G295" s="17">
-        <v>0</v>
-      </c>
-      <c r="H295" s="17"/>
-      <c r="I295" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A296" s="16">
-        <v>295</v>
-      </c>
-      <c r="B296" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="E296" s="17">
-        <v>0</v>
-      </c>
-      <c r="F296" s="17">
-        <v>0</v>
-      </c>
-      <c r="G296" s="17">
-        <v>0</v>
-      </c>
-      <c r="H296" s="17"/>
-      <c r="I296" s="19" t="s">
-        <v>893</v>
-      </c>
-      <c r="J296" s="17"/>
-      <c r="K296" s="17"/>
-      <c r="L296" s="17"/>
-      <c r="M296" s="17"/>
-      <c r="N296" s="17"/>
-      <c r="O296" s="17"/>
-      <c r="P296" s="17"/>
-      <c r="Q296" s="17"/>
-      <c r="R296" s="17"/>
-      <c r="S296" s="17"/>
-      <c r="T296" s="17"/>
-      <c r="U296" s="17"/>
-      <c r="V296" s="17"/>
-      <c r="W296" s="17"/>
-      <c r="X296" s="17"/>
-      <c r="Y296" s="17"/>
-      <c r="Z296" s="17"/>
-      <c r="AA296" s="17"/>
-      <c r="AB296" s="17"/>
-      <c r="AC296" s="17"/>
-      <c r="AD296" s="17"/>
-      <c r="AE296" s="17"/>
-      <c r="AF296" s="17"/>
-      <c r="AG296" s="17"/>
-      <c r="AH296" s="17"/>
-      <c r="AI296" s="17"/>
-      <c r="AJ296" s="17"/>
-    </row>
-    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A297" s="16">
-        <v>296</v>
-      </c>
-      <c r="B297" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>896</v>
-      </c>
-      <c r="E297" s="17">
-        <v>0</v>
-      </c>
-      <c r="F297" s="17">
-        <v>0</v>
-      </c>
-      <c r="G297" s="17">
-        <v>0</v>
-      </c>
-      <c r="H297" s="17"/>
-      <c r="I297" s="19" t="s">
-        <v>893</v>
-      </c>
-      <c r="J297" s="17"/>
-      <c r="K297" s="17"/>
-      <c r="L297" s="17"/>
-      <c r="M297" s="17"/>
-      <c r="N297" s="17"/>
-      <c r="O297" s="17"/>
-      <c r="P297" s="17"/>
-      <c r="Q297" s="17"/>
-      <c r="R297" s="17"/>
-      <c r="S297" s="17"/>
-      <c r="T297" s="17"/>
-      <c r="U297" s="17"/>
-      <c r="V297" s="17"/>
-      <c r="W297" s="17"/>
-      <c r="X297" s="17"/>
-      <c r="Y297" s="17"/>
-      <c r="Z297" s="17"/>
-      <c r="AA297" s="17"/>
-      <c r="AB297" s="17"/>
-      <c r="AC297" s="17"/>
-      <c r="AD297" s="17"/>
-      <c r="AE297" s="17"/>
-      <c r="AF297" s="17"/>
-      <c r="AG297" s="17"/>
-      <c r="AH297" s="17"/>
-      <c r="AI297" s="17"/>
-      <c r="AJ297" s="17"/>
-    </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A298" s="16">
-        <v>297</v>
-      </c>
-      <c r="B298" s="18" t="s">
+      <c r="E298" s="16">
+        <v>1</v>
+      </c>
+      <c r="F298" s="16">
+        <v>1</v>
+      </c>
+      <c r="G298" s="16">
+        <v>1</v>
+      </c>
+      <c r="H298" s="16"/>
+      <c r="I298" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="J298" s="16"/>
+      <c r="K298" s="16"/>
+      <c r="L298" s="16"/>
+      <c r="M298" s="16"/>
+      <c r="N298" s="16"/>
+      <c r="O298" s="16"/>
+      <c r="P298" s="16"/>
+      <c r="Q298" s="16"/>
+      <c r="R298" s="16"/>
+      <c r="S298" s="16"/>
+      <c r="T298" s="16"/>
+      <c r="U298" s="16"/>
+      <c r="V298" s="16"/>
+      <c r="W298" s="16"/>
+      <c r="X298" s="16"/>
+      <c r="Y298" s="16"/>
+      <c r="Z298" s="16"/>
+      <c r="AA298" s="16"/>
+      <c r="AB298" s="16"/>
+      <c r="AC298" s="16"/>
+      <c r="AD298" s="16"/>
+      <c r="AE298" s="16"/>
+      <c r="AF298" s="16"/>
+      <c r="AG298" s="16"/>
+      <c r="AH298" s="16"/>
+      <c r="AI298" s="16"/>
+      <c r="AJ298" s="16"/>
+    </row>
+    <row r="299" spans="1:36" s="20" customFormat="1" ht="16.5">
+      <c r="A299" s="5">
+        <v>298</v>
+      </c>
+      <c r="B299" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="C299" s="38" t="s">
+        <v>922</v>
+      </c>
+      <c r="D299" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="E299" s="39">
+        <v>1</v>
+      </c>
+      <c r="F299" s="39">
+        <v>1</v>
+      </c>
+      <c r="G299" s="39">
+        <v>1</v>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="38" t="s">
+        <v>920</v>
+      </c>
+      <c r="J299" s="16"/>
+      <c r="K299" s="16"/>
+      <c r="L299" s="16"/>
+      <c r="M299" s="16"/>
+      <c r="N299" s="16"/>
+      <c r="O299" s="16"/>
+      <c r="P299" s="16"/>
+      <c r="Q299" s="16"/>
+      <c r="R299" s="16"/>
+      <c r="S299" s="16"/>
+      <c r="T299" s="16"/>
+      <c r="U299" s="16"/>
+      <c r="V299" s="16"/>
+      <c r="W299" s="16"/>
+      <c r="X299" s="16"/>
+      <c r="Y299" s="16"/>
+      <c r="Z299" s="16"/>
+      <c r="AA299" s="16"/>
+      <c r="AB299" s="16"/>
+      <c r="AC299" s="16"/>
+      <c r="AD299" s="16"/>
+      <c r="AE299" s="16"/>
+      <c r="AF299" s="16"/>
+      <c r="AG299" s="16"/>
+      <c r="AH299" s="16"/>
+      <c r="AI299" s="16"/>
+      <c r="AJ299" s="16"/>
+    </row>
+    <row r="300" spans="1:36" ht="16.5">
+      <c r="A300" s="5">
+        <v>299</v>
+      </c>
+      <c r="B300" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="C300" s="38" t="s">
+        <v>921</v>
+      </c>
+      <c r="D300" s="37" t="s">
+        <v>947</v>
+      </c>
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="38" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" s="16" customFormat="1" ht="16.5">
+      <c r="A301" s="5">
+        <v>300</v>
+      </c>
+      <c r="B301" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="C301" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="D301" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="E301" s="39">
+        <v>1</v>
+      </c>
+      <c r="F301" s="39">
+        <v>1</v>
+      </c>
+      <c r="G301" s="39">
+        <v>1</v>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="40" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" ht="16.5">
+      <c r="A302" s="5">
+        <v>301</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="D302" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="E302" s="16">
+        <v>1</v>
+      </c>
+      <c r="F302" s="16">
+        <v>1</v>
+      </c>
+      <c r="G302" s="16">
+        <v>1</v>
+      </c>
+      <c r="H302" s="16"/>
+      <c r="I302" s="18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" ht="16.5">
+      <c r="A303" s="5">
+        <v>302</v>
+      </c>
+      <c r="B303" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="H303" s="16"/>
+      <c r="I303" s="15" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="304" spans="1:36" ht="16.5">
+      <c r="A304" s="5">
+        <v>303</v>
+      </c>
+      <c r="B304" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="C304" s="42" t="s">
+        <v>912</v>
+      </c>
+      <c r="D304" s="41" t="s">
+        <v>913</v>
+      </c>
+      <c r="E304" s="29">
+        <v>1</v>
+      </c>
+      <c r="F304" s="29">
+        <v>1</v>
+      </c>
+      <c r="G304" s="29">
+        <v>1</v>
+      </c>
+      <c r="H304" s="29"/>
+      <c r="I304" s="42" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5">
+      <c r="A305" s="5">
+        <v>304</v>
+      </c>
+      <c r="B305" s="41" t="s">
+        <v>914</v>
+      </c>
+      <c r="C305" s="42" t="s">
+        <v>915</v>
+      </c>
+      <c r="D305" s="41" t="s">
+        <v>916</v>
+      </c>
+      <c r="E305" s="29">
+        <v>1</v>
+      </c>
+      <c r="F305" s="29">
+        <v>1</v>
+      </c>
+      <c r="G305" s="29">
+        <v>1</v>
+      </c>
+      <c r="H305" s="29"/>
+      <c r="I305" s="42" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5">
+      <c r="A306" s="5">
+        <v>305</v>
+      </c>
+      <c r="B306" s="41" t="s">
+        <v>917</v>
+      </c>
+      <c r="C306" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="D306" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="D298" s="17"/>
-      <c r="E298" s="17">
-        <v>1</v>
-      </c>
-      <c r="F298" s="17">
-        <v>1</v>
-      </c>
-      <c r="G298" s="17">
-        <v>1</v>
-      </c>
-      <c r="H298" s="17"/>
-      <c r="I298" s="15" t="s">
+      <c r="E306" s="29">
+        <v>1</v>
+      </c>
+      <c r="F306" s="29">
+        <v>1</v>
+      </c>
+      <c r="G306" s="29">
+        <v>1</v>
+      </c>
+      <c r="H306" s="29"/>
+      <c r="I306" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="J298" s="17"/>
-      <c r="K298" s="17"/>
-      <c r="L298" s="17"/>
-      <c r="M298" s="17"/>
-      <c r="N298" s="17"/>
-      <c r="O298" s="17"/>
-      <c r="P298" s="17"/>
-      <c r="Q298" s="17"/>
-      <c r="R298" s="17"/>
-      <c r="S298" s="17"/>
-      <c r="T298" s="17"/>
-      <c r="U298" s="17"/>
-      <c r="V298" s="17"/>
-      <c r="W298" s="17"/>
-      <c r="X298" s="17"/>
-      <c r="Y298" s="17"/>
-      <c r="Z298" s="17"/>
-      <c r="AA298" s="17"/>
-      <c r="AB298" s="17"/>
-      <c r="AC298" s="17"/>
-      <c r="AD298" s="17"/>
-      <c r="AE298" s="17"/>
-      <c r="AF298" s="17"/>
-      <c r="AG298" s="17"/>
-      <c r="AH298" s="17"/>
-      <c r="AI298" s="17"/>
-      <c r="AJ298" s="17"/>
-    </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A299" s="16">
-        <v>298</v>
-      </c>
-      <c r="B299" s="18" t="s">
-        <v>899</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="D299" s="18" t="s">
-        <v>901</v>
-      </c>
-      <c r="E299" s="17">
-        <v>0</v>
-      </c>
-      <c r="F299" s="17">
-        <v>0</v>
-      </c>
-      <c r="G299" s="17">
-        <v>0</v>
-      </c>
-      <c r="H299" s="17"/>
-      <c r="I299" s="19" t="s">
-        <v>893</v>
-      </c>
-      <c r="J299" s="17"/>
-      <c r="K299" s="17"/>
-      <c r="L299" s="17"/>
-      <c r="M299" s="17"/>
-      <c r="N299" s="17"/>
-      <c r="O299" s="17"/>
-      <c r="P299" s="17"/>
-      <c r="Q299" s="17"/>
-      <c r="R299" s="17"/>
-      <c r="S299" s="17"/>
-      <c r="T299" s="17"/>
-      <c r="U299" s="17"/>
-      <c r="V299" s="17"/>
-      <c r="W299" s="17"/>
-      <c r="X299" s="17"/>
-      <c r="Y299" s="17"/>
-      <c r="Z299" s="17"/>
-      <c r="AA299" s="17"/>
-      <c r="AB299" s="17"/>
-      <c r="AC299" s="17"/>
-      <c r="AD299" s="17"/>
-      <c r="AE299" s="17"/>
-      <c r="AF299" s="17"/>
-      <c r="AG299" s="17"/>
-      <c r="AH299" s="17"/>
-      <c r="AI299" s="17"/>
-      <c r="AJ299" s="17"/>
-    </row>
-    <row r="300" spans="1:36" ht="16.5">
-      <c r="A300" s="16">
-        <v>299</v>
-      </c>
-      <c r="B300" s="18" t="s">
-        <v>902</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="D300" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="E300" s="17">
-        <v>1</v>
-      </c>
-      <c r="F300" s="17">
-        <v>1</v>
-      </c>
-      <c r="G300" s="17">
-        <v>1</v>
-      </c>
-      <c r="H300" s="17"/>
-      <c r="I300" s="19" t="s">
-        <v>904</v>
-      </c>
-      <c r="J300" s="17"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="17"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="17"/>
-      <c r="O300" s="17"/>
-      <c r="P300" s="17"/>
-      <c r="Q300" s="17"/>
-      <c r="R300" s="17"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="17"/>
-      <c r="U300" s="17"/>
-      <c r="V300" s="17"/>
-      <c r="W300" s="17"/>
-      <c r="X300" s="17"/>
-      <c r="Y300" s="17"/>
-      <c r="Z300" s="17"/>
-      <c r="AA300" s="17"/>
-      <c r="AB300" s="17"/>
-      <c r="AC300" s="17"/>
-      <c r="AD300" s="17"/>
-      <c r="AE300" s="17"/>
-      <c r="AF300" s="17"/>
-      <c r="AG300" s="17"/>
-      <c r="AH300" s="17"/>
-      <c r="AI300" s="17"/>
-      <c r="AJ300" s="17"/>
-    </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A301" s="16">
-        <v>300</v>
-      </c>
-      <c r="B301" s="26" t="s">
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
+      <c r="A307" s="5">
+        <v>306</v>
+      </c>
+      <c r="B307" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C307" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="17.25">
+      <c r="A308" s="5">
+        <v>307</v>
+      </c>
+      <c r="B308" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="E308" s="16">
+        <v>1</v>
+      </c>
+      <c r="F308" s="16">
+        <v>1</v>
+      </c>
+      <c r="G308" s="16">
+        <v>1</v>
+      </c>
+      <c r="H308" s="16"/>
+      <c r="I308" s="15" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="17.25">
+      <c r="A309" s="5">
+        <v>308</v>
+      </c>
+      <c r="B309" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="C301" s="25" t="s">
+      <c r="D309" s="43" t="s">
+        <v>932</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="H309" s="16"/>
+      <c r="I309" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
+      <c r="A310" s="5">
+        <v>309</v>
+      </c>
+      <c r="B310" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="C310" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="30" t="s">
+        <v>935</v>
+      </c>
+      <c r="E310" s="22">
+        <v>1</v>
+      </c>
+      <c r="F310" s="22">
+        <v>1</v>
+      </c>
+      <c r="G310" s="22">
+        <v>1</v>
+      </c>
+      <c r="H310" s="22"/>
+      <c r="I310" s="32" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="17.25">
+      <c r="A311" s="5">
+        <v>310</v>
+      </c>
+      <c r="B311" s="33" t="s">
         <v>937</v>
       </c>
-      <c r="D301" s="26" t="s">
-        <v>930</v>
-      </c>
-      <c r="E301" s="27">
-        <v>1</v>
-      </c>
-      <c r="F301" s="27">
-        <v>1</v>
-      </c>
-      <c r="G301" s="27">
-        <v>1</v>
-      </c>
-      <c r="H301" s="27"/>
-      <c r="I301" s="25" t="s">
-        <v>935</v>
-      </c>
-      <c r="J301" s="17"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="17"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="17"/>
-      <c r="O301" s="17"/>
-      <c r="P301" s="17"/>
-      <c r="Q301" s="17"/>
-      <c r="R301" s="17"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="17"/>
-      <c r="U301" s="17"/>
-      <c r="V301" s="17"/>
-      <c r="W301" s="17"/>
-      <c r="X301" s="17"/>
-      <c r="Y301" s="17"/>
-      <c r="Z301" s="17"/>
-      <c r="AA301" s="17"/>
-      <c r="AB301" s="17"/>
-      <c r="AC301" s="17"/>
-      <c r="AD301" s="17"/>
-      <c r="AE301" s="17"/>
-      <c r="AF301" s="17"/>
-      <c r="AG301" s="17"/>
-      <c r="AH301" s="17"/>
-      <c r="AI301" s="17"/>
-      <c r="AJ301" s="17"/>
-    </row>
-    <row r="302" spans="1:36" ht="16.5">
-      <c r="A302" s="16">
-        <v>301</v>
-      </c>
-      <c r="B302" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>936</v>
-      </c>
-      <c r="D302" s="26" t="s">
-        <v>906</v>
-      </c>
-      <c r="E302" s="27">
-        <v>1</v>
-      </c>
-      <c r="F302" s="27">
-        <v>1</v>
-      </c>
-      <c r="G302" s="27">
-        <v>1</v>
-      </c>
-      <c r="H302" s="27"/>
-      <c r="I302" s="25" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
-      <c r="A303" s="16">
-        <v>302</v>
-      </c>
-      <c r="B303" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="C303" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="D303" s="26" t="s">
-        <v>910</v>
-      </c>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="28" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="304" spans="1:36" ht="16.5">
-      <c r="A304" s="16">
-        <v>303</v>
-      </c>
-      <c r="B304" s="17" t="s">
-        <v>911</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>912</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>913</v>
-      </c>
-      <c r="E304" s="17">
-        <v>1</v>
-      </c>
-      <c r="F304" s="17">
-        <v>1</v>
-      </c>
-      <c r="G304" s="17">
-        <v>1</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5">
-      <c r="A305" s="16">
-        <v>304</v>
-      </c>
-      <c r="B305" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="C305" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="E305" s="17">
-        <v>0</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="H305" s="17"/>
-      <c r="I305" s="15" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="16.5">
-      <c r="A306" s="16">
-        <v>305</v>
-      </c>
-      <c r="B306" s="18" t="s">
-        <v>924</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>926</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="H306" s="17"/>
-      <c r="I306" s="15" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5">
-      <c r="A307" s="16">
-        <v>306</v>
-      </c>
-      <c r="B307" s="26" t="s">
-        <v>927</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>928</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>929</v>
-      </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="25" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5">
-      <c r="A308" s="16">
-        <v>307</v>
-      </c>
-      <c r="B308" s="26" t="s">
-        <v>932</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>933</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>934</v>
-      </c>
-      <c r="E308" s="27">
-        <v>1</v>
-      </c>
-      <c r="F308" s="27">
-        <v>1</v>
-      </c>
-      <c r="G308" s="27">
-        <v>1</v>
-      </c>
-      <c r="H308" s="27"/>
-      <c r="I308" s="25" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
-      <c r="A309" s="16">
-        <v>308</v>
-      </c>
-      <c r="B309" s="18" t="s">
+      <c r="C311" s="31" t="s">
         <v>938</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D311" s="33" t="s">
         <v>939</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="E311" s="22">
+        <v>1</v>
+      </c>
+      <c r="F311" s="22">
+        <v>1</v>
+      </c>
+      <c r="G311" s="22">
+        <v>1</v>
+      </c>
+      <c r="H311" s="22"/>
+      <c r="I311" s="31" t="s">
         <v>940</v>
       </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="17.25">
-      <c r="A310" s="16">
-        <v>309</v>
-      </c>
-      <c r="B310" s="24" t="s">
-        <v>941</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>942</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>943</v>
-      </c>
-      <c r="E310" s="27">
-        <v>1</v>
-      </c>
-      <c r="F310" s="27">
-        <v>1</v>
-      </c>
-      <c r="G310" s="27">
-        <v>1</v>
-      </c>
-      <c r="H310" s="27"/>
-      <c r="I310" s="25" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="17.25">
-      <c r="A311" s="16">
-        <v>310</v>
-      </c>
-      <c r="B311" s="24" t="s">
-        <v>945</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>946</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>947</v>
-      </c>
-      <c r="E311" s="27">
-        <v>1</v>
-      </c>
-      <c r="F311" s="27">
-        <v>1</v>
-      </c>
-      <c r="G311" s="27">
-        <v>1</v>
-      </c>
-      <c r="H311" s="27"/>
-      <c r="I311" s="28" t="s">
-        <v>644</v>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
+      <c r="A312" s="5">
+        <v>311</v>
+      </c>
+      <c r="B312" s="44" t="s">
+        <v>954</v>
+      </c>
+      <c r="C312" s="45" t="s">
+        <v>955</v>
+      </c>
+      <c r="D312" s="46"/>
+      <c r="E312" s="46">
+        <v>1</v>
+      </c>
+      <c r="F312" s="46">
+        <v>1</v>
+      </c>
+      <c r="G312" s="46">
+        <v>1</v>
+      </c>
+      <c r="H312" s="46"/>
+      <c r="I312" s="45" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
+      <c r="A313" s="5">
+        <v>312</v>
+      </c>
+      <c r="B313" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="C313" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="D313" s="46"/>
+      <c r="E313" s="46">
+        <v>1</v>
+      </c>
+      <c r="F313" s="46">
+        <v>1</v>
+      </c>
+      <c r="G313" s="46">
+        <v>1</v>
+      </c>
+      <c r="H313" s="46"/>
+      <c r="I313" s="45" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A314" s="5">
+        <v>313</v>
+      </c>
+      <c r="B314" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="C314" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="D314" s="46"/>
+      <c r="E314" s="46">
+        <v>1</v>
+      </c>
+      <c r="F314" s="46">
+        <v>1</v>
+      </c>
+      <c r="G314" s="46">
+        <v>1</v>
+      </c>
+      <c r="H314" s="46"/>
+      <c r="I314" s="45" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
+      <c r="A315" s="5">
+        <v>314</v>
+      </c>
+      <c r="B315" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="C315" s="45" t="s">
+        <v>963</v>
+      </c>
+      <c r="D315" s="46"/>
+      <c r="E315" s="46">
+        <v>1</v>
+      </c>
+      <c r="F315" s="46">
+        <v>1</v>
+      </c>
+      <c r="G315" s="46">
+        <v>1</v>
+      </c>
+      <c r="H315" s="46"/>
+      <c r="I315" s="45" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
+      <c r="A316" s="5">
+        <v>315</v>
+      </c>
+      <c r="B316" s="44" t="s">
+        <v>951</v>
+      </c>
+      <c r="C316" s="45" t="s">
+        <v>965</v>
+      </c>
+      <c r="D316" s="46"/>
+      <c r="E316" s="46">
+        <v>1</v>
+      </c>
+      <c r="F316" s="46">
+        <v>1</v>
+      </c>
+      <c r="G316" s="46">
+        <v>1</v>
+      </c>
+      <c r="H316" s="46"/>
+      <c r="I316" s="45" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="5">
+        <v>316</v>
+      </c>
+      <c r="B317" s="44" t="s">
+        <v>966</v>
+      </c>
+      <c r="C317" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="D317" s="46"/>
+      <c r="E317" s="46">
+        <v>1</v>
+      </c>
+      <c r="F317" s="46">
+        <v>1</v>
+      </c>
+      <c r="G317" s="46">
+        <v>1</v>
+      </c>
+      <c r="H317" s="46"/>
+      <c r="I317" s="45" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
+      <c r="A318" s="5">
+        <v>317</v>
+      </c>
+      <c r="B318" s="44" t="s">
+        <v>950</v>
+      </c>
+      <c r="C318" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="D318" s="46"/>
+      <c r="E318" s="46">
+        <v>1</v>
+      </c>
+      <c r="F318" s="46">
+        <v>1</v>
+      </c>
+      <c r="G318" s="46">
+        <v>1</v>
+      </c>
+      <c r="H318" s="46"/>
+      <c r="I318" s="47" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12684,7 +13006,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="970">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3990,6 +3990,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3998,58 +4018,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_001_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4070,6 +4046,30 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_drop_style/act_004_baozhu</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4078,7 +4078,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8号</t>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4086,7 +4086,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4255,13 +4259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4297,7 +4301,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4346,6 +4350,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4388,18 +4395,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4418,7 +4413,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4427,7 +4422,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4442,7 +4437,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4724,16 +4725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4745,7 +4746,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4774,7 +4775,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4800,7 +4801,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4826,7 +4827,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4852,7 +4853,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4878,7 +4879,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4904,7 +4905,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="5">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4930,7 +4931,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4956,7 +4957,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="5">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4982,7 +4983,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="5">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -5008,7 +5009,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="5">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5034,7 +5035,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="5">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5060,7 +5061,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="5">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5086,7 +5087,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="5">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5112,7 +5113,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="5">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5138,7 +5139,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="5">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5164,7 +5165,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
-      <c r="A17" s="5">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5190,7 +5191,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
-      <c r="A18" s="5">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5216,7 +5217,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="5">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5242,7 +5243,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
-      <c r="A20" s="5">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5268,7 +5269,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
-      <c r="A21" s="5">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5294,7 +5295,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="5">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5320,7 +5321,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
-      <c r="A23" s="5">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5346,7 +5347,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
-      <c r="A24" s="5">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5372,7 +5373,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
-      <c r="A25" s="5">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5398,7 +5399,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="5">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5424,7 +5425,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
-      <c r="A27" s="5">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5450,7 +5451,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
-      <c r="A28" s="5">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5476,7 +5477,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
-      <c r="A29" s="5">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5502,7 +5503,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
-      <c r="A30" s="5">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5528,7 +5529,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
-      <c r="A31" s="5">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5554,7 +5555,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
-      <c r="A32" s="5">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5580,7 +5581,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
-      <c r="A33" s="5">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5606,7 +5607,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
-      <c r="A34" s="5">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5632,7 +5633,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
-      <c r="A35" s="5">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5658,7 +5659,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
-      <c r="A36" s="5">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5684,7 +5685,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
-      <c r="A37" s="5">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5710,7 +5711,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
-      <c r="A38" s="5">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5736,7 +5737,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
-      <c r="A39" s="5">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5762,7 +5763,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
-      <c r="A40" s="5">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5788,7 +5789,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
-      <c r="A41" s="5">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5814,7 +5815,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
-      <c r="A42" s="5">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5840,7 +5841,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
-      <c r="A43" s="5">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5866,7 +5867,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
-      <c r="A44" s="5">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5892,7 +5893,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
-      <c r="A45" s="5">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5918,7 +5919,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
-      <c r="A46" s="5">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5944,7 +5945,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
-      <c r="A47" s="5">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5970,7 +5971,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
-      <c r="A48" s="5">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5996,7 +5997,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
-      <c r="A49" s="5">
+      <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -6022,7 +6023,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
-      <c r="A50" s="5">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -6048,7 +6049,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
-      <c r="A51" s="5">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -6074,7 +6075,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
-      <c r="A52" s="5">
+      <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -6098,7 +6099,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A53" s="5">
+      <c r="A53" s="16">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -6124,7 +6125,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
-      <c r="A54" s="5">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -6150,7 +6151,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
-      <c r="A55" s="5">
+      <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6176,7 +6177,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
-      <c r="A56" s="5">
+      <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6202,7 +6203,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
-      <c r="A57" s="5">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6228,7 +6229,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
-      <c r="A58" s="5">
+      <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6254,7 +6255,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
-      <c r="A59" s="5">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6280,7 +6281,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
-      <c r="A60" s="5">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6306,7 +6307,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
-      <c r="A61" s="5">
+      <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6332,7 +6333,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
-      <c r="A62" s="5">
+      <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6358,7 +6359,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
-      <c r="A63" s="5">
+      <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6384,7 +6385,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
-      <c r="A64" s="5">
+      <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6410,7 +6411,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
-      <c r="A65" s="5">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6436,7 +6437,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
-      <c r="A66" s="5">
+      <c r="A66" s="16">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6462,7 +6463,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
-      <c r="A67" s="5">
+      <c r="A67" s="16">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6488,7 +6489,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
-      <c r="A68" s="5">
+      <c r="A68" s="16">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6514,7 +6515,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
-      <c r="A69" s="5">
+      <c r="A69" s="16">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6540,7 +6541,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
-      <c r="A70" s="5">
+      <c r="A70" s="16">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6566,7 +6567,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
-      <c r="A71" s="5">
+      <c r="A71" s="16">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6592,7 +6593,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
-      <c r="A72" s="5">
+      <c r="A72" s="16">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6618,7 +6619,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
-      <c r="A73" s="5">
+      <c r="A73" s="16">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6643,34 +6644,34 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="35" customFormat="1" ht="16.5">
-      <c r="A74" s="5">
+    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="34">
-        <v>0</v>
-      </c>
-      <c r="F74" s="35">
-        <v>0</v>
-      </c>
-      <c r="G74" s="35">
-        <v>0</v>
-      </c>
-      <c r="I74" s="36" t="s">
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="5">
+      <c r="A75" s="16">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -6696,7 +6697,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
-      <c r="A76" s="5">
+      <c r="A76" s="16">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6722,7 +6723,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
-      <c r="A77" s="5">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6748,7 +6749,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
-      <c r="A78" s="5">
+      <c r="A78" s="16">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6774,7 +6775,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
-      <c r="A79" s="5">
+      <c r="A79" s="16">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6800,7 +6801,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
-      <c r="A80" s="5">
+      <c r="A80" s="16">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6826,7 +6827,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
-      <c r="A81" s="5">
+      <c r="A81" s="16">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6852,7 +6853,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
-      <c r="A82" s="5">
+      <c r="A82" s="16">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6878,7 +6879,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
-      <c r="A83" s="5">
+      <c r="A83" s="16">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6904,7 +6905,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
-      <c r="A84" s="5">
+      <c r="A84" s="16">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6930,7 +6931,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
-      <c r="A85" s="5">
+      <c r="A85" s="16">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6956,7 +6957,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
-      <c r="A86" s="5">
+      <c r="A86" s="16">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6982,7 +6983,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
-      <c r="A87" s="5">
+      <c r="A87" s="16">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -7008,7 +7009,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
-      <c r="A88" s="5">
+      <c r="A88" s="16">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -7034,7 +7035,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
-      <c r="A89" s="5">
+      <c r="A89" s="16">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7060,7 +7061,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
-      <c r="A90" s="5">
+      <c r="A90" s="16">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -7086,7 +7087,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
-      <c r="A91" s="5">
+      <c r="A91" s="16">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -7112,7 +7113,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
-      <c r="A92" s="5">
+      <c r="A92" s="16">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -7138,7 +7139,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
-      <c r="A93" s="5">
+      <c r="A93" s="16">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -7164,7 +7165,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
-      <c r="A94" s="5">
+      <c r="A94" s="16">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -7190,7 +7191,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
-      <c r="A95" s="5">
+      <c r="A95" s="16">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -7216,7 +7217,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
-      <c r="A96" s="5">
+      <c r="A96" s="16">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -7242,7 +7243,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
-      <c r="A97" s="5">
+      <c r="A97" s="16">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -7268,7 +7269,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
-      <c r="A98" s="5">
+      <c r="A98" s="16">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -7294,7 +7295,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
-      <c r="A99" s="5">
+      <c r="A99" s="16">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -7320,7 +7321,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
-      <c r="A100" s="5">
+      <c r="A100" s="16">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7346,7 +7347,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
-      <c r="A101" s="5">
+      <c r="A101" s="16">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -7372,7 +7373,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
-      <c r="A102" s="5">
+      <c r="A102" s="16">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -7398,7 +7399,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
-      <c r="A103" s="5">
+      <c r="A103" s="16">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7424,7 +7425,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
-      <c r="A104" s="5">
+      <c r="A104" s="16">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -7450,7 +7451,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
-      <c r="A105" s="5">
+      <c r="A105" s="16">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -7476,7 +7477,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
-      <c r="A106" s="5">
+      <c r="A106" s="16">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -7502,7 +7503,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
-      <c r="A107" s="5">
+      <c r="A107" s="16">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -7528,7 +7529,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
-      <c r="A108" s="5">
+      <c r="A108" s="16">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -7554,7 +7555,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
-      <c r="A109" s="5">
+      <c r="A109" s="16">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -7580,7 +7581,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
-      <c r="A110" s="5">
+      <c r="A110" s="16">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -7606,7 +7607,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
-      <c r="A111" s="5">
+      <c r="A111" s="16">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -7632,7 +7633,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
-      <c r="A112" s="5">
+      <c r="A112" s="16">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -7658,7 +7659,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
-      <c r="A113" s="5">
+      <c r="A113" s="16">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -7684,7 +7685,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
-      <c r="A114" s="5">
+      <c r="A114" s="16">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -7710,7 +7711,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
-      <c r="A115" s="5">
+      <c r="A115" s="16">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7736,7 +7737,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
-      <c r="A116" s="5">
+      <c r="A116" s="16">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -7762,7 +7763,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
-      <c r="A117" s="5">
+      <c r="A117" s="16">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -7788,7 +7789,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
-      <c r="A118" s="5">
+      <c r="A118" s="16">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -7814,7 +7815,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
-      <c r="A119" s="5">
+      <c r="A119" s="16">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -7840,7 +7841,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
-      <c r="A120" s="5">
+      <c r="A120" s="16">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -7866,7 +7867,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
-      <c r="A121" s="5">
+      <c r="A121" s="16">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7892,7 +7893,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
-      <c r="A122" s="5">
+      <c r="A122" s="16">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -7918,7 +7919,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
-      <c r="A123" s="5">
+      <c r="A123" s="16">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -7944,7 +7945,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
-      <c r="A124" s="5">
+      <c r="A124" s="16">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -7970,7 +7971,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
-      <c r="A125" s="5">
+      <c r="A125" s="16">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -7996,7 +7997,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
-      <c r="A126" s="5">
+      <c r="A126" s="16">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -8022,7 +8023,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
-      <c r="A127" s="5">
+      <c r="A127" s="16">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -8048,7 +8049,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
-      <c r="A128" s="5">
+      <c r="A128" s="16">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -8074,7 +8075,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
-      <c r="A129" s="5">
+      <c r="A129" s="16">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -8100,7 +8101,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
-      <c r="A130" s="5">
+      <c r="A130" s="16">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -8126,7 +8127,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
-      <c r="A131" s="5">
+      <c r="A131" s="16">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -8152,7 +8153,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
-      <c r="A132" s="5">
+      <c r="A132" s="16">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -8178,7 +8179,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
-      <c r="A133" s="5">
+      <c r="A133" s="16">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -8204,7 +8205,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
-      <c r="A134" s="5">
+      <c r="A134" s="16">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -8230,7 +8231,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
-      <c r="A135" s="5">
+      <c r="A135" s="16">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -8256,7 +8257,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
-      <c r="A136" s="5">
+      <c r="A136" s="16">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -8282,7 +8283,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
-      <c r="A137" s="5">
+      <c r="A137" s="16">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -8308,7 +8309,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
-      <c r="A138" s="5">
+      <c r="A138" s="16">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -8334,7 +8335,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
-      <c r="A139" s="5">
+      <c r="A139" s="16">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -8360,7 +8361,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
-      <c r="A140" s="5">
+      <c r="A140" s="16">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -8386,7 +8387,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
-      <c r="A141" s="5">
+      <c r="A141" s="16">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8412,7 +8413,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
-      <c r="A142" s="5">
+      <c r="A142" s="16">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -8438,7 +8439,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
-      <c r="A143" s="5">
+      <c r="A143" s="16">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -8464,7 +8465,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
-      <c r="A144" s="5">
+      <c r="A144" s="16">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -8490,7 +8491,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
-      <c r="A145" s="5">
+      <c r="A145" s="16">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -8516,7 +8517,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
-      <c r="A146" s="5">
+      <c r="A146" s="16">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -8542,7 +8543,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
-      <c r="A147" s="5">
+      <c r="A147" s="16">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -8568,7 +8569,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
-      <c r="A148" s="5">
+      <c r="A148" s="16">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -8594,7 +8595,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
-      <c r="A149" s="5">
+      <c r="A149" s="16">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -8620,7 +8621,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
-      <c r="A150" s="5">
+      <c r="A150" s="16">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -8646,7 +8647,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
-      <c r="A151" s="5">
+      <c r="A151" s="16">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -8672,7 +8673,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
-      <c r="A152" s="5">
+      <c r="A152" s="16">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -8698,7 +8699,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
-      <c r="A153" s="5">
+      <c r="A153" s="16">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -8724,7 +8725,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
-      <c r="A154" s="5">
+      <c r="A154" s="16">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8750,7 +8751,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
-      <c r="A155" s="5">
+      <c r="A155" s="16">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8776,7 +8777,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
-      <c r="A156" s="5">
+      <c r="A156" s="16">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -8802,7 +8803,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
-      <c r="A157" s="5">
+      <c r="A157" s="16">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -8828,7 +8829,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
-      <c r="A158" s="5">
+      <c r="A158" s="16">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -8854,7 +8855,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
-      <c r="A159" s="5">
+      <c r="A159" s="16">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -8880,7 +8881,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
-      <c r="A160" s="5">
+      <c r="A160" s="16">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -8906,7 +8907,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
-      <c r="A161" s="5">
+      <c r="A161" s="16">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -8932,7 +8933,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
-      <c r="A162" s="5">
+      <c r="A162" s="16">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -8958,7 +8959,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
-      <c r="A163" s="5">
+      <c r="A163" s="16">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -8984,7 +8985,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
-      <c r="A164" s="5">
+      <c r="A164" s="16">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -9010,7 +9011,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
-      <c r="A165" s="5">
+      <c r="A165" s="16">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -9036,7 +9037,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
-      <c r="A166" s="5">
+      <c r="A166" s="16">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -9062,7 +9063,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
-      <c r="A167" s="5">
+      <c r="A167" s="16">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -9088,7 +9089,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
-      <c r="A168" s="5">
+      <c r="A168" s="16">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -9114,7 +9115,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
-      <c r="A169" s="5">
+      <c r="A169" s="16">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -9138,7 +9139,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
-      <c r="A170" s="5">
+      <c r="A170" s="16">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -9162,7 +9163,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
-      <c r="A171" s="5">
+      <c r="A171" s="16">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -9186,7 +9187,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
-      <c r="A172" s="5">
+      <c r="A172" s="16">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -9210,7 +9211,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
-      <c r="A173" s="5">
+      <c r="A173" s="16">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -9236,7 +9237,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
-      <c r="A174" s="5">
+      <c r="A174" s="16">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -9260,7 +9261,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
-      <c r="A175" s="5">
+      <c r="A175" s="16">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -9284,7 +9285,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
-      <c r="A176" s="5">
+      <c r="A176" s="16">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -9308,7 +9309,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
-      <c r="A177" s="5">
+      <c r="A177" s="16">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9334,7 +9335,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
-      <c r="A178" s="5">
+      <c r="A178" s="16">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -9360,7 +9361,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
-      <c r="A179" s="5">
+      <c r="A179" s="16">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -9384,7 +9385,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A180" s="5">
+      <c r="A180" s="16">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
@@ -9408,7 +9409,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A181" s="5">
+      <c r="A181" s="16">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -9432,7 +9433,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A182" s="5">
+      <c r="A182" s="16">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -9456,7 +9457,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
-      <c r="A183" s="5">
+      <c r="A183" s="16">
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -9479,7 +9480,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
-      <c r="A184" s="5">
+      <c r="A184" s="16">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -9502,7 +9503,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
-      <c r="A185" s="5">
+      <c r="A185" s="16">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -9525,7 +9526,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
-      <c r="A186" s="5">
+      <c r="A186" s="16">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -9548,7 +9549,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
-      <c r="A187" s="5">
+      <c r="A187" s="16">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -9571,7 +9572,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
-      <c r="A188" s="5">
+      <c r="A188" s="16">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -9594,7 +9595,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
-      <c r="A189" s="5">
+      <c r="A189" s="16">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -9617,7 +9618,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
-      <c r="A190" s="5">
+      <c r="A190" s="16">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -9640,7 +9641,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
-      <c r="A191" s="5">
+      <c r="A191" s="16">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -9663,7 +9664,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
-      <c r="A192" s="5">
+      <c r="A192" s="16">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -9686,7 +9687,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
-      <c r="A193" s="5">
+      <c r="A193" s="16">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -9709,7 +9710,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
-      <c r="A194" s="5">
+      <c r="A194" s="16">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -9732,7 +9733,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
-      <c r="A195" s="5">
+      <c r="A195" s="16">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -9755,7 +9756,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
-      <c r="A196" s="5">
+      <c r="A196" s="16">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -9778,7 +9779,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
-      <c r="A197" s="5">
+      <c r="A197" s="16">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -9801,7 +9802,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
-      <c r="A198" s="5">
+      <c r="A198" s="16">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -9824,7 +9825,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
-      <c r="A199" s="5">
+      <c r="A199" s="16">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -9847,7 +9848,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
-      <c r="A200" s="5">
+      <c r="A200" s="16">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -9870,7 +9871,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
-      <c r="A201" s="5">
+      <c r="A201" s="16">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -9893,7 +9894,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
-      <c r="A202" s="5">
+      <c r="A202" s="16">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -9916,7 +9917,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
-      <c r="A203" s="5">
+      <c r="A203" s="16">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -9939,7 +9940,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
-      <c r="A204" s="5">
+      <c r="A204" s="16">
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -9965,7 +9966,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
-      <c r="A205" s="5">
+      <c r="A205" s="16">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9991,7 +9992,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
-      <c r="A206" s="5">
+      <c r="A206" s="16">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -10017,7 +10018,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
-      <c r="A207" s="5">
+      <c r="A207" s="16">
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -10040,7 +10041,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
-      <c r="A208" s="5">
+      <c r="A208" s="16">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -10063,7 +10064,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
-      <c r="A209" s="5">
+      <c r="A209" s="16">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -10086,7 +10087,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
-      <c r="A210" s="5">
+      <c r="A210" s="16">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -10109,7 +10110,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
-      <c r="A211" s="5">
+      <c r="A211" s="16">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -10132,7 +10133,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
-      <c r="A212" s="5">
+      <c r="A212" s="16">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -10155,7 +10156,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
-      <c r="A213" s="5">
+      <c r="A213" s="16">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -10178,7 +10179,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
-      <c r="A214" s="5">
+      <c r="A214" s="16">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -10201,7 +10202,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
-      <c r="A215" s="5">
+      <c r="A215" s="16">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -10224,7 +10225,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
-      <c r="A216" s="5">
+      <c r="A216" s="16">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -10247,7 +10248,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
-      <c r="A217" s="5">
+      <c r="A217" s="16">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -10270,7 +10271,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
-      <c r="A218" s="5">
+      <c r="A218" s="16">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -10293,7 +10294,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
-      <c r="A219" s="5">
+      <c r="A219" s="16">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -10316,7 +10317,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
-      <c r="A220" s="5">
+      <c r="A220" s="16">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -10339,7 +10340,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
-      <c r="A221" s="5">
+      <c r="A221" s="16">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -10362,7 +10363,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
-      <c r="A222" s="5">
+      <c r="A222" s="16">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -10385,7 +10386,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
-      <c r="A223" s="5">
+      <c r="A223" s="16">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -10408,7 +10409,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
-      <c r="A224" s="5">
+      <c r="A224" s="16">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -10431,7 +10432,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
-      <c r="A225" s="5">
+      <c r="A225" s="16">
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -10454,7 +10455,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
-      <c r="A226" s="5">
+      <c r="A226" s="16">
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -10477,7 +10478,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
-      <c r="A227" s="5">
+      <c r="A227" s="16">
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -10500,7 +10501,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5">
-      <c r="A228" s="5">
+      <c r="A228" s="16">
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -10523,7 +10524,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5">
-      <c r="A229" s="5">
+      <c r="A229" s="16">
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -10546,7 +10547,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5">
-      <c r="A230" s="5">
+      <c r="A230" s="16">
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10569,7 +10570,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5">
-      <c r="A231" s="5">
+      <c r="A231" s="16">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10592,7 +10593,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5">
-      <c r="A232" s="5">
+      <c r="A232" s="16">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10615,7 +10616,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
-      <c r="A233" s="5">
+      <c r="A233" s="16">
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10638,7 +10639,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
-      <c r="A234" s="5">
+      <c r="A234" s="16">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10661,7 +10662,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
-      <c r="A235" s="5">
+      <c r="A235" s="16">
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10687,7 +10688,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
-      <c r="A236" s="5">
+      <c r="A236" s="16">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -10713,7 +10714,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
-      <c r="A237" s="5">
+      <c r="A237" s="16">
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -10739,7 +10740,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
-      <c r="A238" s="5">
+      <c r="A238" s="16">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -10765,7 +10766,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
-      <c r="A239" s="5">
+      <c r="A239" s="16">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -10791,7 +10792,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
-      <c r="A240" s="5">
+      <c r="A240" s="16">
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -10817,7 +10818,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
-      <c r="A241" s="5">
+      <c r="A241" s="16">
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -10843,7 +10844,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
-      <c r="A242" s="5">
+      <c r="A242" s="16">
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -10869,7 +10870,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
-      <c r="A243" s="5">
+      <c r="A243" s="16">
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -10895,7 +10896,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
-      <c r="A244" s="5">
+      <c r="A244" s="16">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -10921,7 +10922,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
-      <c r="A245" s="5">
+      <c r="A245" s="16">
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -10947,7 +10948,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
-      <c r="A246" s="5">
+      <c r="A246" s="16">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -10973,7 +10974,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
-      <c r="A247" s="5">
+      <c r="A247" s="16">
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -10999,7 +11000,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
-      <c r="A248" s="5">
+      <c r="A248" s="16">
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -11025,7 +11026,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
-      <c r="A249" s="5">
+      <c r="A249" s="16">
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -11051,7 +11052,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
-      <c r="A250" s="5">
+      <c r="A250" s="16">
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -11077,7 +11078,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
-      <c r="A251" s="5">
+      <c r="A251" s="16">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -11103,7 +11104,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
-      <c r="A252" s="5">
+      <c r="A252" s="16">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -11129,34 +11130,34 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
-      <c r="A253" s="5">
+      <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="23" t="s">
+      <c r="B253" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="C253" s="24" t="s">
+      <c r="C253" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="D253" s="23" t="s">
+      <c r="D253" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="E253" s="24">
-        <v>1</v>
-      </c>
-      <c r="F253" s="24">
-        <v>1</v>
-      </c>
-      <c r="G253" s="24">
-        <v>1</v>
-      </c>
-      <c r="H253" s="24"/>
-      <c r="I253" s="23" t="s">
+      <c r="E253" s="25">
+        <v>1</v>
+      </c>
+      <c r="F253" s="25">
+        <v>1</v>
+      </c>
+      <c r="G253" s="25">
+        <v>1</v>
+      </c>
+      <c r="H253" s="25"/>
+      <c r="I253" s="24" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
-      <c r="A254" s="5">
+      <c r="A254" s="16">
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
@@ -11182,7 +11183,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
-      <c r="A255" s="5">
+      <c r="A255" s="16">
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -11207,8 +11208,8 @@
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="22" customFormat="1" ht="16.5">
-      <c r="A256" s="5">
+    <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="A256" s="16">
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
@@ -11220,22 +11221,22 @@
       <c r="D256" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="E256" s="16">
-        <v>1</v>
-      </c>
-      <c r="F256" s="16">
-        <v>1</v>
-      </c>
-      <c r="G256" s="16">
-        <v>1</v>
-      </c>
-      <c r="H256" s="16"/>
+      <c r="E256" s="17">
+        <v>1</v>
+      </c>
+      <c r="F256" s="17">
+        <v>1</v>
+      </c>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A257" s="5">
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A257" s="16">
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
@@ -11247,21 +11248,21 @@
       <c r="D257" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="E257" s="16">
-        <v>0</v>
-      </c>
-      <c r="F257" s="16">
-        <v>1</v>
-      </c>
-      <c r="G257" s="16">
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A258" s="5">
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A258" s="16">
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
@@ -11273,21 +11274,21 @@
       <c r="D258" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="E258" s="16">
-        <v>0</v>
-      </c>
-      <c r="F258" s="16">
-        <v>1</v>
-      </c>
-      <c r="G258" s="16">
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A259" s="5">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A259" s="16">
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
@@ -11299,21 +11300,21 @@
       <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="E259" s="16">
-        <v>1</v>
-      </c>
-      <c r="F259" s="16">
-        <v>1</v>
-      </c>
-      <c r="G259" s="16">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A260" s="5">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A260" s="16">
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
@@ -11325,13 +11326,13 @@
       <c r="D260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="E260" s="16">
-        <v>0</v>
-      </c>
-      <c r="F260" s="16">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
@@ -11339,7 +11340,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
-      <c r="A261" s="5">
+      <c r="A261" s="16">
         <v>260</v>
       </c>
       <c r="B261" t="s">
@@ -11365,7 +11366,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
-      <c r="A262" s="5">
+      <c r="A262" s="16">
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
@@ -11390,8 +11391,8 @@
         <v>641</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A263" s="5">
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
@@ -11403,21 +11404,21 @@
       <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="E263" s="16">
-        <v>0</v>
-      </c>
-      <c r="F263" s="16">
-        <v>0</v>
-      </c>
-      <c r="G263" s="16">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
         <v>0</v>
       </c>
       <c r="I263" s="15" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A264" s="5">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
@@ -11429,21 +11430,21 @@
       <c r="D264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="E264" s="16">
-        <v>0</v>
-      </c>
-      <c r="F264" s="16">
-        <v>1</v>
-      </c>
-      <c r="G264" s="16">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>1</v>
+      </c>
+      <c r="G264" s="17">
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A265" s="5">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A265" s="16">
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
@@ -11455,21 +11456,21 @@
       <c r="D265" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="16">
-        <v>0</v>
-      </c>
-      <c r="F265" s="16">
-        <v>0</v>
-      </c>
-      <c r="G265" s="16">
-        <v>0</v>
-      </c>
-      <c r="I265" s="16" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A266" s="5">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A266" s="16">
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
@@ -11478,24 +11479,24 @@
       <c r="C266" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="D266" s="17" t="s">
+      <c r="D266" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="F266" s="16">
-        <v>0</v>
-      </c>
-      <c r="G266" s="16">
-        <v>0</v>
-      </c>
-      <c r="I266" s="18" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A267" s="5">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A267" s="16">
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
@@ -11504,24 +11505,24 @@
       <c r="C267" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="D267" s="17" t="s">
+      <c r="D267" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="E267" s="16">
-        <v>0</v>
-      </c>
-      <c r="F267" s="16">
-        <v>0</v>
-      </c>
-      <c r="G267" s="16">
-        <v>0</v>
-      </c>
-      <c r="I267" s="18" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A268" s="5">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A268" s="16">
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
@@ -11530,24 +11531,24 @@
       <c r="C268" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="D268" s="17" t="s">
+      <c r="D268" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="E268" s="16">
-        <v>0</v>
-      </c>
-      <c r="F268" s="16">
-        <v>1</v>
-      </c>
-      <c r="G268" s="16">
-        <v>1</v>
-      </c>
-      <c r="I268" s="18" t="s">
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>1</v>
+      </c>
+      <c r="G268" s="17">
+        <v>1</v>
+      </c>
+      <c r="I268" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A269" s="5">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A269" s="16">
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
@@ -11556,24 +11557,24 @@
       <c r="C269" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="D269" s="17" t="s">
+      <c r="D269" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="E269" s="16">
-        <v>0</v>
-      </c>
-      <c r="F269" s="16">
-        <v>0</v>
-      </c>
-      <c r="G269" s="16">
-        <v>0</v>
-      </c>
-      <c r="I269" s="18" t="s">
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>0</v>
+      </c>
+      <c r="G269" s="17">
+        <v>0</v>
+      </c>
+      <c r="I269" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A270" s="5">
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A270" s="16">
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
@@ -11582,24 +11583,24 @@
       <c r="C270" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="D270" s="17" t="s">
+      <c r="D270" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="E270" s="16">
-        <v>1</v>
-      </c>
-      <c r="F270" s="16">
-        <v>1</v>
-      </c>
-      <c r="G270" s="16">
-        <v>1</v>
-      </c>
-      <c r="I270" s="18" t="s">
+      <c r="E270" s="17">
+        <v>0</v>
+      </c>
+      <c r="F270" s="17">
+        <v>0</v>
+      </c>
+      <c r="G270" s="17">
+        <v>0</v>
+      </c>
+      <c r="I270" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A271" s="5">
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A271" s="16">
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
@@ -11608,24 +11609,24 @@
       <c r="C271" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="D271" s="17" t="s">
+      <c r="D271" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="E271" s="16">
-        <v>1</v>
-      </c>
-      <c r="F271" s="16">
-        <v>1</v>
-      </c>
-      <c r="G271" s="16">
-        <v>1</v>
-      </c>
-      <c r="I271" s="18" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A272" s="5">
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A272" s="16">
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
@@ -11634,24 +11635,24 @@
       <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="D272" s="17" t="s">
+      <c r="D272" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="E272" s="16">
-        <v>1</v>
-      </c>
-      <c r="F272" s="16">
-        <v>1</v>
-      </c>
-      <c r="G272" s="16">
-        <v>1</v>
-      </c>
-      <c r="I272" s="18" t="s">
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A273" s="5">
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A273" s="16">
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
@@ -11660,24 +11661,24 @@
       <c r="C273" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D273" s="17" t="s">
+      <c r="D273" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="E273" s="16">
-        <v>1</v>
-      </c>
-      <c r="F273" s="16">
-        <v>1</v>
-      </c>
-      <c r="G273" s="16">
-        <v>1</v>
-      </c>
-      <c r="I273" s="18" t="s">
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A274" s="5">
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A274" s="16">
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
@@ -11686,24 +11687,24 @@
       <c r="C274" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="D274" s="17" t="s">
+      <c r="D274" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E274" s="16">
-        <v>0</v>
-      </c>
-      <c r="F274" s="16">
-        <v>0</v>
-      </c>
-      <c r="G274" s="16">
-        <v>0</v>
-      </c>
-      <c r="I274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A275" s="5">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
@@ -11712,24 +11713,24 @@
       <c r="C275" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="D275" s="17" t="s">
+      <c r="D275" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="E275" s="16">
-        <v>0</v>
-      </c>
-      <c r="F275" s="16">
-        <v>1</v>
-      </c>
-      <c r="G275" s="16">
-        <v>1</v>
-      </c>
-      <c r="I275" s="18" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A276" s="5">
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A276" s="16">
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
@@ -11738,21 +11739,21 @@
       <c r="C276" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="E276" s="16">
-        <v>0</v>
-      </c>
-      <c r="F276" s="16">
-        <v>1</v>
-      </c>
-      <c r="G276" s="16">
-        <v>1</v>
-      </c>
-      <c r="I276" s="18" t="s">
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A277" s="5">
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A277" s="16">
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
@@ -11761,24 +11762,24 @@
       <c r="C277" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="D277" s="17" t="s">
+      <c r="D277" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="E277" s="16">
-        <v>0</v>
-      </c>
-      <c r="F277" s="16">
-        <v>0</v>
-      </c>
-      <c r="G277" s="16">
-        <v>0</v>
-      </c>
-      <c r="I277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
-      <c r="A278" s="5">
+      <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
@@ -11787,7 +11788,7 @@
       <c r="C278" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="D278" s="17" t="s">
+      <c r="D278" s="18" t="s">
         <v>826</v>
       </c>
       <c r="E278">
@@ -11799,12 +11800,12 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="18" t="s">
+      <c r="I278" s="19" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
-      <c r="A279" s="5">
+      <c r="A279" s="16">
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
@@ -11822,12 +11823,12 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="18" t="s">
+      <c r="I279" s="19" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
-      <c r="A280" s="5">
+      <c r="A280" s="16">
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
@@ -11836,7 +11837,7 @@
       <c r="C280" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="D280" s="17" t="s">
+      <c r="D280" s="18" t="s">
         <v>830</v>
       </c>
       <c r="E280">
@@ -11848,12 +11849,12 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="18" t="s">
+      <c r="I280" s="19" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
-      <c r="A281" s="5">
+      <c r="A281" s="16">
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
@@ -11862,7 +11863,7 @@
       <c r="C281" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="D281" s="17" t="s">
+      <c r="D281" s="18" t="s">
         <v>831</v>
       </c>
       <c r="E281">
@@ -11874,12 +11875,12 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="18" t="s">
+      <c r="I281" s="19" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
-      <c r="A282" s="5">
+      <c r="A282" s="16">
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
@@ -11888,7 +11889,7 @@
       <c r="C282" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="D282" s="17" t="s">
+      <c r="D282" s="18" t="s">
         <v>845</v>
       </c>
       <c r="E282">
@@ -11900,21 +11901,21 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="18" t="s">
+      <c r="I282" s="19" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
-      <c r="A283" s="5">
+      <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="19" t="s">
+      <c r="B283" s="20" t="s">
         <v>840</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="D283" s="17" t="s">
+      <c r="D283" s="18" t="s">
         <v>842</v>
       </c>
       <c r="E283">
@@ -11926,142 +11927,142 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="18" t="s">
+      <c r="I283" s="19" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A284" s="5">
+    <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A284" s="16">
         <v>283</v>
       </c>
-      <c r="B284" s="27" t="s">
+      <c r="B284" s="28" t="s">
         <v>851</v>
       </c>
-      <c r="C284" s="28" t="s">
+      <c r="C284" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="D284" s="27" t="s">
+      <c r="D284" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="E284" s="28">
-        <v>1</v>
-      </c>
-      <c r="F284" s="28">
-        <v>1</v>
-      </c>
-      <c r="G284" s="28">
-        <v>1</v>
-      </c>
-      <c r="I284" s="28" t="s">
+      <c r="E284" s="29">
+        <v>1</v>
+      </c>
+      <c r="F284" s="29">
+        <v>1</v>
+      </c>
+      <c r="G284" s="29">
+        <v>1</v>
+      </c>
+      <c r="I284" s="29" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A285" s="5">
+    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="28" t="s">
+      <c r="B285" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="C285" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="D285" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="E285" s="28">
-        <v>1</v>
-      </c>
-      <c r="F285" s="28">
-        <v>1</v>
-      </c>
-      <c r="G285" s="28">
-        <v>1</v>
-      </c>
-      <c r="I285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A286" s="5">
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="28" t="s">
+      <c r="B286" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="C286" s="28" t="s">
+      <c r="C286" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="D286" s="27" t="s">
+      <c r="D286" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="E286" s="28">
-        <v>1</v>
-      </c>
-      <c r="F286" s="28">
-        <v>1</v>
-      </c>
-      <c r="G286" s="28">
-        <v>1</v>
-      </c>
-      <c r="I286" s="28" t="s">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="29" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="26" customFormat="1" ht="16.5">
-      <c r="A287" s="5">
+    <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="26" t="s">
+      <c r="B287" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="26" t="s">
+      <c r="C287" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="D287" s="25" t="s">
+      <c r="D287" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="E287" s="26">
-        <v>0</v>
-      </c>
-      <c r="F287" s="26">
-        <v>1</v>
-      </c>
-      <c r="G287" s="26">
-        <v>1</v>
-      </c>
-      <c r="I287" s="26" t="s">
+      <c r="E287" s="27">
+        <v>0</v>
+      </c>
+      <c r="F287" s="27">
+        <v>1</v>
+      </c>
+      <c r="G287" s="27">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="46" customFormat="1" ht="16.5">
-      <c r="A288" s="48">
+    <row r="288" spans="1:9" s="36" customFormat="1" ht="16.5">
+      <c r="A288" s="46">
         <v>287</v>
       </c>
-      <c r="B288" s="45" t="s">
+      <c r="B288" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="45" t="s">
+      <c r="C288" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="45" t="s">
+      <c r="D288" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="46">
-        <v>1</v>
-      </c>
-      <c r="F288" s="46">
-        <v>1</v>
-      </c>
-      <c r="G288" s="46">
-        <v>1</v>
-      </c>
-      <c r="I288" s="45" t="s">
+      <c r="E288" s="36">
+        <v>1</v>
+      </c>
+      <c r="F288" s="36">
+        <v>1</v>
+      </c>
+      <c r="G288" s="36">
+        <v>1</v>
+      </c>
+      <c r="I288" s="35" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
-      <c r="A289" s="5">
+      <c r="A289" s="16">
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
@@ -12070,7 +12071,7 @@
       <c r="C289" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="D289" s="17" t="s">
+      <c r="D289" s="18" t="s">
         <v>865</v>
       </c>
       <c r="E289">
@@ -12082,73 +12083,73 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="18" t="s">
+      <c r="I289" s="19" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="29" customFormat="1" ht="16.5">
-      <c r="A290" s="5">
+    <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
+      <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="29" t="s">
+      <c r="B290" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="C290" s="29" t="s">
+      <c r="C290" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="D290" s="29" t="s">
+      <c r="D290" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="E290" s="29">
-        <v>1</v>
-      </c>
-      <c r="F290" s="29">
-        <v>1</v>
-      </c>
-      <c r="G290" s="29">
-        <v>1</v>
-      </c>
-      <c r="I290" s="29" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="29" customFormat="1" ht="16.5">
-      <c r="A291" s="5">
+    <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
+      <c r="A291" s="16">
         <v>290</v>
       </c>
-      <c r="B291" s="29" t="s">
+      <c r="B291" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="C291" s="29" t="s">
+      <c r="C291" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="D291" s="29" t="s">
+      <c r="D291" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="E291" s="29">
-        <v>1</v>
-      </c>
-      <c r="F291" s="29">
-        <v>1</v>
-      </c>
-      <c r="G291" s="29">
-        <v>1</v>
-      </c>
-      <c r="I291" s="29" t="s">
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
-      <c r="A292" s="5">
+      <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="19" t="s">
+      <c r="B292" s="20" t="s">
         <v>875</v>
       </c>
       <c r="C292" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D292" s="19" t="s">
+      <c r="D292" s="20" t="s">
         <v>877</v>
       </c>
       <c r="E292">
@@ -12160,21 +12161,21 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="18" t="s">
+      <c r="I292" s="19" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
-      <c r="A293" s="5">
+      <c r="A293" s="16">
         <v>292</v>
       </c>
-      <c r="B293" s="19" t="s">
+      <c r="B293" s="20" t="s">
         <v>878</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D293" s="19" t="s">
+      <c r="D293" s="20" t="s">
         <v>880</v>
       </c>
       <c r="E293">
@@ -12186,800 +12187,794 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="18" t="s">
+      <c r="I293" s="19" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
-      <c r="A294" s="5">
+      <c r="A294" s="16">
         <v>293</v>
       </c>
-      <c r="B294" s="17" t="s">
+      <c r="B294" s="18" t="s">
         <v>881</v>
       </c>
       <c r="C294" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="D294" s="17" t="s">
+      <c r="D294" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="E294" s="16">
-        <v>0</v>
-      </c>
-      <c r="F294" s="16">
-        <v>0</v>
-      </c>
-      <c r="G294" s="16">
-        <v>0</v>
-      </c>
-      <c r="H294" s="16"/>
-      <c r="I294" s="18" t="s">
+      <c r="E294" s="17">
+        <v>0</v>
+      </c>
+      <c r="F294" s="17">
+        <v>0</v>
+      </c>
+      <c r="G294" s="17">
+        <v>0</v>
+      </c>
+      <c r="H294" s="17"/>
+      <c r="I294" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A295" s="5">
+    <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
+      <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="17" t="s">
+      <c r="B295" s="18" t="s">
         <v>885</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="D295" s="17" t="s">
+      <c r="D295" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="E295" s="16">
-        <v>0</v>
-      </c>
-      <c r="F295" s="16">
-        <v>0</v>
-      </c>
-      <c r="G295" s="16">
-        <v>0</v>
-      </c>
-      <c r="H295" s="16"/>
-      <c r="I295" s="18" t="s">
+      <c r="E295" s="17">
+        <v>0</v>
+      </c>
+      <c r="F295" s="17">
+        <v>0</v>
+      </c>
+      <c r="G295" s="17">
+        <v>0</v>
+      </c>
+      <c r="H295" s="17"/>
+      <c r="I295" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="J295" s="16"/>
-      <c r="K295" s="16"/>
-      <c r="L295" s="16"/>
-      <c r="M295" s="16"/>
-      <c r="N295" s="16"/>
-      <c r="O295" s="16"/>
-      <c r="P295" s="16"/>
-      <c r="Q295" s="16"/>
-      <c r="R295" s="16"/>
-      <c r="S295" s="16"/>
-      <c r="T295" s="16"/>
-      <c r="U295" s="16"/>
-      <c r="V295" s="16"/>
-      <c r="W295" s="16"/>
-      <c r="X295" s="16"/>
-      <c r="Y295" s="16"/>
-      <c r="Z295" s="16"/>
-      <c r="AA295" s="16"/>
-      <c r="AB295" s="16"/>
-      <c r="AC295" s="16"/>
-      <c r="AD295" s="16"/>
-      <c r="AE295" s="16"/>
-      <c r="AF295" s="16"/>
-      <c r="AG295" s="16"/>
-      <c r="AH295" s="16"/>
-      <c r="AI295" s="16"/>
-      <c r="AJ295" s="16"/>
-    </row>
-    <row r="296" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A296" s="5">
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="17"/>
+      <c r="O295" s="17"/>
+      <c r="P295" s="17"/>
+      <c r="Q295" s="17"/>
+      <c r="R295" s="17"/>
+      <c r="S295" s="17"/>
+      <c r="T295" s="17"/>
+      <c r="U295" s="17"/>
+      <c r="V295" s="17"/>
+      <c r="W295" s="17"/>
+      <c r="X295" s="17"/>
+      <c r="Y295" s="17"/>
+      <c r="Z295" s="17"/>
+      <c r="AA295" s="17"/>
+      <c r="AB295" s="17"/>
+      <c r="AC295" s="17"/>
+      <c r="AD295" s="17"/>
+      <c r="AE295" s="17"/>
+      <c r="AF295" s="17"/>
+      <c r="AG295" s="17"/>
+      <c r="AH295" s="17"/>
+      <c r="AI295" s="17"/>
+      <c r="AJ295" s="17"/>
+    </row>
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
+      <c r="A296" s="16">
         <v>295</v>
       </c>
-      <c r="B296" s="17" t="s">
+      <c r="B296" s="18" t="s">
         <v>889</v>
       </c>
       <c r="C296" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="D296" s="17" t="s">
+      <c r="D296" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="E296" s="16">
-        <v>0</v>
-      </c>
-      <c r="F296" s="16">
-        <v>0</v>
-      </c>
-      <c r="G296" s="16">
-        <v>0</v>
-      </c>
-      <c r="H296" s="16"/>
-      <c r="I296" s="18" t="s">
+      <c r="E296" s="17">
+        <v>0</v>
+      </c>
+      <c r="F296" s="17">
+        <v>0</v>
+      </c>
+      <c r="G296" s="17">
+        <v>0</v>
+      </c>
+      <c r="H296" s="17"/>
+      <c r="I296" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="J296" s="16"/>
-      <c r="K296" s="16"/>
-      <c r="L296" s="16"/>
-      <c r="M296" s="16"/>
-      <c r="N296" s="16"/>
-      <c r="O296" s="16"/>
-      <c r="P296" s="16"/>
-      <c r="Q296" s="16"/>
-      <c r="R296" s="16"/>
-      <c r="S296" s="16"/>
-      <c r="T296" s="16"/>
-      <c r="U296" s="16"/>
-      <c r="V296" s="16"/>
-      <c r="W296" s="16"/>
-      <c r="X296" s="16"/>
-      <c r="Y296" s="16"/>
-      <c r="Z296" s="16"/>
-      <c r="AA296" s="16"/>
-      <c r="AB296" s="16"/>
-      <c r="AC296" s="16"/>
-      <c r="AD296" s="16"/>
-      <c r="AE296" s="16"/>
-      <c r="AF296" s="16"/>
-      <c r="AG296" s="16"/>
-      <c r="AH296" s="16"/>
-      <c r="AI296" s="16"/>
-      <c r="AJ296" s="16"/>
-    </row>
-    <row r="297" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A297" s="5">
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="17"/>
+      <c r="N296" s="17"/>
+      <c r="O296" s="17"/>
+      <c r="P296" s="17"/>
+      <c r="Q296" s="17"/>
+      <c r="R296" s="17"/>
+      <c r="S296" s="17"/>
+      <c r="T296" s="17"/>
+      <c r="U296" s="17"/>
+      <c r="V296" s="17"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="17"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="17"/>
+      <c r="AA296" s="17"/>
+      <c r="AB296" s="17"/>
+      <c r="AC296" s="17"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="17"/>
+      <c r="AF296" s="17"/>
+      <c r="AG296" s="17"/>
+      <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
+      <c r="AJ296" s="17"/>
+    </row>
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
+      <c r="A297" s="16">
         <v>296</v>
       </c>
-      <c r="B297" s="17" t="s">
+      <c r="B297" s="18" t="s">
         <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="D297" s="17" t="s">
+      <c r="D297" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="E297" s="16">
-        <v>0</v>
-      </c>
-      <c r="F297" s="16">
-        <v>0</v>
-      </c>
-      <c r="G297" s="16">
-        <v>0</v>
-      </c>
-      <c r="H297" s="16"/>
-      <c r="I297" s="18" t="s">
+      <c r="E297" s="17">
+        <v>0</v>
+      </c>
+      <c r="F297" s="17">
+        <v>0</v>
+      </c>
+      <c r="G297" s="17">
+        <v>0</v>
+      </c>
+      <c r="H297" s="17"/>
+      <c r="I297" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="J297" s="16"/>
-      <c r="K297" s="16"/>
-      <c r="L297" s="16"/>
-      <c r="M297" s="16"/>
-      <c r="N297" s="16"/>
-      <c r="O297" s="16"/>
-      <c r="P297" s="16"/>
-      <c r="Q297" s="16"/>
-      <c r="R297" s="16"/>
-      <c r="S297" s="16"/>
-      <c r="T297" s="16"/>
-      <c r="U297" s="16"/>
-      <c r="V297" s="16"/>
-      <c r="W297" s="16"/>
-      <c r="X297" s="16"/>
-      <c r="Y297" s="16"/>
-      <c r="Z297" s="16"/>
-      <c r="AA297" s="16"/>
-      <c r="AB297" s="16"/>
-      <c r="AC297" s="16"/>
-      <c r="AD297" s="16"/>
-      <c r="AE297" s="16"/>
-      <c r="AF297" s="16"/>
-      <c r="AG297" s="16"/>
-      <c r="AH297" s="16"/>
-      <c r="AI297" s="16"/>
-      <c r="AJ297" s="16"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="17"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
+      <c r="V297" s="17"/>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+      <c r="AA297" s="17"/>
+      <c r="AB297" s="17"/>
+      <c r="AC297" s="17"/>
+      <c r="AD297" s="17"/>
+      <c r="AE297" s="17"/>
+      <c r="AF297" s="17"/>
+      <c r="AG297" s="17"/>
+      <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
+      <c r="AJ297" s="17"/>
     </row>
     <row r="298" spans="1:36" ht="16.5">
-      <c r="A298" s="5">
+      <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="17" t="s">
+      <c r="B298" s="38" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="C298" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="D298" s="17" t="s">
+      <c r="D298" s="38" t="s">
         <v>897</v>
       </c>
-      <c r="E298" s="16">
-        <v>1</v>
-      </c>
-      <c r="F298" s="16">
-        <v>1</v>
-      </c>
-      <c r="G298" s="16">
-        <v>1</v>
-      </c>
-      <c r="H298" s="16"/>
-      <c r="I298" s="18" t="s">
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="J298" s="16"/>
-      <c r="K298" s="16"/>
-      <c r="L298" s="16"/>
-      <c r="M298" s="16"/>
-      <c r="N298" s="16"/>
-      <c r="O298" s="16"/>
-      <c r="P298" s="16"/>
-      <c r="Q298" s="16"/>
-      <c r="R298" s="16"/>
-      <c r="S298" s="16"/>
-      <c r="T298" s="16"/>
-      <c r="U298" s="16"/>
-      <c r="V298" s="16"/>
-      <c r="W298" s="16"/>
-      <c r="X298" s="16"/>
-      <c r="Y298" s="16"/>
-      <c r="Z298" s="16"/>
-      <c r="AA298" s="16"/>
-      <c r="AB298" s="16"/>
-      <c r="AC298" s="16"/>
-      <c r="AD298" s="16"/>
-      <c r="AE298" s="16"/>
-      <c r="AF298" s="16"/>
-      <c r="AG298" s="16"/>
-      <c r="AH298" s="16"/>
-      <c r="AI298" s="16"/>
-      <c r="AJ298" s="16"/>
-    </row>
-    <row r="299" spans="1:36" s="20" customFormat="1" ht="16.5">
-      <c r="A299" s="5">
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+      <c r="AA298" s="17"/>
+      <c r="AB298" s="17"/>
+      <c r="AC298" s="17"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="17"/>
+      <c r="AF298" s="17"/>
+      <c r="AG298" s="17"/>
+      <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
+      <c r="AJ298" s="17"/>
+    </row>
+    <row r="299" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C299" s="38" t="s">
+      <c r="B299" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="D299" s="37" t="s">
+      <c r="D299" s="41" t="s">
         <v>948</v>
       </c>
-      <c r="E299" s="39">
-        <v>1</v>
-      </c>
-      <c r="F299" s="39">
-        <v>1</v>
-      </c>
-      <c r="G299" s="39">
-        <v>1</v>
-      </c>
-      <c r="H299" s="39"/>
-      <c r="I299" s="38" t="s">
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="H299" s="43"/>
+      <c r="I299" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="J299" s="16"/>
-      <c r="K299" s="16"/>
-      <c r="L299" s="16"/>
-      <c r="M299" s="16"/>
-      <c r="N299" s="16"/>
-      <c r="O299" s="16"/>
-      <c r="P299" s="16"/>
-      <c r="Q299" s="16"/>
-      <c r="R299" s="16"/>
-      <c r="S299" s="16"/>
-      <c r="T299" s="16"/>
-      <c r="U299" s="16"/>
-      <c r="V299" s="16"/>
-      <c r="W299" s="16"/>
-      <c r="X299" s="16"/>
-      <c r="Y299" s="16"/>
-      <c r="Z299" s="16"/>
-      <c r="AA299" s="16"/>
-      <c r="AB299" s="16"/>
-      <c r="AC299" s="16"/>
-      <c r="AD299" s="16"/>
-      <c r="AE299" s="16"/>
-      <c r="AF299" s="16"/>
-      <c r="AG299" s="16"/>
-      <c r="AH299" s="16"/>
-      <c r="AI299" s="16"/>
-      <c r="AJ299" s="16"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="17"/>
+      <c r="Q299" s="17"/>
+      <c r="R299" s="17"/>
+      <c r="S299" s="17"/>
+      <c r="T299" s="17"/>
+      <c r="U299" s="17"/>
+      <c r="V299" s="17"/>
+      <c r="W299" s="17"/>
+      <c r="X299" s="17"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="17"/>
+      <c r="AA299" s="17"/>
+      <c r="AB299" s="17"/>
+      <c r="AC299" s="17"/>
+      <c r="AD299" s="17"/>
+      <c r="AE299" s="17"/>
+      <c r="AF299" s="17"/>
+      <c r="AG299" s="17"/>
+      <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
+      <c r="AJ299" s="17"/>
     </row>
     <row r="300" spans="1:36" ht="16.5">
-      <c r="A300" s="5">
+      <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="37" t="s">
-        <v>946</v>
-      </c>
-      <c r="C300" s="38" t="s">
+      <c r="B300" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="C300" s="42" t="s">
         <v>921</v>
       </c>
-      <c r="D300" s="37" t="s">
+      <c r="D300" s="41" t="s">
         <v>947</v>
       </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="H300" s="39"/>
-      <c r="I300" s="38" t="s">
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="H300" s="43"/>
+      <c r="I300" s="42" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="16" customFormat="1" ht="16.5">
-      <c r="A301" s="5">
+    <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="37" t="s">
+      <c r="B301" s="41" t="s">
         <v>943</v>
       </c>
-      <c r="C301" s="37" t="s">
+      <c r="C301" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="D301" s="37" t="s">
+      <c r="D301" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="E301" s="39">
-        <v>1</v>
-      </c>
-      <c r="F301" s="39">
-        <v>1</v>
-      </c>
-      <c r="G301" s="39">
-        <v>1</v>
-      </c>
-      <c r="H301" s="39"/>
-      <c r="I301" s="40" t="s">
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="H301" s="43"/>
+      <c r="I301" s="44" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
-      <c r="A302" s="5">
+      <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="16" t="s">
+      <c r="B302" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="C302" s="16" t="s">
+      <c r="C302" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="D302" s="16" t="s">
+      <c r="D302" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="E302" s="16">
-        <v>1</v>
-      </c>
-      <c r="F302" s="16">
-        <v>1</v>
-      </c>
-      <c r="G302" s="16">
-        <v>1</v>
-      </c>
-      <c r="H302" s="16"/>
-      <c r="I302" s="18" t="s">
+      <c r="E302" s="17">
+        <v>1</v>
+      </c>
+      <c r="F302" s="17">
+        <v>1</v>
+      </c>
+      <c r="G302" s="17">
+        <v>1</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
-      <c r="A303" s="5">
+      <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="17" t="s">
+      <c r="B303" s="18" t="s">
         <v>907</v>
       </c>
       <c r="C303" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="D303" s="17" t="s">
+      <c r="D303" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="H303" s="16"/>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
-      <c r="A304" s="5">
+      <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="38" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="39" t="s">
         <v>912</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="E304" s="29">
-        <v>1</v>
-      </c>
-      <c r="F304" s="29">
-        <v>1</v>
-      </c>
-      <c r="G304" s="29">
-        <v>1</v>
-      </c>
-      <c r="H304" s="29"/>
-      <c r="I304" s="42" t="s">
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="30">
+        <v>1</v>
+      </c>
+      <c r="G304" s="30">
+        <v>1</v>
+      </c>
+      <c r="H304" s="30"/>
+      <c r="I304" s="39" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5">
-      <c r="A305" s="5">
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="41" t="s">
+      <c r="B305" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="C305" s="42" t="s">
+      <c r="C305" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="41" t="s">
+      <c r="D305" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="E305" s="29">
-        <v>1</v>
-      </c>
-      <c r="F305" s="29">
-        <v>1</v>
-      </c>
-      <c r="G305" s="29">
-        <v>1</v>
-      </c>
-      <c r="H305" s="29"/>
-      <c r="I305" s="42" t="s">
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="I305" s="15" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16.5">
-      <c r="A306" s="5">
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="41" t="s">
+      <c r="B306" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="42" t="s">
+      <c r="C306" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="D306" s="41" t="s">
+      <c r="D306" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="E306" s="29">
-        <v>1</v>
-      </c>
-      <c r="F306" s="29">
-        <v>1</v>
-      </c>
-      <c r="G306" s="29">
-        <v>1</v>
-      </c>
-      <c r="H306" s="29"/>
-      <c r="I306" s="42" t="s">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
-      <c r="A307" s="5">
+      <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="17" t="s">
+      <c r="B307" s="18" t="s">
         <v>923</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="D307" s="17" t="s">
+      <c r="D307" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="17.25">
-      <c r="A308" s="5">
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="37" t="s">
         <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D308" s="17" t="s">
+      <c r="D308" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="E308" s="16">
-        <v>1</v>
-      </c>
-      <c r="F308" s="16">
-        <v>1</v>
-      </c>
-      <c r="G308" s="16">
-        <v>1</v>
-      </c>
-      <c r="H308" s="16"/>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
       <c r="I308" s="15" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="17.25">
-      <c r="A309" s="5">
+    <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="43" t="s">
+      <c r="B309" s="37" t="s">
         <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="D309" s="43" t="s">
+      <c r="D309" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="H309" s="16"/>
-      <c r="I309" s="18" t="s">
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+      <c r="I309" s="19" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="16.5">
-      <c r="A310" s="5">
+    <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="31" t="s">
+      <c r="C310" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D310" s="30" t="s">
+      <c r="D310" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="E310" s="22">
-        <v>1</v>
-      </c>
-      <c r="F310" s="22">
-        <v>1</v>
-      </c>
-      <c r="G310" s="22">
-        <v>1</v>
-      </c>
-      <c r="H310" s="22"/>
-      <c r="I310" s="32" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="17.25">
-      <c r="A311" s="5">
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="33" t="s">
+      <c r="B311" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="C311" s="31" t="s">
+      <c r="C311" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D311" s="33" t="s">
+      <c r="D311" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="E311" s="22">
-        <v>1</v>
-      </c>
-      <c r="F311" s="22">
-        <v>1</v>
-      </c>
-      <c r="G311" s="22">
-        <v>1</v>
-      </c>
-      <c r="H311" s="22"/>
-      <c r="I311" s="31" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
-      <c r="A312" s="5">
+      <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="44" t="s">
+      <c r="B312" s="34" t="s">
+        <v>953</v>
+      </c>
+      <c r="C312" s="35" t="s">
         <v>954</v>
       </c>
-      <c r="C312" s="45" t="s">
+      <c r="D312" s="36"/>
+      <c r="E312" s="36">
+        <v>1</v>
+      </c>
+      <c r="F312" s="36">
+        <v>1</v>
+      </c>
+      <c r="G312" s="36">
+        <v>1</v>
+      </c>
+      <c r="H312" s="36"/>
+      <c r="I312" s="35" t="s">
         <v>955</v>
       </c>
-      <c r="D312" s="46"/>
-      <c r="E312" s="46">
-        <v>1</v>
-      </c>
-      <c r="F312" s="46">
-        <v>1</v>
-      </c>
-      <c r="G312" s="46">
-        <v>1</v>
-      </c>
-      <c r="H312" s="46"/>
-      <c r="I312" s="45" t="s">
-        <v>940</v>
-      </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
-      <c r="A313" s="5">
+      <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="44" t="s">
+      <c r="B313" s="34" t="s">
         <v>956</v>
       </c>
-      <c r="C313" s="45" t="s">
+      <c r="C313" s="35" t="s">
         <v>957</v>
       </c>
-      <c r="D313" s="46"/>
-      <c r="E313" s="46">
-        <v>1</v>
-      </c>
-      <c r="F313" s="46">
-        <v>1</v>
-      </c>
-      <c r="G313" s="46">
-        <v>1</v>
-      </c>
-      <c r="H313" s="46"/>
-      <c r="I313" s="45" t="s">
+      <c r="D313" s="36"/>
+      <c r="E313" s="36">
+        <v>1</v>
+      </c>
+      <c r="F313" s="36">
+        <v>1</v>
+      </c>
+      <c r="G313" s="36">
+        <v>1</v>
+      </c>
+      <c r="H313" s="36"/>
+      <c r="I313" s="35" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A314" s="16">
+        <v>313</v>
+      </c>
+      <c r="B314" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="C314" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="D314" s="36"/>
+      <c r="E314" s="36">
+        <v>1</v>
+      </c>
+      <c r="F314" s="36">
+        <v>1</v>
+      </c>
+      <c r="G314" s="36">
+        <v>1</v>
+      </c>
+      <c r="H314" s="36"/>
+      <c r="I314" s="35" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
+      <c r="A315" s="16">
+        <v>314</v>
+      </c>
+      <c r="B315" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="C315" s="35" t="s">
+        <v>963</v>
+      </c>
+      <c r="D315" s="36"/>
+      <c r="E315" s="36">
+        <v>1</v>
+      </c>
+      <c r="F315" s="36">
+        <v>1</v>
+      </c>
+      <c r="G315" s="36">
+        <v>1</v>
+      </c>
+      <c r="H315" s="36"/>
+      <c r="I315" s="35" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A314" s="5">
-        <v>313</v>
-      </c>
-      <c r="B314" s="44" t="s">
-        <v>959</v>
-      </c>
-      <c r="C314" s="46" t="s">
-        <v>960</v>
-      </c>
-      <c r="D314" s="46"/>
-      <c r="E314" s="46">
-        <v>1</v>
-      </c>
-      <c r="F314" s="46">
-        <v>1</v>
-      </c>
-      <c r="G314" s="46">
-        <v>1</v>
-      </c>
-      <c r="H314" s="46"/>
-      <c r="I314" s="45" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="16.5">
-      <c r="A315" s="5">
-        <v>314</v>
-      </c>
-      <c r="B315" s="44" t="s">
-        <v>962</v>
-      </c>
-      <c r="C315" s="45" t="s">
-        <v>963</v>
-      </c>
-      <c r="D315" s="46"/>
-      <c r="E315" s="46">
-        <v>1</v>
-      </c>
-      <c r="F315" s="46">
-        <v>1</v>
-      </c>
-      <c r="G315" s="46">
-        <v>1</v>
-      </c>
-      <c r="H315" s="46"/>
-      <c r="I315" s="45" t="s">
+    <row r="316" spans="1:9" ht="16.5">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="34" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
-      <c r="A316" s="5">
-        <v>315</v>
-      </c>
-      <c r="B316" s="44" t="s">
-        <v>951</v>
-      </c>
-      <c r="C316" s="45" t="s">
+      <c r="C316" s="35" t="s">
         <v>965</v>
       </c>
-      <c r="D316" s="46"/>
-      <c r="E316" s="46">
-        <v>1</v>
-      </c>
-      <c r="F316" s="46">
-        <v>1</v>
-      </c>
-      <c r="G316" s="46">
-        <v>1</v>
-      </c>
-      <c r="H316" s="46"/>
-      <c r="I316" s="45" t="s">
+      <c r="D316" s="36"/>
+      <c r="E316" s="36">
+        <v>1</v>
+      </c>
+      <c r="F316" s="36">
+        <v>1</v>
+      </c>
+      <c r="G316" s="36">
+        <v>1</v>
+      </c>
+      <c r="H316" s="36"/>
+      <c r="I316" s="35" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="34" t="s">
+        <v>946</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D317" s="36"/>
+      <c r="E317" s="36">
+        <v>1</v>
+      </c>
+      <c r="F317" s="36">
+        <v>1</v>
+      </c>
+      <c r="G317" s="36">
+        <v>1</v>
+      </c>
+      <c r="H317" s="36"/>
+      <c r="I317" s="35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
+      <c r="A318" s="16">
+        <v>317</v>
+      </c>
+      <c r="B318" s="34" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
-      <c r="A317" s="5">
-        <v>316</v>
-      </c>
-      <c r="B317" s="44" t="s">
-        <v>966</v>
-      </c>
-      <c r="C317" s="45" t="s">
-        <v>953</v>
-      </c>
-      <c r="D317" s="46"/>
-      <c r="E317" s="46">
-        <v>1</v>
-      </c>
-      <c r="F317" s="46">
-        <v>1</v>
-      </c>
-      <c r="G317" s="46">
-        <v>1</v>
-      </c>
-      <c r="H317" s="46"/>
-      <c r="I317" s="45" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="16.5">
-      <c r="A318" s="5">
-        <v>317</v>
-      </c>
-      <c r="B318" s="44" t="s">
-        <v>950</v>
-      </c>
-      <c r="C318" s="45" t="s">
-        <v>967</v>
-      </c>
-      <c r="D318" s="46"/>
-      <c r="E318" s="46">
-        <v>1</v>
-      </c>
-      <c r="F318" s="46">
-        <v>1</v>
-      </c>
-      <c r="G318" s="46">
-        <v>1</v>
-      </c>
-      <c r="H318" s="46"/>
+      <c r="C318" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="D318" s="36"/>
+      <c r="E318" s="36">
+        <v>1</v>
+      </c>
+      <c r="F318" s="36">
+        <v>1</v>
+      </c>
+      <c r="G318" s="36">
+        <v>1</v>
+      </c>
+      <c r="H318" s="36"/>
       <c r="I318" s="47" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1012">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>sys_xsfl</t>
-  </si>
-  <si>
-    <t>限时福利</t>
   </si>
   <si>
     <t>SYSXSFLManager</t>
@@ -2741,10 +2738,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>红包分享</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3448,10 +3441,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐敲金蛋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3990,45 +3979,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2月</t>
     </r>
@@ -4041,8 +3991,109 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1号</t>
+      <t>1</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9号关闭</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4054,11 +4105,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8号</t>
+    <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4070,7 +4117,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4082,7 +4153,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>太阳换好礼</t>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4090,15 +4161,203 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_005_fudai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_003_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_004_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_003_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_005_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4106,7 +4365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4201,8 +4460,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4269,6 +4534,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4301,7 +4572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4440,10 +4711,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4723,19 +5033,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ318"/>
+  <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -4759,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4771,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4797,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4823,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4849,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4875,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -4901,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -4927,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -4953,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -4979,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5005,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5031,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5057,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5083,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5109,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5135,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5161,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5187,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5213,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5239,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5265,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5291,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5317,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5343,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5369,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5395,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5421,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5432,7 +5742,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5447,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5473,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5499,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5525,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5551,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5577,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5603,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5629,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5655,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5681,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5707,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5733,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5759,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5785,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5811,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5837,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5863,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5889,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -5915,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -5941,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -5967,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -5993,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6004,7 +6314,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6019,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6045,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6071,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6095,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6121,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6129,7 +6439,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6147,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6155,7 +6465,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6173,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6199,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6225,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6251,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6277,33 +6587,33 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5">
-      <c r="A60" s="16">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="60" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>644</v>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6311,14 +6621,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" s="5">
         <v>1</v>
       </c>
@@ -6329,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6337,14 +6647,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
@@ -6355,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6363,14 +6673,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -6381,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6389,14 +6699,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
@@ -6407,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6415,14 +6725,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
@@ -6433,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6441,14 +6751,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
@@ -6459,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6467,14 +6777,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
@@ -6485,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6493,14 +6803,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -6511,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6519,14 +6829,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
@@ -6537,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6545,14 +6855,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -6563,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6571,14 +6881,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -6589,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6597,14 +6907,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
@@ -6615,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6623,14 +6933,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
@@ -6641,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -6649,14 +6959,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C74" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>219</v>
-      </c>
       <c r="E74" s="31">
         <v>0</v>
       </c>
@@ -6667,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -6675,14 +6985,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
@@ -6693,33 +7003,33 @@
         <v>1</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16.5">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>648</v>
+      <c r="E76" s="46">
+        <v>1</v>
+      </c>
+      <c r="F76" s="23">
+        <v>1</v>
+      </c>
+      <c r="G76" s="23">
+        <v>1</v>
+      </c>
+      <c r="I76" s="47" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6727,14 +7037,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -6745,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6753,14 +7063,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
@@ -6771,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6779,14 +7089,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
@@ -6797,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -6805,14 +7115,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -6823,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6831,14 +7141,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -6849,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6857,14 +7167,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -6875,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6883,14 +7193,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -6901,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -6909,14 +7219,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -6927,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -6935,14 +7245,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
@@ -6953,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -6961,14 +7271,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -6979,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -6987,14 +7297,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7005,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7013,14 +7323,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7031,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7039,14 +7349,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="E89" s="5">
         <v>0</v>
       </c>
@@ -7057,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7065,14 +7375,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
@@ -7083,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7091,14 +7401,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="E91" s="5">
         <v>0</v>
       </c>
@@ -7109,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7117,14 +7427,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="E92" s="5">
         <v>1</v>
       </c>
@@ -7135,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7143,14 +7453,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
@@ -7161,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7169,14 +7479,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7187,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7195,14 +7505,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7213,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7221,14 +7531,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7239,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7247,14 +7557,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7265,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7273,14 +7583,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7291,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7299,14 +7609,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7317,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7325,14 +7635,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
@@ -7343,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7351,14 +7661,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
@@ -7369,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7377,14 +7687,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7395,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7403,14 +7713,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
@@ -7421,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7429,14 +7739,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7447,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7455,14 +7765,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7473,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7481,14 +7791,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7499,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7507,14 +7817,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7525,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7533,14 +7843,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7551,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7559,14 +7869,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7577,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7585,14 +7895,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7603,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7611,14 +7921,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7629,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7637,14 +7947,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7655,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7663,14 +7973,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -7681,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7689,14 +7999,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -7707,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7715,14 +8025,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -7733,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7741,14 +8051,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -7759,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -7767,14 +8077,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -7785,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7793,51 +8103,51 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="E118" s="5">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="E118" s="5">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="16.5">
-      <c r="A119" s="16">
-        <v>118</v>
-      </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>644</v>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="54" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7845,14 +8155,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -7863,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7871,14 +8181,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -7889,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -7897,14 +8207,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -7915,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -7923,14 +8233,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -7941,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -7949,14 +8259,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -7967,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -7975,14 +8285,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -7993,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8001,14 +8311,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
@@ -8019,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8027,14 +8337,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
@@ -8045,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8053,14 +8363,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8071,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8079,14 +8389,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8097,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8105,14 +8415,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8123,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8131,14 +8441,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8149,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8157,14 +8467,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8175,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8183,14 +8493,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8201,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8209,14 +8519,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8227,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8235,14 +8545,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8253,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8261,14 +8571,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8279,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8287,14 +8597,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8305,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8313,14 +8623,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8331,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8339,14 +8649,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8357,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8365,14 +8675,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8383,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8391,14 +8701,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8409,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8417,14 +8727,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
@@ -8435,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8443,14 +8753,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
@@ -8461,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8469,14 +8779,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="E144" s="5">
         <v>1</v>
       </c>
@@ -8487,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8495,14 +8805,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="E145" s="5">
         <v>0</v>
       </c>
@@ -8513,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8521,14 +8831,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8539,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8547,14 +8857,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8565,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8573,14 +8883,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8591,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8599,14 +8909,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8617,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8625,14 +8935,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8643,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8651,14 +8961,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -8669,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8677,14 +8987,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -8695,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8703,14 +9013,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -8721,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8729,14 +9039,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -8747,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8755,14 +9065,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -8773,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8781,14 +9091,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8799,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8807,14 +9117,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8825,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8833,14 +9143,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -8851,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8859,14 +9169,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -8877,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8885,14 +9195,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -8903,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -8911,14 +9221,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -8929,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -8937,14 +9247,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
@@ -8955,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -8963,14 +9273,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -8981,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -8989,13 +9299,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="D164" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9007,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9015,14 +9325,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="E165" s="5">
         <v>0</v>
       </c>
@@ -9033,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9041,14 +9351,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="E166" s="5">
         <v>1</v>
       </c>
@@ -9059,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9067,14 +9377,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E167" s="5">
         <v>0</v>
       </c>
@@ -9085,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9093,14 +9403,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9111,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9119,10 +9429,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9135,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9143,10 +9453,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9159,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9167,10 +9477,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9183,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9191,10 +9501,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9207,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9215,14 +9525,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="E173" s="5">
         <v>0</v>
       </c>
@@ -9233,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9241,10 +9551,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9257,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9265,10 +9575,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9281,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9289,10 +9599,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9305,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9313,14 +9623,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
@@ -9331,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9339,14 +9649,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9357,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9365,10 +9675,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9381,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9389,10 +9699,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
@@ -9405,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9413,10 +9723,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9429,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9437,10 +9747,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9453,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -9461,11 +9771,11 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>523</v>
+      </c>
+      <c r="C183" t="s">
         <v>524</v>
       </c>
-      <c r="C183" t="s">
-        <v>525</v>
-      </c>
       <c r="E183">
         <v>0</v>
       </c>
@@ -9476,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9484,11 +9794,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>525</v>
+      </c>
+      <c r="C184" t="s">
         <v>526</v>
       </c>
-      <c r="C184" t="s">
-        <v>527</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9499,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9507,11 +9817,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>527</v>
+      </c>
+      <c r="C185" t="s">
         <v>528</v>
       </c>
-      <c r="C185" t="s">
-        <v>529</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9522,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9530,11 +9840,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" t="s">
         <v>530</v>
       </c>
-      <c r="C186" t="s">
-        <v>531</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9545,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9553,11 +9863,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>531</v>
+      </c>
+      <c r="C187" t="s">
         <v>532</v>
       </c>
-      <c r="C187" t="s">
-        <v>533</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9568,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9576,11 +9886,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" t="s">
         <v>534</v>
       </c>
-      <c r="C188" t="s">
-        <v>535</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9591,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9599,11 +9909,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>535</v>
+      </c>
+      <c r="C189" t="s">
         <v>536</v>
       </c>
-      <c r="C189" t="s">
-        <v>537</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9614,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9622,11 +9932,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>537</v>
+      </c>
+      <c r="C190" t="s">
         <v>538</v>
       </c>
-      <c r="C190" t="s">
-        <v>539</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9637,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9645,11 +9955,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>539</v>
+      </c>
+      <c r="C191" t="s">
         <v>540</v>
       </c>
-      <c r="C191" t="s">
-        <v>541</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9660,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9668,11 +9978,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>541</v>
+      </c>
+      <c r="C192" t="s">
         <v>542</v>
       </c>
-      <c r="C192" t="s">
-        <v>543</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9683,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9691,11 +10001,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>543</v>
+      </c>
+      <c r="C193" t="s">
         <v>544</v>
       </c>
-      <c r="C193" t="s">
-        <v>545</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9706,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9714,11 +10024,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>545</v>
+      </c>
+      <c r="C194" t="s">
         <v>546</v>
       </c>
-      <c r="C194" t="s">
-        <v>547</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9729,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9737,11 +10047,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>547</v>
+      </c>
+      <c r="C195" t="s">
         <v>548</v>
       </c>
-      <c r="C195" t="s">
-        <v>549</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9752,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9760,11 +10070,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" t="s">
         <v>550</v>
       </c>
-      <c r="C196" t="s">
-        <v>551</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -9775,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -9783,11 +10093,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>551</v>
+      </c>
+      <c r="C197" t="s">
         <v>552</v>
       </c>
-      <c r="C197" t="s">
-        <v>553</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9798,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9806,11 +10116,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>553</v>
+      </c>
+      <c r="C198" t="s">
         <v>554</v>
       </c>
-      <c r="C198" t="s">
-        <v>555</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9821,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9829,11 +10139,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>555</v>
+      </c>
+      <c r="C199" t="s">
         <v>556</v>
       </c>
-      <c r="C199" t="s">
-        <v>557</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9844,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9852,11 +10162,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>557</v>
+      </c>
+      <c r="C200" t="s">
         <v>558</v>
       </c>
-      <c r="C200" t="s">
-        <v>559</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9867,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9875,11 +10185,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201" t="s">
         <v>560</v>
       </c>
-      <c r="C201" t="s">
-        <v>561</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -9890,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -9898,11 +10208,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" t="s">
         <v>562</v>
       </c>
-      <c r="C202" t="s">
-        <v>563</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -9913,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -9921,11 +10231,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" t="s">
         <v>564</v>
       </c>
-      <c r="C203" t="s">
-        <v>565</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -9936,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -9944,14 +10254,14 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C204" t="s">
+        <v>565</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C204" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E204">
         <v>1</v>
       </c>
@@ -9962,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -9970,14 +10280,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
+        <v>566</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C205" t="s">
-        <v>567</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -9988,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -9996,14 +10306,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" t="s">
+        <v>567</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C206" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10014,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10022,11 +10332,11 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>568</v>
+      </c>
+      <c r="C207" t="s">
         <v>569</v>
       </c>
-      <c r="C207" t="s">
-        <v>570</v>
-      </c>
       <c r="E207">
         <v>0</v>
       </c>
@@ -10037,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10045,11 +10355,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" t="s">
         <v>571</v>
       </c>
-      <c r="C208" t="s">
-        <v>572</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10060,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10068,11 +10378,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>572</v>
+      </c>
+      <c r="C209" t="s">
         <v>573</v>
       </c>
-      <c r="C209" t="s">
-        <v>574</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10083,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10091,11 +10401,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" t="s">
         <v>575</v>
       </c>
-      <c r="C210" t="s">
-        <v>576</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10106,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10114,11 +10424,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="C211" t="s">
         <v>577</v>
       </c>
-      <c r="C211" t="s">
-        <v>578</v>
-      </c>
       <c r="E211">
         <v>1</v>
       </c>
@@ -10129,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10137,11 +10447,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>578</v>
+      </c>
+      <c r="C212" t="s">
         <v>579</v>
       </c>
-      <c r="C212" t="s">
-        <v>580</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -10152,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10160,11 +10470,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>580</v>
+      </c>
+      <c r="C213" t="s">
         <v>581</v>
       </c>
-      <c r="C213" t="s">
-        <v>582</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10175,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10183,11 +10493,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>582</v>
+      </c>
+      <c r="C214" t="s">
         <v>583</v>
       </c>
-      <c r="C214" t="s">
-        <v>584</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10198,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10206,11 +10516,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>584</v>
+      </c>
+      <c r="C215" t="s">
         <v>585</v>
       </c>
-      <c r="C215" t="s">
-        <v>586</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10221,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10229,11 +10539,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>586</v>
+      </c>
+      <c r="C216" t="s">
         <v>587</v>
       </c>
-      <c r="C216" t="s">
-        <v>588</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10244,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10252,11 +10562,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>588</v>
+      </c>
+      <c r="C217" t="s">
         <v>589</v>
       </c>
-      <c r="C217" t="s">
-        <v>590</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -10267,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10275,11 +10585,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>590</v>
+      </c>
+      <c r="C218" t="s">
         <v>591</v>
       </c>
-      <c r="C218" t="s">
-        <v>592</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10290,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10298,11 +10608,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>592</v>
+      </c>
+      <c r="C219" t="s">
         <v>593</v>
       </c>
-      <c r="C219" t="s">
-        <v>594</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10313,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10321,11 +10631,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>594</v>
+      </c>
+      <c r="C220" t="s">
         <v>595</v>
       </c>
-      <c r="C220" t="s">
-        <v>596</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10336,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10344,11 +10654,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>596</v>
+      </c>
+      <c r="C221" t="s">
         <v>597</v>
       </c>
-      <c r="C221" t="s">
-        <v>598</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10359,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10367,11 +10677,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>598</v>
+      </c>
+      <c r="C222" t="s">
         <v>599</v>
       </c>
-      <c r="C222" t="s">
-        <v>600</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10382,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10390,11 +10700,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>600</v>
+      </c>
+      <c r="C223" t="s">
         <v>601</v>
       </c>
-      <c r="C223" t="s">
-        <v>602</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10405,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10413,11 +10723,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>602</v>
+      </c>
+      <c r="C224" t="s">
         <v>603</v>
       </c>
-      <c r="C224" t="s">
-        <v>604</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10428,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10436,10 +10746,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10451,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10459,13 +10769,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C226" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10482,13 +10792,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="D227" t="s">
         <v>619</v>
-      </c>
-      <c r="D227" t="s">
-        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10505,13 +10815,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10528,13 +10838,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10551,13 +10861,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>631</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -10574,13 +10884,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="D231" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10597,13 +10907,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10620,13 +10930,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10643,13 +10953,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D234" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10666,13 +10976,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -10684,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10692,14 +11002,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>668</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -10710,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10718,25 +11028,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>671</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10744,25 +11054,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>674</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10770,25 +11080,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>680</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10796,25 +11106,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10822,25 +11132,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10848,25 +11158,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10874,25 +11184,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10900,13 +11210,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10918,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10926,13 +11236,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10944,7 +11254,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -10952,13 +11262,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10970,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -10978,25 +11288,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="C247" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="D247" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11004,25 +11314,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11030,25 +11340,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="D249" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11056,25 +11366,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11082,25 +11392,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11108,13 +11418,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C252" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11126,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11134,13 +11444,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11153,7 +11463,7 @@
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11161,25 +11471,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="D254" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11187,25 +11497,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11213,13 +11523,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11232,7 +11542,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11240,13 +11550,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E257" s="17">
         <v>0</v>
@@ -11258,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11266,14 +11576,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>757</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11284,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11292,25 +11602,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>759</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11318,25 +11628,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11344,25 +11654,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>764</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D261" t="s">
+        <v>765</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D261" t="s">
-        <v>767</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11370,14 +11680,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>772</v>
-      </c>
       <c r="E262">
         <v>1</v>
       </c>
@@ -11388,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11396,25 +11706,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11422,14 +11732,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C264" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>779</v>
-      </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
@@ -11440,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11448,25 +11758,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11474,25 +11784,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="C266" s="15" t="s">
-        <v>786</v>
-      </c>
       <c r="D266" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11500,51 +11810,51 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="D267" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A268" s="7">
+        <v>267</v>
+      </c>
+      <c r="B268" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="C268" s="49" t="s">
         <v>790</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A268" s="16">
-        <v>267</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="D268" s="18" t="s">
-        <v>793</v>
-      </c>
-      <c r="E268" s="17">
-        <v>0</v>
-      </c>
-      <c r="F268" s="17">
-        <v>1</v>
-      </c>
-      <c r="G268" s="17">
-        <v>1</v>
-      </c>
-      <c r="I268" s="19" t="s">
-        <v>733</v>
+      <c r="D268" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="E268" s="2">
+        <v>1</v>
+      </c>
+      <c r="F268" s="2">
+        <v>1</v>
+      </c>
+      <c r="G268" s="2">
+        <v>1</v>
+      </c>
+      <c r="I268" s="50" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11552,13 +11862,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11570,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11578,14 +11888,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="D270" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="C270" s="15" t="s">
-        <v>798</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>799</v>
-      </c>
       <c r="E270" s="17">
         <v>0</v>
       </c>
@@ -11596,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11604,25 +11914,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="C271" s="15" t="s">
-        <v>803</v>
-      </c>
       <c r="D271" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11630,51 +11940,51 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D272" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="D272" s="18" t="s">
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A273" s="7">
+        <v>272</v>
+      </c>
+      <c r="B273" s="49" t="s">
         <v>807</v>
       </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A273" s="16">
-        <v>272</v>
-      </c>
-      <c r="B273" s="15" t="s">
+      <c r="C273" s="49" t="s">
         <v>809</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="E273" s="17">
-        <v>1</v>
-      </c>
-      <c r="F273" s="17">
-        <v>1</v>
-      </c>
-      <c r="G273" s="17">
-        <v>1</v>
-      </c>
-      <c r="I273" s="19" t="s">
-        <v>814</v>
+      <c r="D273" s="48" t="s">
+        <v>808</v>
+      </c>
+      <c r="E273" s="2">
+        <v>1</v>
+      </c>
+      <c r="F273" s="2">
+        <v>1</v>
+      </c>
+      <c r="G273" s="2">
+        <v>1</v>
+      </c>
+      <c r="I273" s="49" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11682,25 +11992,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>812</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11708,25 +12018,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C275" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>1</v>
-      </c>
-      <c r="G275" s="17">
-        <v>1</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11734,10 +12044,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E276" s="17">
         <v>0</v>
@@ -11749,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11757,13 +12067,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E277" s="17">
         <v>0</v>
@@ -11775,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -11783,13 +12093,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -11801,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11809,10 +12119,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11824,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11832,13 +12142,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="C280" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="C280" s="15" t="s">
-        <v>835</v>
-      </c>
       <c r="D280" s="18" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -11850,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11858,13 +12168,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11876,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11884,13 +12194,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11902,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -11910,25 +12220,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>840</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -11936,13 +12246,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D284" s="28" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -11954,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -11962,25 +12272,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C285" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>847</v>
-      </c>
-      <c r="D285" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -11988,13 +12298,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D286" s="28" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12006,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -12014,51 +12324,51 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="D287" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="E287" s="27">
+        <v>0</v>
+      </c>
+      <c r="F287" s="27">
+        <v>1</v>
+      </c>
+      <c r="G287" s="27">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="27" t="s">
+      <c r="C288" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="D287" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="E287" s="27">
-        <v>0</v>
-      </c>
-      <c r="F287" s="27">
-        <v>1</v>
-      </c>
-      <c r="G287" s="27">
-        <v>1</v>
-      </c>
-      <c r="I287" s="27" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="36" customFormat="1" ht="16.5">
-      <c r="A288" s="46">
-        <v>287</v>
-      </c>
-      <c r="B288" s="35" t="s">
-        <v>860</v>
-      </c>
-      <c r="C288" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="D288" s="35" t="s">
-        <v>862</v>
-      </c>
-      <c r="E288" s="36">
-        <v>1</v>
-      </c>
-      <c r="F288" s="36">
-        <v>1</v>
-      </c>
-      <c r="G288" s="36">
-        <v>1</v>
-      </c>
-      <c r="I288" s="35" t="s">
-        <v>733</v>
+      <c r="E288" s="17">
+        <v>1</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="17">
+        <v>1</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
@@ -12066,25 +12376,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>864</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12092,25 +12402,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C290" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="D290" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="C290" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="D290" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12118,13 +12428,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D291" s="30" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E291" s="30">
         <v>1</v>
@@ -12136,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12144,13 +12454,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12162,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12170,13 +12480,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12188,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12196,13 +12506,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12215,7 +12525,7 @@
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12223,13 +12533,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12242,7 +12552,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12277,13 +12587,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12296,7 +12606,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12331,13 +12641,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12350,7 +12660,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12385,13 +12695,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="C298" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="39" t="s">
-        <v>899</v>
-      </c>
       <c r="D298" s="38" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12404,7 +12714,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="40" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12439,13 +12749,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="41" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D299" s="41" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E299" s="43">
         <v>1</v>
@@ -12458,7 +12768,7 @@
       </c>
       <c r="H299" s="43"/>
       <c r="I299" s="42" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12493,13 +12803,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="41" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D300" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E300" s="43">
         <v>1</v>
@@ -12512,7 +12822,7 @@
       </c>
       <c r="H300" s="43"/>
       <c r="I300" s="42" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12520,13 +12830,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="41" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C301" s="41" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D301" s="41" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E301" s="43">
         <v>1</v>
@@ -12539,7 +12849,7 @@
       </c>
       <c r="H301" s="43"/>
       <c r="I301" s="44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
@@ -12547,13 +12857,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12566,7 +12876,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12574,13 +12884,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12593,7 +12903,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12601,13 +12911,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="38" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C304" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D304" s="38" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12620,7 +12930,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="39" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12628,13 +12938,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E305" s="17">
         <v>1</v>
@@ -12646,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12654,25 +12964,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="D306" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>917</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>919</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12680,13 +12990,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12703,25 +13013,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="37" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>926</v>
-      </c>
-      <c r="C308" s="15" t="s">
-        <v>927</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12729,13 +13039,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="37" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12747,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12755,25 +13065,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>933</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>935</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12781,25 +13091,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D311" s="37" t="s">
+        <v>936</v>
+      </c>
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>937</v>
-      </c>
-      <c r="C311" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="D311" s="37" t="s">
-        <v>939</v>
-      </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12807,10 +13117,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="C312" s="35" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="D312" s="36"/>
       <c r="E312" s="36">
@@ -12824,7 +13134,7 @@
       </c>
       <c r="H312" s="36"/>
       <c r="I312" s="35" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12832,10 +13142,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="C313" s="35" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="D313" s="36"/>
       <c r="E313" s="36">
@@ -12849,7 +13159,7 @@
       </c>
       <c r="H313" s="36"/>
       <c r="I313" s="35" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12857,10 +13167,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="D314" s="36"/>
       <c r="E314" s="36">
@@ -12874,18 +13184,18 @@
       </c>
       <c r="H314" s="36"/>
       <c r="I314" s="35" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="16.5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="C315" s="35" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D315" s="36"/>
       <c r="E315" s="36">
@@ -12899,7 +13209,7 @@
       </c>
       <c r="H315" s="36"/>
       <c r="I315" s="35" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -12907,10 +13217,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="C316" s="35" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="D316" s="36"/>
       <c r="E316" s="36">
@@ -12924,7 +13234,7 @@
       </c>
       <c r="H316" s="36"/>
       <c r="I316" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -12932,10 +13242,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="34" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="C317" s="35" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="D317" s="36"/>
       <c r="E317" s="36">
@@ -12949,18 +13259,18 @@
       </c>
       <c r="H317" s="36"/>
       <c r="I317" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="34" t="s">
-        <v>952</v>
+      <c r="B318" s="51" t="s">
+        <v>962</v>
       </c>
       <c r="C318" s="35" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D318" s="36"/>
       <c r="E318" s="36">
@@ -12973,9 +13283,378 @@
         <v>1</v>
       </c>
       <c r="H318" s="36"/>
-      <c r="I318" s="47" t="s">
-        <v>969</v>
-      </c>
+      <c r="I318" s="52" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
+      <c r="A319" s="16">
+        <v>318</v>
+      </c>
+      <c r="B319" s="48" t="s">
+        <v>980</v>
+      </c>
+      <c r="C319" s="49" t="s">
+        <v>981</v>
+      </c>
+      <c r="D319" s="48" t="s">
+        <v>982</v>
+      </c>
+      <c r="E319" s="2">
+        <v>1</v>
+      </c>
+      <c r="F319" s="2">
+        <v>1</v>
+      </c>
+      <c r="G319" s="2">
+        <v>1</v>
+      </c>
+      <c r="H319" s="2"/>
+      <c r="I319" s="49" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
+      <c r="A320" s="16">
+        <v>319</v>
+      </c>
+      <c r="B320" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="C320" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="D320" s="48" t="s">
+        <v>954</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+      <c r="F320" s="2">
+        <v>1</v>
+      </c>
+      <c r="G320" s="2">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2"/>
+      <c r="I320" s="49" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="48" t="s">
+        <v>955</v>
+      </c>
+      <c r="C321" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2">
+        <v>1</v>
+      </c>
+      <c r="F321" s="2">
+        <v>1</v>
+      </c>
+      <c r="G321" s="2">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2"/>
+      <c r="I321" s="49" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A322" s="16">
+        <v>321</v>
+      </c>
+      <c r="B322" s="59" t="s">
+        <v>986</v>
+      </c>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2">
+        <v>1</v>
+      </c>
+      <c r="F322" s="2">
+        <v>1</v>
+      </c>
+      <c r="G322" s="2">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2"/>
+      <c r="I322" s="50" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
+      <c r="A323" s="16">
+        <v>322</v>
+      </c>
+      <c r="B323" s="48" t="s">
+        <v>956</v>
+      </c>
+      <c r="C323" s="48" t="s">
+        <v>957</v>
+      </c>
+      <c r="D323" s="48" t="s">
+        <v>958</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I323" s="49" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <v>1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2"/>
+      <c r="I324" s="49" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
+      <c r="A325" s="16">
+        <v>324</v>
+      </c>
+      <c r="B325" s="48" t="s">
+        <v>960</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2">
+        <v>1</v>
+      </c>
+      <c r="F325" s="2">
+        <v>1</v>
+      </c>
+      <c r="G325" s="2">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2"/>
+      <c r="I325" s="49" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="48" t="s">
+        <v>994</v>
+      </c>
+      <c r="C326" s="50" t="s">
+        <v>995</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2">
+        <v>1</v>
+      </c>
+      <c r="F326" s="2">
+        <v>1</v>
+      </c>
+      <c r="G326" s="2">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2"/>
+      <c r="I326" s="49" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="48" t="s">
+        <v>997</v>
+      </c>
+      <c r="C327" s="50" t="s">
+        <v>998</v>
+      </c>
+      <c r="D327" s="48" t="s">
+        <v>999</v>
+      </c>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="2">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2"/>
+      <c r="I327" s="49" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
+      <c r="B328" s="55" t="s">
+        <v>977</v>
+      </c>
+      <c r="C328" s="56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D328" s="55" t="s">
+        <v>978</v>
+      </c>
+      <c r="E328" s="57">
+        <v>1</v>
+      </c>
+      <c r="F328" s="57">
+        <v>1</v>
+      </c>
+      <c r="G328" s="57">
+        <v>1</v>
+      </c>
+      <c r="H328" s="57"/>
+      <c r="I328" s="58" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16.5">
+      <c r="A329" s="16">
+        <v>328</v>
+      </c>
+      <c r="B329" s="48" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C329" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2">
+        <v>1</v>
+      </c>
+      <c r="G329" s="2">
+        <v>1</v>
+      </c>
+      <c r="H329" s="2"/>
+      <c r="I329" s="49" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
+      <c r="B330" s="48" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C330" s="49" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2">
+        <v>1</v>
+      </c>
+      <c r="F330" s="2">
+        <v>1</v>
+      </c>
+      <c r="G330" s="2">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2"/>
+      <c r="I330" s="49" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
+      <c r="A331" s="16">
+        <v>330</v>
+      </c>
+      <c r="B331" s="48" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331" s="2">
+        <v>1</v>
+      </c>
+      <c r="G331" s="2">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2"/>
+      <c r="I331" s="49" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
+      <c r="A332" s="16">
+        <v>331</v>
+      </c>
+      <c r="B332" s="48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C332" s="49" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <v>1</v>
+      </c>
+      <c r="G332" s="2">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2"/>
+      <c r="I332" s="49" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="16.5">
+      <c r="B335" s="18"/>
+    </row>
+    <row r="336" spans="1:9" ht="16.5">
+      <c r="B336" s="18"/>
+    </row>
+    <row r="337" spans="2:2" ht="16.5">
+      <c r="B337" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
@@ -13001,7 +13680,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5036,10 +5036,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7020,7 +7020,7 @@
         <v>224</v>
       </c>
       <c r="E76" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="23">
         <v>1</v>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1022">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>sys_xsfl</t>
+  </si>
+  <si>
+    <t>限时福利</t>
   </si>
   <si>
     <t>SYSXSFLManager</t>
@@ -4065,23 +4068,6 @@
     <t>Act_048_XNSMTManager</t>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9号关闭</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4353,11 +4339,49 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_by_hhl_style/act_004_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_006_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_008_meigui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_041_xyxfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺</t>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包1皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4365,7 +4389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4466,8 +4490,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4518,25 +4548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4572,7 +4590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4666,24 +4684,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4696,16 +4696,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4726,35 +4726,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5033,13 +5036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ337"/>
+  <dimension ref="A1:AJ336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5056,7 +5059,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5069,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -5081,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5107,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5159,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5211,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5237,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5263,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5289,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5315,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5341,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5367,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5393,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5419,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5445,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5471,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5497,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5523,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5549,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5575,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5601,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5627,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5653,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5679,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5705,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5731,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5742,7 +5745,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5757,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5783,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5809,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5835,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5861,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5887,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5913,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5939,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5965,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5991,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -6017,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -6043,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -6069,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -6095,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -6121,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6147,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6173,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6199,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6225,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6251,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6277,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6303,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6314,7 +6317,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6329,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6355,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6381,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6405,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6431,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6439,7 +6442,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6457,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6465,7 +6468,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6483,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6509,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6535,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6561,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6587,33 +6590,33 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A60" s="7">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="60" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="7">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="54" t="s">
-        <v>643</v>
+      <c r="D60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6621,13 +6624,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -6639,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6647,13 +6650,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -6665,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6673,13 +6676,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -6691,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6699,13 +6702,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -6717,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6725,13 +6728,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -6743,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6751,13 +6754,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -6769,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6777,13 +6780,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -6795,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6803,13 +6806,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -6821,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6829,13 +6832,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -6847,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6855,13 +6858,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -6873,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6881,13 +6884,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -6899,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6907,13 +6910,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -6925,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6933,13 +6936,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -6951,33 +6954,33 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A74" s="16">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A74" s="52">
         <v>73</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>654</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="31" t="s">
+      <c r="B74" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="C74" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="E74" s="31">
-        <v>0</v>
-      </c>
-      <c r="F74" s="32">
-        <v>0</v>
-      </c>
-      <c r="G74" s="32">
-        <v>0</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>643</v>
+      <c r="D74" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="52">
+        <v>0</v>
+      </c>
+      <c r="F74" s="50">
+        <v>1</v>
+      </c>
+      <c r="G74" s="50">
+        <v>1</v>
+      </c>
+      <c r="I74" s="53" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -6985,13 +6988,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -7003,23 +7006,23 @@
         <v>1</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="46" t="s">
+      <c r="B76" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="C76" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="46">
+      <c r="D76" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="40">
         <v>0</v>
       </c>
       <c r="F76" s="23">
@@ -7028,8 +7031,8 @@
       <c r="G76" s="23">
         <v>1</v>
       </c>
-      <c r="I76" s="47" t="s">
-        <v>951</v>
+      <c r="I76" s="41" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7037,13 +7040,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -7055,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -7063,13 +7066,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -7081,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -7089,13 +7092,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -7107,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -7115,13 +7118,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -7133,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7141,13 +7144,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -7159,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7167,13 +7170,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -7185,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7193,13 +7196,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -7211,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7219,13 +7222,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -7237,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7245,13 +7248,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -7263,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7271,13 +7274,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
@@ -7289,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7297,13 +7300,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
@@ -7315,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7323,13 +7326,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
@@ -7341,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7349,13 +7352,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -7367,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7375,13 +7378,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
@@ -7393,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7401,13 +7404,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -7419,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7427,13 +7430,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -7445,33 +7448,33 @@
         <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A93" s="52">
+        <v>92</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" s="52">
+        <v>0</v>
+      </c>
+      <c r="F93" s="50">
+        <v>1</v>
+      </c>
+      <c r="G93" s="50">
+        <v>1</v>
+      </c>
+      <c r="I93" s="54" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16.5">
-      <c r="A93" s="16">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7479,13 +7482,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -7497,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7505,13 +7508,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -7523,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7531,13 +7534,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -7549,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7557,13 +7560,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -7575,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7583,13 +7586,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -7601,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7609,13 +7612,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -7627,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7635,13 +7638,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -7653,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7661,13 +7664,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -7679,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7687,13 +7690,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -7705,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7713,13 +7716,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -7731,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7739,13 +7742,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -7757,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7765,13 +7768,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -7783,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7791,13 +7794,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -7809,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7817,13 +7820,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -7835,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7843,13 +7846,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7869,13 +7872,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -7887,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7895,13 +7898,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -7913,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7921,13 +7924,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -7939,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7947,13 +7950,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -7965,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7973,13 +7976,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -7991,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7999,13 +8002,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -8017,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -8025,13 +8028,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -8043,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -8051,13 +8054,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -8069,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -8077,13 +8080,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -8095,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -8103,13 +8106,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -8121,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -8129,13 +8132,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
@@ -8146,7 +8149,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="54" t="s">
+      <c r="I119" s="46" t="s">
         <v>976</v>
       </c>
     </row>
@@ -8155,13 +8158,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -8173,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8181,13 +8184,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -8199,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8207,13 +8210,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -8225,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8233,13 +8236,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -8251,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8259,13 +8262,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -8277,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8285,13 +8288,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -8303,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8311,13 +8314,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
@@ -8329,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8337,13 +8340,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -8355,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8363,13 +8366,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -8381,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8389,13 +8392,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -8407,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8415,13 +8418,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -8433,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8441,13 +8444,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -8459,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8467,13 +8470,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -8485,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8493,13 +8496,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -8511,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8519,13 +8522,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -8537,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8545,13 +8548,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -8563,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8571,13 +8574,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -8589,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8597,13 +8600,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -8615,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8623,13 +8626,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -8641,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8649,13 +8652,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -8667,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8675,13 +8678,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -8693,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8701,13 +8704,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -8719,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8727,13 +8730,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -8745,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8753,13 +8756,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -8771,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8779,13 +8782,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -8797,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8805,13 +8808,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -8823,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8831,13 +8834,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -8849,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8857,13 +8860,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -8875,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8883,13 +8886,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -8901,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8909,13 +8912,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -8927,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8935,13 +8938,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -8953,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8961,13 +8964,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -8979,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8987,13 +8990,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -9005,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -9013,13 +9016,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -9031,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -9039,13 +9042,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
@@ -9057,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -9065,13 +9068,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -9083,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -9091,13 +9094,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -9109,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -9117,13 +9120,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -9135,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9143,13 +9146,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -9161,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9169,13 +9172,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -9187,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9195,13 +9198,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -9213,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9221,13 +9224,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -9239,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9247,13 +9250,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -9265,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9273,13 +9276,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -9291,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9299,13 +9302,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9317,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9325,13 +9328,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -9343,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9351,13 +9354,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -9369,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9377,13 +9380,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -9395,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9403,13 +9406,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -9421,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9429,10 +9432,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9445,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9453,10 +9456,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9469,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9477,10 +9480,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9493,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9501,10 +9504,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9517,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9525,13 +9528,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -9543,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9551,10 +9554,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9567,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9575,10 +9578,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9591,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9599,10 +9602,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9615,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9623,13 +9626,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -9641,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9649,13 +9652,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E178" s="5">
         <v>1</v>
@@ -9667,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9675,10 +9678,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9691,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9699,10 +9702,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
@@ -9715,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9723,10 +9726,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9739,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9747,10 +9750,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9763,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -9771,10 +9774,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -9786,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9794,10 +9797,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C184" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -9809,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9817,10 +9820,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C185" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -9832,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9840,10 +9843,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C186" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -9855,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9863,10 +9866,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C187" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9878,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9886,10 +9889,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C188" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -9901,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9909,10 +9912,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C189" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -9924,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9932,10 +9935,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C190" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -9947,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9955,10 +9958,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C191" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -9970,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9978,10 +9981,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C192" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -9993,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -10001,10 +10004,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C193" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -10016,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -10024,10 +10027,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C194" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -10039,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -10047,10 +10050,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C195" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -10062,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -10070,10 +10073,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C196" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -10085,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -10093,10 +10096,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C197" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -10108,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -10116,10 +10119,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C198" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -10131,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10139,10 +10142,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -10154,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10162,10 +10165,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C200" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -10177,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10185,10 +10188,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C201" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -10200,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10208,10 +10211,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C202" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -10223,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10231,10 +10234,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -10246,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -10254,13 +10257,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -10272,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10280,13 +10283,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -10298,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10306,13 +10309,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10324,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10332,10 +10335,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -10347,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10355,10 +10358,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -10370,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10378,10 +10381,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C209" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -10393,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10401,10 +10404,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -10416,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10424,10 +10427,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C211" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10439,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10447,10 +10450,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -10462,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10470,10 +10473,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -10485,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10493,10 +10496,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C214" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -10508,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10516,10 +10519,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C215" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -10531,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10539,10 +10542,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C216" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -10554,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10562,10 +10565,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C217" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10577,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10585,10 +10588,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C218" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -10600,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10608,10 +10611,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C219" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -10623,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10631,10 +10634,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C220" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -10646,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10654,10 +10657,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C221" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -10669,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10677,10 +10680,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C222" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -10692,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10700,10 +10703,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C223" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -10715,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10723,10 +10726,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C224" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -10738,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10746,10 +10749,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10761,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10769,13 +10772,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>615</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10792,13 +10795,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D227" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10815,13 +10818,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10838,13 +10841,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10861,13 +10864,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -10884,13 +10887,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D231" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10907,13 +10910,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C232" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>637</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10930,13 +10933,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10953,13 +10956,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10976,25 +10979,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="I235" t="s">
         <v>662</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="I235" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -11002,25 +11005,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C236" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -11028,13 +11031,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -11046,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -11054,25 +11057,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C238" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>675</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -11080,14 +11083,14 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C239" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="D239" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>677</v>
-      </c>
       <c r="E239">
         <v>1</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -11106,13 +11109,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -11124,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11132,13 +11135,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -11150,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11158,13 +11161,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -11176,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11184,13 +11187,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -11202,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11210,13 +11213,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11228,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11236,13 +11239,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11254,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11262,13 +11265,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11280,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11288,13 +11291,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="D247" s="9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11306,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11314,13 +11317,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -11332,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11340,13 +11343,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11358,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11366,14 +11369,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C250" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11392,13 +11395,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11410,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11418,13 +11421,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C252" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11436,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11444,13 +11447,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11463,7 +11466,7 @@
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11471,13 +11474,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -11489,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11497,13 +11500,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11515,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11523,13 +11526,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11542,7 +11545,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11550,25 +11553,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
         <v>750</v>
-      </c>
-      <c r="D257" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="E257" s="17">
-        <v>0</v>
-      </c>
-      <c r="F257" s="17">
-        <v>1</v>
-      </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="I257" s="15" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11576,13 +11579,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11594,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11602,13 +11605,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E259" s="17">
         <v>1</v>
@@ -11620,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11628,13 +11631,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E260" s="17">
         <v>0</v>
@@ -11646,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11654,25 +11657,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C261" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D261" t="s">
+        <v>766</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>767</v>
-      </c>
-      <c r="D261" t="s">
-        <v>765</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11680,13 +11683,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11698,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11706,13 +11709,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E263" s="17">
         <v>0</v>
@@ -11724,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="15" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11732,13 +11735,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11750,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11758,13 +11761,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11776,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11784,14 +11787,14 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="D266" s="18" t="s">
-        <v>783</v>
-      </c>
       <c r="E266" s="17">
         <v>0</v>
       </c>
@@ -11802,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="I266" s="19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11810,14 +11813,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>787</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11828,22 +11831,22 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="49" t="s">
+      <c r="B268" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="C268" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" s="42" t="s">
         <v>792</v>
       </c>
-      <c r="C268" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="D268" s="48" t="s">
-        <v>791</v>
-      </c>
       <c r="E268" s="2">
         <v>1</v>
       </c>
@@ -11853,8 +11856,8 @@
       <c r="G268" s="2">
         <v>1</v>
       </c>
-      <c r="I268" s="50" t="s">
-        <v>731</v>
+      <c r="I268" s="44" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11862,13 +11865,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11880,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11888,13 +11891,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11906,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11914,14 +11917,14 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="D271" s="18" t="s">
-        <v>800</v>
-      </c>
       <c r="E271" s="17">
         <v>1</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11940,51 +11943,51 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A273" s="7">
+    </row>
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A273" s="16">
         <v>272</v>
       </c>
-      <c r="B273" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="C273" s="49" t="s">
+      <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="D273" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="E273" s="2">
-        <v>1</v>
-      </c>
-      <c r="F273" s="2">
-        <v>1</v>
-      </c>
-      <c r="G273" s="2">
-        <v>1</v>
-      </c>
-      <c r="I273" s="49" t="s">
-        <v>959</v>
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11992,13 +11995,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E274" s="17">
         <v>0</v>
@@ -12010,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12018,13 +12021,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C275" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>813</v>
-      </c>
       <c r="D275" s="18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -12036,30 +12039,30 @@
         <v>1</v>
       </c>
       <c r="I275" s="19" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A276" s="16">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A276" s="52">
         <v>275</v>
       </c>
-      <c r="B276" s="15" t="s">
-        <v>817</v>
-      </c>
-      <c r="C276" s="15" t="s">
+      <c r="B276" s="49" t="s">
         <v>818</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
+      <c r="C276" s="49" t="s">
         <v>819</v>
+      </c>
+      <c r="E276" s="50">
+        <v>1</v>
+      </c>
+      <c r="F276" s="50">
+        <v>1</v>
+      </c>
+      <c r="G276" s="50">
+        <v>1</v>
+      </c>
+      <c r="I276" s="51" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12067,13 +12070,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E277" s="17">
         <v>0</v>
@@ -12085,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="19" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12093,13 +12096,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12111,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12119,11 +12122,11 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="C279" s="15" t="s">
-        <v>824</v>
-      </c>
       <c r="E279">
         <v>0</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12142,25 +12145,25 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D280" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12168,13 +12171,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12186,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12194,13 +12197,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12212,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12220,13 +12223,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -12238,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12246,13 +12249,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D284" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12264,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12272,13 +12275,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C285" s="29" t="s">
         <v>845</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>844</v>
-      </c>
       <c r="D285" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -12290,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="29" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12298,13 +12301,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D286" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12316,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -12324,14 +12327,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C287" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="D287" s="26" t="s">
-        <v>855</v>
-      </c>
       <c r="E287" s="27">
         <v>0</v>
       </c>
@@ -12342,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="27" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12350,13 +12353,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E288" s="17">
         <v>1</v>
@@ -12368,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
@@ -12376,13 +12379,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -12394,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="I289" s="19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12402,13 +12405,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C290" s="30" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D290" s="30" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E290" s="30">
         <v>1</v>
@@ -12420,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="30" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12428,25 +12431,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="D291" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>868</v>
-      </c>
-      <c r="C291" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D291" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="E291" s="30">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30">
-        <v>1</v>
-      </c>
-      <c r="G291" s="30">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12454,13 +12457,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12472,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12480,13 +12483,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12498,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12506,13 +12509,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12525,7 +12528,7 @@
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12533,13 +12536,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12552,7 +12555,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12587,13 +12590,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12606,7 +12609,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12641,13 +12644,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12660,7 +12663,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12694,27 +12697,27 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="38" t="s">
-        <v>893</v>
-      </c>
-      <c r="C298" s="39" t="s">
+      <c r="B298" s="32" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="34" t="s">
         <v>896</v>
-      </c>
-      <c r="D298" s="38" t="s">
-        <v>894</v>
-      </c>
-      <c r="E298" s="30">
-        <v>1</v>
-      </c>
-      <c r="F298" s="30">
-        <v>1</v>
-      </c>
-      <c r="G298" s="30">
-        <v>1</v>
-      </c>
-      <c r="H298" s="30"/>
-      <c r="I298" s="40" t="s">
-        <v>895</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12748,27 +12751,27 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="41" t="s">
-        <v>949</v>
-      </c>
-      <c r="C299" s="42" t="s">
-        <v>919</v>
-      </c>
-      <c r="D299" s="41" t="s">
-        <v>947</v>
-      </c>
-      <c r="E299" s="43">
-        <v>1</v>
-      </c>
-      <c r="F299" s="43">
-        <v>1</v>
-      </c>
-      <c r="G299" s="43">
-        <v>1</v>
-      </c>
-      <c r="H299" s="43"/>
-      <c r="I299" s="42" t="s">
-        <v>917</v>
+      <c r="B299" s="35" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="D299" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="E299" s="37">
+        <v>1</v>
+      </c>
+      <c r="F299" s="37">
+        <v>1</v>
+      </c>
+      <c r="G299" s="37">
+        <v>1</v>
+      </c>
+      <c r="H299" s="37"/>
+      <c r="I299" s="36" t="s">
+        <v>918</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12802,54 +12805,54 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="41" t="s">
-        <v>950</v>
-      </c>
-      <c r="C300" s="42" t="s">
+      <c r="B300" s="35" t="s">
+        <v>951</v>
+      </c>
+      <c r="C300" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="D300" s="35" t="s">
+        <v>947</v>
+      </c>
+      <c r="E300" s="37">
+        <v>1</v>
+      </c>
+      <c r="F300" s="37">
+        <v>1</v>
+      </c>
+      <c r="G300" s="37">
+        <v>1</v>
+      </c>
+      <c r="H300" s="37"/>
+      <c r="I300" s="36" t="s">
         <v>918</v>
-      </c>
-      <c r="D300" s="41" t="s">
-        <v>946</v>
-      </c>
-      <c r="E300" s="43">
-        <v>1</v>
-      </c>
-      <c r="F300" s="43">
-        <v>1</v>
-      </c>
-      <c r="G300" s="43">
-        <v>1</v>
-      </c>
-      <c r="H300" s="43"/>
-      <c r="I300" s="42" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="41" t="s">
-        <v>940</v>
-      </c>
-      <c r="C301" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="D301" s="41" t="s">
+      <c r="B301" s="35" t="s">
         <v>941</v>
       </c>
-      <c r="E301" s="43">
-        <v>1</v>
-      </c>
-      <c r="F301" s="43">
-        <v>1</v>
-      </c>
-      <c r="G301" s="43">
-        <v>1</v>
-      </c>
-      <c r="H301" s="43"/>
-      <c r="I301" s="44" t="s">
-        <v>640</v>
+      <c r="C301" s="35" t="s">
+        <v>898</v>
+      </c>
+      <c r="D301" s="35" t="s">
+        <v>942</v>
+      </c>
+      <c r="E301" s="37">
+        <v>1</v>
+      </c>
+      <c r="F301" s="37">
+        <v>1</v>
+      </c>
+      <c r="G301" s="37">
+        <v>1</v>
+      </c>
+      <c r="H301" s="37"/>
+      <c r="I301" s="38" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
@@ -12857,13 +12860,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12876,7 +12879,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12884,13 +12887,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12903,34 +12906,34 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="38" t="s">
+      <c r="B304" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="D304" s="32" t="s">
+        <v>911</v>
+      </c>
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="30">
+        <v>1</v>
+      </c>
+      <c r="G304" s="30">
+        <v>1</v>
+      </c>
+      <c r="H304" s="30"/>
+      <c r="I304" s="33" t="s">
         <v>908</v>
-      </c>
-      <c r="C304" s="39" t="s">
-        <v>909</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>910</v>
-      </c>
-      <c r="E304" s="30">
-        <v>1</v>
-      </c>
-      <c r="F304" s="30">
-        <v>1</v>
-      </c>
-      <c r="G304" s="30">
-        <v>1</v>
-      </c>
-      <c r="H304" s="30"/>
-      <c r="I304" s="39" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12938,13 +12941,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E305" s="17">
         <v>1</v>
@@ -12956,33 +12959,33 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A306" s="52">
+        <v>305</v>
+      </c>
+      <c r="B306" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="C306" s="49" t="s">
+        <v>916</v>
+      </c>
+      <c r="D306" s="48" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A306" s="16">
-        <v>305</v>
-      </c>
-      <c r="B306" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>917</v>
+      <c r="E306" s="50">
+        <v>1</v>
+      </c>
+      <c r="F306" s="50">
+        <v>1</v>
+      </c>
+      <c r="G306" s="50">
+        <v>1</v>
+      </c>
+      <c r="I306" s="49" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12990,13 +12993,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13012,14 +13015,14 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="37" t="s">
-        <v>923</v>
+      <c r="B308" s="31" t="s">
+        <v>924</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -13031,22 +13034,22 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="37" t="s">
-        <v>927</v>
+      <c r="B309" s="31" t="s">
+        <v>928</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="D309" s="37" t="s">
         <v>929</v>
       </c>
+      <c r="D309" s="31" t="s">
+        <v>930</v>
+      </c>
       <c r="E309" s="17">
         <v>1</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="19" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13065,13 +13068,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -13083,22 +13086,22 @@
         <v>1</v>
       </c>
       <c r="I310" s="19" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="37" t="s">
-        <v>934</v>
+      <c r="B311" s="31" t="s">
+        <v>935</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>935</v>
-      </c>
-      <c r="D311" s="37" t="s">
         <v>936</v>
       </c>
+      <c r="D311" s="31" t="s">
+        <v>937</v>
+      </c>
       <c r="E311" s="17">
         <v>1</v>
       </c>
@@ -13109,56 +13112,52 @@
         <v>1</v>
       </c>
       <c r="I311" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="34" t="s">
+      <c r="B312" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="C312" s="35" t="s">
+      <c r="C312" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="D312" s="36"/>
-      <c r="E312" s="36">
-        <v>1</v>
-      </c>
-      <c r="F312" s="36">
-        <v>1</v>
-      </c>
-      <c r="G312" s="36">
-        <v>1</v>
-      </c>
-      <c r="H312" s="36"/>
-      <c r="I312" s="35" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="16.5">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="15" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="34" t="s">
+      <c r="B313" s="18" t="s">
         <v>964</v>
       </c>
-      <c r="C313" s="35" t="s">
+      <c r="C313" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="D313" s="36"/>
-      <c r="E313" s="36">
-        <v>1</v>
-      </c>
-      <c r="F313" s="36">
-        <v>1</v>
-      </c>
-      <c r="G313" s="36">
-        <v>1</v>
-      </c>
-      <c r="H313" s="36"/>
-      <c r="I313" s="35" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>966</v>
       </c>
     </row>
@@ -13166,24 +13165,22 @@
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="34" t="s">
+      <c r="B314" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="C314" s="36" t="s">
+      <c r="C314" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="D314" s="36"/>
-      <c r="E314" s="36">
-        <v>1</v>
-      </c>
-      <c r="F314" s="36">
-        <v>1</v>
-      </c>
-      <c r="G314" s="36">
-        <v>1</v>
-      </c>
-      <c r="H314" s="36"/>
-      <c r="I314" s="35" t="s">
+      <c r="E314" s="17">
+        <v>1</v>
+      </c>
+      <c r="F314" s="17">
+        <v>1</v>
+      </c>
+      <c r="G314" s="17">
+        <v>1</v>
+      </c>
+      <c r="I314" s="15" t="s">
         <v>969</v>
       </c>
     </row>
@@ -13191,470 +13188,524 @@
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="34" t="s">
-        <v>943</v>
-      </c>
-      <c r="C315" s="35" t="s">
+      <c r="B315" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="D315" s="36"/>
-      <c r="E315" s="36">
-        <v>1</v>
-      </c>
-      <c r="F315" s="36">
-        <v>1</v>
-      </c>
-      <c r="G315" s="36">
-        <v>1</v>
-      </c>
-      <c r="H315" s="36"/>
-      <c r="I315" s="35" t="s">
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="16.5">
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="34" t="s">
+      <c r="B316" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="C316" s="35" t="s">
+      <c r="C316" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="D316" s="36"/>
-      <c r="E316" s="36">
-        <v>1</v>
-      </c>
-      <c r="F316" s="36">
-        <v>1</v>
-      </c>
-      <c r="G316" s="36">
-        <v>1</v>
-      </c>
-      <c r="H316" s="36"/>
-      <c r="I316" s="35" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
+    </row>
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="34" t="s">
+      <c r="B317" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="C317" s="35" t="s">
+      <c r="C317" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="D317" s="36"/>
-      <c r="E317" s="36">
-        <v>1</v>
-      </c>
-      <c r="F317" s="36">
-        <v>1</v>
-      </c>
-      <c r="G317" s="36">
-        <v>1</v>
-      </c>
-      <c r="H317" s="36"/>
-      <c r="I317" s="35" t="s">
+      <c r="E317" s="17">
+        <v>1</v>
+      </c>
+      <c r="F317" s="17">
+        <v>1</v>
+      </c>
+      <c r="G317" s="17">
+        <v>1</v>
+      </c>
+      <c r="I317" s="15" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="16.5">
+    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="51" t="s">
+      <c r="B318" s="45" t="s">
         <v>962</v>
       </c>
-      <c r="C318" s="35" t="s">
+      <c r="C318" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="D318" s="36"/>
-      <c r="E318" s="36">
-        <v>1</v>
-      </c>
-      <c r="F318" s="36">
-        <v>1</v>
-      </c>
-      <c r="G318" s="36">
-        <v>1</v>
-      </c>
-      <c r="H318" s="36"/>
-      <c r="I318" s="52" t="s">
+      <c r="E318" s="17">
+        <v>1</v>
+      </c>
+      <c r="F318" s="17">
+        <v>1</v>
+      </c>
+      <c r="G318" s="17">
+        <v>1</v>
+      </c>
+      <c r="I318" s="19" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="16.5">
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="48" t="s">
+      <c r="B319" s="18" t="s">
         <v>980</v>
       </c>
-      <c r="C319" s="49" t="s">
+      <c r="C319" s="15" t="s">
         <v>981</v>
       </c>
-      <c r="D319" s="48" t="s">
+      <c r="D319" s="18" t="s">
         <v>982</v>
       </c>
-      <c r="E319" s="2">
-        <v>1</v>
-      </c>
-      <c r="F319" s="2">
-        <v>1</v>
-      </c>
-      <c r="G319" s="2">
-        <v>1</v>
-      </c>
-      <c r="H319" s="2"/>
-      <c r="I319" s="49" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
+      <c r="E319" s="17">
+        <v>1</v>
+      </c>
+      <c r="F319" s="17">
+        <v>1</v>
+      </c>
+      <c r="G319" s="17">
+        <v>1</v>
+      </c>
+      <c r="I319" s="15" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="48" t="s">
-        <v>953</v>
-      </c>
-      <c r="C320" s="49" t="s">
+      <c r="B320" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="C320" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="D320" s="48" t="s">
-        <v>954</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
-      </c>
-      <c r="F320" s="2">
-        <v>1</v>
-      </c>
-      <c r="G320" s="2">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2"/>
-      <c r="I320" s="49" t="s">
+      <c r="D320" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="E320" s="17">
+        <v>1</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="15" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="16.5">
+    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="48" t="s">
-        <v>955</v>
-      </c>
-      <c r="C321" s="49" t="s">
+      <c r="B321" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2">
-        <v>1</v>
-      </c>
-      <c r="F321" s="2">
-        <v>1</v>
-      </c>
-      <c r="G321" s="2">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2"/>
-      <c r="I321" s="49" t="s">
-        <v>952</v>
+      <c r="E321" s="17">
+        <v>1</v>
+      </c>
+      <c r="F321" s="17">
+        <v>1</v>
+      </c>
+      <c r="G321" s="17">
+        <v>1</v>
+      </c>
+      <c r="I321" s="15" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="59" t="s">
+      <c r="B322" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2">
-        <v>1</v>
-      </c>
-      <c r="F322" s="2">
-        <v>1</v>
-      </c>
-      <c r="G322" s="2">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2"/>
-      <c r="I322" s="50" t="s">
+      <c r="E322" s="17">
+        <v>1</v>
+      </c>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
+      <c r="G322" s="17">
+        <v>1</v>
+      </c>
+      <c r="I322" s="19" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="16.5">
+    <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="48" t="s">
-        <v>956</v>
-      </c>
-      <c r="C323" s="48" t="s">
+      <c r="B323" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="D323" s="48" t="s">
+      <c r="C323" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-      <c r="F323" s="2">
-        <v>1</v>
-      </c>
-      <c r="G323" s="2">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I323" s="49" t="s">
+      <c r="D323" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="E323" s="17">
+        <v>1</v>
+      </c>
+      <c r="F323" s="17">
+        <v>1</v>
+      </c>
+      <c r="G323" s="17">
+        <v>1</v>
+      </c>
+      <c r="H323" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="48" t="s">
+      <c r="B324" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="C324" s="50" t="s">
+      <c r="C324" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2"/>
-      <c r="I324" s="49" t="s">
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="15" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="48" t="s">
+      <c r="B325" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="C325" s="50" t="s">
+      <c r="C325" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2">
-        <v>1</v>
-      </c>
-      <c r="F325" s="2">
-        <v>1</v>
-      </c>
-      <c r="G325" s="2">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2"/>
-      <c r="I325" s="49" t="s">
+      <c r="E325" s="17">
+        <v>1</v>
+      </c>
+      <c r="F325" s="17">
+        <v>1</v>
+      </c>
+      <c r="G325" s="17">
+        <v>1</v>
+      </c>
+      <c r="I325" s="15" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A326" s="16">
         <v>325</v>
       </c>
-      <c r="B326" s="48" t="s">
+      <c r="B326" s="18" t="s">
         <v>994</v>
       </c>
-      <c r="C326" s="50" t="s">
+      <c r="C326" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2">
-        <v>1</v>
-      </c>
-      <c r="F326" s="2">
-        <v>1</v>
-      </c>
-      <c r="G326" s="2">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2"/>
-      <c r="I326" s="49" t="s">
+      <c r="E326" s="17">
+        <v>1</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="16.5">
+    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A327" s="16">
         <v>326</v>
       </c>
-      <c r="B327" s="48" t="s">
+      <c r="B327" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="C327" s="50" t="s">
+      <c r="C327" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="D327" s="48" t="s">
+      <c r="D327" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="E327" s="2">
-        <v>1</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2"/>
-      <c r="I327" s="49" t="s">
+      <c r="E327" s="17">
+        <v>1</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A328" s="16">
         <v>327</v>
       </c>
-      <c r="B328" s="55" t="s">
+      <c r="B328" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="C328" s="56" t="s">
+      <c r="C328" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="D328" s="55" t="s">
+      <c r="D328" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="E328" s="57">
-        <v>1</v>
-      </c>
-      <c r="F328" s="57">
-        <v>1</v>
-      </c>
-      <c r="G328" s="57">
-        <v>1</v>
-      </c>
-      <c r="H328" s="57"/>
-      <c r="I328" s="58" t="s">
+      <c r="E328" s="17">
+        <v>1</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5">
+    <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A329" s="16">
         <v>328</v>
       </c>
-      <c r="B329" s="48" t="s">
+      <c r="B329" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="C329" s="49" t="s">
+      <c r="C329" s="15" t="s">
         <v>1006</v>
       </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2">
-        <v>1</v>
-      </c>
-      <c r="G329" s="2">
-        <v>1</v>
-      </c>
-      <c r="H329" s="2"/>
-      <c r="I329" s="49" t="s">
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A330" s="16">
         <v>329</v>
       </c>
-      <c r="B330" s="48" t="s">
+      <c r="B330" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="C330" s="49" t="s">
+      <c r="C330" s="15" t="s">
         <v>1008</v>
       </c>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2">
-        <v>1</v>
-      </c>
-      <c r="F330" s="2">
-        <v>1</v>
-      </c>
-      <c r="G330" s="2">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2"/>
-      <c r="I330" s="49" t="s">
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="16.5">
+    <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A331" s="16">
         <v>330</v>
       </c>
-      <c r="B331" s="48" t="s">
+      <c r="B331" s="18" t="s">
         <v>1009</v>
       </c>
-      <c r="C331" s="49" t="s">
+      <c r="C331" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2">
-        <v>1</v>
-      </c>
-      <c r="F331" s="2">
-        <v>1</v>
-      </c>
-      <c r="G331" s="2">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2"/>
-      <c r="I331" s="49" t="s">
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="16.5">
+    <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A332" s="16">
         <v>331</v>
       </c>
-      <c r="B332" s="48" t="s">
+      <c r="B332" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="C332" s="49" t="s">
+      <c r="C332" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2">
-        <v>1</v>
-      </c>
-      <c r="F332" s="2">
-        <v>1</v>
-      </c>
-      <c r="G332" s="2">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2"/>
-      <c r="I332" s="49" t="s">
+      <c r="E332" s="17">
+        <v>1</v>
+      </c>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="I332" s="15" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="16.5">
-      <c r="B335" s="18"/>
+    <row r="333" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A333" s="16">
+        <v>332</v>
+      </c>
+      <c r="B333" s="48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C333" s="49" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E333" s="50">
+        <v>1</v>
+      </c>
+      <c r="F333" s="50">
+        <v>1</v>
+      </c>
+      <c r="G333" s="50">
+        <v>1</v>
+      </c>
+      <c r="I333" s="49" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A334" s="16">
+        <v>333</v>
+      </c>
+      <c r="B334" s="48" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C334" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E334" s="50">
+        <v>1</v>
+      </c>
+      <c r="F334" s="50">
+        <v>1</v>
+      </c>
+      <c r="G334" s="50">
+        <v>1</v>
+      </c>
+      <c r="I334" s="49" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A335" s="16">
+        <v>334</v>
+      </c>
+      <c r="B335" s="48" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C335" s="51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E335" s="50">
+        <v>1</v>
+      </c>
+      <c r="F335" s="50">
+        <v>1</v>
+      </c>
+      <c r="G335" s="50">
+        <v>1</v>
+      </c>
+      <c r="I335" s="49" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="336" spans="1:9" ht="16.5">
-      <c r="B336" s="18"/>
-    </row>
-    <row r="337" spans="2:2" ht="16.5">
-      <c r="B337" s="53"/>
+      <c r="A336" s="16">
+        <v>335</v>
+      </c>
+      <c r="B336" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C336" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D336" s="50"/>
+      <c r="E336" s="50">
+        <v>1</v>
+      </c>
+      <c r="F336" s="50">
+        <v>1</v>
+      </c>
+      <c r="G336" s="50">
+        <v>1</v>
+      </c>
+      <c r="H336" s="50"/>
+      <c r="I336" s="49" t="s">
+        <v>1021</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
@@ -13680,7 +13731,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3838,10 +3838,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_czzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>周卡</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3956,6 +3952,157 @@
   </si>
   <si>
     <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+  </si>
+  <si>
+    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_JBZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrxsfl</t>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+  </si>
+  <si>
+    <t>Act_XRXSFLManager</t>
+  </si>
+  <si>
+    <t>act_ty_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买+自动抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_JRTHManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3987,162 +4134,74 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_universal_dh</t>
-  </si>
-  <si>
-    <t>Act_Ty_UNIVERSAL_DHManager</t>
-  </si>
-  <si>
-    <t>act_ty_universal_dh_style/act_001_universal</t>
-  </si>
-  <si>
-    <t>act_048_xnsmt</t>
-  </si>
-  <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
-    <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月30日</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_prize_quiz</t>
-  </si>
-  <si>
-    <t>Act_Ty_PrizeQuizManager</t>
-  </si>
-  <si>
-    <t>2月30日</t>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_008_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_010_taohua</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_006_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4150,265 +4209,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_049_XYHL</t>
-  </si>
-  <si>
-    <t>新游福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_049_XYHLManager</t>
-  </si>
-  <si>
-    <t>有奖问答</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_003_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_004_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>集字榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_005_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_004_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月9日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月9日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_006_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_041_xyxfl</t>
-  </si>
-  <si>
-    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_005_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_jbzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sys_Act_JBZKManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_xrxsfl</t>
-  </si>
-  <si>
-    <t>新人限时福利</t>
-  </si>
-  <si>
-    <t>Act_XRXSFLManager</t>
-  </si>
-  <si>
-    <t>act_ty_jrth</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买+自动抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_Ty_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_007_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_009_lihe</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4416,7 +4217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4514,6 +4315,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -4617,7 +4424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4762,9 +4569,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4783,10 +4587,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5066,13 +4876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ339"/>
+  <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B316" sqref="B316"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5096,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1010</v>
+        <v>963</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7062,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8179,8 +7989,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="49" t="s">
-        <v>970</v>
+      <c r="I119" s="48" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11477,13 +11287,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11556,13 +11366,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>1021</v>
+        <v>972</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1022</v>
+        <v>973</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -12046,53 +11856,53 @@
         <v>810</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A275" s="53">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
-      <c r="B275" s="51" t="s">
+      <c r="B275" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="51" t="s">
+      <c r="C275" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D275" s="50" t="s">
+      <c r="D275" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E275" s="52">
-        <v>1</v>
-      </c>
-      <c r="F275" s="52">
-        <v>1</v>
-      </c>
-      <c r="G275" s="52">
-        <v>1</v>
-      </c>
-      <c r="I275" s="51" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A276" s="53">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="15" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A276" s="52">
         <v>275</v>
       </c>
-      <c r="B276" s="51" t="s">
+      <c r="B276" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C276" s="51" t="s">
+      <c r="C276" s="50" t="s">
         <v>815</v>
       </c>
-      <c r="E276" s="52">
-        <v>1</v>
-      </c>
-      <c r="F276" s="52">
-        <v>1</v>
-      </c>
-      <c r="G276" s="52">
-        <v>1</v>
-      </c>
-      <c r="I276" s="51" t="s">
-        <v>1013</v>
+      <c r="E276" s="51">
+        <v>1</v>
+      </c>
+      <c r="F276" s="51">
+        <v>1</v>
+      </c>
+      <c r="G276" s="51">
+        <v>1</v>
+      </c>
+      <c r="I276" s="50" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12782,13 +12592,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C299" s="39" t="s">
         <v>914</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12836,13 +12646,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C300" s="39" t="s">
         <v>913</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12863,13 +12673,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C301" s="38" t="s">
         <v>893</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12920,7 +12730,7 @@
         <v>900</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>898</v>
@@ -12966,55 +12776,55 @@
         <v>902</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="305" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="49" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="50" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="18" t="s">
+      <c r="D305" s="49" t="s">
         <v>908</v>
       </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="I305" s="15" t="s">
+      <c r="E305" s="51">
+        <v>1</v>
+      </c>
+      <c r="F305" s="51">
+        <v>1</v>
+      </c>
+      <c r="G305" s="51">
+        <v>1</v>
+      </c>
+      <c r="I305" s="50" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A306" s="53">
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="50" t="s">
+      <c r="B306" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="51" t="s">
+      <c r="C306" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="50" t="s">
+      <c r="D306" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="E306" s="52">
-        <v>1</v>
-      </c>
-      <c r="F306" s="52">
-        <v>1</v>
-      </c>
-      <c r="G306" s="52">
-        <v>1</v>
-      </c>
-      <c r="I306" s="51" t="s">
+      <c r="E306" s="17">
+        <v>0</v>
+      </c>
+      <c r="F306" s="17">
+        <v>0</v>
+      </c>
+      <c r="G306" s="17">
+        <v>0</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13023,13 +12833,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>916</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>917</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13046,25 +12856,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>917</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>0</v>
+      </c>
+      <c r="F308" s="17">
+        <v>0</v>
+      </c>
+      <c r="G308" s="17">
+        <v>0</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>920</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13072,13 +12882,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>923</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>924</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -13098,25 +12908,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>0</v>
+      </c>
+      <c r="G310" s="17">
+        <v>0</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>927</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13124,212 +12934,216 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>0</v>
+      </c>
+      <c r="G311" s="17">
+        <v>0</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
+    </row>
+    <row r="312" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="18" t="s">
-        <v>955</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="E312" s="17">
-        <v>0</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B312" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="C312" s="50" t="s">
+        <v>984</v>
+      </c>
+      <c r="E312" s="51">
+        <v>1</v>
+      </c>
+      <c r="F312" s="51">
+        <v>1</v>
+      </c>
+      <c r="G312" s="51">
+        <v>1</v>
+      </c>
+      <c r="I312" s="50" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="E313" s="17">
-        <v>0</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B313" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="C313" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="E313" s="51">
+        <v>1</v>
+      </c>
+      <c r="F313" s="51">
+        <v>1</v>
+      </c>
+      <c r="G313" s="51">
+        <v>1</v>
+      </c>
+      <c r="I313" s="50" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="C314" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="E314" s="17">
-        <v>0</v>
-      </c>
-      <c r="F314" s="17">
-        <v>1</v>
-      </c>
-      <c r="G314" s="17">
-        <v>1</v>
-      </c>
-      <c r="I314" s="15" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B314" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C314" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="E314" s="51">
+        <v>1</v>
+      </c>
+      <c r="F314" s="51">
+        <v>1</v>
+      </c>
+      <c r="G314" s="51">
+        <v>1</v>
+      </c>
+      <c r="I314" s="50" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="18" t="s">
-        <v>938</v>
-      </c>
-      <c r="C315" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="E315" s="17">
-        <v>0</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B315" s="54" t="s">
+        <v>989</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="E315" s="51">
+        <v>1</v>
+      </c>
+      <c r="F315" s="51">
+        <v>1</v>
+      </c>
+      <c r="G315" s="51">
+        <v>1</v>
+      </c>
+      <c r="I315" s="55" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="18" t="s">
-        <v>965</v>
-      </c>
-      <c r="C316" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="E316" s="17">
-        <v>0</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B316" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="C316" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="E316" s="51">
+        <v>1</v>
+      </c>
+      <c r="F316" s="51">
+        <v>1</v>
+      </c>
+      <c r="G316" s="51">
+        <v>1</v>
+      </c>
+      <c r="I316" s="55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="C317" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="E317" s="17">
-        <v>0</v>
-      </c>
-      <c r="F317" s="17">
-        <v>1</v>
-      </c>
-      <c r="G317" s="17">
-        <v>1</v>
-      </c>
-      <c r="I317" s="15" t="s">
-        <v>960</v>
+      <c r="B317" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C317" s="50" t="s">
+        <v>994</v>
+      </c>
+      <c r="D317" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="48" t="s">
-        <v>956</v>
+      <c r="B318" s="57" t="s">
+        <v>979</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>968</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="D318" s="18"/>
       <c r="E318" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G318" s="17">
-        <v>1</v>
-      </c>
-      <c r="I318" s="19" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="52" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="I318" s="15" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="50" t="s">
-        <v>974</v>
-      </c>
-      <c r="C319" s="51" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D319" s="50" t="s">
-        <v>975</v>
-      </c>
-      <c r="E319" s="52">
-        <v>1</v>
-      </c>
-      <c r="F319" s="52">
-        <v>1</v>
-      </c>
-      <c r="G319" s="52">
-        <v>1</v>
-      </c>
-      <c r="I319" s="51" t="s">
-        <v>1013</v>
+      <c r="B319" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C319" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="E319" s="17">
+        <v>0</v>
+      </c>
+      <c r="F319" s="17">
+        <v>0</v>
+      </c>
+      <c r="G319" s="17">
+        <v>0</v>
+      </c>
+      <c r="I319" s="15" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13337,25 +13151,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="D320" s="18" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
       </c>
       <c r="F320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13363,42 +13174,54 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>950</v>
-      </c>
-      <c r="C321" s="15" t="s">
-        <v>978</v>
+        <v>946</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>948</v>
       </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
       <c r="F321" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H321" s="17" t="s">
+        <v>962</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="52" customFormat="1" ht="16.5">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="56" t="s">
-        <v>979</v>
-      </c>
-      <c r="E322" s="52">
-        <v>1</v>
-      </c>
-      <c r="F322" s="52">
-        <v>1</v>
-      </c>
-      <c r="G322" s="52">
-        <v>1</v>
-      </c>
-      <c r="I322" s="55" t="s">
-        <v>980</v>
+      <c r="B322" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="D322" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="E322" s="17">
+        <v>0</v>
+      </c>
+      <c r="F322" s="17">
+        <v>0</v>
+      </c>
+      <c r="G322" s="17">
+        <v>0</v>
+      </c>
+      <c r="I322" s="15" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13406,42 +13229,42 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="C323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="D323" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="E323" s="17">
-        <v>1</v>
-      </c>
-      <c r="F323" s="17">
-        <v>1</v>
-      </c>
-      <c r="G323" s="17">
-        <v>1</v>
-      </c>
-      <c r="H323" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="18" t="s">
-        <v>982</v>
+      <c r="B324" s="53" t="s">
+        <v>965</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>983</v>
+        <v>966</v>
+      </c>
+      <c r="D324" t="s">
+        <v>967</v>
       </c>
       <c r="E324" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324" s="17">
         <v>1</v>
@@ -13450,366 +13273,33 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="18" t="s">
-        <v>954</v>
-      </c>
-      <c r="C325" s="19" t="s">
-        <v>985</v>
-      </c>
-      <c r="E325" s="17">
-        <v>0</v>
-      </c>
-      <c r="F325" s="17">
-        <v>1</v>
-      </c>
-      <c r="G325" s="17">
-        <v>1</v>
-      </c>
-      <c r="I325" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A326" s="16">
-        <v>325</v>
-      </c>
-      <c r="B326" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="C326" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="E326" s="17">
-        <v>0</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A327" s="16">
-        <v>326</v>
-      </c>
-      <c r="B327" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="C327" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="D327" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="E327" s="17">
-        <v>0</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A328" s="16">
-        <v>327</v>
-      </c>
-      <c r="B328" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="C328" s="19" t="s">
-        <v>993</v>
-      </c>
-      <c r="D328" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="E328" s="17">
-        <v>0</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A329" s="16">
-        <v>328</v>
-      </c>
-      <c r="B329" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="C329" s="15" t="s">
-        <v>999</v>
-      </c>
-      <c r="E329" s="17">
-        <v>0</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A330" s="16">
-        <v>329</v>
-      </c>
-      <c r="B330" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="C330" s="15" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E330" s="17">
-        <v>0</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A331" s="16">
-        <v>330</v>
-      </c>
-      <c r="B331" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C331" s="15" t="s">
-        <v>996</v>
-      </c>
-      <c r="E331" s="17">
-        <v>0</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A332" s="16">
-        <v>331</v>
-      </c>
-      <c r="B332" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="C332" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="E332" s="17">
-        <v>0</v>
-      </c>
-      <c r="F332" s="17">
-        <v>1</v>
-      </c>
-      <c r="G332" s="17">
-        <v>1</v>
-      </c>
-      <c r="I332" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A333" s="16">
-        <v>332</v>
-      </c>
-      <c r="B333" s="18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C333" s="15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E333" s="17">
-        <v>0</v>
-      </c>
-      <c r="F333" s="17">
-        <v>1</v>
-      </c>
-      <c r="G333" s="17">
-        <v>1</v>
-      </c>
-      <c r="I333" s="15" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A334" s="16">
-        <v>333</v>
-      </c>
-      <c r="B334" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E334" s="17">
-        <v>0</v>
-      </c>
-      <c r="F334" s="17">
-        <v>1</v>
-      </c>
-      <c r="G334" s="17">
-        <v>1</v>
-      </c>
-      <c r="I334" s="15" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A335" s="16">
-        <v>334</v>
-      </c>
-      <c r="B335" s="50" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C335" s="51" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E335" s="52">
-        <v>1</v>
-      </c>
-      <c r="F335" s="52">
-        <v>1</v>
-      </c>
-      <c r="G335" s="52">
-        <v>1</v>
-      </c>
-      <c r="I335" s="51" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A336" s="16">
-        <v>335</v>
-      </c>
-      <c r="B336" s="50" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C336" s="51" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D336" s="52"/>
-      <c r="E336" s="52">
-        <v>1</v>
-      </c>
-      <c r="F336" s="52">
-        <v>1</v>
-      </c>
-      <c r="G336" s="52">
-        <v>1</v>
-      </c>
-      <c r="H336" s="52"/>
-      <c r="I336" s="51" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="16.5">
-      <c r="A337" s="16">
-        <v>336</v>
-      </c>
-      <c r="B337" s="54" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E337" s="17">
-        <v>1</v>
-      </c>
-      <c r="F337" s="17">
-        <v>1</v>
-      </c>
-      <c r="G337" s="17">
-        <v>1</v>
-      </c>
-      <c r="I337" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" ht="16.5">
-      <c r="A338" s="16">
-        <v>337</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
+      <c r="B325" t="s">
+        <v>968</v>
+      </c>
+      <c r="C325" t="s">
+        <v>969</v>
+      </c>
+      <c r="D325" t="s">
+        <v>970</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="I325" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A339" s="16">
-        <v>338</v>
-      </c>
-      <c r="B339" s="50" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C339" s="51" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E339" s="52">
-        <v>1</v>
-      </c>
-      <c r="F339" s="52">
-        <v>1</v>
-      </c>
-      <c r="G339" s="52">
-        <v>1</v>
-      </c>
-      <c r="I339" s="51" t="s">
-        <v>1025</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1001">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4106,38 +4106,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4165,26 +4133,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_010_taohua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动boss皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_006_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4197,10 +4153,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4211,6 +4163,53 @@
   <si>
     <t>消消乐争霸</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_007_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_009_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_010</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxxl_tower_climbing</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐爬塔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGXXL_Tower_ClimbingManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_phb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBManager</t>
   </si>
 </sst>
 </file>
@@ -4876,13 +4875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ325"/>
+  <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11902,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12188,29 +12187,29 @@
         <v>640</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A288" s="52">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D288" s="50" t="s">
         <v>855</v>
       </c>
-      <c r="E288" s="17">
-        <v>1</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="I288" s="15" t="s">
+      <c r="E288" s="51">
+        <v>1</v>
+      </c>
+      <c r="F288" s="51">
+        <v>1</v>
+      </c>
+      <c r="G288" s="51">
+        <v>1</v>
+      </c>
+      <c r="I288" s="50" t="s">
         <v>731</v>
       </c>
     </row>
@@ -12776,29 +12775,29 @@
         <v>902</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="51" customFormat="1" ht="16.5">
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="49" t="s">
+      <c r="B305" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="50" t="s">
+      <c r="C305" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D305" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="E305" s="51">
-        <v>1</v>
-      </c>
-      <c r="F305" s="51">
-        <v>1</v>
-      </c>
-      <c r="G305" s="51">
-        <v>1</v>
-      </c>
-      <c r="I305" s="50" t="s">
+      <c r="E305" s="17">
+        <v>0</v>
+      </c>
+      <c r="F305" s="17">
+        <v>0</v>
+      </c>
+      <c r="G305" s="17">
+        <v>0</v>
+      </c>
+      <c r="I305" s="15" t="s">
         <v>912</v>
       </c>
     </row>
@@ -12833,7 +12832,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,10 +12959,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12975,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12983,10 +12982,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12998,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13006,10 +13005,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13021,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,10 +13028,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13044,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13051,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,13 +13074,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D317" s="49" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E317" s="51">
         <v>1</v>
@@ -13093,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="50" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13100,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13300,6 +13299,58 @@
       </c>
       <c r="I325" t="s">
         <v>863</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C326" t="s">
+        <v>995</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="I326" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="35" t="s">
+        <v>998</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="D327" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E327" s="30">
+        <v>0</v>
+      </c>
+      <c r="F327" s="30">
+        <v>0</v>
+      </c>
+      <c r="G327" s="30">
+        <v>0</v>
+      </c>
+      <c r="I327" s="37" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -4165,26 +4165,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_007_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月29日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_009_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_010</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sgxxl_tower_climbing</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4194,22 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_008_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_012_hedeng</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_010_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4878,10 +4878,10 @@
   <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E327" sqref="E327"/>
+      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12959,7 +12959,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>981</v>
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12982,7 +12982,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C313" s="50" t="s">
         <v>982</v>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13005,7 +13005,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C314" s="50" t="s">
         <v>983</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13051,7 +13051,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C316" s="50" t="s">
         <v>986</v>
@@ -13306,25 +13306,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C326" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E326">
         <v>0</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13332,22 +13332,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E327" s="30">
         <v>0</v>
       </c>
       <c r="F327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" s="37" t="s">
         <v>641</v>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1012">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4118,9 +4118,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
     <t>通用礼包皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4133,14 +4130,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>掉落排行榜皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4200,15 +4189,84 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_012_hedeng</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_010_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_011_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_052_qfhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_052_QFHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年4月12日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_GiftsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_001_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_013_long</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（福袋）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（福袋）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4875,13 +4933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ327"/>
+  <dimension ref="A1:AJ330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
+      <selection pane="bottomRight" activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11901,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12832,7 +12890,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12959,10 +13017,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12974,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12982,10 +13040,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12997,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13005,10 +13063,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13020,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13028,10 +13086,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13051,10 +13109,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13074,10 +13132,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D317" s="49" t="s">
         <v>975</v>
@@ -13100,10 +13158,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
+        <v>995</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>977</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>978</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13306,25 +13364,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C326" t="s">
+        <v>988</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
         <v>990</v>
-      </c>
-      <c r="C326" t="s">
-        <v>991</v>
-      </c>
-      <c r="D326" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="I326" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13332,16 +13390,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="30">
         <v>1</v>
@@ -13351,6 +13409,81 @@
       </c>
       <c r="I327" s="37" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16.5">
+      <c r="A329" s="16">
+        <v>328</v>
+      </c>
+      <c r="B329" s="53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
+      <c r="B330" s="53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3995,9 +3995,6 @@
     <t>act_048_xnsmt</t>
   </si>
   <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
     <t>Act_048_XNSMTManager</t>
   </si>
   <si>
@@ -4130,6 +4127,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4185,19 +4190,7 @@
     <t>BY3DPHBManager</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_008_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_011_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_012</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4246,27 +4239,51 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙腾礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_001_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_013_long</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（福袋）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（福袋）</t>
+    <t>act_053_xcns</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_053_XCNSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月19日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_012_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_014_caiqiu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4274,7 +4291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4381,6 +4398,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4481,7 +4505,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4654,6 +4678,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4933,13 +4960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ330"/>
+  <dimension ref="A1:AJ331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C313" sqref="C313"/>
+      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4963,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8047,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11423,13 +11450,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="D256" s="15" t="s">
         <v>972</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>973</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11936,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -11959,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12890,7 +12917,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -13017,10 +13044,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -13032,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13040,10 +13067,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -13055,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13063,10 +13090,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13078,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13086,10 +13113,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13101,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13109,10 +13136,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13132,25 +13159,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D317" s="49" t="s">
+        <v>974</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>975</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13161,7 +13188,7 @@
         <v>995</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13174,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13185,7 +13212,7 @@
         <v>943</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D319" s="18" t="s">
         <v>944</v>
@@ -13200,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13211,7 +13238,7 @@
         <v>945</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
@@ -13233,12 +13260,12 @@
       <c r="B321" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="C321" s="18" t="s">
+      <c r="C321" s="58" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D321" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>948</v>
-      </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
@@ -13249,10 +13276,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13260,14 +13287,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="C322" s="19" t="s">
+      <c r="D322" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="D322" s="18" t="s">
-        <v>960</v>
-      </c>
       <c r="E322" s="17">
         <v>0</v>
       </c>
@@ -13278,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13286,25 +13313,25 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>961</v>
-      </c>
-      <c r="D323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>951</v>
-      </c>
-      <c r="E323" s="17">
-        <v>0</v>
-      </c>
-      <c r="F323" s="17">
-        <v>0</v>
-      </c>
-      <c r="G323" s="17">
-        <v>0</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13312,13 +13339,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="C324" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="D324" t="s">
         <v>966</v>
-      </c>
-      <c r="D324" t="s">
-        <v>967</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13338,13 +13365,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>967</v>
+      </c>
+      <c r="C325" t="s">
         <v>968</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>969</v>
-      </c>
-      <c r="D325" t="s">
-        <v>970</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -13364,13 +13391,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C326" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13382,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13390,13 +13417,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
@@ -13416,25 +13443,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
         <v>999</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="D328" s="9" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="9" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13442,25 +13469,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="53" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D329" t="s">
         <v>1002</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1003</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E329" s="17">
-        <v>1</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13468,22 +13495,48 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C330" s="15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
+      <c r="A331" s="16">
+        <v>330</v>
+      </c>
+      <c r="B331" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C331" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1008</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E330" s="17">
-        <v>1</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3357,10 +3357,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_027_mfflq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4283,7 +4279,43 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>充值消耗模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl_style/act_027_style_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡用户转入捕鱼奥秘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡用户转入捕鱼奥秘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4960,13 +4992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ331"/>
+  <dimension ref="A1:AJ333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
+      <selection pane="bottomRight" activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4990,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -6956,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8074,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -10791,7 +10823,7 @@
         <v>629</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>630</v>
@@ -10906,7 +10938,7 @@
         <v>662</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>663</v>
@@ -11371,13 +11403,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11450,13 +11482,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="D256" s="15" t="s">
         <v>971</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>972</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11469,7 +11501,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11792,22 +11824,22 @@
         <v>791</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>792</v>
+        <v>1015</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E269" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="17">
-        <v>0</v>
-      </c>
-      <c r="I269" s="19" t="s">
-        <v>731</v>
+        <v>1</v>
+      </c>
+      <c r="I269" s="15" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11815,13 +11847,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>794</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>795</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11841,25 +11873,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>799</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11867,14 +11899,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="D272" s="18" t="s">
-        <v>803</v>
-      </c>
       <c r="E272" s="17">
         <v>1</v>
       </c>
@@ -11885,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11893,13 +11925,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11919,25 +11951,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>809</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11945,14 +11977,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>813</v>
-      </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
@@ -11963,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -11971,11 +12003,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="50" t="s">
+        <v>813</v>
+      </c>
+      <c r="C276" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C276" s="50" t="s">
-        <v>815</v>
-      </c>
       <c r="E276" s="51">
         <v>1</v>
       </c>
@@ -11986,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11994,25 +12026,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12020,13 +12052,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12038,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12046,22 +12078,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>821</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12069,13 +12101,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12087,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12095,13 +12127,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12113,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12121,25 +12153,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12147,25 +12179,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12173,13 +12205,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>845</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>846</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12199,25 +12231,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>841</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>842</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12225,13 +12257,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>848</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>849</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12251,13 +12283,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>850</v>
-      </c>
-      <c r="C287" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>851</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12277,13 +12309,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="50" t="s">
+        <v>852</v>
+      </c>
+      <c r="C288" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="50" t="s">
+      <c r="D288" s="50" t="s">
         <v>854</v>
-      </c>
-      <c r="D288" s="50" t="s">
-        <v>855</v>
       </c>
       <c r="E288" s="51">
         <v>1</v>
@@ -12303,25 +12335,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>858</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12329,25 +12361,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>862</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12355,14 +12387,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>866</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12373,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12381,13 +12413,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>869</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>870</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12407,13 +12439,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>872</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>873</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12433,13 +12465,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>874</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>875</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12460,13 +12492,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>880</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12479,7 +12511,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12514,13 +12546,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>883</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>884</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12533,7 +12565,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12568,13 +12600,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>887</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>888</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12587,7 +12619,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12622,13 +12654,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
+        <v>888</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>891</v>
+      </c>
+      <c r="D298" s="35" t="s">
         <v>889</v>
-      </c>
-      <c r="C298" s="36" t="s">
-        <v>892</v>
-      </c>
-      <c r="D298" s="35" t="s">
-        <v>890</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12641,7 +12673,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="37" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12676,13 +12708,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12695,7 +12727,7 @@
       </c>
       <c r="H299" s="40"/>
       <c r="I299" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12730,13 +12762,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12749,7 +12781,7 @@
       </c>
       <c r="H300" s="40"/>
       <c r="I300" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12757,13 +12789,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>892</v>
+      </c>
+      <c r="D301" s="38" t="s">
         <v>934</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>893</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>935</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12784,13 +12816,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>895</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>896</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12803,7 +12835,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12811,13 +12843,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12830,7 +12862,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12838,13 +12870,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="C304" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="C304" s="36" t="s">
+      <c r="D304" s="35" t="s">
         <v>904</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>905</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12857,7 +12889,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12865,14 +12897,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>908</v>
-      </c>
       <c r="E305" s="17">
         <v>0</v>
       </c>
@@ -12883,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12891,25 +12923,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="D306" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="E306" s="17">
+        <v>0</v>
+      </c>
+      <c r="F306" s="17">
+        <v>0</v>
+      </c>
+      <c r="G306" s="17">
+        <v>0</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>911</v>
-      </c>
-      <c r="E306" s="17">
-        <v>0</v>
-      </c>
-      <c r="F306" s="17">
-        <v>0</v>
-      </c>
-      <c r="G306" s="17">
-        <v>0</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12917,13 +12949,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C307" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="D307" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12940,25 +12972,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>0</v>
+      </c>
+      <c r="F308" s="17">
+        <v>0</v>
+      </c>
+      <c r="G308" s="17">
+        <v>0</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>919</v>
-      </c>
-      <c r="E308" s="17">
-        <v>0</v>
-      </c>
-      <c r="F308" s="17">
-        <v>0</v>
-      </c>
-      <c r="G308" s="17">
-        <v>0</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12966,13 +12998,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>920</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>922</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>923</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12992,25 +13024,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>0</v>
+      </c>
+      <c r="G310" s="17">
+        <v>0</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>926</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>0</v>
-      </c>
-      <c r="G310" s="17">
-        <v>0</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13018,25 +13050,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>0</v>
+      </c>
+      <c r="G311" s="17">
+        <v>0</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>930</v>
-      </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>0</v>
-      </c>
-      <c r="G311" s="17">
-        <v>0</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13044,10 +13076,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -13059,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13067,10 +13099,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -13082,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13090,10 +13122,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13105,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13113,11 +13145,11 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
+        <v>981</v>
+      </c>
+      <c r="C315" s="50" t="s">
         <v>982</v>
       </c>
-      <c r="C315" s="50" t="s">
-        <v>983</v>
-      </c>
       <c r="E315" s="51">
         <v>1</v>
       </c>
@@ -13128,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13136,10 +13168,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13159,25 +13191,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="C317" s="50" t="s">
         <v>985</v>
       </c>
-      <c r="C317" s="50" t="s">
-        <v>986</v>
-      </c>
       <c r="D317" s="49" t="s">
+        <v>973</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>974</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13185,10 +13217,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13201,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13209,25 +13241,25 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C319" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="D319" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="C319" s="15" t="s">
+      <c r="E319" s="17">
+        <v>0</v>
+      </c>
+      <c r="F319" s="17">
+        <v>0</v>
+      </c>
+      <c r="G319" s="17">
+        <v>0</v>
+      </c>
+      <c r="I319" s="15" t="s">
         <v>952</v>
-      </c>
-      <c r="D319" s="18" t="s">
-        <v>944</v>
-      </c>
-      <c r="E319" s="17">
-        <v>0</v>
-      </c>
-      <c r="F319" s="17">
-        <v>0</v>
-      </c>
-      <c r="G319" s="17">
-        <v>0</v>
-      </c>
-      <c r="I319" s="15" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13235,10 +13267,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
@@ -13250,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13258,14 +13290,14 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C321" s="58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D321" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="C321" s="58" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D321" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
@@ -13276,10 +13308,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13287,14 +13319,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="C322" s="19" t="s">
+      <c r="D322" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="D322" s="18" t="s">
-        <v>959</v>
-      </c>
       <c r="E322" s="17">
         <v>0</v>
       </c>
@@ -13305,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13313,25 +13345,25 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>960</v>
-      </c>
-      <c r="D323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>950</v>
-      </c>
-      <c r="E323" s="17">
-        <v>0</v>
-      </c>
-      <c r="F323" s="17">
-        <v>0</v>
-      </c>
-      <c r="G323" s="17">
-        <v>0</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13339,13 +13371,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="C324" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="D324" t="s">
         <v>965</v>
-      </c>
-      <c r="D324" t="s">
-        <v>966</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13365,14 +13397,14 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>966</v>
+      </c>
+      <c r="C325" t="s">
         <v>967</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>968</v>
       </c>
-      <c r="D325" t="s">
-        <v>969</v>
-      </c>
       <c r="E325">
         <v>1</v>
       </c>
@@ -13383,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="I325" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16.5">
@@ -13391,25 +13423,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C326" t="s">
         <v>988</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="D326" s="18" t="s">
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
         <v>990</v>
-      </c>
-      <c r="E326">
-        <v>1</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="I326" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13417,13 +13449,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="C327" s="36" t="s">
         <v>992</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="D327" s="35" t="s">
         <v>993</v>
-      </c>
-      <c r="D327" s="35" t="s">
-        <v>994</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
@@ -13443,25 +13475,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="D328" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="C328" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="D328" s="9" t="s">
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
         <v>998</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="9" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13469,25 +13501,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="53" t="s">
+        <v>999</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" t="s">
         <v>1001</v>
       </c>
-      <c r="D329" t="s">
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1002</v>
-      </c>
-      <c r="E329" s="17">
-        <v>1</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13495,10 +13527,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E330" s="17">
         <v>1</v>
@@ -13510,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
@@ -13518,25 +13550,74 @@
         <v>330</v>
       </c>
       <c r="B331" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C331" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="C331" s="15" t="s">
+      <c r="D331" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="D331" s="9" t="s">
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="E331" s="17">
-        <v>1</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1008</v>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
+      <c r="A332" s="16">
+        <v>331</v>
+      </c>
+      <c r="B332" s="53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C332" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E332" s="17">
+        <v>1</v>
+      </c>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="I332" s="15" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
+      <c r="A333" s="16">
+        <v>332</v>
+      </c>
+      <c r="B333" s="53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E333" s="17">
+        <v>1</v>
+      </c>
+      <c r="F333" s="17">
+        <v>1</v>
+      </c>
+      <c r="G333" s="17">
+        <v>1</v>
+      </c>
+      <c r="I333" s="15" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$331</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -484,6 +489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +513,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -515,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -524,7 +532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,6 +541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -542,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -551,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -560,7 +570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -788,6 +803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -805,6 +821,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -867,6 +884,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -884,6 +902,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1153,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,6 +1183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,6 +1291,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1278,7 +1301,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1287,6 +1310,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1313,6 +1337,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1330,6 +1355,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,6 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1364,6 +1391,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1373,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1382,6 +1410,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,6 +1431,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1411,7 +1441,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1420,6 +1450,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1437,6 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1446,7 +1478,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1455,6 +1487,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1464,7 +1497,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1481,6 +1514,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1490,7 +1524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1499,6 +1533,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1516,6 +1551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1525,7 +1561,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1534,6 +1570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1551,6 +1588,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1560,7 +1598,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1569,6 +1607,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1586,6 +1625,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1603,6 +1643,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1620,6 +1661,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1637,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1654,6 +1697,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1663,7 +1707,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1672,6 +1716,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1689,6 +1734,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1698,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1707,6 +1753,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1724,6 +1771,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1733,7 +1781,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1742,6 +1790,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1759,6 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1768,7 +1818,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1777,6 +1827,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1794,6 +1845,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1803,7 +1855,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1812,6 +1864,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1829,6 +1882,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1838,7 +1892,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1847,6 +1901,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1864,6 +1919,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1873,7 +1929,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1882,6 +1938,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1908,6 +1965,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1925,6 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1942,6 +2001,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1959,6 +2019,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1976,6 +2037,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2002,7 +2064,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2011,6 +2073,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2028,7 +2091,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2037,6 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2063,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2089,6 +2154,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2106,6 +2172,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2798,6 +2865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3453,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,6 +3533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3493,6 +3564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3503,6 +3575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3524,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3534,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3541,7 +3616,7 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_014_dlphb</t>
+    <t>act_ty_sjb_style/act_013_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3568,7 +3643,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_015</t>
+    <t>sys_act_base_style/sys_act_base_weekly_014</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3630,6 +3705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3640,6 +3716,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3706,6 +3783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,6 +3794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3732,9 +3811,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3763,21 +3839,6 @@
   </si>
   <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
-  </si>
-  <si>
-    <t>act_cjj_by_byam_guide</t>
-  </si>
-  <si>
-    <t>冲金鸡引导到捕鱼奥秘</t>
-  </si>
-  <si>
-    <t>ActCJJBYBYAMManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3787,18 +3848,36 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡引导到捕鱼奥秘</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3809,6 +3888,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3816,36 +3896,47 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3857,177 +3948,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4036,13 +3992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4066,13 +4022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4084,192 +4040,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4292,257 +4074,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4579,13 +4119,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4597,16 +4137,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4621,148 +4164,119 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5020,20 +4534,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D308" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D315" sqref="D315"/>
+      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5049,7 +4562,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +4591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5100,11 +4613,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5126,11 +4639,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5152,11 +4665,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5178,11 +4691,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5204,11 +4717,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5230,11 +4743,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5256,11 +4769,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5282,11 +4795,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5308,11 +4821,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5334,11 +4847,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5360,11 +4873,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5386,11 +4899,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5412,11 +4925,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5438,11 +4951,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5464,11 +4977,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5490,11 +5003,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5516,11 +5029,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5542,11 +5055,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5568,11 +5081,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5594,11 +5107,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5620,11 +5133,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5646,11 +5159,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5672,11 +5185,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5698,11 +5211,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5724,11 +5237,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5750,11 +5263,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5776,11 +5289,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5802,11 +5315,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5828,11 +5341,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5854,11 +5367,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5880,11 +5393,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5906,11 +5419,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5932,11 +5445,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5958,11 +5471,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5984,11 +5497,11 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6010,11 +5523,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6036,11 +5549,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6062,11 +5575,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6088,11 +5601,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6114,11 +5627,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6140,11 +5653,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6166,11 +5679,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6192,11 +5705,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6218,11 +5731,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6244,11 +5757,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6270,11 +5783,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6296,11 +5809,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6322,11 +5835,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6348,11 +5861,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6374,11 +5887,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6398,11 +5911,11 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6424,11 +5937,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6450,11 +5963,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6476,15 +5989,15 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="19" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -6502,11 +6015,11 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6528,11 +6041,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6554,11 +6067,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6580,11 +6093,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6606,11 +6119,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I60" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6632,11 +6145,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I61" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6658,11 +6171,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I62" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6684,11 +6197,11 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6710,11 +6223,11 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6736,11 +6249,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65" s="19" t="s">
+      <c r="I65" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6762,11 +6275,11 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="I66" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6788,11 +6301,11 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6814,11 +6327,11 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6840,11 +6353,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I69" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6866,11 +6379,11 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6892,11 +6405,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="I71" s="20" t="s">
+      <c r="I71" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6918,11 +6431,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="I72" s="20" t="s">
+      <c r="I72" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6944,24 +6457,24 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73" s="20" t="s">
+      <c r="I73" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="23">
         <v>0</v>
       </c>
       <c r="F74" s="2">
@@ -6970,11 +6483,11 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="25" t="s">
+      <c r="I74" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6996,24 +6509,24 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="I75" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="24">
         <v>0</v>
       </c>
       <c r="F76" s="3">
@@ -7022,11 +6535,11 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="I76" s="27" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7048,11 +6561,11 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="I77" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7074,11 +6587,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78" s="20" t="s">
+      <c r="I78" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7100,11 +6613,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="I79" s="19" t="s">
+      <c r="I79" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7126,11 +6639,11 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="I80" s="19" t="s">
+      <c r="I80" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7152,11 +6665,11 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="I81" s="19" t="s">
+      <c r="I81" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7178,11 +6691,11 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="I82" s="19" t="s">
+      <c r="I82" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7204,11 +6717,11 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="I83" s="19" t="s">
+      <c r="I83" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7230,11 +6743,11 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="I84" s="19" t="s">
+      <c r="I84" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7256,11 +6769,11 @@
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="I85" s="20" t="s">
+      <c r="I85" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7282,11 +6795,11 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="I86" s="20" t="s">
+      <c r="I86" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7308,11 +6821,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="I87" s="20" t="s">
+      <c r="I87" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7334,11 +6847,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="I88" s="20" t="s">
+      <c r="I88" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7360,11 +6873,11 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="I89" s="20" t="s">
+      <c r="I89" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7386,11 +6899,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="I90" s="20" t="s">
+      <c r="I90" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7412,11 +6925,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="I91" s="20" t="s">
+      <c r="I91" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7438,11 +6951,11 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="I92" s="20" t="s">
+      <c r="I92" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7464,11 +6977,11 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="I93" s="20" t="s">
+      <c r="I93" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7490,11 +7003,11 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="19" t="s">
+      <c r="I94" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7516,11 +7029,11 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="I95" s="19" t="s">
+      <c r="I95" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7542,11 +7055,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="I96" s="19" t="s">
+      <c r="I96" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7568,11 +7081,11 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="I97" s="19" t="s">
+      <c r="I97" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7594,11 +7107,11 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7620,11 +7133,11 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="I99" s="19" t="s">
+      <c r="I99" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7646,11 +7159,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="I100" s="20" t="s">
+      <c r="I100" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7672,11 +7185,11 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="I101" s="20" t="s">
+      <c r="I101" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7698,11 +7211,11 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7724,11 +7237,11 @@
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="I103" s="20" t="s">
+      <c r="I103" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7750,11 +7263,11 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="I104" s="19" t="s">
+      <c r="I104" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7776,11 +7289,11 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="20" t="s">
+      <c r="I105" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7802,11 +7315,11 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="19" t="s">
+      <c r="I106" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7828,11 +7341,11 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="I107" s="19" t="s">
+      <c r="I107" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7854,11 +7367,11 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="I108" s="19" t="s">
+      <c r="I108" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7880,11 +7393,11 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="I109" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7906,11 +7419,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="I110" s="19" t="s">
+      <c r="I110" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7932,11 +7445,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="I111" s="19" t="s">
+      <c r="I111" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7958,11 +7471,11 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="I112" s="19" t="s">
+      <c r="I112" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7984,11 +7497,11 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="I113" s="19" t="s">
+      <c r="I113" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8010,11 +7523,11 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="I114" s="19" t="s">
+      <c r="I114" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8036,11 +7549,11 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="I115" s="19" t="s">
+      <c r="I115" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8062,11 +7575,11 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="I116" s="19" t="s">
+      <c r="I116" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8088,11 +7601,11 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="I117" s="19" t="s">
+      <c r="I117" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8114,24 +7627,24 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I118" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A119" s="24">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
+      <c r="A119" s="25">
         <v>118</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="24">
+      <c r="E119" s="25">
         <v>1</v>
       </c>
       <c r="F119" s="4">
@@ -8140,11 +7653,11 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="I119" s="27" t="s">
+      <c r="I119" s="28" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8166,11 +7679,11 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8192,11 +7705,11 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="I121" s="19" t="s">
+      <c r="I121" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8218,11 +7731,11 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="I122" s="19" t="s">
+      <c r="I122" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8244,11 +7757,11 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I123" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8270,11 +7783,11 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="I124" s="19" t="s">
+      <c r="I124" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8296,11 +7809,11 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="I125" s="19" t="s">
+      <c r="I125" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8322,11 +7835,11 @@
       <c r="G126">
         <v>1</v>
       </c>
-      <c r="I126" s="20" t="s">
+      <c r="I126" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8348,11 +7861,11 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="I127" s="19" t="s">
+      <c r="I127" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8374,11 +7887,11 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="I128" s="19" t="s">
+      <c r="I128" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8400,11 +7913,11 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="I129" s="19" t="s">
+      <c r="I129" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8426,11 +7939,11 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="I130" s="19" t="s">
+      <c r="I130" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8452,11 +7965,11 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="I131" s="19" t="s">
+      <c r="I131" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8478,11 +7991,11 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8504,11 +8017,11 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="I133" s="19" t="s">
+      <c r="I133" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8530,11 +8043,11 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8556,11 +8069,11 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="I135" s="19" t="s">
+      <c r="I135" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8582,11 +8095,11 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8608,11 +8121,11 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="I137" s="19" t="s">
+      <c r="I137" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8634,11 +8147,11 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="I138" s="19" t="s">
+      <c r="I138" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8660,11 +8173,11 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="I139" s="19" t="s">
+      <c r="I139" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8686,11 +8199,11 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="I140" s="19" t="s">
+      <c r="I140" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8712,11 +8225,11 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="I141" s="19" t="s">
+      <c r="I141" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8738,11 +8251,11 @@
       <c r="G142">
         <v>1</v>
       </c>
-      <c r="I142" s="20" t="s">
+      <c r="I142" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8764,11 +8277,11 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="I143" s="20" t="s">
+      <c r="I143" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8790,18 +8303,18 @@
       <c r="G144">
         <v>1</v>
       </c>
-      <c r="I144" s="20" t="s">
+      <c r="I144" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="29" t="s">
         <v>446</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -8816,11 +8329,11 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="I145" s="20" t="s">
+      <c r="I145" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8842,11 +8355,11 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="I146" s="20" t="s">
+      <c r="I146" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8868,11 +8381,11 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="19" t="s">
+      <c r="I147" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8894,11 +8407,11 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="I148" s="19" t="s">
+      <c r="I148" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8920,11 +8433,11 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="I149" s="19" t="s">
+      <c r="I149" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8946,11 +8459,11 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="I150" s="19" t="s">
+      <c r="I150" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8972,11 +8485,11 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="19" t="s">
+      <c r="I151" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8998,11 +8511,11 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I152" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9024,11 +8537,11 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="I153" s="19" t="s">
+      <c r="I153" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9050,11 +8563,11 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="I154" s="19" t="s">
+      <c r="I154" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9076,11 +8589,11 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="I155" s="19" t="s">
+      <c r="I155" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9102,11 +8615,11 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="I156" s="19" t="s">
+      <c r="I156" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9128,11 +8641,11 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="20" t="s">
+      <c r="I157" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9154,11 +8667,11 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="19" t="s">
+      <c r="I158" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9180,11 +8693,11 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="I159" s="19" t="s">
+      <c r="I159" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9206,11 +8719,11 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="I160" s="19" t="s">
+      <c r="I160" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9232,11 +8745,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="I161" s="19" t="s">
+      <c r="I161" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9258,11 +8771,11 @@
       <c r="G162">
         <v>1</v>
       </c>
-      <c r="I162" s="20" t="s">
+      <c r="I162" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9284,11 +8797,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="I163" s="19" t="s">
+      <c r="I163" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9310,11 +8823,11 @@
       <c r="G164">
         <v>1</v>
       </c>
-      <c r="I164" s="20" t="s">
+      <c r="I164" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9336,11 +8849,11 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="I165" s="19" t="s">
+      <c r="I165" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9362,11 +8875,11 @@
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="I166" s="20" t="s">
+      <c r="I166" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9388,11 +8901,11 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="I167" s="19" t="s">
+      <c r="I167" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9414,11 +8927,11 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="I168" s="19" t="s">
+      <c r="I168" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9438,11 +8951,11 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="20" t="s">
+      <c r="I169" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9462,11 +8975,11 @@
       <c r="G170">
         <v>1</v>
       </c>
-      <c r="I170" s="20" t="s">
+      <c r="I170" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9486,11 +8999,11 @@
       <c r="G171">
         <v>1</v>
       </c>
-      <c r="I171" s="20" t="s">
+      <c r="I171" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9510,11 +9023,11 @@
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="I172" s="20" t="s">
+      <c r="I172" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9536,11 +9049,11 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="I173" s="19" t="s">
+      <c r="I173" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9560,11 +9073,11 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="I174" s="19" t="s">
+      <c r="I174" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9584,11 +9097,11 @@
       <c r="G175">
         <v>1</v>
       </c>
-      <c r="I175" s="20" t="s">
+      <c r="I175" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9608,11 +9121,11 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="I176" s="19" t="s">
+      <c r="I176" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9634,11 +9147,11 @@
       <c r="G177">
         <v>1</v>
       </c>
-      <c r="I177" s="20" t="s">
+      <c r="I177" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9660,11 +9173,11 @@
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="I178" s="20" t="s">
+      <c r="I178" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9684,22 +9197,22 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="I179" s="19" t="s">
+      <c r="I179" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24">
+      <c r="D180" s="25"/>
+      <c r="E180" s="25">
         <v>0</v>
       </c>
       <c r="F180" s="4">
@@ -9708,22 +9221,22 @@
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="19" t="s">
+      <c r="I180" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="C181" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24">
+      <c r="D181" s="25"/>
+      <c r="E181" s="25">
         <v>0</v>
       </c>
       <c r="F181" s="4">
@@ -9732,22 +9245,22 @@
       <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="I181" s="19" t="s">
+      <c r="I181" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24">
+      <c r="D182" s="25"/>
+      <c r="E182" s="25">
         <v>0</v>
       </c>
       <c r="F182" s="4">
@@ -9756,11 +9269,11 @@
       <c r="G182" s="4">
         <v>0</v>
       </c>
-      <c r="I182" s="19" t="s">
+      <c r="I182" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9779,11 +9292,11 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="I183" s="19" t="s">
+      <c r="I183" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9802,11 +9315,11 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="I184" s="19" t="s">
+      <c r="I184" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9825,11 +9338,11 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="I185" s="19" t="s">
+      <c r="I185" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9848,11 +9361,11 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="I186" s="19" t="s">
+      <c r="I186" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9871,11 +9384,11 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="I187" s="19" t="s">
+      <c r="I187" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9894,11 +9407,11 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="I188" s="19" t="s">
+      <c r="I188" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9917,11 +9430,11 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="I189" s="19" t="s">
+      <c r="I189" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9940,11 +9453,11 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="I190" s="19" t="s">
+      <c r="I190" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9963,11 +9476,11 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="I191" s="19" t="s">
+      <c r="I191" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9986,11 +9499,11 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="I192" s="19" t="s">
+      <c r="I192" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10009,11 +9522,11 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="I193" s="19" t="s">
+      <c r="I193" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10032,11 +9545,11 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="I194" s="19" t="s">
+      <c r="I194" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10055,11 +9568,11 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="I195" s="19" t="s">
+      <c r="I195" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10078,11 +9591,11 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="I196" s="19" t="s">
+      <c r="I196" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10101,11 +9614,11 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="I197" s="19" t="s">
+      <c r="I197" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10124,11 +9637,11 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="I198" s="19" t="s">
+      <c r="I198" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10147,11 +9660,11 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="I199" s="19" t="s">
+      <c r="I199" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10170,11 +9683,11 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="I200" s="19" t="s">
+      <c r="I200" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10193,11 +9706,11 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="I201" s="19" t="s">
+      <c r="I201" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10216,11 +9729,11 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="I202" s="19" t="s">
+      <c r="I202" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10239,11 +9752,11 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="I203" s="19" t="s">
+      <c r="I203" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10265,11 +9778,11 @@
       <c r="G204">
         <v>1</v>
       </c>
-      <c r="I204" s="20" t="s">
+      <c r="I204" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10291,11 +9804,11 @@
       <c r="G205">
         <v>1</v>
       </c>
-      <c r="I205" s="20" t="s">
+      <c r="I205" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10317,11 +9830,11 @@
       <c r="G206">
         <v>1</v>
       </c>
-      <c r="I206" s="20" t="s">
+      <c r="I206" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10340,11 +9853,11 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="I207" s="19" t="s">
+      <c r="I207" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10363,11 +9876,11 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="I208" s="19" t="s">
+      <c r="I208" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10386,11 +9899,11 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="I209" s="19" t="s">
+      <c r="I209" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10409,11 +9922,11 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="I210" s="19" t="s">
+      <c r="I210" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10432,11 +9945,11 @@
       <c r="G211">
         <v>1</v>
       </c>
-      <c r="I211" s="20" t="s">
+      <c r="I211" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10455,11 +9968,11 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="I212" s="19" t="s">
+      <c r="I212" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10478,11 +9991,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="I213" s="19" t="s">
+      <c r="I213" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10501,11 +10014,11 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="I214" s="19" t="s">
+      <c r="I214" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10524,11 +10037,11 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="I215" s="19" t="s">
+      <c r="I215" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10547,11 +10060,11 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="I216" s="19" t="s">
+      <c r="I216" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10570,11 +10083,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="I217" s="19" t="s">
+      <c r="I217" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10593,11 +10106,11 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="I218" s="19" t="s">
+      <c r="I218" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10616,11 +10129,11 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="I219" s="19" t="s">
+      <c r="I219" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10639,11 +10152,11 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="I220" s="19" t="s">
+      <c r="I220" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10662,11 +10175,11 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="I221" s="19" t="s">
+      <c r="I221" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10685,11 +10198,11 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="I222" s="19" t="s">
+      <c r="I222" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10708,11 +10221,11 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="I223" s="19" t="s">
+      <c r="I223" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10731,11 +10244,11 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="I224" s="19" t="s">
+      <c r="I224" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10754,11 +10267,11 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="I225" s="19" t="s">
+      <c r="I225" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10781,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10804,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10827,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10850,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10873,7 +10386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10896,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10919,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10942,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10965,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10991,7 +10504,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11017,7 +10530,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11043,7 +10556,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11069,7 +10582,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11095,7 +10608,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11121,7 +10634,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11147,7 +10660,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11173,7 +10686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11199,7 +10712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11225,7 +10738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11251,7 +10764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11277,7 +10790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11303,7 +10816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11329,7 +10842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11355,7 +10868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11381,7 +10894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11407,7 +10920,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11433,34 +10946,34 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="29" t="s">
+      <c r="B253" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="C253" s="30" t="s">
+      <c r="C253" s="31" t="s">
         <v>726</v>
       </c>
-      <c r="D253" s="29" t="s">
+      <c r="D253" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="30">
-        <v>1</v>
-      </c>
-      <c r="F253" s="30">
-        <v>1</v>
-      </c>
-      <c r="G253" s="30">
-        <v>1</v>
-      </c>
-      <c r="H253" s="30"/>
-      <c r="I253" s="29" t="s">
+      <c r="E253" s="31">
+        <v>1</v>
+      </c>
+      <c r="F253" s="31">
+        <v>1</v>
+      </c>
+      <c r="G253" s="31">
+        <v>1</v>
+      </c>
+      <c r="H253" s="31"/>
+      <c r="I253" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11486,7 +10999,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11512,17 +11025,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="31" t="s">
+      <c r="B256" s="32" t="s">
         <v>734</v>
       </c>
-      <c r="C256" s="31" t="s">
+      <c r="C256" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="D256" s="31" t="s">
+      <c r="D256" s="32" t="s">
         <v>736</v>
       </c>
       <c r="E256" s="5">
@@ -11535,21 +11048,21 @@
         <v>1</v>
       </c>
       <c r="H256" s="5"/>
-      <c r="I256" s="31" t="s">
+      <c r="I256" s="32" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="31" t="s">
+      <c r="B257" s="32" t="s">
         <v>738</v>
       </c>
-      <c r="C257" s="31" t="s">
+      <c r="C257" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="D257" s="31" t="s">
+      <c r="D257" s="32" t="s">
         <v>740</v>
       </c>
       <c r="E257" s="5">
@@ -11561,21 +11074,21 @@
       <c r="G257" s="5">
         <v>1</v>
       </c>
-      <c r="I257" s="31" t="s">
+      <c r="I257" s="32" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="31" t="s">
+      <c r="B258" s="32" t="s">
         <v>741</v>
       </c>
-      <c r="C258" s="31" t="s">
+      <c r="C258" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="D258" s="31" t="s">
+      <c r="D258" s="32" t="s">
         <v>743</v>
       </c>
       <c r="E258" s="5">
@@ -11587,21 +11100,21 @@
       <c r="G258" s="5">
         <v>1</v>
       </c>
-      <c r="I258" s="31" t="s">
+      <c r="I258" s="32" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="31" t="s">
+      <c r="B259" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="C259" s="31" t="s">
+      <c r="C259" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="D259" s="31" t="s">
+      <c r="D259" s="32" t="s">
         <v>746</v>
       </c>
       <c r="E259" s="5">
@@ -11613,21 +11126,21 @@
       <c r="G259" s="5">
         <v>1</v>
       </c>
-      <c r="I259" s="31" t="s">
+      <c r="I259" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="31" t="s">
+      <c r="B260" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="C260" s="31" t="s">
+      <c r="C260" s="32" t="s">
         <v>748</v>
       </c>
-      <c r="D260" s="31" t="s">
+      <c r="D260" s="32" t="s">
         <v>749</v>
       </c>
       <c r="E260" s="5">
@@ -11639,11 +11152,11 @@
       <c r="G260" s="5">
         <v>1</v>
       </c>
-      <c r="I260" s="31" t="s">
+      <c r="I260" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11665,21 +11178,21 @@
       <c r="G261">
         <v>1</v>
       </c>
-      <c r="I261" s="20" t="s">
+      <c r="I261" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="31" t="s">
+      <c r="B262" s="32" t="s">
         <v>753</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="D262" s="31" t="s">
+      <c r="D262" s="32" t="s">
         <v>755</v>
       </c>
       <c r="E262">
@@ -11691,21 +11204,21 @@
       <c r="G262">
         <v>1</v>
       </c>
-      <c r="I262" s="20" t="s">
+      <c r="I262" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="31" t="s">
+      <c r="B263" s="32" t="s">
         <v>756</v>
       </c>
-      <c r="C263" s="31" t="s">
+      <c r="C263" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="D263" s="31" t="s">
+      <c r="D263" s="32" t="s">
         <v>758</v>
       </c>
       <c r="E263" s="5">
@@ -11717,21 +11230,21 @@
       <c r="G263" s="5">
         <v>0</v>
       </c>
-      <c r="I263" s="31" t="s">
+      <c r="I263" s="32" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="31" t="s">
+      <c r="B264" s="32" t="s">
         <v>759</v>
       </c>
-      <c r="C264" s="31" t="s">
+      <c r="C264" s="32" t="s">
         <v>760</v>
       </c>
-      <c r="D264" s="31" t="s">
+      <c r="D264" s="32" t="s">
         <v>761</v>
       </c>
       <c r="E264" s="5">
@@ -11743,21 +11256,21 @@
       <c r="G264" s="5">
         <v>1</v>
       </c>
-      <c r="I264" s="31" t="s">
+      <c r="I264" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="31" t="s">
+      <c r="B265" s="32" t="s">
         <v>762</v>
       </c>
-      <c r="C265" s="31" t="s">
+      <c r="C265" s="32" t="s">
         <v>763</v>
       </c>
-      <c r="D265" s="31" t="s">
+      <c r="D265" s="32" t="s">
         <v>764</v>
       </c>
       <c r="E265" s="5">
@@ -11773,17 +11286,17 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="31" t="s">
+      <c r="B266" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="C266" s="31" t="s">
+      <c r="C266" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="32" t="s">
+      <c r="D266" s="33" t="s">
         <v>767</v>
       </c>
       <c r="E266" s="5">
@@ -11795,21 +11308,21 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="31" t="s">
+      <c r="I266" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="31" t="s">
+      <c r="B267" s="32" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="31" t="s">
+      <c r="C267" s="32" t="s">
         <v>769</v>
       </c>
-      <c r="D267" s="32" t="s">
+      <c r="D267" s="33" t="s">
         <v>770</v>
       </c>
       <c r="E267" s="5">
@@ -11821,21 +11334,21 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="31" t="s">
+      <c r="I267" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A268" s="24">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
+      <c r="A268" s="25">
         <v>267</v>
       </c>
-      <c r="B268" s="33" t="s">
+      <c r="B268" s="34" t="s">
         <v>771</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="34" t="s">
         <v>772</v>
       </c>
-      <c r="D268" s="34" t="s">
+      <c r="D268" s="35" t="s">
         <v>773</v>
       </c>
       <c r="E268" s="4">
@@ -11847,21 +11360,21 @@
       <c r="G268" s="4">
         <v>1</v>
       </c>
-      <c r="I268" s="33" t="s">
+      <c r="I268" s="52" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="31" t="s">
+      <c r="B269" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="C269" s="31" t="s">
+      <c r="C269" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="D269" s="32" t="s">
+      <c r="D269" s="33" t="s">
         <v>776</v>
       </c>
       <c r="E269" s="5">
@@ -11873,21 +11386,21 @@
       <c r="G269" s="5">
         <v>1</v>
       </c>
-      <c r="I269" s="31" t="s">
+      <c r="I269" s="32" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="31" t="s">
+      <c r="B270" s="32" t="s">
         <v>778</v>
       </c>
-      <c r="C270" s="31" t="s">
+      <c r="C270" s="32" t="s">
         <v>779</v>
       </c>
-      <c r="D270" s="32" t="s">
+      <c r="D270" s="33" t="s">
         <v>780</v>
       </c>
       <c r="E270" s="5">
@@ -11899,21 +11412,21 @@
       <c r="G270" s="5">
         <v>0</v>
       </c>
-      <c r="I270" s="31" t="s">
+      <c r="I270" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="31" t="s">
+      <c r="B271" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="C271" s="31" t="s">
+      <c r="C271" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="D271" s="32" t="s">
+      <c r="D271" s="33" t="s">
         <v>783</v>
       </c>
       <c r="E271" s="5">
@@ -11925,21 +11438,21 @@
       <c r="G271" s="5">
         <v>1</v>
       </c>
-      <c r="I271" s="31" t="s">
+      <c r="I271" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="31" t="s">
+      <c r="B272" s="32" t="s">
         <v>784</v>
       </c>
-      <c r="C272" s="31" t="s">
+      <c r="C272" s="32" t="s">
         <v>785</v>
       </c>
-      <c r="D272" s="32" t="s">
+      <c r="D272" s="33" t="s">
         <v>786</v>
       </c>
       <c r="E272" s="5">
@@ -11951,21 +11464,21 @@
       <c r="G272" s="5">
         <v>1</v>
       </c>
-      <c r="I272" s="31" t="s">
+      <c r="I272" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="31" t="s">
+      <c r="B273" s="32" t="s">
         <v>787</v>
       </c>
-      <c r="C273" s="31" t="s">
+      <c r="C273" s="32" t="s">
         <v>788</v>
       </c>
-      <c r="D273" s="32" t="s">
+      <c r="D273" s="33" t="s">
         <v>789</v>
       </c>
       <c r="E273" s="5">
@@ -11977,21 +11490,21 @@
       <c r="G273" s="5">
         <v>1</v>
       </c>
-      <c r="I273" s="31" t="s">
+      <c r="I273" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="31" t="s">
+      <c r="B274" s="32" t="s">
         <v>790</v>
       </c>
-      <c r="C274" s="31" t="s">
+      <c r="C274" s="32" t="s">
         <v>791</v>
       </c>
-      <c r="D274" s="32" t="s">
+      <c r="D274" s="33" t="s">
         <v>792</v>
       </c>
       <c r="E274" s="5">
@@ -12003,21 +11516,21 @@
       <c r="G274" s="5">
         <v>0</v>
       </c>
-      <c r="I274" s="31" t="s">
+      <c r="I274" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="31" t="s">
+      <c r="B275" s="32" t="s">
         <v>793</v>
       </c>
-      <c r="C275" s="31" t="s">
+      <c r="C275" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="D275" s="32" t="s">
+      <c r="D275" s="33" t="s">
         <v>795</v>
       </c>
       <c r="E275" s="5">
@@ -12029,18 +11542,18 @@
       <c r="G275" s="5">
         <v>0</v>
       </c>
-      <c r="I275" s="31" t="s">
+      <c r="I275" s="32" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A276" s="35">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A276" s="36">
         <v>275</v>
       </c>
-      <c r="B276" s="36" t="s">
+      <c r="B276" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="37" t="s">
         <v>798</v>
       </c>
       <c r="E276" s="6">
@@ -12052,21 +11565,21 @@
       <c r="G276" s="6">
         <v>1</v>
       </c>
-      <c r="I276" s="36" t="s">
+      <c r="I276" s="37" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="31" t="s">
+      <c r="B277" s="32" t="s">
         <v>800</v>
       </c>
-      <c r="C277" s="31" t="s">
+      <c r="C277" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="D277" s="32" t="s">
+      <c r="D277" s="33" t="s">
         <v>802</v>
       </c>
       <c r="E277" s="5">
@@ -12078,21 +11591,21 @@
       <c r="G277" s="5">
         <v>0</v>
       </c>
-      <c r="I277" s="31" t="s">
+      <c r="I277" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="31" t="s">
+      <c r="B278" s="32" t="s">
         <v>803</v>
       </c>
-      <c r="C278" s="31" t="s">
+      <c r="C278" s="32" t="s">
         <v>804</v>
       </c>
-      <c r="D278" s="32" t="s">
+      <c r="D278" s="33" t="s">
         <v>805</v>
       </c>
       <c r="E278">
@@ -12104,18 +11617,18 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="31" t="s">
+      <c r="I278" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="31" t="s">
+      <c r="B279" s="32" t="s">
         <v>806</v>
       </c>
-      <c r="C279" s="31" t="s">
+      <c r="C279" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E279">
@@ -12127,21 +11640,21 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="31" t="s">
+      <c r="I279" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="31" t="s">
+      <c r="B280" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="C280" s="31" t="s">
+      <c r="C280" s="32" t="s">
         <v>809</v>
       </c>
-      <c r="D280" s="32" t="s">
+      <c r="D280" s="33" t="s">
         <v>810</v>
       </c>
       <c r="E280">
@@ -12153,21 +11666,21 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="31" t="s">
+      <c r="I280" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="31" t="s">
+      <c r="B281" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="C281" s="31" t="s">
+      <c r="C281" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="D281" s="32" t="s">
+      <c r="D281" s="33" t="s">
         <v>813</v>
       </c>
       <c r="E281">
@@ -12179,21 +11692,21 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="31" t="s">
+      <c r="I281" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="31" t="s">
+      <c r="B282" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="C282" s="31" t="s">
+      <c r="C282" s="32" t="s">
         <v>815</v>
       </c>
-      <c r="D282" s="32" t="s">
+      <c r="D282" s="33" t="s">
         <v>816</v>
       </c>
       <c r="E282">
@@ -12205,21 +11718,21 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="31" t="s">
+      <c r="I282" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="37" t="s">
+      <c r="B283" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="C283" s="31" t="s">
+      <c r="C283" s="32" t="s">
         <v>818</v>
       </c>
-      <c r="D283" s="32" t="s">
+      <c r="D283" s="33" t="s">
         <v>819</v>
       </c>
       <c r="E283">
@@ -12231,21 +11744,21 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="31" t="s">
+      <c r="I283" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="38" t="s">
+      <c r="B284" s="39" t="s">
         <v>820</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="39" t="s">
         <v>822</v>
       </c>
       <c r="E284" s="7">
@@ -12261,7 +11774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12271,7 +11784,7 @@
       <c r="C285" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="D285" s="38" t="s">
+      <c r="D285" s="39" t="s">
         <v>825</v>
       </c>
       <c r="E285" s="7">
@@ -12287,7 +11800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12297,7 +11810,7 @@
       <c r="C286" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D286" s="39" t="s">
         <v>828</v>
       </c>
       <c r="E286" s="7">
@@ -12313,7 +11826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12323,7 +11836,7 @@
       <c r="C287" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D287" s="39" t="s">
+      <c r="D287" s="40" t="s">
         <v>831</v>
       </c>
       <c r="E287" s="8">
@@ -12339,17 +11852,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A288" s="35">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A288" s="36">
         <v>287</v>
       </c>
-      <c r="B288" s="36" t="s">
+      <c r="B288" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="D288" s="36" t="s">
+      <c r="D288" s="37" t="s">
         <v>834</v>
       </c>
       <c r="E288" s="6">
@@ -12361,21 +11874,21 @@
       <c r="G288" s="6">
         <v>1</v>
       </c>
-      <c r="I288" s="36" t="s">
+      <c r="I288" s="37" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="31" t="s">
+      <c r="B289" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="31" t="s">
+      <c r="C289" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="D289" s="32" t="s">
+      <c r="D289" s="33" t="s">
         <v>837</v>
       </c>
       <c r="E289">
@@ -12387,11 +11900,11 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="31" t="s">
+      <c r="I289" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12417,7 +11930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12443,17 +11956,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="38" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="31" t="s">
+      <c r="C292" s="32" t="s">
         <v>845</v>
       </c>
-      <c r="D292" s="37" t="s">
+      <c r="D292" s="38" t="s">
         <v>846</v>
       </c>
       <c r="E292">
@@ -12465,21 +11978,21 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="31" t="s">
+      <c r="I292" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="38" t="s">
         <v>847</v>
       </c>
-      <c r="C293" s="31" t="s">
+      <c r="C293" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="D293" s="37" t="s">
+      <c r="D293" s="38" t="s">
         <v>849</v>
       </c>
       <c r="E293">
@@ -12491,21 +12004,21 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="31" t="s">
+      <c r="I293" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="32" t="s">
+      <c r="B294" s="33" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="31" t="s">
+      <c r="C294" s="32" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="32" t="s">
+      <c r="D294" s="33" t="s">
         <v>852</v>
       </c>
       <c r="E294" s="5">
@@ -12518,21 +12031,21 @@
         <v>0</v>
       </c>
       <c r="H294" s="5"/>
-      <c r="I294" s="31" t="s">
+      <c r="I294" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="32" t="s">
+      <c r="B295" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="C295" s="31" t="s">
+      <c r="C295" s="32" t="s">
         <v>854</v>
       </c>
-      <c r="D295" s="32" t="s">
+      <c r="D295" s="33" t="s">
         <v>855</v>
       </c>
       <c r="E295" s="5">
@@ -12545,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5"/>
-      <c r="I295" s="31" t="s">
+      <c r="I295" s="51" t="s">
         <v>856</v>
       </c>
       <c r="J295" s="5"/>
@@ -12576,17 +12089,17 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
-      <c r="B296" s="32" t="s">
+      <c r="B296" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="C296" s="31" t="s">
+      <c r="C296" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="D296" s="32" t="s">
+      <c r="D296" s="33" t="s">
         <v>859</v>
       </c>
       <c r="E296" s="5">
@@ -12599,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5"/>
-      <c r="I296" s="31" t="s">
+      <c r="I296" s="51" t="s">
         <v>856</v>
       </c>
       <c r="J296" s="5"/>
@@ -12630,17 +12143,17 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
-      <c r="B297" s="32" t="s">
+      <c r="B297" s="33" t="s">
         <v>860</v>
       </c>
-      <c r="C297" s="31" t="s">
+      <c r="C297" s="32" t="s">
         <v>861</v>
       </c>
-      <c r="D297" s="32" t="s">
+      <c r="D297" s="33" t="s">
         <v>862</v>
       </c>
       <c r="E297" s="5">
@@ -12653,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5"/>
-      <c r="I297" s="31" t="s">
+      <c r="I297" s="51" t="s">
         <v>856</v>
       </c>
       <c r="J297" s="5"/>
@@ -12684,17 +12197,17 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="41" t="s">
         <v>863</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="C298" s="42" t="s">
         <v>864</v>
       </c>
-      <c r="D298" s="40" t="s">
+      <c r="D298" s="41" t="s">
         <v>865</v>
       </c>
       <c r="E298" s="9">
@@ -12707,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="9"/>
-      <c r="I298" s="41" t="s">
+      <c r="I298" s="53" t="s">
         <v>12</v>
       </c>
       <c r="J298" s="5"/>
@@ -12738,30 +12251,30 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="42" t="s">
+      <c r="B299" s="43" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="43" t="s">
+      <c r="C299" s="44" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="42" t="s">
+      <c r="D299" s="43" t="s">
         <v>868</v>
       </c>
-      <c r="E299" s="44">
-        <v>1</v>
-      </c>
-      <c r="F299" s="44">
-        <v>1</v>
-      </c>
-      <c r="G299" s="44">
-        <v>1</v>
-      </c>
-      <c r="H299" s="44"/>
-      <c r="I299" s="43" t="s">
+      <c r="E299" s="45">
+        <v>1</v>
+      </c>
+      <c r="F299" s="45">
+        <v>1</v>
+      </c>
+      <c r="G299" s="45">
+        <v>1</v>
+      </c>
+      <c r="H299" s="45"/>
+      <c r="I299" s="44" t="s">
         <v>869</v>
       </c>
       <c r="J299" s="5"/>
@@ -12792,61 +12305,61 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
-      <c r="B300" s="42" t="s">
+      <c r="B300" s="43" t="s">
         <v>870</v>
       </c>
-      <c r="C300" s="43" t="s">
+      <c r="C300" s="44" t="s">
         <v>871</v>
       </c>
-      <c r="D300" s="42" t="s">
+      <c r="D300" s="43" t="s">
         <v>872</v>
       </c>
-      <c r="E300" s="44">
-        <v>1</v>
-      </c>
-      <c r="F300" s="44">
-        <v>1</v>
-      </c>
-      <c r="G300" s="44">
-        <v>1</v>
-      </c>
-      <c r="H300" s="44"/>
-      <c r="I300" s="43" t="s">
+      <c r="E300" s="45">
+        <v>1</v>
+      </c>
+      <c r="F300" s="45">
+        <v>1</v>
+      </c>
+      <c r="G300" s="45">
+        <v>1</v>
+      </c>
+      <c r="H300" s="45"/>
+      <c r="I300" s="44" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
-      <c r="B301" s="42" t="s">
+      <c r="B301" s="43" t="s">
         <v>873</v>
       </c>
-      <c r="C301" s="42" t="s">
+      <c r="C301" s="43" t="s">
         <v>874</v>
       </c>
-      <c r="D301" s="42" t="s">
+      <c r="D301" s="43" t="s">
         <v>875</v>
       </c>
-      <c r="E301" s="44">
-        <v>1</v>
-      </c>
-      <c r="F301" s="44">
-        <v>1</v>
-      </c>
-      <c r="G301" s="44">
-        <v>1</v>
-      </c>
-      <c r="H301" s="44"/>
-      <c r="I301" s="43" t="s">
+      <c r="E301" s="45">
+        <v>1</v>
+      </c>
+      <c r="F301" s="45">
+        <v>1</v>
+      </c>
+      <c r="G301" s="45">
+        <v>1</v>
+      </c>
+      <c r="H301" s="45"/>
+      <c r="I301" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12869,21 +12382,21 @@
         <v>1</v>
       </c>
       <c r="H302" s="5"/>
-      <c r="I302" s="31" t="s">
+      <c r="I302" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="32" t="s">
+      <c r="B303" s="33" t="s">
         <v>879</v>
       </c>
-      <c r="C303" s="31" t="s">
+      <c r="C303" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="D303" s="32" t="s">
+      <c r="D303" s="33" t="s">
         <v>881</v>
       </c>
       <c r="E303" s="5">
@@ -12896,21 +12409,21 @@
         <v>1</v>
       </c>
       <c r="H303" s="5"/>
-      <c r="I303" s="31" t="s">
+      <c r="I303" s="32" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="40" t="s">
+      <c r="B304" s="41" t="s">
         <v>883</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="C304" s="42" t="s">
         <v>884</v>
       </c>
-      <c r="D304" s="40" t="s">
+      <c r="D304" s="41" t="s">
         <v>885</v>
       </c>
       <c r="E304" s="9">
@@ -12923,21 +12436,21 @@
         <v>1</v>
       </c>
       <c r="H304" s="9"/>
-      <c r="I304" s="41" t="s">
+      <c r="I304" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="32" t="s">
+      <c r="B305" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="C305" s="31" t="s">
+      <c r="C305" s="32" t="s">
         <v>887</v>
       </c>
-      <c r="D305" s="32" t="s">
+      <c r="D305" s="33" t="s">
         <v>888</v>
       </c>
       <c r="E305" s="5">
@@ -12949,21 +12462,21 @@
       <c r="G305" s="5">
         <v>1</v>
       </c>
-      <c r="I305" s="31" t="s">
+      <c r="I305" s="32" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="32" t="s">
+      <c r="B306" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="C306" s="31" t="s">
+      <c r="C306" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="D306" s="32" t="s">
+      <c r="D306" s="33" t="s">
         <v>891</v>
       </c>
       <c r="E306" s="5">
@@ -12975,21 +12488,21 @@
       <c r="G306" s="5">
         <v>0</v>
       </c>
-      <c r="I306" s="31" t="s">
+      <c r="I306" s="32" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="32" t="s">
+      <c r="B307" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="C307" s="31" t="s">
+      <c r="C307" s="32" t="s">
         <v>893</v>
       </c>
-      <c r="D307" s="32" t="s">
+      <c r="D307" s="33" t="s">
         <v>894</v>
       </c>
       <c r="E307" s="5">
@@ -13002,17 +12515,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
-      <c r="B308" s="45" t="s">
+      <c r="B308" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="C308" s="31" t="s">
+      <c r="C308" s="32" t="s">
         <v>896</v>
       </c>
-      <c r="D308" s="32" t="s">
+      <c r="D308" s="33" t="s">
         <v>897</v>
       </c>
       <c r="E308" s="5">
@@ -13024,21 +12537,21 @@
       <c r="G308" s="5">
         <v>0</v>
       </c>
-      <c r="I308" s="31" t="s">
+      <c r="I308" s="32" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="45" t="s">
+      <c r="B309" s="46" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="31" t="s">
+      <c r="C309" s="32" t="s">
         <v>900</v>
       </c>
-      <c r="D309" s="45" t="s">
+      <c r="D309" s="46" t="s">
         <v>901</v>
       </c>
       <c r="E309" s="5">
@@ -13050,21 +12563,21 @@
       <c r="G309" s="5">
         <v>1</v>
       </c>
-      <c r="I309" s="31" t="s">
+      <c r="I309" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="32" t="s">
+      <c r="B310" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="31" t="s">
+      <c r="C310" s="32" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="32" t="s">
+      <c r="D310" s="33" t="s">
         <v>904</v>
       </c>
       <c r="E310" s="5">
@@ -13076,21 +12589,21 @@
       <c r="G310" s="5">
         <v>0</v>
       </c>
-      <c r="I310" s="31" t="s">
+      <c r="I310" s="51" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="45" t="s">
+      <c r="B311" s="46" t="s">
         <v>906</v>
       </c>
-      <c r="C311" s="31" t="s">
+      <c r="C311" s="32" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="45" t="s">
+      <c r="D311" s="46" t="s">
         <v>908</v>
       </c>
       <c r="E311" s="5">
@@ -13102,18 +12615,18 @@
       <c r="G311" s="5">
         <v>0</v>
       </c>
-      <c r="I311" s="31" t="s">
+      <c r="I311" s="32" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="47" t="s">
         <v>910</v>
       </c>
-      <c r="C312" s="36" t="s">
+      <c r="C312" s="37" t="s">
         <v>911</v>
       </c>
       <c r="E312" s="6">
@@ -13125,18 +12638,18 @@
       <c r="G312" s="6">
         <v>1</v>
       </c>
-      <c r="I312" s="36" t="s">
+      <c r="I312" s="37" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="47" t="s">
         <v>913</v>
       </c>
-      <c r="C313" s="36" t="s">
+      <c r="C313" s="37" t="s">
         <v>914</v>
       </c>
       <c r="E313" s="6">
@@ -13148,18 +12661,18 @@
       <c r="G313" s="6">
         <v>1</v>
       </c>
-      <c r="I313" s="36" t="s">
+      <c r="I313" s="37" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="47" t="s">
         <v>915</v>
       </c>
-      <c r="C314" s="36" t="s">
+      <c r="C314" s="37" t="s">
         <v>916</v>
       </c>
       <c r="E314" s="6">
@@ -13171,18 +12684,18 @@
       <c r="G314" s="6">
         <v>1</v>
       </c>
-      <c r="I314" s="36" t="s">
+      <c r="I314" s="37" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="47" t="s">
+      <c r="B315" s="48" t="s">
         <v>917</v>
       </c>
-      <c r="C315" s="36" t="s">
+      <c r="C315" s="37" t="s">
         <v>918</v>
       </c>
       <c r="E315" s="6">
@@ -13194,18 +12707,18 @@
       <c r="G315" s="6">
         <v>1</v>
       </c>
-      <c r="I315" s="36" t="s">
+      <c r="I315" s="55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="48" t="s">
+      <c r="B316" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="37" t="s">
         <v>920</v>
       </c>
       <c r="E316" s="6">
@@ -13217,21 +12730,21 @@
       <c r="G316" s="6">
         <v>1</v>
       </c>
-      <c r="I316" s="36" t="s">
+      <c r="I316" s="55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="47" t="s">
         <v>921</v>
       </c>
-      <c r="C317" s="36" t="s">
+      <c r="C317" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="D317" s="46" t="s">
+      <c r="D317" s="47" t="s">
         <v>923</v>
       </c>
       <c r="E317" s="6">
@@ -13243,21 +12756,21 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="36" t="s">
+      <c r="I317" s="37" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="49" t="s">
+      <c r="B318" s="50" t="s">
         <v>924</v>
       </c>
-      <c r="C318" s="31" t="s">
+      <c r="C318" s="32" t="s">
         <v>925</v>
       </c>
-      <c r="D318" s="32"/>
+      <c r="D318" s="33"/>
       <c r="E318" s="5">
         <v>0</v>
       </c>
@@ -13267,21 +12780,21 @@
       <c r="G318" s="5">
         <v>0</v>
       </c>
-      <c r="I318" s="31" t="s">
+      <c r="I318" s="32" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="32" t="s">
+      <c r="B319" s="33" t="s">
         <v>926</v>
       </c>
-      <c r="C319" s="31" t="s">
+      <c r="C319" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="D319" s="32" t="s">
+      <c r="D319" s="33" t="s">
         <v>928</v>
       </c>
       <c r="E319" s="5">
@@ -13293,18 +12806,18 @@
       <c r="G319" s="5">
         <v>0</v>
       </c>
-      <c r="I319" s="31" t="s">
+      <c r="I319" s="32" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="32" t="s">
+      <c r="B320" s="33" t="s">
         <v>930</v>
       </c>
-      <c r="C320" s="31" t="s">
+      <c r="C320" s="32" t="s">
         <v>931</v>
       </c>
       <c r="E320" s="5">
@@ -13316,21 +12829,21 @@
       <c r="G320" s="5">
         <v>0</v>
       </c>
-      <c r="I320" s="31" t="s">
+      <c r="I320" s="32" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="32" t="s">
+      <c r="B321" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="C321" s="50" t="s">
+      <c r="C321" s="56" t="s">
         <v>933</v>
       </c>
-      <c r="D321" s="32" t="s">
+      <c r="D321" s="33" t="s">
         <v>934</v>
       </c>
       <c r="E321" s="5">
@@ -13345,21 +12858,21 @@
       <c r="H321" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="I321" s="31" t="s">
+      <c r="I321" s="32" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="32" t="s">
+      <c r="B322" s="33" t="s">
         <v>936</v>
       </c>
-      <c r="C322" s="31" t="s">
+      <c r="C322" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="D322" s="32" t="s">
+      <c r="D322" s="33" t="s">
         <v>937</v>
       </c>
       <c r="E322" s="5">
@@ -13371,21 +12884,21 @@
       <c r="G322" s="5">
         <v>0</v>
       </c>
-      <c r="I322" s="31" t="s">
+      <c r="I322" s="32" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="32" t="s">
+      <c r="B323" s="33" t="s">
         <v>939</v>
       </c>
-      <c r="C323" s="31" t="s">
+      <c r="C323" s="51" t="s">
         <v>940</v>
       </c>
-      <c r="D323" s="32" t="s">
+      <c r="D323" s="33" t="s">
         <v>941</v>
       </c>
       <c r="E323" s="5">
@@ -13397,18 +12910,18 @@
       <c r="G323" s="5">
         <v>0</v>
       </c>
-      <c r="I323" s="31" t="s">
+      <c r="I323" s="32" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="51" t="s">
+      <c r="B324" s="57" t="s">
         <v>942</v>
       </c>
-      <c r="C324" s="31" t="s">
+      <c r="C324" s="51" t="s">
         <v>943</v>
       </c>
       <c r="D324" t="s">
@@ -13423,11 +12936,11 @@
       <c r="G324" s="5">
         <v>1</v>
       </c>
-      <c r="I324" s="31" t="s">
+      <c r="I324" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13453,17 +12966,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="32" t="s">
+      <c r="B326" s="33" t="s">
         <v>948</v>
       </c>
       <c r="C326" t="s">
         <v>949</v>
       </c>
-      <c r="D326" s="32" t="s">
+      <c r="D326" s="33" t="s">
         <v>950</v>
       </c>
       <c r="E326">
@@ -13479,17 +12992,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="40" t="s">
+      <c r="B327" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="C327" s="41" t="s">
+      <c r="C327" s="42" t="s">
         <v>952</v>
       </c>
-      <c r="D327" s="40" t="s">
+      <c r="D327" s="41" t="s">
         <v>953</v>
       </c>
       <c r="E327" s="9">
@@ -13501,11 +13014,11 @@
       <c r="G327" s="9">
         <v>1</v>
       </c>
-      <c r="I327" s="41" t="s">
+      <c r="I327" s="53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13531,14 +13044,14 @@
         <v>957</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="51" t="s">
+      <c r="B329" s="57" t="s">
         <v>958</v>
       </c>
-      <c r="C329" s="31" t="s">
+      <c r="C329" s="51" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
@@ -13553,90 +13066,90 @@
       <c r="G329" s="5">
         <v>1</v>
       </c>
-      <c r="I329" s="31" t="s">
+      <c r="I329" s="32" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="51" t="s">
+      <c r="B330" s="57" t="s">
+        <v>974</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="51" t="s">
+      <c r="B331" s="57" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="32" t="s">
         <v>966</v>
       </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="332" ht="16.5" spans="1:9">
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="52" t="s">
+      <c r="B332" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="C332" t="s">
         <v>968</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>970</v>
       </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="51" t="s">
+      <c r="B333" s="57" t="s">
         <v>972</v>
       </c>
       <c r="C333" t="s">
@@ -13652,22 +13165,22 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="334" ht="16.5" spans="1:7">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="51" t="s">
-        <v>974</v>
+      <c r="B334" s="57" t="s">
+        <v>977</v>
       </c>
       <c r="C334" t="s">
+        <v>976</v>
+      </c>
+      <c r="D334" t="s">
         <v>975</v>
       </c>
-      <c r="D334" t="s">
-        <v>976</v>
-      </c>
       <c r="E334">
         <v>1</v>
       </c>
@@ -13679,39 +13192,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H334">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H331"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$335</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -489,7 +489,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +499,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -522,7 +520,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -541,7 +538,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -560,7 +556,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -629,7 +624,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +634,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +682,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +692,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -785,7 +776,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -803,7 +793,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -821,7 +810,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -884,7 +872,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -902,7 +889,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1172,7 +1158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1168,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1178,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1274,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1310,7 +1292,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1337,7 +1318,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1355,7 +1335,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1373,7 +1352,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1391,7 +1369,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1410,7 +1387,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1431,7 +1407,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1450,7 +1425,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1468,7 +1442,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1487,7 +1460,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1514,7 +1486,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1533,7 +1504,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1551,7 +1521,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1570,7 +1539,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1588,7 +1556,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1607,7 +1574,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1625,7 +1591,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1643,7 +1608,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1661,7 +1625,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1679,7 +1642,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1697,7 +1659,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1716,7 +1677,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1734,7 +1694,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1753,7 +1712,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1771,7 +1729,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1790,7 +1747,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1808,7 +1764,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1827,7 +1782,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1845,7 +1799,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1864,7 +1817,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1882,7 +1834,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1901,7 +1852,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1919,7 +1869,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1938,7 +1887,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1965,7 +1913,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1983,7 +1930,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -2001,7 +1947,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -2019,7 +1964,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2037,7 +1981,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2073,7 +2016,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2100,7 +2042,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2127,7 +2068,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2154,7 +2094,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2172,7 +2111,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2865,7 +2803,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2876,7 +2813,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3202,16 +3138,16 @@
     <t>BYTaskManager</t>
   </si>
   <si>
-    <t>act_029_hlqjd</t>
+    <t>act_ty_hlqjd</t>
   </si>
   <si>
     <t>欢乐敲金蛋</t>
   </si>
   <si>
-    <t>Act_029_HLQJDManager</t>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
+    <t>Act_ty_HLQJDManager</t>
+  </si>
+  <si>
+    <t>5月17日23:59:59</t>
   </si>
   <si>
     <t>act_030_hd_zjm</t>
@@ -3522,7 +3458,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3468,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3498,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3575,7 +3508,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3597,7 +3529,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3608,7 +3539,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,10 +3546,10 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>act_ty_sjb_style/act_014_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（财力）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
@@ -3628,7 +3558,7 @@
     <t>act_ty_by_drop_style/act_015_gongju</t>
   </si>
   <si>
-    <t>活动boss皮肤（铁锤）</t>
+    <t>活动boss皮肤（五星）</t>
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_010_hhl</t>
@@ -3643,7 +3573,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_015</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3662,6 +3592,9 @@
   </si>
   <si>
     <t>通用礼包皮肤</t>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
   </si>
   <si>
     <t>act_ty_universal_dh</t>
@@ -3705,7 +3638,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,7 +3648,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3783,7 +3714,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3724,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3811,7 +3740,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3826,7 +3758,7 @@
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年4月19日 23:59:59</t>
+    <t>2021年5月18日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3839,6 +3771,33 @@
   </si>
   <si>
     <t>5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+  </si>
+  <si>
+    <t>冲金鸡引导到捕鱼奥秘</t>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
+  </si>
+  <si>
+    <t>act_054_byns</t>
+  </si>
+  <si>
+    <t>捕鱼能手</t>
+  </si>
+  <si>
+    <t>Act_054_BYNSManager</t>
+  </si>
+  <si>
+    <t>2021年5月17日 23:59:59</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3849,35 +3808,15 @@
 </t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActCJJBYBYAMManager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡引导到捕鱼奥秘</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_cjj_by_byam_guide</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>购买后180天领取奖励</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3888,7 +3827,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3896,7 +3834,6 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3909,22 +3846,12 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3958,9 +3885,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3971,9 +3904,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3998,7 +3958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4028,7 +3988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4046,7 +4006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4079,10 +4039,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4137,19 +4097,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4164,103 +4121,97 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4540,13 +4491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ334"/>
+  <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
+      <selection pane="bottomRight" activeCell="I332" sqref="I332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4613,7 +4564,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4639,7 +4590,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4665,7 +4616,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4691,7 +4642,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4717,7 +4668,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4743,7 +4694,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4769,7 +4720,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4795,7 +4746,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4821,7 +4772,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4847,7 +4798,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4873,7 +4824,7 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4899,7 +4850,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4925,7 +4876,7 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4951,7 +4902,7 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4977,7 +4928,7 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5003,7 +4954,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5029,7 +4980,7 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5055,7 +5006,7 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5081,7 +5032,7 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5107,7 +5058,7 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5133,7 +5084,7 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5159,7 +5110,7 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5185,7 +5136,7 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5211,7 +5162,7 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5237,7 +5188,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5263,7 +5214,7 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5289,7 +5240,7 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5315,7 +5266,7 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5341,7 +5292,7 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5367,7 +5318,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5393,7 +5344,7 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5419,7 +5370,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5445,7 +5396,7 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5471,7 +5422,7 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5497,7 +5448,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5523,7 +5474,7 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5549,7 +5500,7 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5575,7 +5526,7 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5601,7 +5552,7 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5627,7 +5578,7 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5653,7 +5604,7 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5679,7 +5630,7 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5705,7 +5656,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5731,7 +5682,7 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5757,7 +5708,7 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5783,7 +5734,7 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5809,7 +5760,7 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5835,7 +5786,7 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5861,7 +5812,7 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5887,7 +5838,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5911,7 +5862,7 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5937,7 +5888,7 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5963,7 +5914,7 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5989,7 +5940,7 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5997,7 +5948,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -6015,7 +5966,7 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6041,7 +5992,7 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6067,7 +6018,7 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6093,7 +6044,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6119,7 +6070,7 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6145,7 +6096,7 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6171,7 +6122,7 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6197,7 +6148,7 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6223,7 +6174,7 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6249,7 +6200,7 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6275,7 +6226,7 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6301,7 +6252,7 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6327,7 +6278,7 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6353,7 +6304,7 @@
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="I69" s="21" t="s">
+      <c r="I69" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6379,7 +6330,7 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6405,7 +6356,7 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="I71" s="21" t="s">
+      <c r="I71" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6431,7 +6382,7 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="I72" s="21" t="s">
+      <c r="I72" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6457,7 +6408,7 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6465,16 +6416,16 @@
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>0</v>
       </c>
       <c r="F74" s="2">
@@ -6483,7 +6434,7 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="25" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6509,7 +6460,7 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I75" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6517,16 +6468,16 @@
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="23">
         <v>0</v>
       </c>
       <c r="F76" s="3">
@@ -6535,7 +6486,7 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="26" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6561,7 +6512,7 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6587,7 +6538,7 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6613,7 +6564,7 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6639,7 +6590,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6665,7 +6616,7 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6691,7 +6642,7 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6717,7 +6668,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6743,7 +6694,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6769,7 +6720,7 @@
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6795,7 +6746,7 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I86" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6821,7 +6772,7 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6847,7 +6798,7 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6873,7 +6824,7 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6899,7 +6850,7 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6925,7 +6876,7 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6951,7 +6902,7 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6977,7 +6928,7 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="I93" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7003,7 +6954,7 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="20" t="s">
+      <c r="I94" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7029,7 +6980,7 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7055,7 +7006,7 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="I96" s="20" t="s">
+      <c r="I96" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7081,7 +7032,7 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="I97" s="20" t="s">
+      <c r="I97" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7107,7 +7058,7 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7133,7 +7084,7 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7159,7 +7110,7 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7185,7 +7136,7 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7211,7 +7162,7 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="20" t="s">
+      <c r="I102" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7237,7 +7188,7 @@
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7263,7 +7214,7 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7289,7 +7240,7 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7315,7 +7266,7 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7341,7 +7292,7 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="I107" s="20" t="s">
+      <c r="I107" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7367,7 +7318,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7393,7 +7344,7 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="I109" s="20" t="s">
+      <c r="I109" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7419,7 +7370,7 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7445,7 +7396,7 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7471,7 +7422,7 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7497,7 +7448,7 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7523,7 +7474,7 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="I114" s="20" t="s">
+      <c r="I114" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7549,7 +7500,7 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="I115" s="20" t="s">
+      <c r="I115" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7575,7 +7526,7 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7601,7 +7552,7 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="I117" s="20" t="s">
+      <c r="I117" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7627,24 +7578,24 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="I118" s="20" t="s">
+      <c r="I118" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>118</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E119" s="24">
         <v>1</v>
       </c>
       <c r="F119" s="4">
@@ -7653,7 +7604,7 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="I119" s="28" t="s">
+      <c r="I119" s="27" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7679,7 +7630,7 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7705,7 +7656,7 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7731,7 +7682,7 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7757,7 +7708,7 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="I123" s="20" t="s">
+      <c r="I123" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7783,7 +7734,7 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I124" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7809,7 +7760,7 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I125" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7835,7 +7786,7 @@
       <c r="G126">
         <v>1</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7861,7 +7812,7 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="I127" s="20" t="s">
+      <c r="I127" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7887,7 +7838,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="I128" s="20" t="s">
+      <c r="I128" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7913,7 +7864,7 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I129" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7939,7 +7890,7 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7965,7 +7916,7 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7991,7 +7942,7 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I132" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8017,7 +7968,7 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I133" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8043,7 +7994,7 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="I134" s="20" t="s">
+      <c r="I134" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8069,7 +8020,7 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I135" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8095,7 +8046,7 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I136" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8121,7 +8072,7 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I137" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8147,7 +8098,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="I138" s="20" t="s">
+      <c r="I138" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8173,7 +8124,7 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="I139" s="20" t="s">
+      <c r="I139" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8199,7 +8150,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I140" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8225,7 +8176,7 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I141" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8251,7 +8202,7 @@
       <c r="G142">
         <v>1</v>
       </c>
-      <c r="I142" s="21" t="s">
+      <c r="I142" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8277,7 +8228,7 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="I143" s="21" t="s">
+      <c r="I143" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8303,7 +8254,7 @@
       <c r="G144">
         <v>1</v>
       </c>
-      <c r="I144" s="21" t="s">
+      <c r="I144" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8314,7 +8265,7 @@
       <c r="B145" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C145" s="28" t="s">
         <v>446</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -8329,7 +8280,7 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="I145" s="21" t="s">
+      <c r="I145" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8355,7 +8306,7 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="I146" s="21" t="s">
+      <c r="I146" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8381,7 +8332,7 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I147" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8407,7 +8358,7 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I148" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8433,7 +8384,7 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="I149" s="20" t="s">
+      <c r="I149" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8459,7 +8410,7 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I150" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8485,7 +8436,7 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="20" t="s">
+      <c r="I151" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8511,7 +8462,7 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="20" t="s">
+      <c r="I152" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8537,7 +8488,7 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="I153" s="20" t="s">
+      <c r="I153" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8563,7 +8514,7 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8589,7 +8540,7 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8615,7 +8566,7 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="I156" s="20" t="s">
+      <c r="I156" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8641,7 +8592,7 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="21" t="s">
+      <c r="I157" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8667,7 +8618,7 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="20" t="s">
+      <c r="I158" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8693,7 +8644,7 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="I159" s="20" t="s">
+      <c r="I159" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8719,7 +8670,7 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="I160" s="20" t="s">
+      <c r="I160" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8745,7 +8696,7 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="I161" s="20" t="s">
+      <c r="I161" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8771,7 +8722,7 @@
       <c r="G162">
         <v>1</v>
       </c>
-      <c r="I162" s="21" t="s">
+      <c r="I162" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8797,7 +8748,7 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="I163" s="20" t="s">
+      <c r="I163" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8823,7 +8774,7 @@
       <c r="G164">
         <v>1</v>
       </c>
-      <c r="I164" s="21" t="s">
+      <c r="I164" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8849,7 +8800,7 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="I165" s="20" t="s">
+      <c r="I165" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8875,7 +8826,7 @@
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="I166" s="21" t="s">
+      <c r="I166" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8901,7 +8852,7 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8927,7 +8878,7 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="I168" s="20" t="s">
+      <c r="I168" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8951,7 +8902,7 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="21" t="s">
+      <c r="I169" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8975,7 +8926,7 @@
       <c r="G170">
         <v>1</v>
       </c>
-      <c r="I170" s="21" t="s">
+      <c r="I170" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8999,7 +8950,7 @@
       <c r="G171">
         <v>1</v>
       </c>
-      <c r="I171" s="21" t="s">
+      <c r="I171" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9023,7 +8974,7 @@
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="I172" s="21" t="s">
+      <c r="I172" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9049,7 +9000,7 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="I173" s="20" t="s">
+      <c r="I173" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9073,7 +9024,7 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="I174" s="20" t="s">
+      <c r="I174" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9097,7 +9048,7 @@
       <c r="G175">
         <v>1</v>
       </c>
-      <c r="I175" s="21" t="s">
+      <c r="I175" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9121,7 +9072,7 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="I176" s="20" t="s">
+      <c r="I176" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9147,7 +9098,7 @@
       <c r="G177">
         <v>1</v>
       </c>
-      <c r="I177" s="21" t="s">
+      <c r="I177" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9173,7 +9124,7 @@
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="I178" s="21" t="s">
+      <c r="I178" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9197,7 +9148,7 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="I179" s="20" t="s">
+      <c r="I179" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9205,14 +9156,14 @@
       <c r="A180" s="15">
         <v>179</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25">
+      <c r="D180" s="24"/>
+      <c r="E180" s="24">
         <v>0</v>
       </c>
       <c r="F180" s="4">
@@ -9221,7 +9172,7 @@
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="20" t="s">
+      <c r="I180" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9229,14 +9180,14 @@
       <c r="A181" s="15">
         <v>180</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25">
+      <c r="D181" s="24"/>
+      <c r="E181" s="24">
         <v>0</v>
       </c>
       <c r="F181" s="4">
@@ -9245,7 +9196,7 @@
       <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9253,14 +9204,14 @@
       <c r="A182" s="15">
         <v>181</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25">
+      <c r="D182" s="24"/>
+      <c r="E182" s="24">
         <v>0</v>
       </c>
       <c r="F182" s="4">
@@ -9269,7 +9220,7 @@
       <c r="G182" s="4">
         <v>0</v>
       </c>
-      <c r="I182" s="20" t="s">
+      <c r="I182" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9292,7 +9243,7 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="I183" s="20" t="s">
+      <c r="I183" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9315,7 +9266,7 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="I184" s="20" t="s">
+      <c r="I184" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9338,7 +9289,7 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="I185" s="20" t="s">
+      <c r="I185" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9361,7 +9312,7 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="I186" s="20" t="s">
+      <c r="I186" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9384,7 +9335,7 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="I187" s="20" t="s">
+      <c r="I187" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9407,7 +9358,7 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="I188" s="20" t="s">
+      <c r="I188" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9430,7 +9381,7 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="I189" s="20" t="s">
+      <c r="I189" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9453,7 +9404,7 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="I190" s="20" t="s">
+      <c r="I190" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9476,7 +9427,7 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="I191" s="20" t="s">
+      <c r="I191" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9499,7 +9450,7 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="I192" s="20" t="s">
+      <c r="I192" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9522,7 +9473,7 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="I193" s="20" t="s">
+      <c r="I193" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9545,7 +9496,7 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="I194" s="20" t="s">
+      <c r="I194" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9568,7 +9519,7 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="I195" s="20" t="s">
+      <c r="I195" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9591,7 +9542,7 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="I196" s="20" t="s">
+      <c r="I196" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9614,7 +9565,7 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="I197" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9637,7 +9588,7 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="I198" s="20" t="s">
+      <c r="I198" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9660,7 +9611,7 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="I199" s="20" t="s">
+      <c r="I199" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9683,7 +9634,7 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="I200" s="20" t="s">
+      <c r="I200" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9706,7 +9657,7 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="I201" s="20" t="s">
+      <c r="I201" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9729,7 +9680,7 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="I202" s="20" t="s">
+      <c r="I202" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9752,7 +9703,7 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="I203" s="20" t="s">
+      <c r="I203" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9778,7 +9729,7 @@
       <c r="G204">
         <v>1</v>
       </c>
-      <c r="I204" s="21" t="s">
+      <c r="I204" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9804,7 +9755,7 @@
       <c r="G205">
         <v>1</v>
       </c>
-      <c r="I205" s="21" t="s">
+      <c r="I205" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9830,7 +9781,7 @@
       <c r="G206">
         <v>1</v>
       </c>
-      <c r="I206" s="21" t="s">
+      <c r="I206" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9853,7 +9804,7 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="I207" s="20" t="s">
+      <c r="I207" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9876,7 +9827,7 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="I208" s="20" t="s">
+      <c r="I208" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9899,7 +9850,7 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="I209" s="20" t="s">
+      <c r="I209" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9922,7 +9873,7 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="I210" s="20" t="s">
+      <c r="I210" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9945,7 +9896,7 @@
       <c r="G211">
         <v>1</v>
       </c>
-      <c r="I211" s="21" t="s">
+      <c r="I211" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9968,7 +9919,7 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="I212" s="20" t="s">
+      <c r="I212" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9991,7 +9942,7 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="I213" s="20" t="s">
+      <c r="I213" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10014,7 +9965,7 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="I214" s="20" t="s">
+      <c r="I214" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10037,7 +9988,7 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="I215" s="20" t="s">
+      <c r="I215" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10060,7 +10011,7 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="I216" s="20" t="s">
+      <c r="I216" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10083,7 +10034,7 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="I217" s="20" t="s">
+      <c r="I217" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10106,7 +10057,7 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="I218" s="20" t="s">
+      <c r="I218" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10129,7 +10080,7 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="I219" s="20" t="s">
+      <c r="I219" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10152,7 +10103,7 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="I220" s="20" t="s">
+      <c r="I220" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10175,7 +10126,7 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="I221" s="20" t="s">
+      <c r="I221" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10198,7 +10149,7 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="I222" s="20" t="s">
+      <c r="I222" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10221,7 +10172,7 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="I223" s="20" t="s">
+      <c r="I223" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10244,7 +10195,7 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="I224" s="20" t="s">
+      <c r="I224" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10267,7 +10218,7 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="I225" s="20" t="s">
+      <c r="I225" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10570,7 +10521,7 @@
         <v>677</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -10950,26 +10901,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="D253" s="30" t="s">
+      <c r="D253" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="31">
-        <v>1</v>
-      </c>
-      <c r="F253" s="31">
-        <v>1</v>
-      </c>
-      <c r="G253" s="31">
-        <v>1</v>
-      </c>
-      <c r="H253" s="31"/>
-      <c r="I253" s="30" t="s">
+      <c r="E253" s="30">
+        <v>1</v>
+      </c>
+      <c r="F253" s="30">
+        <v>1</v>
+      </c>
+      <c r="G253" s="30">
+        <v>1</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11029,13 +10980,13 @@
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="32" t="s">
+      <c r="B256" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C256" s="32" t="s">
+      <c r="C256" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="D256" s="32" t="s">
+      <c r="D256" s="31" t="s">
         <v>736</v>
       </c>
       <c r="E256" s="5">
@@ -11048,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="H256" s="5"/>
-      <c r="I256" s="32" t="s">
+      <c r="I256" s="31" t="s">
         <v>737</v>
       </c>
     </row>
@@ -11056,13 +11007,13 @@
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="32" t="s">
+      <c r="B257" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="C257" s="32" t="s">
+      <c r="C257" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="D257" s="32" t="s">
+      <c r="D257" s="31" t="s">
         <v>740</v>
       </c>
       <c r="E257" s="5">
@@ -11074,7 +11025,7 @@
       <c r="G257" s="5">
         <v>1</v>
       </c>
-      <c r="I257" s="32" t="s">
+      <c r="I257" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11082,13 +11033,13 @@
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="32" t="s">
+      <c r="B258" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="C258" s="32" t="s">
+      <c r="C258" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="D258" s="32" t="s">
+      <c r="D258" s="31" t="s">
         <v>743</v>
       </c>
       <c r="E258" s="5">
@@ -11100,7 +11051,7 @@
       <c r="G258" s="5">
         <v>1</v>
       </c>
-      <c r="I258" s="32" t="s">
+      <c r="I258" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11108,13 +11059,13 @@
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="32" t="s">
+      <c r="B259" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="C259" s="32" t="s">
+      <c r="C259" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="D259" s="32" t="s">
+      <c r="D259" s="31" t="s">
         <v>746</v>
       </c>
       <c r="E259" s="5">
@@ -11126,7 +11077,7 @@
       <c r="G259" s="5">
         <v>1</v>
       </c>
-      <c r="I259" s="32" t="s">
+      <c r="I259" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11134,13 +11085,13 @@
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="32" t="s">
+      <c r="B260" s="31" t="s">
         <v>747</v>
       </c>
-      <c r="C260" s="32" t="s">
+      <c r="C260" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="D260" s="32" t="s">
+      <c r="D260" s="31" t="s">
         <v>749</v>
       </c>
       <c r="E260" s="5">
@@ -11152,7 +11103,7 @@
       <c r="G260" s="5">
         <v>1</v>
       </c>
-      <c r="I260" s="32" t="s">
+      <c r="I260" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11178,7 +11129,7 @@
       <c r="G261">
         <v>1</v>
       </c>
-      <c r="I261" s="21" t="s">
+      <c r="I261" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11186,13 +11137,13 @@
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="32" t="s">
+      <c r="B262" s="31" t="s">
         <v>753</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="D262" s="32" t="s">
+      <c r="D262" s="31" t="s">
         <v>755</v>
       </c>
       <c r="E262">
@@ -11204,7 +11155,7 @@
       <c r="G262">
         <v>1</v>
       </c>
-      <c r="I262" s="21" t="s">
+      <c r="I262" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11212,13 +11163,13 @@
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="C263" s="32" t="s">
+      <c r="C263" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="D263" s="32" t="s">
+      <c r="D263" s="31" t="s">
         <v>758</v>
       </c>
       <c r="E263" s="5">
@@ -11230,7 +11181,7 @@
       <c r="G263" s="5">
         <v>0</v>
       </c>
-      <c r="I263" s="32" t="s">
+      <c r="I263" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11238,13 +11189,13 @@
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="B264" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C264" s="32" t="s">
+      <c r="C264" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="D264" s="32" t="s">
+      <c r="D264" s="31" t="s">
         <v>761</v>
       </c>
       <c r="E264" s="5">
@@ -11256,7 +11207,7 @@
       <c r="G264" s="5">
         <v>1</v>
       </c>
-      <c r="I264" s="32" t="s">
+      <c r="I264" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11264,13 +11215,13 @@
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="32" t="s">
+      <c r="B265" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="C265" s="32" t="s">
+      <c r="C265" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="D265" s="32" t="s">
+      <c r="D265" s="31" t="s">
         <v>764</v>
       </c>
       <c r="E265" s="5">
@@ -11290,13 +11241,13 @@
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="C266" s="32" t="s">
+      <c r="C266" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="33" t="s">
+      <c r="D266" s="32" t="s">
         <v>767</v>
       </c>
       <c r="E266" s="5">
@@ -11308,7 +11259,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="51" t="s">
+      <c r="I266" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11316,13 +11267,13 @@
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="32" t="s">
+      <c r="B267" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="32" t="s">
+      <c r="C267" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="D267" s="33" t="s">
+      <c r="D267" s="32" t="s">
         <v>770</v>
       </c>
       <c r="E267" s="5">
@@ -11334,21 +11285,21 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="51" t="s">
+      <c r="I267" s="31" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
-      <c r="A268" s="25">
+      <c r="A268" s="24">
         <v>267</v>
       </c>
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="D268" s="35" t="s">
+      <c r="D268" s="34" t="s">
         <v>773</v>
       </c>
       <c r="E268" s="4">
@@ -11360,7 +11311,7 @@
       <c r="G268" s="4">
         <v>1</v>
       </c>
-      <c r="I268" s="52" t="s">
+      <c r="I268" s="33" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11368,13 +11319,13 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="32" t="s">
+      <c r="B269" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C269" s="32" t="s">
+      <c r="C269" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="D269" s="33" t="s">
+      <c r="D269" s="32" t="s">
         <v>776</v>
       </c>
       <c r="E269" s="5">
@@ -11386,7 +11337,7 @@
       <c r="G269" s="5">
         <v>1</v>
       </c>
-      <c r="I269" s="32" t="s">
+      <c r="I269" s="31" t="s">
         <v>777</v>
       </c>
     </row>
@@ -11394,13 +11345,13 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="32" t="s">
+      <c r="B270" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="C270" s="32" t="s">
+      <c r="C270" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="D270" s="33" t="s">
+      <c r="D270" s="32" t="s">
         <v>780</v>
       </c>
       <c r="E270" s="5">
@@ -11412,7 +11363,7 @@
       <c r="G270" s="5">
         <v>0</v>
       </c>
-      <c r="I270" s="51" t="s">
+      <c r="I270" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11420,13 +11371,13 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="31" t="s">
         <v>781</v>
       </c>
-      <c r="C271" s="32" t="s">
+      <c r="C271" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="D271" s="33" t="s">
+      <c r="D271" s="32" t="s">
         <v>783</v>
       </c>
       <c r="E271" s="5">
@@ -11438,7 +11389,7 @@
       <c r="G271" s="5">
         <v>1</v>
       </c>
-      <c r="I271" s="51" t="s">
+      <c r="I271" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11446,13 +11397,13 @@
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="B272" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="C272" s="32" t="s">
+      <c r="C272" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="D272" s="33" t="s">
+      <c r="D272" s="32" t="s">
         <v>786</v>
       </c>
       <c r="E272" s="5">
@@ -11464,7 +11415,7 @@
       <c r="G272" s="5">
         <v>1</v>
       </c>
-      <c r="I272" s="51" t="s">
+      <c r="I272" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11472,13 +11423,13 @@
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="32" t="s">
+      <c r="B273" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="C273" s="32" t="s">
+      <c r="C273" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="D273" s="33" t="s">
+      <c r="D273" s="32" t="s">
         <v>789</v>
       </c>
       <c r="E273" s="5">
@@ -11490,7 +11441,7 @@
       <c r="G273" s="5">
         <v>1</v>
       </c>
-      <c r="I273" s="51" t="s">
+      <c r="I273" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11498,13 +11449,13 @@
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="32" t="s">
+      <c r="B274" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="C274" s="32" t="s">
+      <c r="C274" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="D274" s="33" t="s">
+      <c r="D274" s="32" t="s">
         <v>792</v>
       </c>
       <c r="E274" s="5">
@@ -11516,7 +11467,7 @@
       <c r="G274" s="5">
         <v>0</v>
       </c>
-      <c r="I274" s="51" t="s">
+      <c r="I274" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11524,36 +11475,36 @@
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="32" t="s">
+      <c r="B275" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="D275" s="33" t="s">
+      <c r="D275" s="32" t="s">
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
-      </c>
-      <c r="I275" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I275" s="31" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
-      <c r="A276" s="36">
+      <c r="A276" s="35">
         <v>275</v>
       </c>
-      <c r="B276" s="37" t="s">
+      <c r="B276" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>798</v>
       </c>
       <c r="E276" s="6">
@@ -11565,7 +11516,7 @@
       <c r="G276" s="6">
         <v>1</v>
       </c>
-      <c r="I276" s="37" t="s">
+      <c r="I276" s="36" t="s">
         <v>799</v>
       </c>
     </row>
@@ -11573,13 +11524,13 @@
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="32" t="s">
+      <c r="B277" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="C277" s="32" t="s">
+      <c r="C277" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="D277" s="33" t="s">
+      <c r="D277" s="32" t="s">
         <v>802</v>
       </c>
       <c r="E277" s="5">
@@ -11591,7 +11542,7 @@
       <c r="G277" s="5">
         <v>0</v>
       </c>
-      <c r="I277" s="51" t="s">
+      <c r="I277" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11599,13 +11550,13 @@
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="32" t="s">
+      <c r="B278" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="C278" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="D278" s="33" t="s">
+      <c r="D278" s="32" t="s">
         <v>805</v>
       </c>
       <c r="E278">
@@ -11617,7 +11568,7 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="51" t="s">
+      <c r="I278" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11625,10 +11576,10 @@
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="32" t="s">
+      <c r="B279" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="C279" s="32" t="s">
+      <c r="C279" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E279">
@@ -11640,7 +11591,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="51" t="s">
+      <c r="I279" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11648,13 +11599,13 @@
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="32" t="s">
+      <c r="B280" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="D280" s="33" t="s">
+      <c r="D280" s="32" t="s">
         <v>810</v>
       </c>
       <c r="E280">
@@ -11666,7 +11617,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="51" t="s">
+      <c r="I280" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11674,13 +11625,13 @@
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="32" t="s">
+      <c r="B281" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="C281" s="32" t="s">
+      <c r="C281" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="D281" s="33" t="s">
+      <c r="D281" s="32" t="s">
         <v>813</v>
       </c>
       <c r="E281">
@@ -11692,7 +11643,7 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="51" t="s">
+      <c r="I281" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11700,13 +11651,13 @@
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="32" t="s">
+      <c r="B282" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="C282" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="D282" s="33" t="s">
+      <c r="D282" s="32" t="s">
         <v>816</v>
       </c>
       <c r="E282">
@@ -11718,7 +11669,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="51" t="s">
+      <c r="I282" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11726,13 +11677,13 @@
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="38" t="s">
+      <c r="B283" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="C283" s="32" t="s">
+      <c r="C283" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="D283" s="33" t="s">
+      <c r="D283" s="32" t="s">
         <v>819</v>
       </c>
       <c r="E283">
@@ -11744,7 +11695,7 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="51" t="s">
+      <c r="I283" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11752,13 +11703,13 @@
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="38" t="s">
         <v>820</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="D284" s="39" t="s">
+      <c r="D284" s="38" t="s">
         <v>822</v>
       </c>
       <c r="E284" s="7">
@@ -11784,7 +11735,7 @@
       <c r="C285" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="D285" s="39" t="s">
+      <c r="D285" s="38" t="s">
         <v>825</v>
       </c>
       <c r="E285" s="7">
@@ -11810,7 +11761,7 @@
       <c r="C286" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="D286" s="39" t="s">
+      <c r="D286" s="38" t="s">
         <v>828</v>
       </c>
       <c r="E286" s="7">
@@ -11836,7 +11787,7 @@
       <c r="C287" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D287" s="40" t="s">
+      <c r="D287" s="39" t="s">
         <v>831</v>
       </c>
       <c r="E287" s="8">
@@ -11853,16 +11804,16 @@
       </c>
     </row>
     <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
-      <c r="A288" s="36">
+      <c r="A288" s="35">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="D288" s="37" t="s">
+      <c r="D288" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E288" s="6">
@@ -11874,7 +11825,7 @@
       <c r="G288" s="6">
         <v>1</v>
       </c>
-      <c r="I288" s="37" t="s">
+      <c r="I288" s="36" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11882,13 +11833,13 @@
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="32" t="s">
+      <c r="B289" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="C289" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="32" t="s">
         <v>837</v>
       </c>
       <c r="E289">
@@ -11900,7 +11851,7 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="51" t="s">
+      <c r="I289" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11960,13 +11911,13 @@
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="38" t="s">
+      <c r="B292" s="37" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="32" t="s">
+      <c r="C292" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="37" t="s">
         <v>846</v>
       </c>
       <c r="E292">
@@ -11978,7 +11929,7 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="51" t="s">
+      <c r="I292" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11986,13 +11937,13 @@
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="38" t="s">
+      <c r="B293" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="C293" s="32" t="s">
+      <c r="C293" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="37" t="s">
         <v>849</v>
       </c>
       <c r="E293">
@@ -12004,7 +11955,7 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="51" t="s">
+      <c r="I293" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12012,13 +11963,13 @@
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="33" t="s">
+      <c r="B294" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="32" t="s">
+      <c r="C294" s="31" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="33" t="s">
+      <c r="D294" s="32" t="s">
         <v>852</v>
       </c>
       <c r="E294" s="5">
@@ -12031,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="5"/>
-      <c r="I294" s="51" t="s">
+      <c r="I294" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12039,13 +11990,13 @@
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="33" t="s">
+      <c r="B295" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C295" s="32" t="s">
+      <c r="C295" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="D295" s="33" t="s">
+      <c r="D295" s="32" t="s">
         <v>855</v>
       </c>
       <c r="E295" s="5">
@@ -12058,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5"/>
-      <c r="I295" s="51" t="s">
+      <c r="I295" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J295" s="5"/>
@@ -12093,13 +12044,13 @@
       <c r="A296" s="15">
         <v>295</v>
       </c>
-      <c r="B296" s="33" t="s">
+      <c r="B296" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="C296" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="D296" s="33" t="s">
+      <c r="D296" s="32" t="s">
         <v>859</v>
       </c>
       <c r="E296" s="5">
@@ -12112,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5"/>
-      <c r="I296" s="51" t="s">
+      <c r="I296" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J296" s="5"/>
@@ -12147,13 +12098,13 @@
       <c r="A297" s="15">
         <v>296</v>
       </c>
-      <c r="B297" s="33" t="s">
+      <c r="B297" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="C297" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="D297" s="33" t="s">
+      <c r="D297" s="32" t="s">
         <v>862</v>
       </c>
       <c r="E297" s="5">
@@ -12166,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5"/>
-      <c r="I297" s="51" t="s">
+      <c r="I297" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J297" s="5"/>
@@ -12201,13 +12152,13 @@
       <c r="A298" s="15">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
+      <c r="B298" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="C298" s="42" t="s">
+      <c r="C298" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="D298" s="40" t="s">
         <v>865</v>
       </c>
       <c r="E298" s="9">
@@ -12220,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="9"/>
-      <c r="I298" s="53" t="s">
+      <c r="I298" s="41" t="s">
         <v>12</v>
       </c>
       <c r="J298" s="5"/>
@@ -12255,26 +12206,26 @@
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="44" t="s">
+      <c r="C299" s="43" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>868</v>
       </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="E299" s="44">
+        <v>1</v>
+      </c>
+      <c r="F299" s="44">
+        <v>1</v>
+      </c>
+      <c r="G299" s="44">
+        <v>1</v>
+      </c>
+      <c r="H299" s="44"/>
+      <c r="I299" s="43" t="s">
         <v>869</v>
       </c>
       <c r="J299" s="5"/>
@@ -12309,26 +12260,26 @@
       <c r="A300" s="15">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="42" t="s">
         <v>870</v>
       </c>
-      <c r="C300" s="44" t="s">
+      <c r="C300" s="43" t="s">
         <v>871</v>
       </c>
-      <c r="D300" s="43" t="s">
+      <c r="D300" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="E300" s="44">
+        <v>1</v>
+      </c>
+      <c r="F300" s="44">
+        <v>1</v>
+      </c>
+      <c r="G300" s="44">
+        <v>1</v>
+      </c>
+      <c r="H300" s="44"/>
+      <c r="I300" s="43" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12336,26 +12287,26 @@
       <c r="A301" s="15">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="42" t="s">
         <v>873</v>
       </c>
-      <c r="C301" s="43" t="s">
+      <c r="C301" s="42" t="s">
         <v>874</v>
       </c>
-      <c r="D301" s="43" t="s">
+      <c r="D301" s="42" t="s">
         <v>875</v>
       </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="54" t="s">
+      <c r="E301" s="44">
+        <v>1</v>
+      </c>
+      <c r="F301" s="44">
+        <v>1</v>
+      </c>
+      <c r="G301" s="44">
+        <v>1</v>
+      </c>
+      <c r="H301" s="44"/>
+      <c r="I301" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12382,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="H302" s="5"/>
-      <c r="I302" s="51" t="s">
+      <c r="I302" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12390,13 +12341,13 @@
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="33" t="s">
+      <c r="B303" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="C303" s="31" t="s">
         <v>880</v>
       </c>
-      <c r="D303" s="33" t="s">
+      <c r="D303" s="32" t="s">
         <v>881</v>
       </c>
       <c r="E303" s="5">
@@ -12409,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="H303" s="5"/>
-      <c r="I303" s="32" t="s">
+      <c r="I303" s="31" t="s">
         <v>882</v>
       </c>
     </row>
@@ -12417,13 +12368,13 @@
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="40" t="s">
         <v>883</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="40" t="s">
         <v>885</v>
       </c>
       <c r="E304" s="9">
@@ -12436,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="9"/>
-      <c r="I304" s="42" t="s">
+      <c r="I304" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12444,25 +12395,25 @@
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B305" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="C305" s="31" t="s">
         <v>887</v>
       </c>
-      <c r="D305" s="33" t="s">
+      <c r="D305" s="32" t="s">
         <v>888</v>
       </c>
       <c r="E305" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="5">
-        <v>1</v>
-      </c>
-      <c r="I305" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I305" s="31" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12470,13 +12421,13 @@
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="33" t="s">
+      <c r="B306" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="C306" s="32" t="s">
+      <c r="C306" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="D306" s="33" t="s">
+      <c r="D306" s="32" t="s">
         <v>891</v>
       </c>
       <c r="E306" s="5">
@@ -12488,7 +12439,7 @@
       <c r="G306" s="5">
         <v>0</v>
       </c>
-      <c r="I306" s="32" t="s">
+      <c r="I306" s="31" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12496,13 +12447,13 @@
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="33" t="s">
+      <c r="B307" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="C307" s="32" t="s">
+      <c r="C307" s="31" t="s">
         <v>893</v>
       </c>
-      <c r="D307" s="33" t="s">
+      <c r="D307" s="32" t="s">
         <v>894</v>
       </c>
       <c r="E307" s="5">
@@ -12519,13 +12470,13 @@
       <c r="A308" s="15">
         <v>307</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="45" t="s">
         <v>895</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="C308" s="31" t="s">
         <v>896</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="D308" s="32" t="s">
         <v>897</v>
       </c>
       <c r="E308" s="5">
@@ -12537,7 +12488,7 @@
       <c r="G308" s="5">
         <v>0</v>
       </c>
-      <c r="I308" s="32" t="s">
+      <c r="I308" s="31" t="s">
         <v>898</v>
       </c>
     </row>
@@ -12545,13 +12496,13 @@
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="C309" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="D309" s="46" t="s">
+      <c r="D309" s="45" t="s">
         <v>901</v>
       </c>
       <c r="E309" s="5">
@@ -12563,7 +12514,7 @@
       <c r="G309" s="5">
         <v>1</v>
       </c>
-      <c r="I309" s="51" t="s">
+      <c r="I309" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12571,13 +12522,13 @@
       <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="C310" s="31" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="33" t="s">
+      <c r="D310" s="32" t="s">
         <v>904</v>
       </c>
       <c r="E310" s="5">
@@ -12589,7 +12540,7 @@
       <c r="G310" s="5">
         <v>0</v>
       </c>
-      <c r="I310" s="51" t="s">
+      <c r="I310" s="31" t="s">
         <v>905</v>
       </c>
     </row>
@@ -12597,13 +12548,13 @@
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="C311" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="46" t="s">
+      <c r="D311" s="45" t="s">
         <v>908</v>
       </c>
       <c r="E311" s="5">
@@ -12615,7 +12566,7 @@
       <c r="G311" s="5">
         <v>0</v>
       </c>
-      <c r="I311" s="32" t="s">
+      <c r="I311" s="31" t="s">
         <v>909</v>
       </c>
     </row>
@@ -12623,10 +12574,10 @@
       <c r="A312" s="15">
         <v>311</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="C312" s="37" t="s">
+      <c r="C312" s="36" t="s">
         <v>911</v>
       </c>
       <c r="E312" s="6">
@@ -12638,7 +12589,7 @@
       <c r="G312" s="6">
         <v>1</v>
       </c>
-      <c r="I312" s="37" t="s">
+      <c r="I312" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -12646,22 +12597,22 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="47" t="s">
+      <c r="B313" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="C313" s="37" t="s">
+      <c r="C313" s="36" t="s">
         <v>914</v>
       </c>
       <c r="E313" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="6">
-        <v>1</v>
-      </c>
-      <c r="I313" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I313" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -12669,22 +12620,22 @@
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="47" t="s">
+      <c r="B314" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="36" t="s">
         <v>916</v>
       </c>
       <c r="E314" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" s="6">
-        <v>1</v>
-      </c>
-      <c r="I314" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I314" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -12692,10 +12643,10 @@
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="48" t="s">
+      <c r="B315" s="47" t="s">
         <v>917</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="36" t="s">
         <v>918</v>
       </c>
       <c r="E315" s="6">
@@ -12707,7 +12658,7 @@
       <c r="G315" s="6">
         <v>1</v>
       </c>
-      <c r="I315" s="55" t="s">
+      <c r="I315" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12715,10 +12666,10 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="49" t="s">
+      <c r="B316" s="48" t="s">
         <v>919</v>
       </c>
-      <c r="C316" s="37" t="s">
+      <c r="C316" s="36" t="s">
         <v>920</v>
       </c>
       <c r="E316" s="6">
@@ -12730,7 +12681,7 @@
       <c r="G316" s="6">
         <v>1</v>
       </c>
-      <c r="I316" s="55" t="s">
+      <c r="I316" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12738,13 +12689,13 @@
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="47" t="s">
+      <c r="B317" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="36" t="s">
         <v>922</v>
       </c>
-      <c r="D317" s="47" t="s">
+      <c r="D317" s="46" t="s">
         <v>923</v>
       </c>
       <c r="E317" s="6">
@@ -12756,21 +12707,21 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="37" t="s">
-        <v>796</v>
+      <c r="I317" s="50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="50" t="s">
+      <c r="B318" s="49" t="s">
         <v>924</v>
       </c>
-      <c r="C318" s="32" t="s">
+      <c r="C318" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="D318" s="33"/>
+      <c r="D318" s="32"/>
       <c r="E318" s="5">
         <v>0</v>
       </c>
@@ -12780,23 +12731,23 @@
       <c r="G318" s="5">
         <v>0</v>
       </c>
-      <c r="I318" s="32" t="s">
-        <v>796</v>
+      <c r="I318" s="31" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="33" t="s">
-        <v>926</v>
-      </c>
-      <c r="C319" s="32" t="s">
+      <c r="B319" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="D319" s="33" t="s">
+      <c r="C319" s="31" t="s">
         <v>928</v>
       </c>
+      <c r="D319" s="32" t="s">
+        <v>929</v>
+      </c>
       <c r="E319" s="5">
         <v>0</v>
       </c>
@@ -12806,46 +12757,46 @@
       <c r="G319" s="5">
         <v>0</v>
       </c>
-      <c r="I319" s="32" t="s">
-        <v>929</v>
+      <c r="I319" s="31" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="33" t="s">
+      <c r="B320" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+      <c r="F320" s="5">
+        <v>0</v>
+      </c>
+      <c r="G320" s="5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="31" t="s">
         <v>930</v>
-      </c>
-      <c r="C320" s="32" t="s">
-        <v>931</v>
-      </c>
-      <c r="E320" s="5">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
-        <v>0</v>
-      </c>
-      <c r="G320" s="5">
-        <v>0</v>
-      </c>
-      <c r="I320" s="32" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="33" t="s">
-        <v>932</v>
-      </c>
-      <c r="C321" s="56" t="s">
+      <c r="B321" s="32" t="s">
         <v>933</v>
       </c>
-      <c r="D321" s="33" t="s">
+      <c r="C321" s="51" t="s">
         <v>934</v>
       </c>
+      <c r="D321" s="32" t="s">
+        <v>935</v>
+      </c>
       <c r="E321" s="5">
         <v>0</v>
       </c>
@@ -12856,24 +12807,24 @@
         <v>0</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="I321" s="32" t="s">
-        <v>929</v>
+        <v>936</v>
+      </c>
+      <c r="I321" s="31" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="33" t="s">
-        <v>936</v>
-      </c>
-      <c r="C322" s="51" t="s">
+      <c r="B322" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="D322" s="33" t="s">
-        <v>937</v>
+      <c r="D322" s="32" t="s">
+        <v>938</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -12884,23 +12835,23 @@
       <c r="G322" s="5">
         <v>0</v>
       </c>
-      <c r="I322" s="32" t="s">
-        <v>938</v>
+      <c r="I322" s="31" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="33" t="s">
-        <v>939</v>
-      </c>
-      <c r="C323" s="51" t="s">
+      <c r="B323" s="32" t="s">
         <v>940</v>
       </c>
-      <c r="D323" s="33" t="s">
+      <c r="C323" s="31" t="s">
         <v>941</v>
       </c>
+      <c r="D323" s="32" t="s">
+        <v>942</v>
+      </c>
       <c r="E323" s="5">
         <v>0</v>
       </c>
@@ -12910,7 +12861,7 @@
       <c r="G323" s="5">
         <v>0</v>
       </c>
-      <c r="I323" s="32" t="s">
+      <c r="I323" s="31" t="s">
         <v>369</v>
       </c>
     </row>
@@ -12918,14 +12869,14 @@
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="57" t="s">
-        <v>942</v>
-      </c>
-      <c r="C324" s="51" t="s">
+      <c r="B324" s="52" t="s">
         <v>943</v>
       </c>
+      <c r="C324" s="31" t="s">
+        <v>944</v>
+      </c>
       <c r="D324" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -12936,7 +12887,7 @@
       <c r="G324" s="5">
         <v>1</v>
       </c>
-      <c r="I324" s="32" t="s">
+      <c r="I324" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12945,13 +12896,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C325" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D325" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -12970,14 +12921,14 @@
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="33" t="s">
-        <v>948</v>
+      <c r="B326" s="32" t="s">
+        <v>949</v>
       </c>
       <c r="C326" t="s">
-        <v>949</v>
-      </c>
-      <c r="D326" s="33" t="s">
         <v>950</v>
+      </c>
+      <c r="D326" s="32" t="s">
+        <v>951</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -12996,15 +12947,15 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="41" t="s">
-        <v>951</v>
-      </c>
-      <c r="C327" s="42" t="s">
+      <c r="B327" s="40" t="s">
         <v>952</v>
       </c>
-      <c r="D327" s="41" t="s">
+      <c r="C327" s="41" t="s">
         <v>953</v>
       </c>
+      <c r="D327" s="40" t="s">
+        <v>954</v>
+      </c>
       <c r="E327" s="9">
         <v>1</v>
       </c>
@@ -13014,7 +12965,7 @@
       <c r="G327" s="9">
         <v>1</v>
       </c>
-      <c r="I327" s="53" t="s">
+      <c r="I327" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13023,39 +12974,39 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" s="18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="57" t="s">
-        <v>958</v>
-      </c>
-      <c r="C329" s="51" t="s">
+      <c r="B329" s="52" t="s">
+        <v>959</v>
+      </c>
+      <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13066,19 +13017,19 @@
       <c r="G329" s="5">
         <v>1</v>
       </c>
-      <c r="I329" s="32" t="s">
-        <v>960</v>
+      <c r="I329" s="31" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="57" t="s">
-        <v>974</v>
-      </c>
-      <c r="C330" s="32" t="s">
-        <v>961</v>
+      <c r="B330" s="52" t="s">
+        <v>962</v>
+      </c>
+      <c r="C330" s="31" t="s">
+        <v>963</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13089,22 +13040,22 @@
       <c r="G330" s="5">
         <v>1</v>
       </c>
-      <c r="I330" s="32" t="s">
-        <v>962</v>
+      <c r="I330" s="31" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="57" t="s">
-        <v>963</v>
-      </c>
-      <c r="C331" s="32" t="s">
-        <v>964</v>
+      <c r="B331" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="31" t="s">
+        <v>966</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13115,22 +13066,22 @@
       <c r="G331" s="5">
         <v>1</v>
       </c>
-      <c r="I331" s="32" t="s">
-        <v>966</v>
+      <c r="I331" s="31" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="58" t="s">
-        <v>967</v>
+      <c r="B332" s="53" t="s">
+        <v>969</v>
       </c>
       <c r="C332" t="s">
-        <v>968</v>
-      </c>
-      <c r="D332" s="59" t="s">
-        <v>969</v>
+        <v>970</v>
+      </c>
+      <c r="D332" s="54" t="s">
+        <v>971</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13141,46 +13092,46 @@
       <c r="G332">
         <v>1</v>
       </c>
-      <c r="I332" t="s">
-        <v>970</v>
+      <c r="I332" s="56" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="57" t="s">
+      <c r="B333" s="52" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
+        <v>974</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="I333" t="s">
         <v>972</v>
-      </c>
-      <c r="C333" t="s">
-        <v>973</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="57" t="s">
+      <c r="B334" s="52" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="55" t="s">
+        <v>976</v>
+      </c>
+      <c r="D334" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="C334" t="s">
-        <v>976</v>
-      </c>
-      <c r="D334" t="s">
-        <v>975</v>
-      </c>
       <c r="E334">
         <v>1</v>
       </c>
@@ -13191,9 +13142,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="335" spans="1:9" ht="15.75">
+      <c r="A335" s="5">
+        <v>334</v>
+      </c>
+      <c r="B335" s="53" t="s">
+        <v>978</v>
+      </c>
+      <c r="C335" t="s">
+        <v>979</v>
+      </c>
+      <c r="D335" s="53" t="s">
+        <v>980</v>
+      </c>
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="31" t="s">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H331"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H335"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13215,13 +13192,13 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
     <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$334</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -489,7 +484,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +494,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -522,7 +515,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -532,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -541,7 +533,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -551,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -570,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -629,7 +619,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +629,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +677,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -785,7 +771,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -803,7 +788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -821,7 +805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -884,7 +867,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -902,7 +884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1172,7 +1153,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1163,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1173,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1269,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1301,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1310,7 +1287,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1337,7 +1313,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1355,7 +1330,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1373,7 +1347,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1391,7 +1364,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1401,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1410,7 +1382,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1431,7 +1402,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1441,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1450,7 +1420,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1468,7 +1437,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1478,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1487,7 +1455,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1497,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1514,7 +1481,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1524,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1533,7 +1499,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1551,7 +1516,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1561,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1570,7 +1534,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1588,7 +1551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1598,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1607,7 +1569,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1625,7 +1586,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1643,7 +1603,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1661,7 +1620,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1679,7 +1637,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1697,7 +1654,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1707,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1716,7 +1672,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1734,7 +1689,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,7 +1707,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1771,7 +1724,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1781,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1790,7 +1742,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1808,7 +1759,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1818,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1827,7 +1777,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1845,7 +1794,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1855,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1864,7 +1812,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1882,7 +1829,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1892,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1901,7 +1847,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1919,7 +1864,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1929,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1938,7 +1882,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1965,7 +1908,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1983,7 +1925,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -2001,7 +1942,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -2019,7 +1959,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2037,7 +1976,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2064,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2073,7 +2011,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2091,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2100,7 +2037,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2127,7 +2063,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2154,7 +2089,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2172,7 +2106,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2865,7 +2798,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2876,7 +2808,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3522,7 +3453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3575,7 +3503,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3597,7 +3524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3608,7 +3534,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,7 +3541,7 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_014_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3705,7 +3630,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,7 +3640,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3783,7 +3706,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3716,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3811,6 +3732,9 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+  </si>
+  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3839,6 +3763,21 @@
   </si>
   <si>
     <t>5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+  </si>
+  <si>
+    <t>冲金鸡引导到捕鱼奥秘</t>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3848,36 +3787,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActCJJBYBYAMManager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡引导到捕鱼奥秘</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_cjj_by_byam_guide</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3888,7 +3809,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3896,27 +3816,24 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3924,19 +3841,18 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3948,42 +3864,177 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3992,13 +4043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4022,13 +4073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,18 +4091,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4074,13 +4311,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4119,13 +4598,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4264,19 +4743,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4534,19 +5057,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D308" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
+      <selection pane="bottomRight" activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4562,7 +5086,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +5115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4617,7 +5141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4643,7 +5167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4669,7 +5193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4695,7 +5219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4721,7 +5245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4747,7 +5271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4773,7 +5297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4799,7 +5323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4825,7 +5349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4851,7 +5375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4877,7 +5401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4903,7 +5427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4929,7 +5453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4955,7 +5479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4981,7 +5505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5007,7 +5531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5033,7 +5557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5059,7 +5583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5085,7 +5609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5111,7 +5635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5137,7 +5661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5163,7 +5687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5189,7 +5713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" ht="16.5" spans="1:9">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5215,7 +5739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5241,7 +5765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5267,7 +5791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5293,7 +5817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5319,7 +5843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5345,7 +5869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5371,7 +5895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5397,7 +5921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5423,7 +5947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5449,7 +5973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5475,7 +5999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5501,7 +6025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5">
+    <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5527,7 +6051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5">
+    <row r="38" ht="16.5" spans="1:9">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5553,7 +6077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5">
+    <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5579,7 +6103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5605,7 +6129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5631,7 +6155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5657,7 +6181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5683,7 +6207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5709,7 +6233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5735,7 +6259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5761,7 +6285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5">
+    <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5787,7 +6311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5813,7 +6337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5">
+    <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -5839,7 +6363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5">
+    <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -5865,7 +6389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5">
+    <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -5891,7 +6415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" ht="16.5" spans="1:9">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5915,7 +6439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5941,7 +6465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5">
+    <row r="54" ht="16.5" spans="1:9">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5967,7 +6491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5">
+    <row r="55" ht="16.5" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -5993,7 +6517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5">
+    <row r="56" ht="16.5" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6019,7 +6543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5">
+    <row r="57" ht="16.5" spans="1:9">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6045,7 +6569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5">
+    <row r="58" ht="16.5" spans="1:9">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6071,7 +6595,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5">
+    <row r="59" ht="16.5" spans="1:9">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6097,7 +6621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5">
+    <row r="60" ht="16.5" spans="1:9">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6123,7 +6647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5">
+    <row r="61" ht="16.5" spans="1:9">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6149,7 +6673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5">
+    <row r="62" ht="16.5" spans="1:9">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6175,7 +6699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5">
+    <row r="63" ht="16.5" spans="1:9">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6201,7 +6725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5">
+    <row r="64" ht="16.5" spans="1:9">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6227,7 +6751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5">
+    <row r="65" ht="16.5" spans="1:9">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6253,7 +6777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
+    <row r="66" ht="16.5" spans="1:9">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6279,7 +6803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5">
+    <row r="67" ht="16.5" spans="1:9">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6305,7 +6829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5">
+    <row r="68" ht="16.5" spans="1:9">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6331,7 +6855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5">
+    <row r="69" ht="16.5" spans="1:9">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6357,7 +6881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5">
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6383,7 +6907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5">
+    <row r="71" ht="16.5" spans="1:9">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6409,7 +6933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5">
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6435,7 +6959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5">
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6461,7 +6985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6487,7 +7011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
+    <row r="75" ht="16.5" spans="1:9">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6513,7 +7037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -6539,7 +7063,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6565,7 +7089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5">
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6591,7 +7115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5">
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6617,7 +7141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5">
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6643,7 +7167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5">
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6669,7 +7193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5">
+    <row r="82" ht="16.5" spans="1:9">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6695,7 +7219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5">
+    <row r="83" ht="16.5" spans="1:9">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6721,7 +7245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5">
+    <row r="84" ht="16.5" spans="1:9">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -6747,7 +7271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5">
+    <row r="85" ht="16.5" spans="1:9">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -6773,7 +7297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5">
+    <row r="86" ht="16.5" spans="1:9">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -6799,7 +7323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5">
+    <row r="87" ht="16.5" spans="1:9">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -6825,7 +7349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5">
+    <row r="88" ht="16.5" spans="1:9">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -6851,7 +7375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5">
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -6877,7 +7401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5">
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -6903,7 +7427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5">
+    <row r="91" ht="16.5" spans="1:9">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -6929,7 +7453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5">
+    <row r="92" ht="16.5" spans="1:9">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -6955,7 +7479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -6981,7 +7505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5">
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7007,7 +7531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5">
+    <row r="95" ht="16.5" spans="1:9">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7033,7 +7557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5">
+    <row r="96" ht="16.5" spans="1:9">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7059,7 +7583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7085,7 +7609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5">
+    <row r="98" ht="16.5" spans="1:9">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7111,7 +7635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5">
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7137,7 +7661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7163,7 +7687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
+    <row r="101" ht="16.5" spans="1:9">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7189,7 +7713,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
+    <row r="102" ht="16.5" spans="1:9">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7215,7 +7739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" ht="16.5" spans="1:9">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7241,7 +7765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5">
+    <row r="104" ht="16.5" spans="1:9">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7267,7 +7791,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5">
+    <row r="105" ht="16.5" spans="1:9">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7293,7 +7817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7319,7 +7843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7345,7 +7869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5">
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7371,7 +7895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5">
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7397,7 +7921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5">
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7423,7 +7947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7449,7 +7973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5">
+    <row r="112" ht="16.5" spans="1:9">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7475,7 +7999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5">
+    <row r="113" ht="16.5" spans="1:9">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7501,7 +8025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5">
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -7527,7 +8051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5">
+    <row r="115" ht="16.5" spans="1:9">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -7553,7 +8077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5">
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -7579,7 +8103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5">
+    <row r="117" ht="16.5" spans="1:9">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -7605,7 +8129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5">
+    <row r="118" ht="16.5" spans="1:9">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -7631,7 +8155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A119" s="25">
         <v>118</v>
       </c>
@@ -7657,7 +8181,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5">
+    <row r="120" ht="16.5" spans="1:9">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -7683,7 +8207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5">
+    <row r="121" ht="16.5" spans="1:9">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -7709,7 +8233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5">
+    <row r="122" ht="16.5" spans="1:9">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -7735,7 +8259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5">
+    <row r="123" ht="16.5" spans="1:9">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -7761,7 +8285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5">
+    <row r="124" ht="16.5" spans="1:9">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -7787,7 +8311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5">
+    <row r="125" ht="16.5" spans="1:9">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -7813,7 +8337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5">
+    <row r="126" ht="16.5" spans="1:9">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -7839,7 +8363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5">
+    <row r="127" ht="16.5" spans="1:9">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -7865,7 +8389,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5">
+    <row r="128" ht="16.5" spans="1:9">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -7891,7 +8415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5">
+    <row r="129" ht="16.5" spans="1:9">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -7917,7 +8441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5">
+    <row r="130" ht="16.5" spans="1:9">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -7943,7 +8467,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5">
+    <row r="131" ht="16.5" spans="1:9">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -7969,7 +8493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5">
+    <row r="132" ht="16.5" spans="1:9">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -7995,7 +8519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5">
+    <row r="133" ht="16.5" spans="1:9">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8021,7 +8545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5">
+    <row r="134" ht="16.5" spans="1:9">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8047,7 +8571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5">
+    <row r="135" ht="16.5" spans="1:9">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8073,7 +8597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5">
+    <row r="136" ht="16.5" spans="1:9">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8099,7 +8623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5">
+    <row r="137" ht="16.5" spans="1:9">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8125,7 +8649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5">
+    <row r="138" ht="16.5" spans="1:9">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8151,7 +8675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5">
+    <row r="139" ht="16.5" spans="1:9">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8177,7 +8701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5">
+    <row r="140" ht="16.5" spans="1:9">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8203,7 +8727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5">
+    <row r="141" ht="16.5" spans="1:9">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8229,7 +8753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5">
+    <row r="142" ht="16.5" spans="1:9">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8255,7 +8779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5">
+    <row r="143" ht="16.5" spans="1:9">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8281,7 +8805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5">
+    <row r="144" ht="16.5" spans="1:9">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8307,7 +8831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5">
+    <row r="145" ht="16.5" spans="1:9">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8333,7 +8857,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" ht="16.5" spans="1:9">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8359,7 +8883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5">
+    <row r="147" ht="16.5" spans="1:9">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8385,7 +8909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5">
+    <row r="148" ht="16.5" spans="1:9">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8411,7 +8935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5">
+    <row r="149" ht="16.5" spans="1:9">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8437,7 +8961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5">
+    <row r="150" ht="16.5" spans="1:9">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8463,7 +8987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5">
+    <row r="151" ht="16.5" spans="1:9">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8489,7 +9013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5">
+    <row r="152" ht="16.5" spans="1:9">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8515,7 +9039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5">
+    <row r="153" ht="16.5" spans="1:9">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -8541,7 +9065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5">
+    <row r="154" ht="16.5" spans="1:9">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -8567,7 +9091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5">
+    <row r="155" ht="16.5" spans="1:9">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -8593,7 +9117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5">
+    <row r="156" ht="16.5" spans="1:9">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -8619,7 +9143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5">
+    <row r="157" ht="16.5" spans="1:9">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -8645,7 +9169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5">
+    <row r="158" ht="16.5" spans="1:9">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -8671,7 +9195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5">
+    <row r="159" ht="16.5" spans="1:9">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -8697,7 +9221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5">
+    <row r="160" ht="16.5" spans="1:9">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -8723,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5">
+    <row r="161" ht="16.5" spans="1:9">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -8749,7 +9273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5">
+    <row r="162" ht="16.5" spans="1:9">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -8775,7 +9299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5">
+    <row r="163" ht="16.5" spans="1:9">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -8801,7 +9325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5">
+    <row r="164" ht="16.5" spans="1:9">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -8827,7 +9351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5">
+    <row r="165" ht="16.5" spans="1:9">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -8853,7 +9377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5">
+    <row r="166" ht="16.5" spans="1:9">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -8879,7 +9403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5">
+    <row r="167" ht="16.5" spans="1:9">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -8905,7 +9429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5">
+    <row r="168" ht="16.5" spans="1:9">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -8931,7 +9455,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
+    <row r="169" ht="16.5" spans="1:9">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -8955,7 +9479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5">
+    <row r="170" ht="16.5" spans="1:9">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -8979,7 +9503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5">
+    <row r="171" ht="16.5" spans="1:9">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9003,7 +9527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5">
+    <row r="172" ht="16.5" spans="1:9">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9027,7 +9551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5">
+    <row r="173" ht="16.5" spans="1:9">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9053,7 +9577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5">
+    <row r="174" ht="16.5" spans="1:9">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9077,7 +9601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5">
+    <row r="175" ht="16.5" spans="1:9">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9101,7 +9625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5">
+    <row r="176" ht="16.5" spans="1:9">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9125,7 +9649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5">
+    <row r="177" ht="16.5" spans="1:9">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9151,7 +9675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5">
+    <row r="178" ht="16.5" spans="1:9">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9177,7 +9701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5">
+    <row r="179" ht="16.5" spans="1:9">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9201,7 +9725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9225,7 +9749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9249,7 +9773,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9273,7 +9797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5">
+    <row r="183" ht="16.5" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9296,7 +9820,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5">
+    <row r="184" ht="16.5" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9319,7 +9843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5">
+    <row r="185" ht="16.5" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9342,7 +9866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5">
+    <row r="186" ht="16.5" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9365,7 +9889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5">
+    <row r="187" ht="16.5" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9388,7 +9912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5">
+    <row r="188" ht="16.5" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9411,7 +9935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5">
+    <row r="189" ht="16.5" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9434,7 +9958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5">
+    <row r="190" ht="16.5" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9457,7 +9981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5">
+    <row r="191" ht="16.5" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9480,7 +10004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5">
+    <row r="192" ht="16.5" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9503,7 +10027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5">
+    <row r="193" ht="16.5" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -9526,7 +10050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5">
+    <row r="194" ht="16.5" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -9549,7 +10073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5">
+    <row r="195" ht="16.5" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -9572,7 +10096,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5">
+    <row r="196" ht="16.5" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -9595,7 +10119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5">
+    <row r="197" ht="16.5" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -9618,7 +10142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5">
+    <row r="198" ht="16.5" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -9641,7 +10165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5">
+    <row r="199" ht="16.5" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -9664,7 +10188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5">
+    <row r="200" ht="16.5" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -9687,7 +10211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5">
+    <row r="201" ht="16.5" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -9710,7 +10234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5">
+    <row r="202" ht="16.5" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -9733,7 +10257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5">
+    <row r="203" ht="16.5" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -9756,7 +10280,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5">
+    <row r="204" ht="16.5" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -9782,7 +10306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5">
+    <row r="205" ht="16.5" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -9808,7 +10332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5">
+    <row r="206" ht="16.5" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -9834,7 +10358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5">
+    <row r="207" ht="16.5" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -9857,7 +10381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5">
+    <row r="208" ht="16.5" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -9880,7 +10404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5">
+    <row r="209" ht="16.5" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -9903,7 +10427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5">
+    <row r="210" ht="16.5" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -9926,7 +10450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5">
+    <row r="211" ht="16.5" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -9949,7 +10473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5">
+    <row r="212" ht="16.5" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -9972,7 +10496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5">
+    <row r="213" ht="16.5" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -9995,7 +10519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5">
+    <row r="214" ht="16.5" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10018,7 +10542,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5">
+    <row r="215" ht="16.5" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10041,7 +10565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5">
+    <row r="216" ht="16.5" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10064,7 +10588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5">
+    <row r="217" ht="16.5" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10087,7 +10611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5">
+    <row r="218" ht="16.5" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10110,7 +10634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5">
+    <row r="219" ht="16.5" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10133,7 +10657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5">
+    <row r="220" ht="16.5" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10156,7 +10680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5">
+    <row r="221" ht="16.5" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10179,7 +10703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5">
+    <row r="222" ht="16.5" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10202,7 +10726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5">
+    <row r="223" ht="16.5" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10225,7 +10749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5">
+    <row r="224" ht="16.5" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10248,7 +10772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5">
+    <row r="225" ht="16.5" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10271,7 +10795,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5">
+    <row r="226" ht="16.5" spans="1:7">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10294,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5">
+    <row r="227" ht="16.5" spans="1:7">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10317,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5">
+    <row r="228" ht="16.5" spans="1:7">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10340,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5">
+    <row r="229" ht="16.5" spans="1:7">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10363,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5">
+    <row r="230" ht="16.5" spans="1:7">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10386,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5">
+    <row r="231" ht="16.5" spans="1:7">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10409,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5">
+    <row r="232" ht="16.5" spans="1:7">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10432,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5">
+    <row r="233" ht="16.5" spans="1:7">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10455,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5">
+    <row r="234" ht="16.5" spans="1:7">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10478,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5">
+    <row r="235" ht="16.5" spans="1:9">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10504,7 +11028,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5">
+    <row r="236" ht="16.5" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -10530,7 +11054,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5">
+    <row r="237" ht="16.5" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -10556,7 +11080,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5">
+    <row r="238" ht="16.5" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -10582,7 +11106,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5">
+    <row r="239" ht="16.5" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -10608,7 +11132,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5">
+    <row r="240" ht="16.5" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -10634,7 +11158,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5">
+    <row r="241" ht="16.5" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -10660,7 +11184,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5">
+    <row r="242" ht="16.5" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -10686,7 +11210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5">
+    <row r="243" ht="16.5" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -10712,7 +11236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5">
+    <row r="244" ht="16.5" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -10738,7 +11262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5">
+    <row r="245" ht="16.5" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -10764,7 +11288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5">
+    <row r="246" ht="16.5" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -10790,7 +11314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5">
+    <row r="247" ht="16.5" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -10816,7 +11340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5">
+    <row r="248" ht="16.5" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -10842,7 +11366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5">
+    <row r="249" ht="16.5" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -10868,7 +11392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5">
+    <row r="250" ht="16.5" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -10894,7 +11418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5">
+    <row r="251" ht="16.5" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -10920,7 +11444,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5">
+    <row r="252" ht="16.5" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -10946,7 +11470,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5">
+    <row r="253" ht="16.5" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -10973,7 +11497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5">
+    <row r="254" ht="16.5" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -10999,7 +11523,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5">
+    <row r="255" ht="16.5" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11025,7 +11549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11052,7 +11576,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11078,7 +11602,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11104,7 +11628,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11130,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11156,7 +11680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5">
+    <row r="261" ht="16.5" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11182,7 +11706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5">
+    <row r="262" ht="16.5" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11208,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11234,7 +11758,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11260,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11286,7 +11810,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11312,7 +11836,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11338,7 +11862,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A268" s="25">
         <v>267</v>
       </c>
@@ -11364,7 +11888,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11390,7 +11914,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11416,7 +11940,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11442,7 +11966,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11468,7 +11992,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11494,7 +12018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -11520,7 +12044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -11546,7 +12070,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A276" s="36">
         <v>275</v>
       </c>
@@ -11569,7 +12093,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -11595,7 +12119,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5">
+    <row r="278" ht="16.5" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -11621,7 +12145,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5">
+    <row r="279" ht="16.5" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -11644,7 +12168,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5">
+    <row r="280" ht="16.5" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -11670,7 +12194,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5">
+    <row r="281" ht="16.5" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -11696,7 +12220,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5">
+    <row r="282" ht="16.5" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -11722,7 +12246,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5">
+    <row r="283" ht="16.5" spans="1:9">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -11748,7 +12272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -11774,7 +12298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -11800,7 +12324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -11826,7 +12350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
+    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -11852,7 +12376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A288" s="36">
         <v>287</v>
       </c>
@@ -11878,7 +12402,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:36" ht="16.5">
+    <row r="289" ht="16.5" spans="1:9">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -11904,7 +12428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -11930,7 +12454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -11956,7 +12480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
+    <row r="292" ht="16.5" spans="1:9">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -11982,7 +12506,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5">
+    <row r="293" ht="16.5" spans="1:9">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12008,7 +12532,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5">
+    <row r="294" ht="16.5" spans="1:9">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12035,7 +12559,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12089,7 +12613,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12143,7 +12667,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12197,7 +12721,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" spans="1:36" ht="16.5">
+    <row r="298" ht="16.5" spans="1:36">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12251,7 +12775,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
+    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12305,7 +12829,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" ht="16.5" spans="1:9">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12332,7 +12856,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
+    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12359,7 +12883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:36" ht="16.5">
+    <row r="302" ht="16.5" spans="1:9">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12386,7 +12910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="16.5">
+    <row r="303" ht="16.5" spans="1:9">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12413,7 +12937,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5">
+    <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12440,7 +12964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12466,7 +12990,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12492,7 +13016,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" ht="16.5" spans="1:7">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -12515,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12541,7 +13065,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -12567,7 +13091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12593,7 +13117,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -12619,7 +13143,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -12642,7 +13166,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -12665,7 +13189,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -12688,7 +13212,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -12711,7 +13235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -12734,7 +13258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -12760,7 +13284,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -12784,7 +13308,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -12810,7 +13334,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -12833,7 +13357,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -12862,7 +13386,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -12888,7 +13412,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -12914,7 +13438,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" ht="16.5" spans="1:9">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -12940,7 +13464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" ht="16.5" spans="1:9">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -12966,7 +13490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" ht="16.5" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -12992,7 +13516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
+    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13018,7 +13542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" ht="16.5" spans="1:9">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13044,7 +13568,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5">
+    <row r="329" ht="16.5" spans="1:9">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13070,15 +13594,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="57" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13090,21 +13614,21 @@
         <v>1</v>
       </c>
       <c r="I330" s="32" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" ht="16.5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="57" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13116,21 +13640,21 @@
         <v>1</v>
       </c>
       <c r="I331" s="32" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" ht="16.5">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="58" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C332" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D332" s="59" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13142,10 +13666,10 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="16.5">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
@@ -13165,22 +13689,22 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="16.5">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="334" ht="16.5" spans="1:7">
       <c r="A334" s="15">
         <v>333</v>
       </c>
       <c r="B334" s="57" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C334" t="s">
+        <v>975</v>
+      </c>
+      <c r="D334" t="s">
         <v>976</v>
       </c>
-      <c r="D334" t="s">
-        <v>975</v>
-      </c>
       <c r="E334">
         <v>1</v>
       </c>
@@ -13192,36 +13716,39 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H331"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H334">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -3568,7 +3568,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_015</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3793,12 +3793,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3829,13 +3829,6 @@
       <color rgb="FF191F25"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3892,8 +3885,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3908,6 +3975,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3915,7 +3990,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3923,29 +3998,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3960,81 +4020,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4103,37 +4096,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4151,7 +4138,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4163,127 +4258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4345,6 +4326,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4360,15 +4361,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4380,17 +4372,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4417,10 +4398,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4429,139 +4410,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4616,19 +4597,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4643,103 +4621,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5070,7 +5033,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D314" sqref="D314"/>
+      <selection pane="bottomRight" activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5137,7 +5100,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5163,7 +5126,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5189,7 +5152,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5215,7 +5178,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5241,7 +5204,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5267,7 +5230,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5293,7 +5256,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5319,7 +5282,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5345,7 +5308,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5371,7 +5334,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5397,7 +5360,7 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5423,7 +5386,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5449,7 +5412,7 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5475,7 +5438,7 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5501,7 +5464,7 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5527,7 +5490,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5553,7 +5516,7 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5579,7 +5542,7 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5605,7 +5568,7 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5631,7 +5594,7 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5657,7 +5620,7 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5683,7 +5646,7 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5709,7 +5672,7 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5735,7 +5698,7 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5761,7 +5724,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5787,7 +5750,7 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5813,7 +5776,7 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5839,7 +5802,7 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5865,7 +5828,7 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5891,7 +5854,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5917,7 +5880,7 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5943,7 +5906,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5969,7 +5932,7 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5995,7 +5958,7 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6021,7 +5984,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6047,7 +6010,7 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6073,7 +6036,7 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6099,7 +6062,7 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6125,7 +6088,7 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6151,7 +6114,7 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6177,7 +6140,7 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6203,7 +6166,7 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6229,7 +6192,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6255,7 +6218,7 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6281,7 +6244,7 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6307,7 +6270,7 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6333,7 +6296,7 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6359,7 +6322,7 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6385,7 +6348,7 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6411,7 +6374,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6435,7 +6398,7 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6461,7 +6424,7 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6487,7 +6450,7 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6513,7 +6476,7 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6521,7 +6484,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -6539,7 +6502,7 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6565,7 +6528,7 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6591,7 +6554,7 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6617,7 +6580,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6643,7 +6606,7 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6669,7 +6632,7 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6695,7 +6658,7 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6721,7 +6684,7 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6747,7 +6710,7 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6773,7 +6736,7 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6799,7 +6762,7 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6825,7 +6788,7 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6851,7 +6814,7 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6877,7 +6840,7 @@
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="I69" s="21" t="s">
+      <c r="I69" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6903,7 +6866,7 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6929,7 +6892,7 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="I71" s="21" t="s">
+      <c r="I71" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6955,7 +6918,7 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="I72" s="21" t="s">
+      <c r="I72" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6981,7 +6944,7 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6989,16 +6952,16 @@
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>0</v>
       </c>
       <c r="F74" s="2">
@@ -7007,7 +6970,7 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="25" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7033,7 +6996,7 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I75" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7041,16 +7004,16 @@
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="23">
         <v>0</v>
       </c>
       <c r="F76" s="3">
@@ -7059,7 +7022,7 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="26" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7085,7 +7048,7 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7111,7 +7074,7 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7137,7 +7100,7 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7163,7 +7126,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7189,7 +7152,7 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7215,7 +7178,7 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7241,7 +7204,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7267,7 +7230,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7293,7 +7256,7 @@
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7319,7 +7282,7 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I86" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7345,7 +7308,7 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7371,7 +7334,7 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7397,7 +7360,7 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7423,7 +7386,7 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7449,7 +7412,7 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7475,7 +7438,7 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7501,7 +7464,7 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="I93" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7527,7 +7490,7 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="20" t="s">
+      <c r="I94" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7553,7 +7516,7 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7579,7 +7542,7 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="I96" s="20" t="s">
+      <c r="I96" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7605,7 +7568,7 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="I97" s="20" t="s">
+      <c r="I97" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7631,7 +7594,7 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7657,7 +7620,7 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7683,7 +7646,7 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7709,7 +7672,7 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7735,7 +7698,7 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="20" t="s">
+      <c r="I102" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7761,7 +7724,7 @@
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7787,7 +7750,7 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7813,7 +7776,7 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7839,7 +7802,7 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7865,7 +7828,7 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="I107" s="20" t="s">
+      <c r="I107" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7891,7 +7854,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7917,7 +7880,7 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="I109" s="20" t="s">
+      <c r="I109" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7943,7 +7906,7 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7969,7 +7932,7 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7995,7 +7958,7 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8021,7 +7984,7 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8047,7 +8010,7 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="I114" s="20" t="s">
+      <c r="I114" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8073,7 +8036,7 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="I115" s="20" t="s">
+      <c r="I115" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8099,7 +8062,7 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8125,7 +8088,7 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="I117" s="20" t="s">
+      <c r="I117" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8151,24 +8114,24 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="I118" s="20" t="s">
+      <c r="I118" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>118</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E119" s="24">
         <v>1</v>
       </c>
       <c r="F119" s="4">
@@ -8177,7 +8140,7 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="I119" s="28" t="s">
+      <c r="I119" s="27" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8203,7 +8166,7 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8229,7 +8192,7 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8255,7 +8218,7 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8281,7 +8244,7 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="I123" s="20" t="s">
+      <c r="I123" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8307,7 +8270,7 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I124" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8333,7 +8296,7 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I125" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8359,7 +8322,7 @@
       <c r="G126">
         <v>1</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8385,7 +8348,7 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="I127" s="20" t="s">
+      <c r="I127" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8411,7 +8374,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="I128" s="20" t="s">
+      <c r="I128" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8437,7 +8400,7 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I129" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8463,7 +8426,7 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8489,7 +8452,7 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8515,7 +8478,7 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I132" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8541,7 +8504,7 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I133" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8567,7 +8530,7 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="I134" s="20" t="s">
+      <c r="I134" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8593,7 +8556,7 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I135" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8619,7 +8582,7 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I136" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8645,7 +8608,7 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I137" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8671,7 +8634,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="I138" s="20" t="s">
+      <c r="I138" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8697,7 +8660,7 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="I139" s="20" t="s">
+      <c r="I139" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8723,7 +8686,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I140" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8749,7 +8712,7 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I141" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8775,7 +8738,7 @@
       <c r="G142">
         <v>1</v>
       </c>
-      <c r="I142" s="21" t="s">
+      <c r="I142" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8801,7 +8764,7 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="I143" s="21" t="s">
+      <c r="I143" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8827,7 +8790,7 @@
       <c r="G144">
         <v>1</v>
       </c>
-      <c r="I144" s="21" t="s">
+      <c r="I144" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8838,7 +8801,7 @@
       <c r="B145" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C145" s="28" t="s">
         <v>446</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -8853,7 +8816,7 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="I145" s="21" t="s">
+      <c r="I145" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8879,7 +8842,7 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="I146" s="21" t="s">
+      <c r="I146" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8905,7 +8868,7 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I147" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8931,7 +8894,7 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I148" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8957,7 +8920,7 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="I149" s="20" t="s">
+      <c r="I149" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8983,7 +8946,7 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I150" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9009,7 +8972,7 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="20" t="s">
+      <c r="I151" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9035,7 +8998,7 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="20" t="s">
+      <c r="I152" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9061,7 +9024,7 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="I153" s="20" t="s">
+      <c r="I153" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9087,7 +9050,7 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9113,7 +9076,7 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9139,7 +9102,7 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="I156" s="20" t="s">
+      <c r="I156" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9165,7 +9128,7 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="21" t="s">
+      <c r="I157" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9191,7 +9154,7 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="20" t="s">
+      <c r="I158" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9217,7 +9180,7 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="I159" s="20" t="s">
+      <c r="I159" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9243,7 +9206,7 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="I160" s="20" t="s">
+      <c r="I160" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9269,7 +9232,7 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="I161" s="20" t="s">
+      <c r="I161" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9295,7 +9258,7 @@
       <c r="G162">
         <v>1</v>
       </c>
-      <c r="I162" s="21" t="s">
+      <c r="I162" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9321,7 +9284,7 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="I163" s="20" t="s">
+      <c r="I163" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9347,7 +9310,7 @@
       <c r="G164">
         <v>1</v>
       </c>
-      <c r="I164" s="21" t="s">
+      <c r="I164" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9373,7 +9336,7 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="I165" s="20" t="s">
+      <c r="I165" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9399,7 +9362,7 @@
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="I166" s="21" t="s">
+      <c r="I166" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9425,7 +9388,7 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9451,7 +9414,7 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="I168" s="20" t="s">
+      <c r="I168" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9475,7 +9438,7 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="21" t="s">
+      <c r="I169" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9499,7 +9462,7 @@
       <c r="G170">
         <v>1</v>
       </c>
-      <c r="I170" s="21" t="s">
+      <c r="I170" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9523,7 +9486,7 @@
       <c r="G171">
         <v>1</v>
       </c>
-      <c r="I171" s="21" t="s">
+      <c r="I171" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9547,7 +9510,7 @@
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="I172" s="21" t="s">
+      <c r="I172" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9573,7 +9536,7 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="I173" s="20" t="s">
+      <c r="I173" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9597,7 +9560,7 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="I174" s="20" t="s">
+      <c r="I174" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9621,7 +9584,7 @@
       <c r="G175">
         <v>1</v>
       </c>
-      <c r="I175" s="21" t="s">
+      <c r="I175" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9645,7 +9608,7 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="I176" s="20" t="s">
+      <c r="I176" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9671,7 +9634,7 @@
       <c r="G177">
         <v>1</v>
       </c>
-      <c r="I177" s="21" t="s">
+      <c r="I177" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9697,7 +9660,7 @@
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="I178" s="21" t="s">
+      <c r="I178" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9721,7 +9684,7 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="I179" s="20" t="s">
+      <c r="I179" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9729,14 +9692,14 @@
       <c r="A180" s="15">
         <v>179</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25">
+      <c r="D180" s="24"/>
+      <c r="E180" s="24">
         <v>0</v>
       </c>
       <c r="F180" s="4">
@@ -9745,7 +9708,7 @@
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="20" t="s">
+      <c r="I180" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9753,14 +9716,14 @@
       <c r="A181" s="15">
         <v>180</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25">
+      <c r="D181" s="24"/>
+      <c r="E181" s="24">
         <v>0</v>
       </c>
       <c r="F181" s="4">
@@ -9769,7 +9732,7 @@
       <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9777,14 +9740,14 @@
       <c r="A182" s="15">
         <v>181</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25">
+      <c r="D182" s="24"/>
+      <c r="E182" s="24">
         <v>0</v>
       </c>
       <c r="F182" s="4">
@@ -9793,7 +9756,7 @@
       <c r="G182" s="4">
         <v>0</v>
       </c>
-      <c r="I182" s="20" t="s">
+      <c r="I182" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9816,7 +9779,7 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="I183" s="20" t="s">
+      <c r="I183" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9839,7 +9802,7 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="I184" s="20" t="s">
+      <c r="I184" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9862,7 +9825,7 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="I185" s="20" t="s">
+      <c r="I185" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9885,7 +9848,7 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="I186" s="20" t="s">
+      <c r="I186" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9908,7 +9871,7 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="I187" s="20" t="s">
+      <c r="I187" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9931,7 +9894,7 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="I188" s="20" t="s">
+      <c r="I188" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9954,7 +9917,7 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="I189" s="20" t="s">
+      <c r="I189" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9977,7 +9940,7 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="I190" s="20" t="s">
+      <c r="I190" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10000,7 +9963,7 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="I191" s="20" t="s">
+      <c r="I191" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10023,7 +9986,7 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="I192" s="20" t="s">
+      <c r="I192" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10046,7 +10009,7 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="I193" s="20" t="s">
+      <c r="I193" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10069,7 +10032,7 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="I194" s="20" t="s">
+      <c r="I194" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10092,7 +10055,7 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="I195" s="20" t="s">
+      <c r="I195" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10115,7 +10078,7 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="I196" s="20" t="s">
+      <c r="I196" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10138,7 +10101,7 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="I197" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10161,7 +10124,7 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="I198" s="20" t="s">
+      <c r="I198" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10184,7 +10147,7 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="I199" s="20" t="s">
+      <c r="I199" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10207,7 +10170,7 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="I200" s="20" t="s">
+      <c r="I200" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10230,7 +10193,7 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="I201" s="20" t="s">
+      <c r="I201" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10253,7 +10216,7 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="I202" s="20" t="s">
+      <c r="I202" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10276,7 +10239,7 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="I203" s="20" t="s">
+      <c r="I203" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10302,7 +10265,7 @@
       <c r="G204">
         <v>1</v>
       </c>
-      <c r="I204" s="21" t="s">
+      <c r="I204" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10328,7 +10291,7 @@
       <c r="G205">
         <v>1</v>
       </c>
-      <c r="I205" s="21" t="s">
+      <c r="I205" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10354,7 +10317,7 @@
       <c r="G206">
         <v>1</v>
       </c>
-      <c r="I206" s="21" t="s">
+      <c r="I206" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10377,7 +10340,7 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="I207" s="20" t="s">
+      <c r="I207" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10400,7 +10363,7 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="I208" s="20" t="s">
+      <c r="I208" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10423,7 +10386,7 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="I209" s="20" t="s">
+      <c r="I209" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10446,7 +10409,7 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="I210" s="20" t="s">
+      <c r="I210" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10469,7 +10432,7 @@
       <c r="G211">
         <v>1</v>
       </c>
-      <c r="I211" s="21" t="s">
+      <c r="I211" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10492,7 +10455,7 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="I212" s="20" t="s">
+      <c r="I212" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10515,7 +10478,7 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="I213" s="20" t="s">
+      <c r="I213" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10538,7 +10501,7 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="I214" s="20" t="s">
+      <c r="I214" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10561,7 +10524,7 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="I215" s="20" t="s">
+      <c r="I215" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10584,7 +10547,7 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="I216" s="20" t="s">
+      <c r="I216" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10607,7 +10570,7 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="I217" s="20" t="s">
+      <c r="I217" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10630,7 +10593,7 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="I218" s="20" t="s">
+      <c r="I218" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10653,7 +10616,7 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="I219" s="20" t="s">
+      <c r="I219" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10676,7 +10639,7 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="I220" s="20" t="s">
+      <c r="I220" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10699,7 +10662,7 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="I221" s="20" t="s">
+      <c r="I221" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10722,7 +10685,7 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="I222" s="20" t="s">
+      <c r="I222" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10745,7 +10708,7 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="I223" s="20" t="s">
+      <c r="I223" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10768,7 +10731,7 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="I224" s="20" t="s">
+      <c r="I224" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10791,7 +10754,7 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="I225" s="20" t="s">
+      <c r="I225" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11474,26 +11437,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="D253" s="30" t="s">
+      <c r="D253" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="31">
-        <v>1</v>
-      </c>
-      <c r="F253" s="31">
-        <v>1</v>
-      </c>
-      <c r="G253" s="31">
-        <v>1</v>
-      </c>
-      <c r="H253" s="31"/>
-      <c r="I253" s="30" t="s">
+      <c r="E253" s="30">
+        <v>1</v>
+      </c>
+      <c r="F253" s="30">
+        <v>1</v>
+      </c>
+      <c r="G253" s="30">
+        <v>1</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11553,13 +11516,13 @@
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="32" t="s">
+      <c r="B256" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C256" s="32" t="s">
+      <c r="C256" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="D256" s="32" t="s">
+      <c r="D256" s="31" t="s">
         <v>736</v>
       </c>
       <c r="E256" s="5">
@@ -11572,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="H256" s="5"/>
-      <c r="I256" s="32" t="s">
+      <c r="I256" s="31" t="s">
         <v>737</v>
       </c>
     </row>
@@ -11580,13 +11543,13 @@
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="32" t="s">
+      <c r="B257" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="C257" s="32" t="s">
+      <c r="C257" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="D257" s="32" t="s">
+      <c r="D257" s="31" t="s">
         <v>740</v>
       </c>
       <c r="E257" s="5">
@@ -11598,7 +11561,7 @@
       <c r="G257" s="5">
         <v>1</v>
       </c>
-      <c r="I257" s="32" t="s">
+      <c r="I257" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11606,13 +11569,13 @@
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="32" t="s">
+      <c r="B258" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="C258" s="32" t="s">
+      <c r="C258" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="D258" s="32" t="s">
+      <c r="D258" s="31" t="s">
         <v>743</v>
       </c>
       <c r="E258" s="5">
@@ -11624,7 +11587,7 @@
       <c r="G258" s="5">
         <v>1</v>
       </c>
-      <c r="I258" s="32" t="s">
+      <c r="I258" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11632,13 +11595,13 @@
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="32" t="s">
+      <c r="B259" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="C259" s="32" t="s">
+      <c r="C259" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="D259" s="32" t="s">
+      <c r="D259" s="31" t="s">
         <v>746</v>
       </c>
       <c r="E259" s="5">
@@ -11650,7 +11613,7 @@
       <c r="G259" s="5">
         <v>1</v>
       </c>
-      <c r="I259" s="32" t="s">
+      <c r="I259" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11658,13 +11621,13 @@
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="32" t="s">
+      <c r="B260" s="31" t="s">
         <v>747</v>
       </c>
-      <c r="C260" s="32" t="s">
+      <c r="C260" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="D260" s="32" t="s">
+      <c r="D260" s="31" t="s">
         <v>749</v>
       </c>
       <c r="E260" s="5">
@@ -11676,7 +11639,7 @@
       <c r="G260" s="5">
         <v>1</v>
       </c>
-      <c r="I260" s="32" t="s">
+      <c r="I260" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11702,7 +11665,7 @@
       <c r="G261">
         <v>1</v>
       </c>
-      <c r="I261" s="21" t="s">
+      <c r="I261" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11710,13 +11673,13 @@
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="32" t="s">
+      <c r="B262" s="31" t="s">
         <v>753</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="D262" s="32" t="s">
+      <c r="D262" s="31" t="s">
         <v>755</v>
       </c>
       <c r="E262">
@@ -11728,7 +11691,7 @@
       <c r="G262">
         <v>1</v>
       </c>
-      <c r="I262" s="21" t="s">
+      <c r="I262" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11736,13 +11699,13 @@
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="C263" s="32" t="s">
+      <c r="C263" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="D263" s="32" t="s">
+      <c r="D263" s="31" t="s">
         <v>758</v>
       </c>
       <c r="E263" s="5">
@@ -11754,7 +11717,7 @@
       <c r="G263" s="5">
         <v>0</v>
       </c>
-      <c r="I263" s="32" t="s">
+      <c r="I263" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11762,13 +11725,13 @@
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="B264" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C264" s="32" t="s">
+      <c r="C264" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="D264" s="32" t="s">
+      <c r="D264" s="31" t="s">
         <v>761</v>
       </c>
       <c r="E264" s="5">
@@ -11780,7 +11743,7 @@
       <c r="G264" s="5">
         <v>1</v>
       </c>
-      <c r="I264" s="32" t="s">
+      <c r="I264" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11788,13 +11751,13 @@
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="32" t="s">
+      <c r="B265" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="C265" s="32" t="s">
+      <c r="C265" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="D265" s="32" t="s">
+      <c r="D265" s="31" t="s">
         <v>764</v>
       </c>
       <c r="E265" s="5">
@@ -11814,13 +11777,13 @@
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="C266" s="32" t="s">
+      <c r="C266" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="33" t="s">
+      <c r="D266" s="32" t="s">
         <v>767</v>
       </c>
       <c r="E266" s="5">
@@ -11832,7 +11795,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="51" t="s">
+      <c r="I266" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11840,13 +11803,13 @@
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="32" t="s">
+      <c r="B267" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="32" t="s">
+      <c r="C267" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="D267" s="33" t="s">
+      <c r="D267" s="32" t="s">
         <v>770</v>
       </c>
       <c r="E267" s="5">
@@ -11858,21 +11821,21 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="51" t="s">
+      <c r="I267" s="31" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A268" s="25">
+      <c r="A268" s="24">
         <v>267</v>
       </c>
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="D268" s="35" t="s">
+      <c r="D268" s="34" t="s">
         <v>773</v>
       </c>
       <c r="E268" s="4">
@@ -11884,7 +11847,7 @@
       <c r="G268" s="4">
         <v>1</v>
       </c>
-      <c r="I268" s="52" t="s">
+      <c r="I268" s="33" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11892,13 +11855,13 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="32" t="s">
+      <c r="B269" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C269" s="32" t="s">
+      <c r="C269" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="D269" s="33" t="s">
+      <c r="D269" s="32" t="s">
         <v>776</v>
       </c>
       <c r="E269" s="5">
@@ -11910,7 +11873,7 @@
       <c r="G269" s="5">
         <v>1</v>
       </c>
-      <c r="I269" s="32" t="s">
+      <c r="I269" s="31" t="s">
         <v>777</v>
       </c>
     </row>
@@ -11918,13 +11881,13 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="32" t="s">
+      <c r="B270" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="C270" s="32" t="s">
+      <c r="C270" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="D270" s="33" t="s">
+      <c r="D270" s="32" t="s">
         <v>780</v>
       </c>
       <c r="E270" s="5">
@@ -11936,7 +11899,7 @@
       <c r="G270" s="5">
         <v>0</v>
       </c>
-      <c r="I270" s="51" t="s">
+      <c r="I270" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11944,13 +11907,13 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="31" t="s">
         <v>781</v>
       </c>
-      <c r="C271" s="32" t="s">
+      <c r="C271" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="D271" s="33" t="s">
+      <c r="D271" s="32" t="s">
         <v>783</v>
       </c>
       <c r="E271" s="5">
@@ -11962,7 +11925,7 @@
       <c r="G271" s="5">
         <v>1</v>
       </c>
-      <c r="I271" s="51" t="s">
+      <c r="I271" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11970,13 +11933,13 @@
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="B272" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="C272" s="32" t="s">
+      <c r="C272" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="D272" s="33" t="s">
+      <c r="D272" s="32" t="s">
         <v>786</v>
       </c>
       <c r="E272" s="5">
@@ -11988,7 +11951,7 @@
       <c r="G272" s="5">
         <v>1</v>
       </c>
-      <c r="I272" s="51" t="s">
+      <c r="I272" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11996,13 +11959,13 @@
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="32" t="s">
+      <c r="B273" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="C273" s="32" t="s">
+      <c r="C273" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="D273" s="33" t="s">
+      <c r="D273" s="32" t="s">
         <v>789</v>
       </c>
       <c r="E273" s="5">
@@ -12014,7 +11977,7 @@
       <c r="G273" s="5">
         <v>1</v>
       </c>
-      <c r="I273" s="51" t="s">
+      <c r="I273" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12022,13 +11985,13 @@
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="32" t="s">
+      <c r="B274" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="C274" s="32" t="s">
+      <c r="C274" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="D274" s="33" t="s">
+      <c r="D274" s="32" t="s">
         <v>792</v>
       </c>
       <c r="E274" s="5">
@@ -12040,7 +12003,7 @@
       <c r="G274" s="5">
         <v>0</v>
       </c>
-      <c r="I274" s="51" t="s">
+      <c r="I274" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12048,13 +12011,13 @@
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="32" t="s">
+      <c r="B275" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="D275" s="33" t="s">
+      <c r="D275" s="32" t="s">
         <v>795</v>
       </c>
       <c r="E275" s="5">
@@ -12066,18 +12029,18 @@
       <c r="G275" s="5">
         <v>0</v>
       </c>
-      <c r="I275" s="32" t="s">
+      <c r="I275" s="31" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A276" s="36">
+      <c r="A276" s="35">
         <v>275</v>
       </c>
-      <c r="B276" s="37" t="s">
+      <c r="B276" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>798</v>
       </c>
       <c r="E276" s="6">
@@ -12089,7 +12052,7 @@
       <c r="G276" s="6">
         <v>1</v>
       </c>
-      <c r="I276" s="37" t="s">
+      <c r="I276" s="36" t="s">
         <v>799</v>
       </c>
     </row>
@@ -12097,13 +12060,13 @@
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="32" t="s">
+      <c r="B277" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="C277" s="32" t="s">
+      <c r="C277" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="D277" s="33" t="s">
+      <c r="D277" s="32" t="s">
         <v>802</v>
       </c>
       <c r="E277" s="5">
@@ -12115,7 +12078,7 @@
       <c r="G277" s="5">
         <v>0</v>
       </c>
-      <c r="I277" s="51" t="s">
+      <c r="I277" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12123,13 +12086,13 @@
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="32" t="s">
+      <c r="B278" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="C278" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="D278" s="33" t="s">
+      <c r="D278" s="32" t="s">
         <v>805</v>
       </c>
       <c r="E278">
@@ -12141,7 +12104,7 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="51" t="s">
+      <c r="I278" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12149,10 +12112,10 @@
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="32" t="s">
+      <c r="B279" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="C279" s="32" t="s">
+      <c r="C279" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E279">
@@ -12164,7 +12127,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="51" t="s">
+      <c r="I279" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12172,13 +12135,13 @@
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="32" t="s">
+      <c r="B280" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="D280" s="33" t="s">
+      <c r="D280" s="32" t="s">
         <v>810</v>
       </c>
       <c r="E280">
@@ -12190,7 +12153,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="51" t="s">
+      <c r="I280" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12198,13 +12161,13 @@
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="32" t="s">
+      <c r="B281" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="C281" s="32" t="s">
+      <c r="C281" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="D281" s="33" t="s">
+      <c r="D281" s="32" t="s">
         <v>813</v>
       </c>
       <c r="E281">
@@ -12216,7 +12179,7 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="51" t="s">
+      <c r="I281" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12224,13 +12187,13 @@
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="32" t="s">
+      <c r="B282" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="C282" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="D282" s="33" t="s">
+      <c r="D282" s="32" t="s">
         <v>816</v>
       </c>
       <c r="E282">
@@ -12242,7 +12205,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="51" t="s">
+      <c r="I282" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12250,13 +12213,13 @@
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="38" t="s">
+      <c r="B283" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="C283" s="32" t="s">
+      <c r="C283" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="D283" s="33" t="s">
+      <c r="D283" s="32" t="s">
         <v>819</v>
       </c>
       <c r="E283">
@@ -12268,7 +12231,7 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="51" t="s">
+      <c r="I283" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12276,13 +12239,13 @@
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="38" t="s">
         <v>820</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="D284" s="39" t="s">
+      <c r="D284" s="38" t="s">
         <v>822</v>
       </c>
       <c r="E284" s="7">
@@ -12308,7 +12271,7 @@
       <c r="C285" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="D285" s="39" t="s">
+      <c r="D285" s="38" t="s">
         <v>825</v>
       </c>
       <c r="E285" s="7">
@@ -12334,7 +12297,7 @@
       <c r="C286" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="D286" s="39" t="s">
+      <c r="D286" s="38" t="s">
         <v>828</v>
       </c>
       <c r="E286" s="7">
@@ -12360,7 +12323,7 @@
       <c r="C287" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D287" s="40" t="s">
+      <c r="D287" s="39" t="s">
         <v>831</v>
       </c>
       <c r="E287" s="8">
@@ -12377,16 +12340,16 @@
       </c>
     </row>
     <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A288" s="36">
+      <c r="A288" s="35">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="D288" s="37" t="s">
+      <c r="D288" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E288" s="6">
@@ -12398,7 +12361,7 @@
       <c r="G288" s="6">
         <v>1</v>
       </c>
-      <c r="I288" s="37" t="s">
+      <c r="I288" s="36" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12406,13 +12369,13 @@
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="32" t="s">
+      <c r="B289" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="C289" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="32" t="s">
         <v>837</v>
       </c>
       <c r="E289">
@@ -12424,7 +12387,7 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="51" t="s">
+      <c r="I289" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12484,13 +12447,13 @@
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="38" t="s">
+      <c r="B292" s="37" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="32" t="s">
+      <c r="C292" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="37" t="s">
         <v>846</v>
       </c>
       <c r="E292">
@@ -12502,7 +12465,7 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="51" t="s">
+      <c r="I292" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12510,13 +12473,13 @@
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="38" t="s">
+      <c r="B293" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="C293" s="32" t="s">
+      <c r="C293" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="37" t="s">
         <v>849</v>
       </c>
       <c r="E293">
@@ -12528,7 +12491,7 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="51" t="s">
+      <c r="I293" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12536,13 +12499,13 @@
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="33" t="s">
+      <c r="B294" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="32" t="s">
+      <c r="C294" s="31" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="33" t="s">
+      <c r="D294" s="32" t="s">
         <v>852</v>
       </c>
       <c r="E294" s="5">
@@ -12555,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="5"/>
-      <c r="I294" s="51" t="s">
+      <c r="I294" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12563,13 +12526,13 @@
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="33" t="s">
+      <c r="B295" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C295" s="32" t="s">
+      <c r="C295" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="D295" s="33" t="s">
+      <c r="D295" s="32" t="s">
         <v>855</v>
       </c>
       <c r="E295" s="5">
@@ -12582,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5"/>
-      <c r="I295" s="51" t="s">
+      <c r="I295" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J295" s="5"/>
@@ -12617,13 +12580,13 @@
       <c r="A296" s="15">
         <v>295</v>
       </c>
-      <c r="B296" s="33" t="s">
+      <c r="B296" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="C296" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="D296" s="33" t="s">
+      <c r="D296" s="32" t="s">
         <v>859</v>
       </c>
       <c r="E296" s="5">
@@ -12636,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5"/>
-      <c r="I296" s="51" t="s">
+      <c r="I296" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J296" s="5"/>
@@ -12671,13 +12634,13 @@
       <c r="A297" s="15">
         <v>296</v>
       </c>
-      <c r="B297" s="33" t="s">
+      <c r="B297" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="C297" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="D297" s="33" t="s">
+      <c r="D297" s="32" t="s">
         <v>862</v>
       </c>
       <c r="E297" s="5">
@@ -12690,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5"/>
-      <c r="I297" s="51" t="s">
+      <c r="I297" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J297" s="5"/>
@@ -12725,13 +12688,13 @@
       <c r="A298" s="15">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
+      <c r="B298" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="C298" s="42" t="s">
+      <c r="C298" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="D298" s="40" t="s">
         <v>865</v>
       </c>
       <c r="E298" s="9">
@@ -12744,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="9"/>
-      <c r="I298" s="53" t="s">
+      <c r="I298" s="41" t="s">
         <v>12</v>
       </c>
       <c r="J298" s="5"/>
@@ -12779,26 +12742,26 @@
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="44" t="s">
+      <c r="C299" s="43" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>868</v>
       </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="E299" s="44">
+        <v>1</v>
+      </c>
+      <c r="F299" s="44">
+        <v>1</v>
+      </c>
+      <c r="G299" s="44">
+        <v>1</v>
+      </c>
+      <c r="H299" s="44"/>
+      <c r="I299" s="43" t="s">
         <v>869</v>
       </c>
       <c r="J299" s="5"/>
@@ -12833,26 +12796,26 @@
       <c r="A300" s="15">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="42" t="s">
         <v>870</v>
       </c>
-      <c r="C300" s="44" t="s">
+      <c r="C300" s="43" t="s">
         <v>871</v>
       </c>
-      <c r="D300" s="43" t="s">
+      <c r="D300" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="E300" s="44">
+        <v>1</v>
+      </c>
+      <c r="F300" s="44">
+        <v>1</v>
+      </c>
+      <c r="G300" s="44">
+        <v>1</v>
+      </c>
+      <c r="H300" s="44"/>
+      <c r="I300" s="43" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12860,26 +12823,26 @@
       <c r="A301" s="15">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="42" t="s">
         <v>873</v>
       </c>
-      <c r="C301" s="43" t="s">
+      <c r="C301" s="42" t="s">
         <v>874</v>
       </c>
-      <c r="D301" s="43" t="s">
+      <c r="D301" s="42" t="s">
         <v>875</v>
       </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="54" t="s">
+      <c r="E301" s="44">
+        <v>1</v>
+      </c>
+      <c r="F301" s="44">
+        <v>1</v>
+      </c>
+      <c r="G301" s="44">
+        <v>1</v>
+      </c>
+      <c r="H301" s="44"/>
+      <c r="I301" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12906,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="H302" s="5"/>
-      <c r="I302" s="51" t="s">
+      <c r="I302" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12914,13 +12877,13 @@
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="33" t="s">
+      <c r="B303" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="C303" s="31" t="s">
         <v>880</v>
       </c>
-      <c r="D303" s="33" t="s">
+      <c r="D303" s="32" t="s">
         <v>881</v>
       </c>
       <c r="E303" s="5">
@@ -12933,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="H303" s="5"/>
-      <c r="I303" s="32" t="s">
+      <c r="I303" s="31" t="s">
         <v>882</v>
       </c>
     </row>
@@ -12941,13 +12904,13 @@
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="40" t="s">
         <v>883</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="40" t="s">
         <v>885</v>
       </c>
       <c r="E304" s="9">
@@ -12960,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="9"/>
-      <c r="I304" s="42" t="s">
+      <c r="I304" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12968,13 +12931,13 @@
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B305" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="C305" s="31" t="s">
         <v>887</v>
       </c>
-      <c r="D305" s="33" t="s">
+      <c r="D305" s="32" t="s">
         <v>888</v>
       </c>
       <c r="E305" s="5">
@@ -12986,7 +12949,7 @@
       <c r="G305" s="5">
         <v>1</v>
       </c>
-      <c r="I305" s="32" t="s">
+      <c r="I305" s="31" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12994,13 +12957,13 @@
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="33" t="s">
+      <c r="B306" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="C306" s="32" t="s">
+      <c r="C306" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="D306" s="33" t="s">
+      <c r="D306" s="32" t="s">
         <v>891</v>
       </c>
       <c r="E306" s="5">
@@ -13012,7 +12975,7 @@
       <c r="G306" s="5">
         <v>0</v>
       </c>
-      <c r="I306" s="32" t="s">
+      <c r="I306" s="31" t="s">
         <v>869</v>
       </c>
     </row>
@@ -13020,13 +12983,13 @@
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="33" t="s">
+      <c r="B307" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="C307" s="32" t="s">
+      <c r="C307" s="31" t="s">
         <v>893</v>
       </c>
-      <c r="D307" s="33" t="s">
+      <c r="D307" s="32" t="s">
         <v>894</v>
       </c>
       <c r="E307" s="5">
@@ -13043,13 +13006,13 @@
       <c r="A308" s="15">
         <v>307</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="45" t="s">
         <v>895</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="C308" s="31" t="s">
         <v>896</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="D308" s="32" t="s">
         <v>897</v>
       </c>
       <c r="E308" s="5">
@@ -13061,7 +13024,7 @@
       <c r="G308" s="5">
         <v>0</v>
       </c>
-      <c r="I308" s="32" t="s">
+      <c r="I308" s="31" t="s">
         <v>898</v>
       </c>
     </row>
@@ -13069,13 +13032,13 @@
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="C309" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="D309" s="46" t="s">
+      <c r="D309" s="45" t="s">
         <v>901</v>
       </c>
       <c r="E309" s="5">
@@ -13087,7 +13050,7 @@
       <c r="G309" s="5">
         <v>1</v>
       </c>
-      <c r="I309" s="51" t="s">
+      <c r="I309" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13095,13 +13058,13 @@
       <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="C310" s="31" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="33" t="s">
+      <c r="D310" s="32" t="s">
         <v>904</v>
       </c>
       <c r="E310" s="5">
@@ -13113,7 +13076,7 @@
       <c r="G310" s="5">
         <v>0</v>
       </c>
-      <c r="I310" s="51" t="s">
+      <c r="I310" s="31" t="s">
         <v>905</v>
       </c>
     </row>
@@ -13121,13 +13084,13 @@
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="C311" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="46" t="s">
+      <c r="D311" s="45" t="s">
         <v>908</v>
       </c>
       <c r="E311" s="5">
@@ -13139,7 +13102,7 @@
       <c r="G311" s="5">
         <v>0</v>
       </c>
-      <c r="I311" s="32" t="s">
+      <c r="I311" s="31" t="s">
         <v>909</v>
       </c>
     </row>
@@ -13147,10 +13110,10 @@
       <c r="A312" s="15">
         <v>311</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="C312" s="37" t="s">
+      <c r="C312" s="36" t="s">
         <v>911</v>
       </c>
       <c r="E312" s="6">
@@ -13162,7 +13125,7 @@
       <c r="G312" s="6">
         <v>1</v>
       </c>
-      <c r="I312" s="37" t="s">
+      <c r="I312" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13170,10 +13133,10 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="47" t="s">
+      <c r="B313" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="C313" s="37" t="s">
+      <c r="C313" s="36" t="s">
         <v>914</v>
       </c>
       <c r="E313" s="6">
@@ -13185,7 +13148,7 @@
       <c r="G313" s="6">
         <v>1</v>
       </c>
-      <c r="I313" s="37" t="s">
+      <c r="I313" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13193,10 +13156,10 @@
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="47" t="s">
+      <c r="B314" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="36" t="s">
         <v>916</v>
       </c>
       <c r="E314" s="6">
@@ -13208,7 +13171,7 @@
       <c r="G314" s="6">
         <v>1</v>
       </c>
-      <c r="I314" s="37" t="s">
+      <c r="I314" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13216,10 +13179,10 @@
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="48" t="s">
+      <c r="B315" s="47" t="s">
         <v>917</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="36" t="s">
         <v>918</v>
       </c>
       <c r="E315" s="6">
@@ -13231,7 +13194,7 @@
       <c r="G315" s="6">
         <v>1</v>
       </c>
-      <c r="I315" s="55" t="s">
+      <c r="I315" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13239,10 +13202,10 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="49" t="s">
+      <c r="B316" s="48" t="s">
         <v>919</v>
       </c>
-      <c r="C316" s="37" t="s">
+      <c r="C316" s="36" t="s">
         <v>920</v>
       </c>
       <c r="E316" s="6">
@@ -13254,7 +13217,7 @@
       <c r="G316" s="6">
         <v>1</v>
       </c>
-      <c r="I316" s="55" t="s">
+      <c r="I316" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13262,13 +13225,13 @@
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="47" t="s">
+      <c r="B317" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="36" t="s">
         <v>922</v>
       </c>
-      <c r="D317" s="47" t="s">
+      <c r="D317" s="46" t="s">
         <v>923</v>
       </c>
       <c r="E317" s="6">
@@ -13280,7 +13243,7 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="37" t="s">
+      <c r="I317" s="36" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13288,13 +13251,13 @@
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="50" t="s">
+      <c r="B318" s="49" t="s">
         <v>924</v>
       </c>
-      <c r="C318" s="32" t="s">
+      <c r="C318" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="D318" s="33"/>
+      <c r="D318" s="32"/>
       <c r="E318" s="5">
         <v>0</v>
       </c>
@@ -13304,7 +13267,7 @@
       <c r="G318" s="5">
         <v>0</v>
       </c>
-      <c r="I318" s="32" t="s">
+      <c r="I318" s="31" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13312,13 +13275,13 @@
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="33" t="s">
+      <c r="B319" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="C319" s="32" t="s">
+      <c r="C319" s="31" t="s">
         <v>927</v>
       </c>
-      <c r="D319" s="33" t="s">
+      <c r="D319" s="32" t="s">
         <v>928</v>
       </c>
       <c r="E319" s="5">
@@ -13330,7 +13293,7 @@
       <c r="G319" s="5">
         <v>0</v>
       </c>
-      <c r="I319" s="32" t="s">
+      <c r="I319" s="31" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13338,10 +13301,10 @@
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="33" t="s">
+      <c r="B320" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="C320" s="32" t="s">
+      <c r="C320" s="31" t="s">
         <v>931</v>
       </c>
       <c r="E320" s="5">
@@ -13353,7 +13316,7 @@
       <c r="G320" s="5">
         <v>0</v>
       </c>
-      <c r="I320" s="32" t="s">
+      <c r="I320" s="31" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13361,13 +13324,13 @@
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="33" t="s">
+      <c r="B321" s="32" t="s">
         <v>932</v>
       </c>
-      <c r="C321" s="56" t="s">
+      <c r="C321" s="50" t="s">
         <v>933</v>
       </c>
-      <c r="D321" s="33" t="s">
+      <c r="D321" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E321" s="5">
@@ -13382,7 +13345,7 @@
       <c r="H321" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="I321" s="32" t="s">
+      <c r="I321" s="31" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13390,13 +13353,13 @@
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="33" t="s">
+      <c r="B322" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="C322" s="51" t="s">
+      <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="D322" s="33" t="s">
+      <c r="D322" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E322" s="5">
@@ -13408,7 +13371,7 @@
       <c r="G322" s="5">
         <v>0</v>
       </c>
-      <c r="I322" s="32" t="s">
+      <c r="I322" s="31" t="s">
         <v>938</v>
       </c>
     </row>
@@ -13416,13 +13379,13 @@
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="33" t="s">
+      <c r="B323" s="32" t="s">
         <v>939</v>
       </c>
-      <c r="C323" s="51" t="s">
+      <c r="C323" s="31" t="s">
         <v>940</v>
       </c>
-      <c r="D323" s="33" t="s">
+      <c r="D323" s="32" t="s">
         <v>941</v>
       </c>
       <c r="E323" s="5">
@@ -13434,7 +13397,7 @@
       <c r="G323" s="5">
         <v>0</v>
       </c>
-      <c r="I323" s="32" t="s">
+      <c r="I323" s="31" t="s">
         <v>369</v>
       </c>
     </row>
@@ -13442,10 +13405,10 @@
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="57" t="s">
+      <c r="B324" s="51" t="s">
         <v>942</v>
       </c>
-      <c r="C324" s="51" t="s">
+      <c r="C324" s="31" t="s">
         <v>943</v>
       </c>
       <c r="D324" t="s">
@@ -13460,7 +13423,7 @@
       <c r="G324" s="5">
         <v>1</v>
       </c>
-      <c r="I324" s="32" t="s">
+      <c r="I324" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13494,13 +13457,13 @@
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="33" t="s">
+      <c r="B326" s="32" t="s">
         <v>948</v>
       </c>
       <c r="C326" t="s">
         <v>949</v>
       </c>
-      <c r="D326" s="33" t="s">
+      <c r="D326" s="32" t="s">
         <v>950</v>
       </c>
       <c r="E326">
@@ -13520,13 +13483,13 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="41" t="s">
+      <c r="B327" s="40" t="s">
         <v>951</v>
       </c>
-      <c r="C327" s="42" t="s">
+      <c r="C327" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="D327" s="41" t="s">
+      <c r="D327" s="40" t="s">
         <v>953</v>
       </c>
       <c r="E327" s="9">
@@ -13538,7 +13501,7 @@
       <c r="G327" s="9">
         <v>1</v>
       </c>
-      <c r="I327" s="53" t="s">
+      <c r="I327" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13572,10 +13535,10 @@
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="57" t="s">
+      <c r="B329" s="51" t="s">
         <v>958</v>
       </c>
-      <c r="C329" s="51" t="s">
+      <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
@@ -13590,7 +13553,7 @@
       <c r="G329" s="5">
         <v>1</v>
       </c>
-      <c r="I329" s="32" t="s">
+      <c r="I329" s="31" t="s">
         <v>960</v>
       </c>
     </row>
@@ -13598,10 +13561,10 @@
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="57" t="s">
+      <c r="B330" s="51" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="C330" s="31" t="s">
         <v>962</v>
       </c>
       <c r="E330" s="5">
@@ -13613,7 +13576,7 @@
       <c r="G330" s="5">
         <v>1</v>
       </c>
-      <c r="I330" s="32" t="s">
+      <c r="I330" s="31" t="s">
         <v>963</v>
       </c>
     </row>
@@ -13621,10 +13584,10 @@
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="57" t="s">
+      <c r="B331" s="51" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="C331" s="31" t="s">
         <v>965</v>
       </c>
       <c r="D331" s="18" t="s">
@@ -13639,7 +13602,7 @@
       <c r="G331" s="5">
         <v>1</v>
       </c>
-      <c r="I331" s="32" t="s">
+      <c r="I331" s="31" t="s">
         <v>967</v>
       </c>
     </row>
@@ -13647,13 +13610,13 @@
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="58" t="s">
+      <c r="B332" s="52" t="s">
         <v>968</v>
       </c>
       <c r="C332" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="59" t="s">
+      <c r="D332" s="53" t="s">
         <v>970</v>
       </c>
       <c r="E332">
@@ -13673,7 +13636,7 @@
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="57" t="s">
+      <c r="B333" s="51" t="s">
         <v>972</v>
       </c>
       <c r="C333" t="s">
@@ -13696,7 +13659,7 @@
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="57" t="s">
+      <c r="B334" s="51" t="s">
         <v>974</v>
       </c>
       <c r="C334" t="s">

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -511,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -529,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -547,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1283,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1378,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1416,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1451,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1469,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1495,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1530,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1565,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1668,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1703,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1738,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1773,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1808,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1843,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1878,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2007,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2033,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3255,13 +3250,13 @@
     <t>XRZXGiftManager</t>
   </si>
   <si>
-    <t>act_034_ldfd</t>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-  </si>
-  <si>
-    <t>Act_034_LDFDManager</t>
+    <t>act_ty_ldfd</t>
+  </si>
+  <si>
+    <t>幸运福袋</t>
+  </si>
+  <si>
+    <t>Act_ty_LDFDManager</t>
   </si>
   <si>
     <t>by3d_shtx</t>
@@ -3546,34 +3541,37 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_014_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（财力）</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（铁锤）</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>五星掉落</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-  </si>
-  <si>
-    <t>活动boss皮肤（五星）</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
   </si>
   <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_015</t>
+    <t>sys_act_base_style/sys_act_base_weekly_016</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3588,13 +3586,13 @@
     <t>Act_045_XXLBDManger</t>
   </si>
   <si>
+    <t>3月15日23:59:59</t>
+  </si>
+  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
     <t>通用礼包皮肤</t>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
   </si>
   <si>
     <t>act_ty_universal_dh</t>
@@ -3703,34 +3701,12 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021年4月12日 23:59:59</t>
-    </r>
-  </si>
-  <si>
     <t>act_ty_gifts</t>
   </si>
   <si>
@@ -3752,13 +3728,13 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除达人</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年5月18日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3770,13 +3746,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_cjj_by_byam_guide</t>
@@ -3807,16 +3786,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>购买后180天领取奖励</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3840,7 +3821,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3858,12 +3839,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3875,20 +3856,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3900,7 +3874,7 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3913,7 +3887,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3922,28 +3925,115 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3952,13 +4042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39982299264503923"/>
+        <fgColor theme="4" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3982,13 +4072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4000,18 +4090,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39982299264503923"/>
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4034,15 +4298,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4079,13 +4585,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4193,41 +4699,79 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4485,19 +5029,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D310" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I332" sqref="I332"/>
+      <selection pane="bottomRight" activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4513,7 +5058,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4542,7 +5087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4568,7 +5113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4594,7 +5139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4620,7 +5165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4646,7 +5191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4672,7 +5217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4698,7 +5243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4724,7 +5269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4750,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4776,7 +5321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4802,7 +5347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4828,7 +5373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4854,7 +5399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4880,7 +5425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4906,7 +5451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4932,7 +5477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4958,7 +5503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4984,7 +5529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5010,7 +5555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5036,7 +5581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5062,7 +5607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5088,7 +5633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5114,7 +5659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5140,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" ht="16.5" spans="1:9">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5166,7 +5711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5192,7 +5737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5218,7 +5763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5244,7 +5789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5270,7 +5815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5296,7 +5841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5322,7 +5867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5348,7 +5893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5374,7 +5919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5400,7 +5945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5426,7 +5971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5452,7 +5997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5">
+    <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5478,7 +6023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5">
+    <row r="38" ht="16.5" spans="1:9">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5504,7 +6049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5">
+    <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5530,7 +6075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5556,7 +6101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5582,7 +6127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5608,7 +6153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5634,7 +6179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5660,7 +6205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5686,7 +6231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5712,7 +6257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5">
+    <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5738,7 +6283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5764,7 +6309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5">
+    <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -5790,7 +6335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5">
+    <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -5816,7 +6361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5">
+    <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -5842,7 +6387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" ht="16.5" spans="1:9">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5866,7 +6411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5892,7 +6437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5">
+    <row r="54" ht="16.5" spans="1:9">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5918,7 +6463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5">
+    <row r="55" ht="16.5" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -5944,7 +6489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5">
+    <row r="56" ht="16.5" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -5970,7 +6515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5">
+    <row r="57" ht="16.5" spans="1:9">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -5996,7 +6541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5">
+    <row r="58" ht="16.5" spans="1:9">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6022,7 +6567,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5">
+    <row r="59" ht="16.5" spans="1:9">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6048,7 +6593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5">
+    <row r="60" ht="16.5" spans="1:9">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6074,7 +6619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5">
+    <row r="61" ht="16.5" spans="1:9">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6100,7 +6645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5">
+    <row r="62" ht="16.5" spans="1:9">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6126,7 +6671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5">
+    <row r="63" ht="16.5" spans="1:9">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6152,7 +6697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5">
+    <row r="64" ht="16.5" spans="1:9">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6178,7 +6723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5">
+    <row r="65" ht="16.5" spans="1:9">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6204,7 +6749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
+    <row r="66" ht="16.5" spans="1:9">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6230,7 +6775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5">
+    <row r="67" ht="16.5" spans="1:9">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6256,7 +6801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5">
+    <row r="68" ht="16.5" spans="1:9">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6282,7 +6827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5">
+    <row r="69" ht="16.5" spans="1:9">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6308,7 +6853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5">
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6334,7 +6879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5">
+    <row r="71" ht="16.5" spans="1:9">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6360,7 +6905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5">
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6386,7 +6931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5">
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6412,7 +6957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6438,7 +6983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
+    <row r="75" ht="16.5" spans="1:9">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6464,7 +7009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -6490,7 +7035,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6516,7 +7061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5">
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6542,7 +7087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5">
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6568,7 +7113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5">
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6594,7 +7139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5">
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6620,7 +7165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5">
+    <row r="82" ht="16.5" spans="1:9">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6646,7 +7191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5">
+    <row r="83" ht="16.5" spans="1:9">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6672,7 +7217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5">
+    <row r="84" ht="16.5" spans="1:9">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -6698,7 +7243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5">
+    <row r="85" ht="16.5" spans="1:9">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -6724,7 +7269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5">
+    <row r="86" ht="16.5" spans="1:9">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -6750,7 +7295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5">
+    <row r="87" ht="16.5" spans="1:9">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -6776,7 +7321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5">
+    <row r="88" ht="16.5" spans="1:9">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -6802,7 +7347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5">
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -6828,7 +7373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5">
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -6854,7 +7399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5">
+    <row r="91" ht="16.5" spans="1:9">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -6880,7 +7425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5">
+    <row r="92" ht="16.5" spans="1:9">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -6906,7 +7451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -6932,7 +7477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5">
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -6958,7 +7503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5">
+    <row r="95" ht="16.5" spans="1:9">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -6984,7 +7529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5">
+    <row r="96" ht="16.5" spans="1:9">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7010,7 +7555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7036,7 +7581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5">
+    <row r="98" ht="16.5" spans="1:9">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7062,7 +7607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5">
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7088,7 +7633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7114,7 +7659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
+    <row r="101" ht="16.5" spans="1:9">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7140,7 +7685,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
+    <row r="102" ht="16.5" spans="1:9">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7166,7 +7711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" ht="16.5" spans="1:9">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7192,7 +7737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5">
+    <row r="104" ht="16.5" spans="1:9">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7218,7 +7763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5">
+    <row r="105" ht="16.5" spans="1:9">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7244,7 +7789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7270,7 +7815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7296,7 +7841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5">
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7322,7 +7867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5">
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7348,7 +7893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5">
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7374,7 +7919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7400,7 +7945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5">
+    <row r="112" ht="16.5" spans="1:9">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7426,7 +7971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5">
+    <row r="113" ht="16.5" spans="1:9">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7452,7 +7997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5">
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -7478,7 +8023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5">
+    <row r="115" ht="16.5" spans="1:9">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -7504,7 +8049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5">
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -7530,7 +8075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5">
+    <row r="117" ht="16.5" spans="1:9">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -7556,7 +8101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5">
+    <row r="118" ht="16.5" spans="1:9">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -7582,7 +8127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -7608,7 +8153,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5">
+    <row r="120" ht="16.5" spans="1:9">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -7634,7 +8179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5">
+    <row r="121" ht="16.5" spans="1:9">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -7660,7 +8205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5">
+    <row r="122" ht="16.5" spans="1:9">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -7686,7 +8231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5">
+    <row r="123" ht="16.5" spans="1:9">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -7712,7 +8257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5">
+    <row r="124" ht="16.5" spans="1:9">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -7738,7 +8283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5">
+    <row r="125" ht="16.5" spans="1:9">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -7764,7 +8309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5">
+    <row r="126" ht="16.5" spans="1:9">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -7790,7 +8335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5">
+    <row r="127" ht="16.5" spans="1:9">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -7816,7 +8361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5">
+    <row r="128" ht="16.5" spans="1:9">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -7842,7 +8387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5">
+    <row r="129" ht="16.5" spans="1:9">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -7868,7 +8413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5">
+    <row r="130" ht="16.5" spans="1:9">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -7894,7 +8439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5">
+    <row r="131" ht="16.5" spans="1:9">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -7920,7 +8465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5">
+    <row r="132" ht="16.5" spans="1:9">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -7946,7 +8491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5">
+    <row r="133" ht="16.5" spans="1:9">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -7972,7 +8517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5">
+    <row r="134" ht="16.5" spans="1:9">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -7998,7 +8543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5">
+    <row r="135" ht="16.5" spans="1:9">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8024,7 +8569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5">
+    <row r="136" ht="16.5" spans="1:9">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8050,7 +8595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5">
+    <row r="137" ht="16.5" spans="1:9">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8076,7 +8621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5">
+    <row r="138" ht="16.5" spans="1:9">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8102,7 +8647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5">
+    <row r="139" ht="16.5" spans="1:9">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8128,7 +8673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5">
+    <row r="140" ht="16.5" spans="1:9">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8154,7 +8699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5">
+    <row r="141" ht="16.5" spans="1:9">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8180,7 +8725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5">
+    <row r="142" ht="16.5" spans="1:9">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8206,7 +8751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5">
+    <row r="143" ht="16.5" spans="1:9">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8232,7 +8777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5">
+    <row r="144" ht="16.5" spans="1:9">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8258,7 +8803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5">
+    <row r="145" ht="16.5" spans="1:9">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8284,7 +8829,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" ht="16.5" spans="1:9">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8310,7 +8855,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5">
+    <row r="147" ht="16.5" spans="1:9">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8336,7 +8881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5">
+    <row r="148" ht="16.5" spans="1:9">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8362,7 +8907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5">
+    <row r="149" ht="16.5" spans="1:9">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8388,7 +8933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5">
+    <row r="150" ht="16.5" spans="1:9">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8414,7 +8959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5">
+    <row r="151" ht="16.5" spans="1:9">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8440,7 +8985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5">
+    <row r="152" ht="16.5" spans="1:9">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8466,7 +9011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5">
+    <row r="153" ht="16.5" spans="1:9">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -8492,7 +9037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5">
+    <row r="154" ht="16.5" spans="1:9">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -8518,7 +9063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5">
+    <row r="155" ht="16.5" spans="1:9">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -8544,7 +9089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5">
+    <row r="156" ht="16.5" spans="1:9">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -8570,7 +9115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5">
+    <row r="157" ht="16.5" spans="1:9">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -8596,7 +9141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5">
+    <row r="158" ht="16.5" spans="1:9">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -8622,7 +9167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5">
+    <row r="159" ht="16.5" spans="1:9">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -8648,7 +9193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5">
+    <row r="160" ht="16.5" spans="1:9">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -8674,7 +9219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5">
+    <row r="161" ht="16.5" spans="1:9">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -8700,7 +9245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5">
+    <row r="162" ht="16.5" spans="1:9">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -8726,7 +9271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5">
+    <row r="163" ht="16.5" spans="1:9">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -8752,7 +9297,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5">
+    <row r="164" ht="16.5" spans="1:9">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -8778,7 +9323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5">
+    <row r="165" ht="16.5" spans="1:9">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -8804,7 +9349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5">
+    <row r="166" ht="16.5" spans="1:9">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -8830,7 +9375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5">
+    <row r="167" ht="16.5" spans="1:9">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -8856,7 +9401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5">
+    <row r="168" ht="16.5" spans="1:9">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -8882,7 +9427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
+    <row r="169" ht="16.5" spans="1:9">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -8906,7 +9451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5">
+    <row r="170" ht="16.5" spans="1:9">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -8930,7 +9475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5">
+    <row r="171" ht="16.5" spans="1:9">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -8954,7 +9499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5">
+    <row r="172" ht="16.5" spans="1:9">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -8978,7 +9523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5">
+    <row r="173" ht="16.5" spans="1:9">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9004,7 +9549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5">
+    <row r="174" ht="16.5" spans="1:9">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9028,7 +9573,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5">
+    <row r="175" ht="16.5" spans="1:9">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9052,7 +9597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5">
+    <row r="176" ht="16.5" spans="1:9">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9076,7 +9621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5">
+    <row r="177" ht="16.5" spans="1:9">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9102,7 +9647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5">
+    <row r="178" ht="16.5" spans="1:9">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9128,7 +9673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5">
+    <row r="179" ht="16.5" spans="1:9">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9152,7 +9697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9176,7 +9721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9200,7 +9745,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9224,7 +9769,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5">
+    <row r="183" ht="16.5" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9247,7 +9792,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5">
+    <row r="184" ht="16.5" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9270,7 +9815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5">
+    <row r="185" ht="16.5" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9293,7 +9838,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5">
+    <row r="186" ht="16.5" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9316,7 +9861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5">
+    <row r="187" ht="16.5" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9339,7 +9884,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5">
+    <row r="188" ht="16.5" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9362,7 +9907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5">
+    <row r="189" ht="16.5" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9385,7 +9930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5">
+    <row r="190" ht="16.5" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9408,7 +9953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5">
+    <row r="191" ht="16.5" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9431,7 +9976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5">
+    <row r="192" ht="16.5" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9454,7 +9999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5">
+    <row r="193" ht="16.5" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -9477,7 +10022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5">
+    <row r="194" ht="16.5" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -9500,7 +10045,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5">
+    <row r="195" ht="16.5" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -9523,7 +10068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5">
+    <row r="196" ht="16.5" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -9546,7 +10091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5">
+    <row r="197" ht="16.5" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -9569,7 +10114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5">
+    <row r="198" ht="16.5" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -9592,7 +10137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5">
+    <row r="199" ht="16.5" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -9615,7 +10160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5">
+    <row r="200" ht="16.5" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -9638,7 +10183,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5">
+    <row r="201" ht="16.5" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -9661,7 +10206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5">
+    <row r="202" ht="16.5" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -9684,7 +10229,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5">
+    <row r="203" ht="16.5" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -9707,7 +10252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5">
+    <row r="204" ht="16.5" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -9733,7 +10278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5">
+    <row r="205" ht="16.5" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -9759,7 +10304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5">
+    <row r="206" ht="16.5" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -9785,7 +10330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5">
+    <row r="207" ht="16.5" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -9808,7 +10353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5">
+    <row r="208" ht="16.5" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -9831,7 +10376,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5">
+    <row r="209" ht="16.5" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -9854,7 +10399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5">
+    <row r="210" ht="16.5" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -9877,7 +10422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5">
+    <row r="211" ht="16.5" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -9900,7 +10445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5">
+    <row r="212" ht="16.5" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -9923,7 +10468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5">
+    <row r="213" ht="16.5" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -9946,7 +10491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5">
+    <row r="214" ht="16.5" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -9969,7 +10514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5">
+    <row r="215" ht="16.5" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -9992,7 +10537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5">
+    <row r="216" ht="16.5" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10015,7 +10560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5">
+    <row r="217" ht="16.5" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10038,7 +10583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5">
+    <row r="218" ht="16.5" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10061,7 +10606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5">
+    <row r="219" ht="16.5" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10084,7 +10629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5">
+    <row r="220" ht="16.5" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10107,7 +10652,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5">
+    <row r="221" ht="16.5" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10130,7 +10675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5">
+    <row r="222" ht="16.5" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10153,7 +10698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5">
+    <row r="223" ht="16.5" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10176,7 +10721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5">
+    <row r="224" ht="16.5" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10199,7 +10744,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5">
+    <row r="225" ht="16.5" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10222,7 +10767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5">
+    <row r="226" ht="16.5" spans="1:7">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10245,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5">
+    <row r="227" ht="16.5" spans="1:7">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10268,7 +10813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5">
+    <row r="228" ht="16.5" spans="1:7">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10291,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5">
+    <row r="229" ht="16.5" spans="1:7">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10314,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5">
+    <row r="230" ht="16.5" spans="1:7">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10337,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5">
+    <row r="231" ht="16.5" spans="1:7">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10360,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5">
+    <row r="232" ht="16.5" spans="1:7">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10383,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5">
+    <row r="233" ht="16.5" spans="1:7">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10406,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5">
+    <row r="234" ht="16.5" spans="1:7">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10429,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5">
+    <row r="235" ht="16.5" spans="1:9">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10455,7 +11000,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5">
+    <row r="236" ht="16.5" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -10481,7 +11026,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5">
+    <row r="237" ht="16.5" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -10507,7 +11052,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5">
+    <row r="238" ht="16.5" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -10533,7 +11078,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5">
+    <row r="239" ht="16.5" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -10559,7 +11104,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5">
+    <row r="240" ht="16.5" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -10585,7 +11130,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5">
+    <row r="241" ht="16.5" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -10611,7 +11156,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5">
+    <row r="242" ht="16.5" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -10637,7 +11182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5">
+    <row r="243" ht="16.5" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -10663,7 +11208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5">
+    <row r="244" ht="16.5" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -10689,7 +11234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5">
+    <row r="245" ht="16.5" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -10715,7 +11260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5">
+    <row r="246" ht="16.5" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -10741,7 +11286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5">
+    <row r="247" ht="16.5" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -10767,7 +11312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5">
+    <row r="248" ht="16.5" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -10793,7 +11338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5">
+    <row r="249" ht="16.5" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -10819,7 +11364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5">
+    <row r="250" ht="16.5" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -10845,7 +11390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5">
+    <row r="251" ht="16.5" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -10871,7 +11416,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5">
+    <row r="252" ht="16.5" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -10897,7 +11442,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5">
+    <row r="253" ht="16.5" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -10924,7 +11469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5">
+    <row r="254" ht="16.5" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -10950,7 +11495,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5">
+    <row r="255" ht="16.5" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -10976,7 +11521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11003,7 +11548,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11029,7 +11574,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11055,7 +11600,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11081,7 +11626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11107,7 +11652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5">
+    <row r="261" ht="16.5" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11133,7 +11678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5">
+    <row r="262" ht="16.5" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11159,7 +11704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11185,7 +11730,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11211,7 +11756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11237,7 +11782,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11263,7 +11808,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11289,7 +11834,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11315,7 +11860,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11341,7 +11886,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11367,7 +11912,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11393,7 +11938,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11419,7 +11964,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11445,7 +11990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -11471,7 +12016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -11497,7 +12042,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11520,7 +12065,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -11546,7 +12091,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5">
+    <row r="278" ht="16.5" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -11572,7 +12117,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5">
+    <row r="279" ht="16.5" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -11595,7 +12140,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5">
+    <row r="280" ht="16.5" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -11621,7 +12166,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5">
+    <row r="281" ht="16.5" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -11647,7 +12192,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5">
+    <row r="282" ht="16.5" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -11673,7 +12218,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5">
+    <row r="283" ht="16.5" spans="1:9">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -11699,7 +12244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -11725,7 +12270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -11751,7 +12296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -11777,7 +12322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
+    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -11803,7 +12348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11829,7 +12374,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:36" ht="16.5">
+    <row r="289" ht="16.5" spans="1:9">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -11855,7 +12400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -11881,7 +12426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -11907,7 +12452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
+    <row r="292" ht="16.5" spans="1:9">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -11933,7 +12478,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5">
+    <row r="293" ht="16.5" spans="1:9">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -11959,7 +12504,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5">
+    <row r="294" ht="16.5" spans="1:9">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -11986,7 +12531,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12040,7 +12585,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12094,7 +12639,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12148,7 +12693,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" spans="1:36" ht="16.5">
+    <row r="298" ht="16.5" spans="1:36">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12202,7 +12747,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
+    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12256,7 +12801,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" ht="16.5" spans="1:9">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12283,7 +12828,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
+    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12310,7 +12855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:36" ht="16.5">
+    <row r="302" ht="16.5" spans="1:9">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12337,7 +12882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="16.5">
+    <row r="303" ht="16.5" spans="1:9">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12364,7 +12909,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5">
+    <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12391,7 +12936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12405,19 +12950,19 @@
         <v>888</v>
       </c>
       <c r="E305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" s="31" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12443,7 +12988,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" ht="16.5" spans="1:7">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -12466,7 +13011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12492,7 +13037,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -12518,7 +13063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12544,7 +13089,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -12570,7 +13115,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -12581,19 +13126,19 @@
         <v>911</v>
       </c>
       <c r="E312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -12616,7 +13161,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -12636,18 +13181,18 @@
         <v>0</v>
       </c>
       <c r="I314" s="36" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
       <c r="B315" s="47" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E315" s="6">
         <v>1</v>
@@ -12662,15 +13207,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A316" s="15">
         <v>315</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C316" s="36" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E316" s="6">
         <v>1</v>
@@ -12685,18 +13230,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A317" s="15">
         <v>316</v>
       </c>
       <c r="B317" s="46" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C317" s="36" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -12707,19 +13252,19 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
+      <c r="I317" s="36" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
       <c r="B318" s="49" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D318" s="32"/>
       <c r="E318" s="5">
@@ -12732,21 +13277,21 @@
         <v>0</v>
       </c>
       <c r="I318" s="31" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A319" s="15">
         <v>318</v>
       </c>
       <c r="B319" s="32" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D319" s="32" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E319" s="5">
         <v>0</v>
@@ -12758,44 +13303,44 @@
         <v>0</v>
       </c>
       <c r="I319" s="31" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A320" s="15">
         <v>319</v>
       </c>
       <c r="B320" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+      <c r="F320" s="5">
+        <v>0</v>
+      </c>
+      <c r="G320" s="5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="31" t="s">
         <v>931</v>
       </c>
-      <c r="C320" s="31" t="s">
-        <v>932</v>
-      </c>
-      <c r="E320" s="5">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
-        <v>0</v>
-      </c>
-      <c r="G320" s="5">
-        <v>0</v>
-      </c>
-      <c r="I320" s="31" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
+    </row>
+    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A321" s="15">
         <v>320</v>
       </c>
       <c r="B321" s="32" t="s">
-        <v>933</v>
-      </c>
-      <c r="C321" s="51" t="s">
         <v>934</v>
       </c>
+      <c r="C321" s="50" t="s">
+        <v>935</v>
+      </c>
       <c r="D321" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -12807,24 +13352,24 @@
         <v>0</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A322" s="15">
         <v>321</v>
       </c>
       <c r="B322" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -12836,21 +13381,21 @@
         <v>0</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
       <c r="B323" s="32" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D323" s="32" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -12865,18 +13410,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" ht="16.5" spans="1:9">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="52" t="s">
-        <v>943</v>
+      <c r="B324" s="51" t="s">
+        <v>944</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D324" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -12891,18 +13436,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" ht="16.5" spans="1:9">
       <c r="A325" s="15">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C325" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D325" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -12917,18 +13462,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" ht="16.5" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
       <c r="B326" s="32" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C326" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D326" s="32" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -12943,18 +13488,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
+    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A327" s="15">
         <v>326</v>
       </c>
       <c r="B327" s="40" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D327" s="40" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -12969,37 +13514,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" ht="16.5" spans="1:9">
       <c r="A328" s="15">
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328">
-        <v>0</v>
-      </c>
-      <c r="I328" s="18" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" ht="16.5">
+        <v>1</v>
+      </c>
+      <c r="I328" s="36" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="329" ht="16.5" spans="1:9">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="52" t="s">
+      <c r="B329" s="51" t="s">
         <v>959</v>
       </c>
       <c r="C329" s="31" t="s">
@@ -13021,11 +13566,11 @@
         <v>961</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="52" t="s">
+      <c r="B330" s="51" t="s">
         <v>962</v>
       </c>
       <c r="C330" s="31" t="s">
@@ -13044,11 +13589,11 @@
         <v>964</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="16.5">
+    <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="52" t="s">
+      <c r="B331" s="51" t="s">
         <v>965</v>
       </c>
       <c r="C331" s="31" t="s">
@@ -13070,17 +13615,17 @@
         <v>968</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="16.5">
+    <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="53" t="s">
+      <c r="B332" s="52" t="s">
         <v>969</v>
       </c>
       <c r="C332" t="s">
         <v>970</v>
       </c>
-      <c r="D332" s="54" t="s">
+      <c r="D332" s="53" t="s">
         <v>971</v>
       </c>
       <c r="E332">
@@ -13092,15 +13637,15 @@
       <c r="G332">
         <v>1</v>
       </c>
-      <c r="I332" s="56" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="16.5">
+      <c r="I332" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="52" t="s">
+      <c r="B333" s="51" t="s">
         <v>973</v>
       </c>
       <c r="C333" t="s">
@@ -13116,89 +13661,92 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="16.5">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="334" ht="16.5" spans="1:7">
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="52" t="s">
-        <v>975</v>
-      </c>
-      <c r="C334" s="55" t="s">
+      <c r="B334" s="51" t="s">
         <v>976</v>
       </c>
+      <c r="C334" s="54" t="s">
+        <v>977</v>
+      </c>
       <c r="D334" s="18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" spans="1:9">
       <c r="A335" s="5">
         <v>334</v>
       </c>
-      <c r="B335" s="53" t="s">
-        <v>978</v>
+      <c r="B335" s="52" t="s">
+        <v>979</v>
       </c>
       <c r="C335" t="s">
-        <v>979</v>
-      </c>
-      <c r="D335" s="53" t="s">
         <v>980</v>
       </c>
+      <c r="D335" s="52" t="s">
+        <v>981</v>
+      </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <autoFilter ref="A1:H335">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="985">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -484,6 +489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +513,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -515,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -524,7 +532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,6 +541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -542,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -551,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -560,7 +570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -788,6 +803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -805,6 +821,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -867,6 +884,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -884,6 +902,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1153,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,6 +1183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,6 +1291,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1278,7 +1301,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1287,6 +1310,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1313,6 +1337,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1330,6 +1355,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,6 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1364,6 +1391,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1373,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1382,6 +1410,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,6 +1431,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1411,7 +1441,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1420,6 +1450,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1437,6 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1446,7 +1478,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1455,6 +1487,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1464,7 +1497,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1481,6 +1514,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1490,7 +1524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1499,6 +1533,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1516,6 +1551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1525,7 +1561,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1534,6 +1570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1551,6 +1588,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1560,7 +1598,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1569,6 +1607,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1586,6 +1625,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1603,6 +1643,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1620,6 +1661,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1637,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1654,6 +1697,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1663,7 +1707,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1672,6 +1716,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1689,6 +1734,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1698,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1707,6 +1753,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1724,6 +1771,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1733,7 +1781,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1742,6 +1790,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1759,6 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1768,7 +1818,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1777,6 +1827,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1794,6 +1845,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1803,7 +1855,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1812,6 +1864,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1829,6 +1882,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1838,7 +1892,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1847,6 +1901,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1864,6 +1919,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1873,7 +1929,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1882,6 +1938,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1908,6 +1965,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1925,6 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1942,6 +2001,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1959,6 +2019,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1976,6 +2037,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2002,7 +2064,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2011,6 +2073,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2028,7 +2091,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2037,6 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2063,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2089,6 +2154,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2106,6 +2172,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2798,6 +2865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3453,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,6 +3533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3493,6 +3564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3503,6 +3575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3524,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3534,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3541,37 +3616,37 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_015_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（消耗）</t>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
-    <t>3月29日23:59:59</t>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
   </si>
   <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_016</t>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3636,6 +3711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3646,6 +3722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3701,12 +3778,36 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>祈福好礼</t>
+    <t>龙腾祈福</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年4月12日 23:59:59</t>
+    </r>
+  </si>
+  <si>
     <t>act_ty_gifts</t>
   </si>
   <si>
@@ -3716,10 +3817,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
-    <t>龙腾礼包</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3728,13 +3829,13 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>爱消福利</t>
+    <t>消除福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年5月24日 23:59:59</t>
+    <t>2021年5月30日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3790,14 +3891,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3808,6 +3903,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3815,36 +3911,39 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3856,30 +3955,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3887,153 +3988,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4042,13 +4023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="4" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4072,13 +4053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4090,192 +4071,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4298,255 +4105,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4585,13 +4150,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4715,63 +4280,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5029,20 +4550,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C312" sqref="C312"/>
+      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5058,7 +4578,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5087,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5113,7 +4633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5139,7 +4659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5165,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5191,7 +4711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5217,7 +4737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5243,7 +4763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5269,7 +4789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5295,7 +4815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5321,7 +4841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5347,7 +4867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5373,7 +4893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5399,7 +4919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5425,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5451,7 +4971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5477,7 +4997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5503,7 +5023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5529,7 +5049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5555,7 +5075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5581,7 +5101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5607,7 +5127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5633,7 +5153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5659,7 +5179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5685,7 +5205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5711,7 +5231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5737,7 +5257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5763,7 +5283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5789,7 +5309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5815,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5841,7 +5361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5867,7 +5387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5893,7 +5413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5919,7 +5439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5945,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5971,7 +5491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5997,7 +5517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6023,7 +5543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6049,7 +5569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6075,7 +5595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6101,7 +5621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6127,7 +5647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6153,7 +5673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6179,7 +5699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6205,7 +5725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6231,7 +5751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6257,7 +5777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6283,7 +5803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6309,7 +5829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6335,7 +5855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6361,7 +5881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6387,7 +5907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6411,7 +5931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6437,7 +5957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6463,7 +5983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6489,7 +6009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6515,7 +6035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6541,7 +6061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6567,7 +6087,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6593,7 +6113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6619,7 +6139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6645,7 +6165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6671,7 +6191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6697,7 +6217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6723,7 +6243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6749,7 +6269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6775,7 +6295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6801,7 +6321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6827,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6853,7 +6373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6879,7 +6399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6905,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6931,7 +6451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6957,7 +6477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6983,7 +6503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7009,7 +6529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7035,7 +6555,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7061,7 +6581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7087,7 +6607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7113,7 +6633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7139,7 +6659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7165,7 +6685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7191,7 +6711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7217,7 +6737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7243,7 +6763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7269,7 +6789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7295,7 +6815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7321,7 +6841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7347,7 +6867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7373,7 +6893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7399,7 +6919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7425,7 +6945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7451,7 +6971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7477,7 +6997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7503,7 +7023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7529,7 +7049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7555,7 +7075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7581,7 +7101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7607,7 +7127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7633,7 +7153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7659,7 +7179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7685,7 +7205,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7711,7 +7231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7737,7 +7257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7763,7 +7283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7789,7 +7309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7815,7 +7335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7841,7 +7361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7867,7 +7387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7893,7 +7413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7919,7 +7439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7945,7 +7465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7971,7 +7491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7997,7 +7517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8023,7 +7543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8049,7 +7569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8075,7 +7595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8101,7 +7621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8127,7 +7647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8153,7 +7673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8179,7 +7699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8205,7 +7725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8231,7 +7751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8257,7 +7777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8283,7 +7803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8309,7 +7829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8335,7 +7855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8361,7 +7881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8387,7 +7907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8413,7 +7933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8439,7 +7959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8465,7 +7985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8491,7 +8011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8517,7 +8037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8543,7 +8063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8569,7 +8089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8595,7 +8115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8621,7 +8141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8647,7 +8167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8673,7 +8193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8699,7 +8219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8725,7 +8245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8751,7 +8271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8777,7 +8297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8803,7 +8323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8829,7 +8349,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8855,7 +8375,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8881,7 +8401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8907,7 +8427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8933,7 +8453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8959,7 +8479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8985,7 +8505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9011,7 +8531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9037,7 +8557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9063,7 +8583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9089,7 +8609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9115,7 +8635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9141,7 +8661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9167,7 +8687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9193,7 +8713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9219,7 +8739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9245,7 +8765,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9271,7 +8791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9297,7 +8817,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9323,7 +8843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9349,7 +8869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9375,7 +8895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9401,7 +8921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9427,7 +8947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9451,7 +8971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9475,7 +8995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9499,7 +9019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9523,7 +9043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9549,7 +9069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9573,7 +9093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9597,7 +9117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9621,7 +9141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9647,7 +9167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9673,7 +9193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9697,7 +9217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9721,7 +9241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9745,7 +9265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9769,7 +9289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9792,7 +9312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9815,7 +9335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9838,7 +9358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9861,7 +9381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9884,7 +9404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9907,7 +9427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9930,7 +9450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9953,7 +9473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9976,7 +9496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9999,7 +9519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10022,7 +9542,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10045,7 +9565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10068,7 +9588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10091,7 +9611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10114,7 +9634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10137,7 +9657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10160,7 +9680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10183,7 +9703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10206,7 +9726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10229,7 +9749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10252,7 +9772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10278,7 +9798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10304,7 +9824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10330,7 +9850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10353,7 +9873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10376,7 +9896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10399,7 +9919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10422,7 +9942,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10445,7 +9965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10468,7 +9988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10491,7 +10011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10514,7 +10034,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10537,7 +10057,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10560,7 +10080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10583,7 +10103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10606,7 +10126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10629,7 +10149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10652,7 +10172,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10675,7 +10195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10698,7 +10218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10721,7 +10241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10744,7 +10264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10767,7 +10287,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10790,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10813,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10836,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10859,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10882,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10905,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10928,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10951,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10974,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11000,7 +10520,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11026,7 +10546,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11052,7 +10572,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11078,7 +10598,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11104,7 +10624,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11130,7 +10650,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11156,7 +10676,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11182,7 +10702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11208,7 +10728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11234,7 +10754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11260,7 +10780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11286,7 +10806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11312,7 +10832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11338,7 +10858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11364,7 +10884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11378,7 +10898,7 @@
         <v>717</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -11390,7 +10910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11416,7 +10936,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11442,7 +10962,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11469,7 +10989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11495,7 +11015,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11509,7 +11029,7 @@
         <v>733</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -11521,7 +11041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11548,7 +11068,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11574,7 +11094,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11600,7 +11120,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11626,7 +11146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11652,7 +11172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11678,7 +11198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11704,7 +11224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11730,7 +11250,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11756,7 +11276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11782,7 +11302,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11808,7 +11328,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11834,7 +11354,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11860,7 +11380,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11886,7 +11406,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11912,7 +11432,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11938,7 +11458,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11964,7 +11484,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11990,7 +11510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12016,7 +11536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12030,19 +11550,19 @@
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="31" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12065,7 +11585,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12091,7 +11611,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12117,7 +11637,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12140,7 +11660,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12166,7 +11686,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12192,7 +11712,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12218,7 +11738,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12244,7 +11764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12270,7 +11790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12296,7 +11816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12322,7 +11842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12348,7 +11868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12362,19 +11882,19 @@
         <v>834</v>
       </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12400,7 +11920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12426,7 +11946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12452,7 +11972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12478,7 +11998,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12504,7 +12024,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12531,7 +12051,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12585,7 +12105,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12639,7 +12159,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12693,7 +12213,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12747,7 +12267,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12801,7 +12321,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12828,7 +12348,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12855,7 +12375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12882,7 +12402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12909,7 +12429,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12936,7 +12456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12962,7 +12482,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12988,7 +12508,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13011,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13037,7 +12557,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13063,7 +12583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13089,7 +12609,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13115,7 +12635,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13138,7 +12658,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13158,18 +12678,18 @@
         <v>0</v>
       </c>
       <c r="I313" s="36" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
       <c r="B314" s="46" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E314" s="6">
         <v>0</v>
@@ -13181,10 +12701,10 @@
         <v>0</v>
       </c>
       <c r="I314" s="36" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13207,7 +12727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13230,7 +12750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13256,7 +12776,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13280,7 +12800,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13306,7 +12826,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13329,7 +12849,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13358,7 +12878,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13384,7 +12904,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13410,7 +12930,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13436,7 +12956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13462,7 +12982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13488,7 +13008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13514,7 +13034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13528,30 +13048,30 @@
         <v>958</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="36" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="329" ht="16.5" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I328" s="18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13563,18 +13083,18 @@
         <v>1</v>
       </c>
       <c r="I329" s="31" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="330" ht="16.5" spans="1:9">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13586,21 +13106,21 @@
         <v>1</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13612,21 +13132,21 @@
         <v>1</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="332" ht="16.5" spans="1:9">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C332" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D332" s="53" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13638,18 +13158,18 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C333" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -13661,21 +13181,21 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="334" ht="16.5" spans="1:7">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13687,18 +13207,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" ht="15.75" spans="1:9">
+    <row r="335" spans="1:9" ht="15.75">
       <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C335" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D335" s="52" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E335" s="5">
         <v>0</v>
@@ -13710,43 +13230,40 @@
         <v>0</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H335"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_6.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="983">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3646,7 +3646,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <t>sys_act_base_style/sys_act_base_weekly_018</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3704,30 +3704,6 @@
   </si>
   <si>
     <t>Act_049_XYHLManager</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
   </si>
   <si>
     <t>act_ty_prize_quiz</t>
@@ -3850,13 +3826,10 @@
     <t>（180天领取）5月10日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <t>act_ty_zp1_style/act_ty_zp1_003</t>
   </si>
   <si>
     <t>通用转盘皮肤</t>
-  </si>
-  <si>
-    <t>5月10日23:59:59</t>
   </si>
   <si>
     <t>act_cjj_by_byam_guide</t>
@@ -4113,7 +4086,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4278,6 +4251,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12892,16 +12868,16 @@
         <v>939</v>
       </c>
       <c r="E322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="5">
-        <v>0</v>
-      </c>
-      <c r="I322" s="31" t="s">
-        <v>940</v>
+        <v>1</v>
+      </c>
+      <c r="I322" s="55">
+        <v>44354</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
@@ -12909,13 +12885,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="C323" s="31" t="s">
         <v>941</v>
       </c>
-      <c r="C323" s="31" t="s">
+      <c r="D323" s="32" t="s">
         <v>942</v>
-      </c>
-      <c r="D323" s="32" t="s">
-        <v>943</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -12935,13 +12911,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="C324" s="31" t="s">
         <v>944</v>
       </c>
-      <c r="C324" s="31" t="s">
+      <c r="D324" t="s">
         <v>945</v>
-      </c>
-      <c r="D324" t="s">
-        <v>946</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -12961,13 +12937,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>946</v>
+      </c>
+      <c r="C325" t="s">
         <v>947</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>948</v>
-      </c>
-      <c r="D325" t="s">
-        <v>949</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -12987,13 +12963,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="32" t="s">
+        <v>949</v>
+      </c>
+      <c r="C326" t="s">
         <v>950</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="32" t="s">
         <v>951</v>
-      </c>
-      <c r="D326" s="32" t="s">
-        <v>952</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13013,13 +12989,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="C327" s="41" t="s">
         <v>953</v>
       </c>
-      <c r="C327" s="41" t="s">
+      <c r="D327" s="40" t="s">
         <v>954</v>
-      </c>
-      <c r="D327" s="40" t="s">
-        <v>955</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -13039,25 +13015,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C328" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="D328" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="D328" s="18" t="s">
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="I328" s="18" t="s">
         <v>958</v>
-      </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
-      <c r="F328">
-        <v>0</v>
-      </c>
-      <c r="G328">
-        <v>0</v>
-      </c>
-      <c r="I328" s="18" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13065,25 +13041,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
+        <v>960</v>
+      </c>
+      <c r="E329" s="5">
+        <v>1</v>
+      </c>
+      <c r="F329" s="5">
+        <v>1</v>
+      </c>
+      <c r="G329" s="5">
+        <v>1</v>
+      </c>
+      <c r="I329" s="31" t="s">
         <v>961</v>
-      </c>
-      <c r="E329" s="5">
-        <v>1</v>
-      </c>
-      <c r="F329" s="5">
-        <v>1</v>
-      </c>
-      <c r="G329" s="5">
-        <v>1</v>
-      </c>
-      <c r="I329" s="31" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13091,22 +13067,22 @@
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
+        <v>962</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>963</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>964</v>
-      </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
@@ -13114,25 +13090,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="31" t="s">
         <v>968</v>
-      </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
@@ -13140,25 +13116,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
+        <v>969</v>
+      </c>
+      <c r="C332" t="s">
         <v>970</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="53" t="s">
         <v>971</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>972</v>
-      </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="16.5">
@@ -13166,22 +13142,22 @@
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
         <v>974</v>
       </c>
-      <c r="C333" t="s">
-        <v>975</v>
-      </c>
       <c r="E333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333">
-        <v>0</v>
-      </c>
-      <c r="I333" t="s">
-        <v>976</v>
+        <v>1</v>
+      </c>
+      <c r="I333" s="55">
+        <v>44354</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="16.5">
@@ -13189,13 +13165,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="54" t="s">
+        <v>976</v>
+      </c>
+      <c r="D334" s="18" t="s">
         <v>977</v>
-      </c>
-      <c r="C334" s="54" t="s">
-        <v>978</v>
-      </c>
-      <c r="D334" s="18" t="s">
-        <v>979</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13212,25 +13188,25 @@
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
+        <v>978</v>
+      </c>
+      <c r="C335" t="s">
+        <v>979</v>
+      </c>
+      <c r="D335" s="52" t="s">
         <v>980</v>
       </c>
-      <c r="C335" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>981</v>
-      </c>
-      <c r="D335" s="52" t="s">
-        <v>982</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -13257,7 +13233,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_Release/game_module_config_cjj.xlsx
+++ b/config_Release/game_module_config_cjj.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_6.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$336</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="989">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -489,7 +484,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +494,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -522,7 +515,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -532,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -541,7 +533,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -551,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -570,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -629,7 +619,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +629,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +677,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -785,7 +771,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -803,7 +788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -821,7 +805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -884,7 +867,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -902,7 +884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1172,7 +1153,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1163,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1173,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1269,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1301,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1310,7 +1287,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1337,7 +1313,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1355,7 +1330,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1373,7 +1347,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1391,7 +1364,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1401,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1410,7 +1382,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1431,7 +1402,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1441,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1450,7 +1420,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1468,7 +1437,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1478,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1487,7 +1455,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1497,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1514,7 +1481,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1524,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1533,7 +1499,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1551,7 +1516,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1561,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1570,7 +1534,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1588,7 +1551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1598,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1607,7 +1569,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1625,7 +1586,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1643,7 +1603,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1661,7 +1620,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1679,7 +1637,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1697,7 +1654,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1707,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1716,7 +1672,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1734,7 +1689,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,7 +1707,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1771,7 +1724,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1781,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1790,7 +1742,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1808,7 +1759,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1818,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1827,7 +1777,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1845,7 +1794,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1855,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1864,7 +1812,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1882,7 +1829,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1892,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1901,7 +1847,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1919,7 +1864,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1929,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1938,7 +1882,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1965,7 +1908,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1983,7 +1925,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -2001,7 +1942,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -2019,7 +1959,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2037,7 +1976,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2064,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2073,7 +2011,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2091,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2100,7 +2037,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2127,7 +2063,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2154,7 +2089,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2172,7 +2106,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2865,7 +2798,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2876,7 +2808,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3322,7 +3253,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>端午福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3522,7 +3453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3575,7 +3503,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3597,7 +3524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3608,7 +3534,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3646,7 +3571,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_018</t>
+    <t>sys_act_base_style/sys_act_base_weekly_019</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3754,36 +3679,12 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福有礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021年4月12日 23:59:59</t>
-    </r>
-  </si>
-  <si>
     <t>act_ty_gifts</t>
   </si>
   <si>
@@ -3851,6 +3752,27 @@
   </si>
   <si>
     <t>2021年5月17日 23:59:59</t>
+  </si>
+  <si>
+    <t>act_cjdb</t>
+  </si>
+  <si>
+    <t>超级夺宝</t>
+  </si>
+  <si>
+    <t>ACTCJDBManager</t>
+  </si>
+  <si>
+    <t>act_042_xshb</t>
+  </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>Act_042_XSHBManager</t>
+  </si>
+  <si>
+    <t>长期</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3864,8 +3786,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3876,7 +3804,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3884,39 +3811,36 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3928,66 +3852,184 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3996,13 +4038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39982299264503923"/>
+        <fgColor theme="4" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4026,13 +4068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor theme="4" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,18 +4086,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39982299264503923"/>
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4078,15 +4294,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf 